--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ty/ruby/reki-work/operation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A4D432-6808-7D41-A318-97021A705087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3B4DF-D938-4793-8A75-B0E817DD2C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="500" windowWidth="32020" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="18525" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月" sheetId="3" r:id="rId1"/>
@@ -2771,23 +2771,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>関連内容ID</t>
-    <rPh sb="0" eb="2">
-      <t>カンレn</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>親ID</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">オヤ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>162-1-a</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2818,6 +2801,26 @@
     <t>連番</t>
     <rPh sb="0" eb="2">
       <t>レンバn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関連注釈ID</t>
+    <rPh sb="0" eb="2">
+      <t>カンレn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウシャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>親注釈ID</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">オヤ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>チュウシャク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4246,36 +4249,36 @@
   <dimension ref="A1:AG202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Y194" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG202" sqref="AG202"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.59765625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="25" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.296875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="25" customWidth="1"/>
     <col min="5" max="5" width="6" style="15" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="3.09765625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" style="15" customWidth="1"/>
     <col min="8" max="8" width="17" style="15" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="15" customWidth="1"/>
-    <col min="11" max="14" width="9.85546875" style="15" customWidth="1"/>
-    <col min="15" max="18" width="7.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="39.3984375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" style="15" customWidth="1"/>
+    <col min="11" max="14" width="9.8984375" style="15" customWidth="1"/>
+    <col min="15" max="18" width="7.8984375" style="15" customWidth="1"/>
     <col min="19" max="19" width="8" style="15" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="15" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="15" customWidth="1"/>
-    <col min="23" max="24" width="7.85546875" style="15" customWidth="1"/>
-    <col min="25" max="26" width="13.85546875" style="15" customWidth="1"/>
-    <col min="27" max="28" width="13.85546875" style="25" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="25" customWidth="1"/>
-    <col min="30" max="33" width="10.42578125" style="25" customWidth="1"/>
-    <col min="34" max="34" width="19.5703125" style="15" customWidth="1"/>
-    <col min="35" max="16384" width="19.5703125" style="15"/>
+    <col min="20" max="20" width="7.8984375" style="15" customWidth="1"/>
+    <col min="21" max="21" width="12.09765625" style="15" customWidth="1"/>
+    <col min="22" max="22" width="13.8984375" style="15" customWidth="1"/>
+    <col min="23" max="24" width="7.8984375" style="15" customWidth="1"/>
+    <col min="25" max="26" width="13.8984375" style="15" customWidth="1"/>
+    <col min="27" max="28" width="13.8984375" style="25" customWidth="1"/>
+    <col min="29" max="29" width="10.59765625" style="25" customWidth="1"/>
+    <col min="30" max="33" width="10.3984375" style="25" customWidth="1"/>
+    <col min="34" max="34" width="19.59765625" style="15" customWidth="1"/>
+    <col min="35" max="16384" width="19.59765625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="48.5" customHeight="1">
@@ -4283,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4903,7 +4906,7 @@
     </row>
     <row r="7" spans="2:33" ht="33.25" customHeight="1">
       <c r="B7" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -11419,7 +11422,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E69" s="10">
         <v>215</v>
@@ -11839,7 +11842,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E73" s="10">
         <v>222</v>
@@ -13414,7 +13417,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E88" s="10">
         <v>253</v>
@@ -14044,7 +14047,7 @@
         <v>21</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E94" s="10">
         <v>260</v>
@@ -25506,16 +25509,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.59765625" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="18" customWidth="1"/>
     <col min="2" max="2" width="8" style="18" customWidth="1"/>
     <col min="3" max="3" width="6" style="18" customWidth="1"/>
-    <col min="4" max="5" width="5.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="79.28515625" style="18" customWidth="1"/>
-    <col min="8" max="10" width="19.5703125" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="19.5703125" style="18"/>
+    <col min="4" max="5" width="5.8984375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="79.296875" style="18" customWidth="1"/>
+    <col min="8" max="10" width="19.59765625" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="19.59765625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" customHeight="1">
@@ -25678,18 +25681,18 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.59765625" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="19.5703125" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="19.5703125" style="25"/>
+    <col min="1" max="3" width="19.59765625" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="19.59765625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.5" customHeight="1">

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3B4DF-D938-4793-8A75-B0E817DD2C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA11DDA2-B0B4-4BFD-AAA3-0E5777E490C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="18525" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="18780" windowWidth="28800" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月" sheetId="3" r:id="rId1"/>
@@ -4252,7 +4252,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.59765625" defaultRowHeight="20" customHeight="1"/>
@@ -4386,8 +4386,8 @@
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="4">
         <v>156</v>
@@ -26178,7 +26178,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ty/ruby/zakuro/doc/operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8928132E-1D6E-C241-8B2B-ACECB5AFBEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9B769-B9EB-FF4D-85DB-632387421B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="500" windowWidth="31940" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5720" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="1189">
   <si>
     <t>ID</t>
   </si>
@@ -2995,6 +2995,942 @@
     <rPh sb="0" eb="1">
       <t>ウルウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>98-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>106-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>108-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>108-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>109-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>109-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>109-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>109-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>110-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>110-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>110-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>111-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>111-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>113-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>114-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>115-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>117-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>117-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>117-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>118-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>118-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-2-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>119-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>120-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>121-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>122-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>128-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>130-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>148-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>149-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>145-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>143-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>141-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>140-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>139-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>136-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>133-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>132-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-1-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>122-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>136-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>139-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>143-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>145-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>148-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>149-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-1-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>121-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>122-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>128-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>130-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>132-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>139-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>140-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>141-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>145-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>148-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-2-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>121-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>130-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>139-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>140-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>141-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>148-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-3-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>130-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>139-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>140-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>141-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-4-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>141-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-5-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-6-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-7-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>130-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>139-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>140-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>148-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-3-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>128-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>141-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>144-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>145-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>148-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-2-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>126-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>129-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>130-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>137-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>142-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>146-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>151-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-4-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-6-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>138-6-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-6-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123-7-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>152-5-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150-5-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>147-5-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>134-5-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>127-5-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>124-6-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>125-5-a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>131-5-a</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3355,7 +4291,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3516,6 +4452,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4678,16 +5617,17 @@
   <dimension ref="A1:AG445"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H233" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F235" sqref="F235"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="20" customWidth="1"/>
-    <col min="2" max="3" width="10.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="20" customWidth="1"/>
     <col min="5" max="5" width="6" style="11" customWidth="1"/>
     <col min="6" max="6" width="3.140625" style="11" customWidth="1"/>
@@ -4809,9 +5749,15 @@
       </c>
     </row>
     <row r="2" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="24" t="s">
+        <v>955</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>913</v>
+      </c>
       <c r="E2" s="25">
         <v>98</v>
       </c>
@@ -4851,9 +5797,15 @@
       <c r="AG2" s="28"/>
     </row>
     <row r="3" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>956</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>913</v>
+      </c>
       <c r="E3" s="44">
         <v>100</v>
       </c>
@@ -4993,9 +5945,15 @@
       <c r="AG5" s="34"/>
     </row>
     <row r="6" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E6" s="30">
         <v>106</v>
       </c>
@@ -5135,9 +6093,15 @@
       <c r="AG8" s="34"/>
     </row>
     <row r="9" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>958</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E9" s="30">
         <v>108</v>
       </c>
@@ -5177,9 +6141,15 @@
       <c r="AG9" s="34"/>
     </row>
     <row r="10" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="29" t="s">
+        <v>959</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E10" s="30">
         <v>108</v>
       </c>
@@ -5219,9 +6189,15 @@
       <c r="AG10" s="34"/>
     </row>
     <row r="11" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>962</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>963</v>
+      </c>
       <c r="E11" s="30">
         <v>109</v>
       </c>
@@ -5263,9 +6239,15 @@
       <c r="AG11" s="34"/>
     </row>
     <row r="12" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="43" t="s">
+        <v>963</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E12" s="44">
         <v>109</v>
       </c>
@@ -5307,13 +6289,21 @@
       <c r="AG12" s="47"/>
     </row>
     <row r="13" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>965</v>
+      </c>
       <c r="E13" s="30">
         <v>109</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="G13" s="31"/>
       <c r="H13" s="50" t="s">
         <v>932</v>
@@ -5349,9 +6339,15 @@
       <c r="AG13" s="34"/>
     </row>
     <row r="14" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>965</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E14" s="30">
         <v>109</v>
       </c>
@@ -5393,9 +6389,15 @@
       <c r="AG14" s="34"/>
     </row>
     <row r="15" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="B15" s="29" t="s">
+        <v>966</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E15" s="30">
         <v>110</v>
       </c>
@@ -5435,9 +6437,15 @@
       <c r="AG15" s="34"/>
     </row>
     <row r="16" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E16" s="30">
         <v>110</v>
       </c>
@@ -5477,9 +6485,15 @@
       <c r="AG16" s="34"/>
     </row>
     <row r="17" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>968</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E17" s="30">
         <v>110</v>
       </c>
@@ -5519,9 +6533,15 @@
       <c r="AG17" s="34"/>
     </row>
     <row r="18" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>969</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E18" s="30">
         <v>111</v>
       </c>
@@ -5561,9 +6581,15 @@
       <c r="AG18" s="34"/>
     </row>
     <row r="19" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E19" s="30">
         <v>111</v>
       </c>
@@ -5603,9 +6629,15 @@
       <c r="AG19" s="34"/>
     </row>
     <row r="20" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E20" s="30">
         <v>113</v>
       </c>
@@ -5645,9 +6677,15 @@
       <c r="AG20" s="34"/>
     </row>
     <row r="21" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="29" t="s">
+        <v>972</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E21" s="30">
         <v>114</v>
       </c>
@@ -5687,9 +6725,15 @@
       <c r="AG21" s="34"/>
     </row>
     <row r="22" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="29" t="s">
+        <v>973</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E22" s="30">
         <v>115</v>
       </c>
@@ -5729,9 +6773,15 @@
       <c r="AG22" s="34"/>
     </row>
     <row r="23" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E23" s="30">
         <v>117</v>
       </c>
@@ -5771,13 +6821,21 @@
       <c r="AG23" s="34"/>
     </row>
     <row r="24" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>976</v>
+      </c>
       <c r="E24" s="30">
         <v>117</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="G24" s="31"/>
       <c r="H24" s="50" t="s">
         <v>934</v>
@@ -5813,9 +6871,15 @@
       <c r="AG24" s="34"/>
     </row>
     <row r="25" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E25" s="30">
         <v>117</v>
       </c>
@@ -5857,13 +6921,21 @@
       <c r="AG25" s="34"/>
     </row>
     <row r="26" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>977</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>978</v>
+      </c>
       <c r="E26" s="30">
         <v>118</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="G26" s="31"/>
       <c r="H26" s="50" t="s">
         <v>930</v>
@@ -5899,9 +6971,15 @@
       <c r="AG26" s="34"/>
     </row>
     <row r="27" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="29" t="s">
+        <v>978</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E27" s="30">
         <v>118</v>
       </c>
@@ -5943,9 +7021,15 @@
       <c r="AG27" s="34"/>
     </row>
     <row r="28" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>980</v>
+      </c>
       <c r="E28" s="30">
         <v>119</v>
       </c>
@@ -5987,9 +7071,15 @@
       <c r="AG28" s="34"/>
     </row>
     <row r="29" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="29" t="s">
+        <v>980</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E29" s="30">
         <v>119</v>
       </c>
@@ -6031,9 +7121,15 @@
       <c r="AG29" s="34"/>
     </row>
     <row r="30" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="29" t="s">
+        <v>981</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>982</v>
+      </c>
       <c r="E30" s="30">
         <v>119</v>
       </c>
@@ -6075,9 +7171,15 @@
       <c r="AG30" s="34"/>
     </row>
     <row r="31" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="29" t="s">
+        <v>982</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E31" s="30">
         <v>119</v>
       </c>
@@ -6119,9 +7221,15 @@
       <c r="AG31" s="34"/>
     </row>
     <row r="32" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="29" t="s">
+        <v>983</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E32" s="30">
         <v>119</v>
       </c>
@@ -6163,9 +7271,15 @@
       <c r="AG32" s="34"/>
     </row>
     <row r="33" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>913</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>960</v>
+      </c>
       <c r="E33" s="30">
         <v>119</v>
       </c>
@@ -6203,11 +7317,15 @@
       <c r="AG33" s="34"/>
     </row>
     <row r="34" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>960</v>
+      </c>
       <c r="C34" s="29" t="s">
         <v>944</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E34" s="30">
         <v>119</v>
       </c>
@@ -6253,11 +7371,15 @@
       <c r="AG34" s="34"/>
     </row>
     <row r="35" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>961</v>
+      </c>
       <c r="C35" s="29" t="s">
         <v>944</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E35" s="30">
         <v>119</v>
       </c>
@@ -6306,8 +7428,12 @@
       <c r="B36" s="29" t="s">
         <v>944</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E36" s="30">
         <v>119</v>
       </c>
@@ -6347,9 +7473,15 @@
       <c r="AG36" s="34"/>
     </row>
     <row r="37" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E37" s="30">
         <v>120</v>
       </c>
@@ -6391,9 +7523,15 @@
       <c r="AG37" s="34"/>
     </row>
     <row r="38" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>985</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E38" s="30">
         <v>120</v>
       </c>
@@ -6435,9 +7573,15 @@
       <c r="AG38" s="34"/>
     </row>
     <row r="39" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E39" s="30">
         <v>121</v>
       </c>
@@ -6481,9 +7625,15 @@
       <c r="AG39" s="34"/>
     </row>
     <row r="40" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E40" s="30">
         <v>121</v>
       </c>
@@ -6527,9 +7677,15 @@
       <c r="AG40" s="34"/>
     </row>
     <row r="41" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E41" s="30">
         <v>121</v>
       </c>
@@ -6569,9 +7725,15 @@
       <c r="AG41" s="34"/>
     </row>
     <row r="42" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E42" s="30">
         <v>122</v>
       </c>
@@ -6611,9 +7773,15 @@
       <c r="AG42" s="34"/>
     </row>
     <row r="43" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E43" s="30">
         <v>122</v>
       </c>
@@ -6653,9 +7821,15 @@
       <c r="AG43" s="34"/>
     </row>
     <row r="44" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="B44" s="29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>988</v>
+      </c>
       <c r="E44" s="30">
         <v>122</v>
       </c>
@@ -6695,9 +7869,15 @@
       <c r="AG44" s="34"/>
     </row>
     <row r="45" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="29" t="s">
+        <v>988</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E45" s="30">
         <v>123</v>
       </c>
@@ -6737,9 +7917,15 @@
       <c r="AG45" s="34"/>
     </row>
     <row r="46" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="B46" s="29" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E46" s="30">
         <v>123</v>
       </c>
@@ -6779,9 +7965,15 @@
       <c r="AG46" s="34"/>
     </row>
     <row r="47" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="B47" s="29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>1065</v>
+      </c>
       <c r="E47" s="30">
         <v>123</v>
       </c>
@@ -6823,9 +8015,15 @@
       <c r="AG47" s="34"/>
     </row>
     <row r="48" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="B48" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E48" s="30">
         <v>123</v>
       </c>
@@ -6867,9 +8065,15 @@
       <c r="AG48" s="34"/>
     </row>
     <row r="49" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="B49" s="29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>1087</v>
+      </c>
       <c r="E49" s="30">
         <v>123</v>
       </c>
@@ -6911,9 +8115,15 @@
       <c r="AG49" s="34"/>
     </row>
     <row r="50" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E50" s="30">
         <v>123</v>
       </c>
@@ -6955,9 +8165,15 @@
       <c r="AG50" s="34"/>
     </row>
     <row r="51" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E51" s="30">
         <v>123</v>
       </c>
@@ -6997,9 +8213,15 @@
       <c r="AG51" s="34"/>
     </row>
     <row r="52" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="B52" s="29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>1122</v>
+      </c>
       <c r="E52" s="30">
         <v>123</v>
       </c>
@@ -7041,9 +8263,15 @@
       <c r="AG52" s="34"/>
     </row>
     <row r="53" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="B53" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E53" s="30">
         <v>123</v>
       </c>
@@ -7085,9 +8313,15 @@
       <c r="AG53" s="34"/>
     </row>
     <row r="54" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="B54" s="29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>1130</v>
+      </c>
       <c r="E54" s="30">
         <v>123</v>
       </c>
@@ -7129,9 +8363,15 @@
       <c r="AG54" s="34"/>
     </row>
     <row r="55" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="B55" s="29" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E55" s="30">
         <v>123</v>
       </c>
@@ -7173,9 +8413,15 @@
       <c r="AG55" s="34"/>
     </row>
     <row r="56" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="B56" s="29" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>989</v>
+      </c>
       <c r="E56" s="30">
         <v>124</v>
       </c>
@@ -7219,9 +8465,15 @@
       <c r="AG56" s="34"/>
     </row>
     <row r="57" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
+      <c r="B57" s="29" t="s">
+        <v>989</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E57" s="30">
         <v>124</v>
       </c>
@@ -7265,9 +8517,15 @@
       <c r="AG57" s="34"/>
     </row>
     <row r="58" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
+      <c r="B58" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>1040</v>
+      </c>
       <c r="E58" s="30">
         <v>124</v>
       </c>
@@ -7309,9 +8567,15 @@
       <c r="AG58" s="34"/>
     </row>
     <row r="59" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="B59" s="29" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E59" s="30">
         <v>124</v>
       </c>
@@ -7353,9 +8617,15 @@
       <c r="AG59" s="34"/>
     </row>
     <row r="60" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="B60" s="29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>1066</v>
+      </c>
       <c r="E60" s="30">
         <v>124</v>
       </c>
@@ -7397,9 +8667,15 @@
       <c r="AG60" s="34"/>
     </row>
     <row r="61" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E61" s="30">
         <v>124</v>
       </c>
@@ -7441,9 +8717,15 @@
       <c r="AG61" s="34"/>
     </row>
     <row r="62" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
+      <c r="B62" s="29" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E62" s="30">
         <v>124</v>
       </c>
@@ -7483,9 +8765,15 @@
       <c r="AG62" s="34"/>
     </row>
     <row r="63" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="B63" s="29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E63" s="30">
         <v>124</v>
       </c>
@@ -7525,9 +8813,15 @@
       <c r="AG63" s="34"/>
     </row>
     <row r="64" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="B64" s="29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>1123</v>
+      </c>
       <c r="E64" s="30">
         <v>124</v>
       </c>
@@ -7569,9 +8863,15 @@
       <c r="AG64" s="34"/>
     </row>
     <row r="65" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="B65" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E65" s="30">
         <v>124</v>
       </c>
@@ -7613,9 +8913,15 @@
       <c r="AG65" s="34"/>
     </row>
     <row r="66" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="B66" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E66" s="30">
         <v>124</v>
       </c>
@@ -7657,9 +8963,15 @@
       <c r="AG66" s="34"/>
     </row>
     <row r="67" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="B67" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E67" s="30">
         <v>124</v>
       </c>
@@ -7701,9 +9013,15 @@
       <c r="AG67" s="34"/>
     </row>
     <row r="68" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="B68" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E68" s="30">
         <v>124</v>
       </c>
@@ -7745,9 +9063,15 @@
       <c r="AG68" s="34"/>
     </row>
     <row r="69" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
+      <c r="B69" s="29" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>990</v>
+      </c>
       <c r="E69" s="30">
         <v>125</v>
       </c>
@@ -7789,9 +9113,15 @@
       <c r="AG69" s="34"/>
     </row>
     <row r="70" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="B70" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E70" s="30">
         <v>125</v>
       </c>
@@ -7833,9 +9163,15 @@
       <c r="AG70" s="34"/>
     </row>
     <row r="71" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="B71" s="29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>1041</v>
+      </c>
       <c r="E71" s="30">
         <v>125</v>
       </c>
@@ -7877,9 +9213,15 @@
       <c r="AG71" s="34"/>
     </row>
     <row r="72" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
+      <c r="B72" s="29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E72" s="30">
         <v>125</v>
       </c>
@@ -7921,9 +9263,15 @@
       <c r="AG72" s="34"/>
     </row>
     <row r="73" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
+      <c r="B73" s="29" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E73" s="30">
         <v>125</v>
       </c>
@@ -7965,9 +9313,15 @@
       <c r="AG73" s="34"/>
     </row>
     <row r="74" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
+      <c r="B74" s="29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>1089</v>
+      </c>
       <c r="E74" s="30">
         <v>125</v>
       </c>
@@ -8009,9 +9363,15 @@
       <c r="AG74" s="34"/>
     </row>
     <row r="75" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
+      <c r="B75" s="29" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E75" s="30">
         <v>125</v>
       </c>
@@ -8053,9 +9413,15 @@
       <c r="AG75" s="34"/>
     </row>
     <row r="76" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
+      <c r="B76" s="29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>1109</v>
+      </c>
       <c r="E76" s="30">
         <v>125</v>
       </c>
@@ -8097,9 +9463,15 @@
       <c r="AG76" s="34"/>
     </row>
     <row r="77" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
+      <c r="B77" s="29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E77" s="30">
         <v>125</v>
       </c>
@@ -8141,9 +9513,15 @@
       <c r="AG77" s="34"/>
     </row>
     <row r="78" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
+      <c r="B78" s="29" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E78" s="30">
         <v>125</v>
       </c>
@@ -8183,9 +9561,15 @@
       <c r="AG78" s="34"/>
     </row>
     <row r="79" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
+      <c r="B79" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E79" s="30">
         <v>126</v>
       </c>
@@ -8225,9 +9609,15 @@
       <c r="AG79" s="34"/>
     </row>
     <row r="80" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
+      <c r="B80" s="29" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>1042</v>
+      </c>
       <c r="E80" s="30">
         <v>126</v>
       </c>
@@ -8269,9 +9659,15 @@
       <c r="AG80" s="34"/>
     </row>
     <row r="81" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
+      <c r="B81" s="29" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E81" s="30">
         <v>126</v>
       </c>
@@ -8313,9 +9709,15 @@
       <c r="AG81" s="34"/>
     </row>
     <row r="82" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
+      <c r="B82" s="29" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>1068</v>
+      </c>
       <c r="E82" s="30">
         <v>126</v>
       </c>
@@ -8357,9 +9759,15 @@
       <c r="AG82" s="34"/>
     </row>
     <row r="83" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
+      <c r="B83" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E83" s="30">
         <v>126</v>
       </c>
@@ -8401,9 +9809,15 @@
       <c r="AG83" s="34"/>
     </row>
     <row r="84" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="B84" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>1090</v>
+      </c>
       <c r="E84" s="30">
         <v>126</v>
       </c>
@@ -8445,9 +9859,15 @@
       <c r="AG84" s="34"/>
     </row>
     <row r="85" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="B85" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E85" s="30">
         <v>126</v>
       </c>
@@ -8489,9 +9909,15 @@
       <c r="AG85" s="34"/>
     </row>
     <row r="86" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="B86" s="29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E86" s="30">
         <v>126</v>
       </c>
@@ -8531,9 +9957,15 @@
       <c r="AG86" s="34"/>
     </row>
     <row r="87" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="B87" s="29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E87" s="30">
         <v>126</v>
       </c>
@@ -8573,9 +10005,15 @@
       <c r="AG87" s="34"/>
     </row>
     <row r="88" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="B88" s="29" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>992</v>
+      </c>
       <c r="E88" s="30">
         <v>127</v>
       </c>
@@ -8617,9 +10055,15 @@
       <c r="AG88" s="34"/>
     </row>
     <row r="89" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="B89" s="29" t="s">
+        <v>992</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E89" s="30">
         <v>127</v>
       </c>
@@ -8661,9 +10105,15 @@
       <c r="AG89" s="34"/>
     </row>
     <row r="90" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="B90" s="29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>1043</v>
+      </c>
       <c r="E90" s="30">
         <v>127</v>
       </c>
@@ -8705,9 +10155,15 @@
       <c r="AG90" s="34"/>
     </row>
     <row r="91" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="B91" s="29" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E91" s="30">
         <v>127</v>
       </c>
@@ -8749,9 +10205,15 @@
       <c r="AG91" s="34"/>
     </row>
     <row r="92" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="B92" s="29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>1069</v>
+      </c>
       <c r="E92" s="30">
         <v>127</v>
       </c>
@@ -8793,9 +10255,15 @@
       <c r="AG92" s="34"/>
     </row>
     <row r="93" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="B93" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E93" s="30">
         <v>127</v>
       </c>
@@ -8837,9 +10305,15 @@
       <c r="AG93" s="34"/>
     </row>
     <row r="94" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="B94" s="29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E94" s="30">
         <v>127</v>
       </c>
@@ -8879,9 +10353,15 @@
       <c r="AG94" s="34"/>
     </row>
     <row r="95" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="B95" s="29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>1111</v>
+      </c>
       <c r="E95" s="30">
         <v>127</v>
       </c>
@@ -8923,9 +10403,15 @@
       <c r="AG95" s="34"/>
     </row>
     <row r="96" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="B96" s="29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E96" s="30">
         <v>127</v>
       </c>
@@ -8967,9 +10453,15 @@
       <c r="AG96" s="34"/>
     </row>
     <row r="97" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="B97" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E97" s="30">
         <v>127</v>
       </c>
@@ -9009,9 +10501,15 @@
       <c r="AG97" s="34"/>
     </row>
     <row r="98" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="B98" s="29" t="s">
+        <v>993</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E98" s="30">
         <v>128</v>
       </c>
@@ -9051,9 +10549,15 @@
       <c r="AG98" s="34"/>
     </row>
     <row r="99" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="B99" s="29" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>1044</v>
+      </c>
       <c r="E99" s="30">
         <v>128</v>
       </c>
@@ -9095,9 +10599,15 @@
       <c r="AG99" s="34"/>
     </row>
     <row r="100" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E100" s="30">
         <v>128</v>
       </c>
@@ -9139,9 +10649,15 @@
       <c r="AG100" s="34"/>
     </row>
     <row r="101" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
+      <c r="B101" s="29" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>994</v>
+      </c>
       <c r="E101" s="30">
         <v>129</v>
       </c>
@@ -9183,9 +10699,15 @@
       <c r="AG101" s="34"/>
     </row>
     <row r="102" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
+      <c r="B102" s="29" t="s">
+        <v>994</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E102" s="30">
         <v>129</v>
       </c>
@@ -9227,9 +10749,15 @@
       <c r="AG102" s="34"/>
     </row>
     <row r="103" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
+      <c r="B103" s="29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>1045</v>
+      </c>
       <c r="E103" s="30">
         <v>129</v>
       </c>
@@ -9271,9 +10799,15 @@
       <c r="AG103" s="34"/>
     </row>
     <row r="104" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
+      <c r="B104" s="29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E104" s="30">
         <v>129</v>
       </c>
@@ -9315,9 +10849,15 @@
       <c r="AG104" s="34"/>
     </row>
     <row r="105" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
+      <c r="B105" s="29" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>1070</v>
+      </c>
       <c r="E105" s="30">
         <v>129</v>
       </c>
@@ -9359,9 +10899,15 @@
       <c r="AG105" s="34"/>
     </row>
     <row r="106" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
+      <c r="B106" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E106" s="30">
         <v>129</v>
       </c>
@@ -9403,9 +10949,15 @@
       <c r="AG106" s="34"/>
     </row>
     <row r="107" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="B107" s="29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>1092</v>
+      </c>
       <c r="E107" s="30">
         <v>129</v>
       </c>
@@ -9447,9 +10999,15 @@
       <c r="AG107" s="34"/>
     </row>
     <row r="108" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="B108" s="29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E108" s="30">
         <v>129</v>
       </c>
@@ -9491,9 +11049,15 @@
       <c r="AG108" s="34"/>
     </row>
     <row r="109" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
+      <c r="B109" s="29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E109" s="30">
         <v>129</v>
       </c>
@@ -9533,9 +11097,15 @@
       <c r="AG109" s="34"/>
     </row>
     <row r="110" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
+      <c r="B110" s="29" t="s">
+        <v>995</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E110" s="30">
         <v>130</v>
       </c>
@@ -9575,9 +11145,15 @@
       <c r="AG110" s="34"/>
     </row>
     <row r="111" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
+      <c r="B111" s="29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E111" s="30">
         <v>130</v>
       </c>
@@ -9617,9 +11193,15 @@
       <c r="AG111" s="34"/>
     </row>
     <row r="112" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
+      <c r="B112" s="29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>1071</v>
+      </c>
       <c r="E112" s="30">
         <v>130</v>
       </c>
@@ -9661,9 +11243,15 @@
       <c r="AG112" s="34"/>
     </row>
     <row r="113" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
+      <c r="B113" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E113" s="30">
         <v>130</v>
       </c>
@@ -9705,9 +11293,15 @@
       <c r="AG113" s="34"/>
     </row>
     <row r="114" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
+      <c r="B114" s="29" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>1093</v>
+      </c>
       <c r="E114" s="30">
         <v>130</v>
       </c>
@@ -9749,9 +11343,15 @@
       <c r="AG114" s="34"/>
     </row>
     <row r="115" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
+      <c r="B115" s="29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E115" s="30">
         <v>130</v>
       </c>
@@ -9793,9 +11393,15 @@
       <c r="AG115" s="34"/>
     </row>
     <row r="116" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
+      <c r="B116" s="29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>1016</v>
+      </c>
       <c r="E116" s="30">
         <v>131</v>
       </c>
@@ -9837,9 +11443,15 @@
       <c r="AG116" s="34"/>
     </row>
     <row r="117" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
+      <c r="B117" s="29" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E117" s="30">
         <v>131</v>
       </c>
@@ -9881,9 +11493,15 @@
       <c r="AG117" s="34"/>
     </row>
     <row r="118" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
+      <c r="B118" s="29" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>1047</v>
+      </c>
       <c r="E118" s="30">
         <v>131</v>
       </c>
@@ -9925,9 +11543,15 @@
       <c r="AG118" s="34"/>
     </row>
     <row r="119" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
+      <c r="B119" s="29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E119" s="30">
         <v>131</v>
       </c>
@@ -9969,9 +11593,15 @@
       <c r="AG119" s="34"/>
     </row>
     <row r="120" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
+      <c r="B120" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E120" s="30">
         <v>131</v>
       </c>
@@ -10011,9 +11641,15 @@
       <c r="AG120" s="34"/>
     </row>
     <row r="121" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
+      <c r="B121" s="29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>1094</v>
+      </c>
       <c r="E121" s="30">
         <v>131</v>
       </c>
@@ -10055,9 +11691,15 @@
       <c r="AG121" s="34"/>
     </row>
     <row r="122" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
+      <c r="B122" s="29" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E122" s="30">
         <v>131</v>
       </c>
@@ -10099,9 +11741,15 @@
       <c r="AG122" s="34"/>
     </row>
     <row r="123" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
+      <c r="B123" s="29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>1113</v>
+      </c>
       <c r="E123" s="30">
         <v>131</v>
       </c>
@@ -10143,9 +11791,15 @@
       <c r="AG123" s="34"/>
     </row>
     <row r="124" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
+      <c r="B124" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E124" s="30">
         <v>131</v>
       </c>
@@ -10187,9 +11841,15 @@
       <c r="AG124" s="34"/>
     </row>
     <row r="125" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
+      <c r="B125" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D125" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E125" s="30">
         <v>132</v>
       </c>
@@ -10229,9 +11889,15 @@
       <c r="AG125" s="34"/>
     </row>
     <row r="126" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
+      <c r="B126" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D126" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E126" s="30">
         <v>132</v>
       </c>
@@ -10271,9 +11937,15 @@
       <c r="AG126" s="34"/>
     </row>
     <row r="127" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
+      <c r="B127" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E127" s="30">
         <v>133</v>
       </c>
@@ -10313,9 +11985,15 @@
       <c r="AG127" s="34"/>
     </row>
     <row r="128" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
+      <c r="B128" s="29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>1013</v>
+      </c>
       <c r="E128" s="30">
         <v>134</v>
       </c>
@@ -10357,9 +12035,15 @@
       <c r="AG128" s="34"/>
     </row>
     <row r="129" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
+      <c r="B129" s="29" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E129" s="30">
         <v>134</v>
       </c>
@@ -10401,9 +12085,15 @@
       <c r="AG129" s="34"/>
     </row>
     <row r="130" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
+      <c r="B130" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E130" s="30">
         <v>134</v>
       </c>
@@ -10443,9 +12133,15 @@
       <c r="AG130" s="34"/>
     </row>
     <row r="131" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
+      <c r="B131" s="29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>1073</v>
+      </c>
       <c r="E131" s="30">
         <v>134</v>
       </c>
@@ -10487,9 +12183,15 @@
       <c r="AG131" s="34"/>
     </row>
     <row r="132" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
+      <c r="B132" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E132" s="30">
         <v>134</v>
       </c>
@@ -10531,9 +12233,15 @@
       <c r="AG132" s="34"/>
     </row>
     <row r="133" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
+      <c r="B133" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E133" s="30">
         <v>134</v>
       </c>
@@ -10575,9 +12283,15 @@
       <c r="AG133" s="34"/>
     </row>
     <row r="134" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
+      <c r="B134" s="29" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>1114</v>
+      </c>
       <c r="E134" s="30">
         <v>134</v>
       </c>
@@ -10619,9 +12333,15 @@
       <c r="AG134" s="34"/>
     </row>
     <row r="135" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
+      <c r="B135" s="29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D135" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E135" s="30">
         <v>134</v>
       </c>
@@ -10663,9 +12383,15 @@
       <c r="AG135" s="34"/>
     </row>
     <row r="136" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
+      <c r="B136" s="29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D136" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E136" s="30">
         <v>134</v>
       </c>
@@ -10705,9 +12431,15 @@
       <c r="AG136" s="34"/>
     </row>
     <row r="137" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
+      <c r="B137" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D137" s="29" t="s">
+        <v>1012</v>
+      </c>
       <c r="E137" s="30">
         <v>136</v>
       </c>
@@ -10749,9 +12481,15 @@
       <c r="AG137" s="34"/>
     </row>
     <row r="138" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
+      <c r="B138" s="29" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E138" s="30">
         <v>136</v>
       </c>
@@ -10793,9 +12531,15 @@
       <c r="AG138" s="34"/>
     </row>
     <row r="139" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
+      <c r="B139" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E139" s="30">
         <v>137</v>
       </c>
@@ -10835,9 +12579,15 @@
       <c r="AG139" s="34"/>
     </row>
     <row r="140" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
+      <c r="B140" s="29" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>1050</v>
+      </c>
       <c r="E140" s="30">
         <v>137</v>
       </c>
@@ -10879,9 +12629,15 @@
       <c r="AG140" s="34"/>
     </row>
     <row r="141" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
+      <c r="B141" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D141" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E141" s="30">
         <v>137</v>
       </c>
@@ -10923,9 +12679,15 @@
       <c r="AG141" s="34"/>
     </row>
     <row r="142" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
+      <c r="B142" s="29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E142" s="30">
         <v>137</v>
       </c>
@@ -10965,9 +12727,15 @@
       <c r="AG142" s="34"/>
     </row>
     <row r="143" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
+      <c r="B143" s="29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D143" s="29" t="s">
+        <v>1096</v>
+      </c>
       <c r="E143" s="30">
         <v>137</v>
       </c>
@@ -11009,9 +12777,15 @@
       <c r="AG143" s="34"/>
     </row>
     <row r="144" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
+      <c r="B144" s="29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E144" s="30">
         <v>137</v>
       </c>
@@ -11053,9 +12827,15 @@
       <c r="AG144" s="34"/>
     </row>
     <row r="145" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
+      <c r="B145" s="29" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D145" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E145" s="30">
         <v>137</v>
       </c>
@@ -11095,9 +12875,15 @@
       <c r="AG145" s="34"/>
     </row>
     <row r="146" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
+      <c r="B146" s="29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E146" s="30">
         <v>138</v>
       </c>
@@ -11137,9 +12923,15 @@
       <c r="AG146" s="34"/>
     </row>
     <row r="147" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
+      <c r="B147" s="29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>1051</v>
+      </c>
       <c r="E147" s="30">
         <v>138</v>
       </c>
@@ -11181,9 +12973,15 @@
       <c r="AG147" s="34"/>
     </row>
     <row r="148" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
+      <c r="B148" s="29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E148" s="30">
         <v>138</v>
       </c>
@@ -11225,9 +13023,15 @@
       <c r="AG148" s="34"/>
     </row>
     <row r="149" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B149" s="29"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
+      <c r="B149" s="29" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>1075</v>
+      </c>
       <c r="E149" s="30">
         <v>138</v>
       </c>
@@ -11269,9 +13073,15 @@
       <c r="AG149" s="34"/>
     </row>
     <row r="150" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B150" s="29"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
+      <c r="B150" s="29" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E150" s="30">
         <v>138</v>
       </c>
@@ -11313,9 +13123,15 @@
       <c r="AG150" s="34"/>
     </row>
     <row r="151" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
+      <c r="B151" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>1097</v>
+      </c>
       <c r="E151" s="30">
         <v>138</v>
       </c>
@@ -11357,9 +13173,15 @@
       <c r="AG151" s="34"/>
     </row>
     <row r="152" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
+      <c r="B152" s="29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E152" s="30">
         <v>138</v>
       </c>
@@ -11401,9 +13223,15 @@
       <c r="AG152" s="34"/>
     </row>
     <row r="153" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
+      <c r="B153" s="29" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E153" s="30">
         <v>138</v>
       </c>
@@ -11445,9 +13273,15 @@
       <c r="AG153" s="34"/>
     </row>
     <row r="154" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
+      <c r="B154" s="29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>1128</v>
+      </c>
       <c r="E154" s="30">
         <v>138</v>
       </c>
@@ -11489,9 +13323,15 @@
       <c r="AG154" s="34"/>
     </row>
     <row r="155" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
+      <c r="B155" s="29" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E155" s="30">
         <v>138</v>
       </c>
@@ -11533,9 +13373,15 @@
       <c r="AG155" s="34"/>
     </row>
     <row r="156" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
+      <c r="B156" s="29" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>1009</v>
+      </c>
       <c r="E156" s="30">
         <v>139</v>
       </c>
@@ -11577,9 +13423,15 @@
       <c r="AG156" s="34"/>
     </row>
     <row r="157" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
+      <c r="B157" s="29" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E157" s="30">
         <v>139</v>
       </c>
@@ -11621,9 +13473,15 @@
       <c r="AG157" s="34"/>
     </row>
     <row r="158" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
+      <c r="B158" s="29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E158" s="30">
         <v>139</v>
       </c>
@@ -11665,9 +13523,15 @@
       <c r="AG158" s="34"/>
     </row>
     <row r="159" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
+      <c r="B159" s="29" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>1076</v>
+      </c>
       <c r="E159" s="30">
         <v>139</v>
       </c>
@@ -11709,9 +13573,15 @@
       <c r="AG159" s="34"/>
     </row>
     <row r="160" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
+      <c r="B160" s="29" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E160" s="30">
         <v>139</v>
       </c>
@@ -11753,9 +13623,15 @@
       <c r="AG160" s="34"/>
     </row>
     <row r="161" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
+      <c r="B161" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E161" s="30">
         <v>139</v>
       </c>
@@ -11795,9 +13671,15 @@
       <c r="AG161" s="34"/>
     </row>
     <row r="162" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
+      <c r="B162" s="29" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E162" s="30">
         <v>140</v>
       </c>
@@ -11837,9 +13719,15 @@
       <c r="AG162" s="34"/>
     </row>
     <row r="163" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
+      <c r="B163" s="29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D163" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E163" s="30">
         <v>140</v>
       </c>
@@ -11879,9 +13767,15 @@
       <c r="AG163" s="34"/>
     </row>
     <row r="164" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B164" s="29"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="29"/>
+      <c r="B164" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>1077</v>
+      </c>
       <c r="E164" s="30">
         <v>140</v>
       </c>
@@ -11921,9 +13815,15 @@
       <c r="AG164" s="34"/>
     </row>
     <row r="165" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
+      <c r="B165" s="29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D165" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E165" s="30">
         <v>140</v>
       </c>
@@ -11963,9 +13863,15 @@
       <c r="AG165" s="34"/>
     </row>
     <row r="166" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
+      <c r="B166" s="29" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E166" s="30">
         <v>140</v>
       </c>
@@ -12005,9 +13911,15 @@
       <c r="AG166" s="34"/>
     </row>
     <row r="167" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
+      <c r="B167" s="29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D167" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E167" s="30">
         <v>141</v>
       </c>
@@ -12047,9 +13959,15 @@
       <c r="AG167" s="34"/>
     </row>
     <row r="168" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
+      <c r="B168" s="29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>1054</v>
+      </c>
       <c r="E168" s="30">
         <v>141</v>
       </c>
@@ -12091,9 +14009,15 @@
       <c r="AG168" s="34"/>
     </row>
     <row r="169" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
+      <c r="B169" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D169" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E169" s="30">
         <v>141</v>
       </c>
@@ -12135,9 +14059,15 @@
       <c r="AG169" s="34"/>
     </row>
     <row r="170" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
+      <c r="B170" s="29" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E170" s="30">
         <v>141</v>
       </c>
@@ -12179,9 +14109,15 @@
       <c r="AG170" s="34"/>
     </row>
     <row r="171" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
+      <c r="B171" s="29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E171" s="30">
         <v>141</v>
       </c>
@@ -12223,9 +14159,15 @@
       <c r="AG171" s="34"/>
     </row>
     <row r="172" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
+      <c r="B172" s="29" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E172" s="30">
         <v>141</v>
       </c>
@@ -12265,9 +14207,15 @@
       <c r="AG172" s="34"/>
     </row>
     <row r="173" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
+      <c r="B173" s="29" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>1006</v>
+      </c>
       <c r="E173" s="30">
         <v>142</v>
       </c>
@@ -12309,9 +14257,15 @@
       <c r="AG173" s="34"/>
     </row>
     <row r="174" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
+      <c r="B174" s="29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E174" s="30">
         <v>142</v>
       </c>
@@ -12353,9 +14307,15 @@
       <c r="AG174" s="34"/>
     </row>
     <row r="175" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
+      <c r="B175" s="29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E175" s="30">
         <v>142</v>
       </c>
@@ -12397,9 +14357,15 @@
       <c r="AG175" s="34"/>
     </row>
     <row r="176" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
+      <c r="B176" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E176" s="30">
         <v>142</v>
       </c>
@@ -12439,9 +14405,15 @@
       <c r="AG176" s="34"/>
     </row>
     <row r="177" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
+      <c r="B177" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C177" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>1101</v>
+      </c>
       <c r="E177" s="30">
         <v>142</v>
       </c>
@@ -12483,9 +14455,15 @@
       <c r="AG177" s="34"/>
     </row>
     <row r="178" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
+      <c r="B178" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C178" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E178" s="30">
         <v>142</v>
       </c>
@@ -12527,9 +14505,15 @@
       <c r="AG178" s="34"/>
     </row>
     <row r="179" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
+      <c r="B179" s="29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C179" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E179" s="30">
         <v>142</v>
       </c>
@@ -12571,9 +14555,15 @@
       <c r="AG179" s="34"/>
     </row>
     <row r="180" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
+      <c r="B180" s="29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>1005</v>
+      </c>
       <c r="E180" s="30">
         <v>143</v>
       </c>
@@ -12615,9 +14605,15 @@
       <c r="AG180" s="34"/>
     </row>
     <row r="181" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
+      <c r="B181" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E181" s="30">
         <v>143</v>
       </c>
@@ -12659,9 +14655,15 @@
       <c r="AG181" s="34"/>
     </row>
     <row r="182" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
+      <c r="B182" s="29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>1004</v>
+      </c>
       <c r="E182" s="30">
         <v>144</v>
       </c>
@@ -12703,9 +14705,15 @@
       <c r="AG182" s="34"/>
     </row>
     <row r="183" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
+      <c r="B183" s="29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C183" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E183" s="30">
         <v>144</v>
       </c>
@@ -12747,9 +14755,15 @@
       <c r="AG183" s="34"/>
     </row>
     <row r="184" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
+      <c r="B184" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C184" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>1056</v>
+      </c>
       <c r="E184" s="30">
         <v>144</v>
       </c>
@@ -12791,9 +14805,15 @@
       <c r="AG184" s="34"/>
     </row>
     <row r="185" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
+      <c r="B185" s="29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E185" s="30">
         <v>144</v>
       </c>
@@ -12835,9 +14855,15 @@
       <c r="AG185" s="34"/>
     </row>
     <row r="186" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
+      <c r="B186" s="29" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>1080</v>
+      </c>
       <c r="E186" s="30">
         <v>144</v>
       </c>
@@ -12879,9 +14905,15 @@
       <c r="AG186" s="34"/>
     </row>
     <row r="187" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
+      <c r="B187" s="29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C187" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E187" s="30">
         <v>144</v>
       </c>
@@ -12923,9 +14955,15 @@
       <c r="AG187" s="34"/>
     </row>
     <row r="188" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
+      <c r="B188" s="29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>1003</v>
+      </c>
       <c r="E188" s="30">
         <v>145</v>
       </c>
@@ -12967,9 +15005,15 @@
       <c r="AG188" s="34"/>
     </row>
     <row r="189" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
+      <c r="B189" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C189" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E189" s="30">
         <v>145</v>
       </c>
@@ -13011,9 +15055,15 @@
       <c r="AG189" s="34"/>
     </row>
     <row r="190" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
+      <c r="B190" s="29" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>1057</v>
+      </c>
       <c r="E190" s="30">
         <v>145</v>
       </c>
@@ -13055,9 +15105,15 @@
       <c r="AG190" s="34"/>
     </row>
     <row r="191" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
+      <c r="B191" s="29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E191" s="30">
         <v>145</v>
       </c>
@@ -13099,9 +15155,15 @@
       <c r="AG191" s="34"/>
     </row>
     <row r="192" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
+      <c r="B192" s="29" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>1002</v>
+      </c>
       <c r="E192" s="30">
         <v>146</v>
       </c>
@@ -13143,9 +15205,15 @@
       <c r="AG192" s="34"/>
     </row>
     <row r="193" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
+      <c r="B193" s="29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E193" s="30">
         <v>146</v>
       </c>
@@ -13187,9 +15255,15 @@
       <c r="AG193" s="34"/>
     </row>
     <row r="194" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="29"/>
+      <c r="B194" s="29" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>1058</v>
+      </c>
       <c r="E194" s="30">
         <v>146</v>
       </c>
@@ -13231,9 +15305,15 @@
       <c r="AG194" s="34"/>
     </row>
     <row r="195" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
+      <c r="B195" s="29" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E195" s="30">
         <v>146</v>
       </c>
@@ -13275,9 +15355,15 @@
       <c r="AG195" s="34"/>
     </row>
     <row r="196" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="29"/>
+      <c r="B196" s="29" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>1081</v>
+      </c>
       <c r="E196" s="30">
         <v>146</v>
       </c>
@@ -13319,9 +15405,15 @@
       <c r="AG196" s="34"/>
     </row>
     <row r="197" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
+      <c r="B197" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C197" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E197" s="30">
         <v>146</v>
       </c>
@@ -13363,9 +15455,15 @@
       <c r="AG197" s="34"/>
     </row>
     <row r="198" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
+      <c r="B198" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>1102</v>
+      </c>
       <c r="E198" s="30">
         <v>146</v>
       </c>
@@ -13407,9 +15505,15 @@
       <c r="AG198" s="34"/>
     </row>
     <row r="199" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
+      <c r="B199" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E199" s="30">
         <v>146</v>
       </c>
@@ -13451,9 +15555,15 @@
       <c r="AG199" s="34"/>
     </row>
     <row r="200" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
+      <c r="B200" s="29" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>1001</v>
+      </c>
       <c r="E200" s="30">
         <v>147</v>
       </c>
@@ -13495,9 +15605,15 @@
       <c r="AG200" s="34"/>
     </row>
     <row r="201" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
+      <c r="B201" s="29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E201" s="30">
         <v>147</v>
       </c>
@@ -13539,9 +15655,15 @@
       <c r="AG201" s="34"/>
     </row>
     <row r="202" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
+      <c r="B202" s="29" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>1059</v>
+      </c>
       <c r="E202" s="30">
         <v>147</v>
       </c>
@@ -13583,9 +15705,15 @@
       <c r="AG202" s="34"/>
     </row>
     <row r="203" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
+      <c r="B203" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E203" s="30">
         <v>147</v>
       </c>
@@ -13627,9 +15755,15 @@
       <c r="AG203" s="34"/>
     </row>
     <row r="204" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
+      <c r="B204" s="29" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>1082</v>
+      </c>
       <c r="E204" s="30">
         <v>147</v>
       </c>
@@ -13671,9 +15805,15 @@
       <c r="AG204" s="34"/>
     </row>
     <row r="205" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
+      <c r="B205" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E205" s="30">
         <v>147</v>
       </c>
@@ -13715,9 +15855,15 @@
       <c r="AG205" s="34"/>
     </row>
     <row r="206" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
+      <c r="B206" s="29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>1103</v>
+      </c>
       <c r="E206" s="30">
         <v>147</v>
       </c>
@@ -13759,9 +15905,15 @@
       <c r="AG206" s="34"/>
     </row>
     <row r="207" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
+      <c r="B207" s="29" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E207" s="30">
         <v>147</v>
       </c>
@@ -13803,9 +15955,15 @@
       <c r="AG207" s="34"/>
     </row>
     <row r="208" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
+      <c r="B208" s="29" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>1119</v>
+      </c>
       <c r="E208" s="30">
         <v>147</v>
       </c>
@@ -13847,9 +16005,15 @@
       <c r="AG208" s="34"/>
     </row>
     <row r="209" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
+      <c r="B209" s="29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E209" s="30">
         <v>147</v>
       </c>
@@ -13891,9 +16055,15 @@
       <c r="AG209" s="34"/>
     </row>
     <row r="210" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="29"/>
+      <c r="B210" s="29" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>999</v>
+      </c>
       <c r="E210" s="30">
         <v>148</v>
       </c>
@@ -13935,9 +16105,15 @@
       <c r="AG210" s="34"/>
     </row>
     <row r="211" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
+      <c r="B211" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E211" s="30">
         <v>148</v>
       </c>
@@ -13979,9 +16155,15 @@
       <c r="AG211" s="34"/>
     </row>
     <row r="212" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
+      <c r="B212" s="29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>1060</v>
+      </c>
       <c r="E212" s="30">
         <v>148</v>
       </c>
@@ -14023,9 +16205,15 @@
       <c r="AG212" s="34"/>
     </row>
     <row r="213" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
+      <c r="B213" s="29" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E213" s="30">
         <v>148</v>
       </c>
@@ -14067,9 +16255,15 @@
       <c r="AG213" s="34"/>
     </row>
     <row r="214" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
+      <c r="B214" s="29" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>1083</v>
+      </c>
       <c r="E214" s="30">
         <v>148</v>
       </c>
@@ -14111,9 +16305,15 @@
       <c r="AG214" s="34"/>
     </row>
     <row r="215" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
+      <c r="B215" s="29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E215" s="30">
         <v>148</v>
       </c>
@@ -14155,9 +16355,15 @@
       <c r="AG215" s="34"/>
     </row>
     <row r="216" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
+      <c r="B216" s="29" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C216" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>1000</v>
+      </c>
       <c r="E216" s="30">
         <v>149</v>
       </c>
@@ -14199,9 +16405,15 @@
       <c r="AG216" s="34"/>
     </row>
     <row r="217" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
+      <c r="B217" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E217" s="30">
         <v>149</v>
       </c>
@@ -14243,9 +16455,15 @@
       <c r="AG217" s="34"/>
     </row>
     <row r="218" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
+      <c r="B218" s="29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>998</v>
+      </c>
       <c r="E218" s="30">
         <v>150</v>
       </c>
@@ -14287,9 +16505,15 @@
       <c r="AG218" s="34"/>
     </row>
     <row r="219" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
+      <c r="B219" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E219" s="30">
         <v>150</v>
       </c>
@@ -14331,9 +16555,15 @@
       <c r="AG219" s="34"/>
     </row>
     <row r="220" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B220" s="29"/>
-      <c r="C220" s="29"/>
-      <c r="D220" s="29"/>
+      <c r="B220" s="29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D220" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E220" s="30">
         <v>150</v>
       </c>
@@ -14375,9 +16605,15 @@
       <c r="AG220" s="34"/>
     </row>
     <row r="221" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="29"/>
+      <c r="B221" s="29" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D221" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E221" s="30">
         <v>150</v>
       </c>
@@ -14419,9 +16655,15 @@
       <c r="AG221" s="34"/>
     </row>
     <row r="222" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
+      <c r="B222" s="29" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C222" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D222" s="29" t="s">
+        <v>1104</v>
+      </c>
       <c r="E222" s="30">
         <v>150</v>
       </c>
@@ -14463,9 +16705,15 @@
       <c r="AG222" s="34"/>
     </row>
     <row r="223" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B223" s="29"/>
-      <c r="C223" s="29"/>
-      <c r="D223" s="29"/>
+      <c r="B223" s="29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D223" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E223" s="30">
         <v>150</v>
       </c>
@@ -14507,9 +16755,15 @@
       <c r="AG223" s="34"/>
     </row>
     <row r="224" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
-      <c r="D224" s="29"/>
+      <c r="B224" s="29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D224" s="29" t="s">
+        <v>1120</v>
+      </c>
       <c r="E224" s="30">
         <v>150</v>
       </c>
@@ -14551,9 +16805,15 @@
       <c r="AG224" s="34"/>
     </row>
     <row r="225" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B225" s="29"/>
-      <c r="C225" s="29"/>
-      <c r="D225" s="29"/>
+      <c r="B225" s="29" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C225" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D225" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E225" s="30">
         <v>150</v>
       </c>
@@ -14595,9 +16855,15 @@
       <c r="AG225" s="34"/>
     </row>
     <row r="226" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B226" s="29"/>
-      <c r="C226" s="29"/>
-      <c r="D226" s="29"/>
+      <c r="B226" s="29" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D226" s="29" t="s">
+        <v>997</v>
+      </c>
       <c r="E226" s="30">
         <v>151</v>
       </c>
@@ -14639,9 +16905,15 @@
       <c r="AG226" s="34"/>
     </row>
     <row r="227" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B227" s="29"/>
-      <c r="C227" s="29"/>
-      <c r="D227" s="29"/>
+      <c r="B227" s="29" t="s">
+        <v>997</v>
+      </c>
+      <c r="C227" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D227" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E227" s="30">
         <v>151</v>
       </c>
@@ -14683,9 +16955,15 @@
       <c r="AG227" s="34"/>
     </row>
     <row r="228" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B228" s="29"/>
-      <c r="C228" s="29"/>
-      <c r="D228" s="29"/>
+      <c r="B228" s="29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C228" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>1062</v>
+      </c>
       <c r="E228" s="30">
         <v>151</v>
       </c>
@@ -14727,9 +17005,15 @@
       <c r="AG228" s="34"/>
     </row>
     <row r="229" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29"/>
+      <c r="B229" s="29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E229" s="30">
         <v>151</v>
       </c>
@@ -14771,9 +17055,15 @@
       <c r="AG229" s="34"/>
     </row>
     <row r="230" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B230" s="29"/>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29"/>
+      <c r="B230" s="29" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C230" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>1085</v>
+      </c>
       <c r="E230" s="30">
         <v>151</v>
       </c>
@@ -14815,9 +17105,15 @@
       <c r="AG230" s="34"/>
     </row>
     <row r="231" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29"/>
+      <c r="B231" s="29" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C231" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E231" s="30">
         <v>151</v>
       </c>
@@ -14859,9 +17155,15 @@
       <c r="AG231" s="34"/>
     </row>
     <row r="232" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
+      <c r="B232" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C232" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>1105</v>
+      </c>
       <c r="E232" s="30">
         <v>151</v>
       </c>
@@ -14903,9 +17205,15 @@
       <c r="AG232" s="34"/>
     </row>
     <row r="233" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
+      <c r="B233" s="29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C233" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E233" s="30">
         <v>151</v>
       </c>
@@ -14947,9 +17255,15 @@
       <c r="AG233" s="34"/>
     </row>
     <row r="234" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
+      <c r="B234" s="29" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C234" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D234" s="29" t="s">
+        <v>996</v>
+      </c>
       <c r="E234" s="30">
         <v>152</v>
       </c>
@@ -14991,9 +17305,15 @@
       <c r="AG234" s="34"/>
     </row>
     <row r="235" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B235" s="29"/>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
+      <c r="B235" s="29" t="s">
+        <v>996</v>
+      </c>
+      <c r="C235" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D235" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E235" s="30">
         <v>152</v>
       </c>
@@ -15035,9 +17355,15 @@
       <c r="AG235" s="34"/>
     </row>
     <row r="236" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
+      <c r="B236" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D236" s="29" t="s">
+        <v>1063</v>
+      </c>
       <c r="E236" s="30">
         <v>152</v>
       </c>
@@ -15079,9 +17405,15 @@
       <c r="AG236" s="34"/>
     </row>
     <row r="237" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B237" s="29"/>
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
+      <c r="B237" s="29" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C237" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D237" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E237" s="30">
         <v>152</v>
       </c>
@@ -15123,9 +17455,15 @@
       <c r="AG237" s="34"/>
     </row>
     <row r="238" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B238" s="29"/>
-      <c r="C238" s="29"/>
-      <c r="D238" s="29"/>
+      <c r="B238" s="29" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C238" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D238" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E238" s="30">
         <v>152</v>
       </c>
@@ -15167,9 +17505,15 @@
       <c r="AG238" s="34"/>
     </row>
     <row r="239" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B239" s="29"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="29"/>
+      <c r="B239" s="29" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C239" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D239" s="29" t="s">
+        <v>1106</v>
+      </c>
       <c r="E239" s="30">
         <v>152</v>
       </c>
@@ -15211,9 +17555,15 @@
       <c r="AG239" s="34"/>
     </row>
     <row r="240" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B240" s="29"/>
-      <c r="C240" s="29"/>
-      <c r="D240" s="29"/>
+      <c r="B240" s="29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C240" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D240" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E240" s="30">
         <v>152</v>
       </c>
@@ -15255,9 +17605,15 @@
       <c r="AG240" s="34"/>
     </row>
     <row r="241" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B241" s="29"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="29"/>
+      <c r="B241" s="29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C241" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D241" s="29" t="s">
+        <v>1121</v>
+      </c>
       <c r="E241" s="30">
         <v>152</v>
       </c>
@@ -15299,9 +17655,15 @@
       <c r="AG241" s="34"/>
     </row>
     <row r="242" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B242" s="29"/>
-      <c r="C242" s="29"/>
-      <c r="D242" s="29"/>
+      <c r="B242" s="29" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C242" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D242" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E242" s="30">
         <v>152</v>
       </c>
@@ -15343,9 +17705,15 @@
       <c r="AG242" s="34"/>
     </row>
     <row r="243" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
+      <c r="B243" s="29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C243" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>1129</v>
+      </c>
       <c r="E243" s="30">
         <v>152</v>
       </c>
@@ -15387,9 +17755,15 @@
       <c r="AG243" s="34"/>
     </row>
     <row r="244" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
+      <c r="B244" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C244" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>913</v>
+      </c>
       <c r="E244" s="30">
         <v>152</v>
       </c>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ty/ruby/zakuro/doc/operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CD649-31B4-704B-92F8-D1CE2AA1222D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{F957D327-49AD-5A40-BAE0-C484C5296427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="-43200" windowWidth="35060" windowHeight="43200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月" sheetId="3" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">月!$B$1:$AG$447</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7537" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7680" uniqueCount="1780">
   <si>
     <t>ID</t>
   </si>
@@ -4851,15 +4852,9 @@
     <t>延暦 11年 2 大 丙戌 22-583</t>
   </si>
   <si>
-    <t>延暦 11年 3 小 丙辰 51-2238</t>
-  </si>
-  <si>
     <t>延暦 11年 9 大 癸丑 49-1025</t>
   </si>
   <si>
-    <t>延暦 11年 10 小 癸未 18-2659</t>
-  </si>
-  <si>
     <t>延暦 11年 11 大 壬子 48-1153</t>
   </si>
   <si>
@@ -4878,9 +4873,6 @@
     <t>延暦 14年 8 大 乙丑  1-897</t>
   </si>
   <si>
-    <t>延暦 14年 9 小 乙未  30-2999</t>
-  </si>
-  <si>
     <t>延暦 14年 12 大 甲子 0-953</t>
   </si>
   <si>
@@ -4890,30 +4882,18 @@
     <t>延暦 16年 9 大 癸未 19-1512</t>
   </si>
   <si>
-    <t>延暦 16年 10 小 癸丑 48-3021</t>
-  </si>
-  <si>
     <t>延暦 17年 1 大 壬午 18-445</t>
   </si>
   <si>
-    <t>延暦 17年 2 小 壬子 47-2780</t>
-  </si>
-  <si>
     <t>延暦 17年 10 大 丙子  12-2991</t>
   </si>
   <si>
     <t>延暦 17年 12 大 丙子 12-731</t>
   </si>
   <si>
-    <t>延暦 18年 1 小 丙午 41-2849</t>
-  </si>
-  <si>
     <t>延暦 18年 3 大 乙巳 41-1077</t>
   </si>
   <si>
-    <t>延暦 18年 4 小 乙亥  10-3034</t>
-  </si>
-  <si>
     <t>延暦 20年 6 大 辛卯 27-2957</t>
   </si>
   <si>
@@ -4926,54 +4906,36 @@
     <t>延暦 24年 12 大 丙申 32-385</t>
   </si>
   <si>
-    <t>大同 1年 1 小 丙寅 1-2844</t>
-  </si>
-  <si>
     <t>大同 1年 9 大 庚寅  26-2750</t>
   </si>
   <si>
     <t>大同 1年 11 大 庚寅 26-503</t>
   </si>
   <si>
-    <t>大同 1年 12 大 庚申 55-2820</t>
-  </si>
-  <si>
     <t>大同 2年 1 小 庚寅  25-2102</t>
   </si>
   <si>
     <t>大同 3年 5 大 壬午 18-1293</t>
   </si>
   <si>
-    <t>大同 3年 6 小 壬子  47-2842</t>
-  </si>
-  <si>
     <t>大同 3年 11 大 戊寅 14-2998</t>
   </si>
   <si>
     <t>弘仁 4年 7 大 辛亥 47-1494</t>
   </si>
   <si>
-    <t>弘仁 4年 8 小 辛巳 16-3026</t>
-  </si>
-  <si>
     <t>弘仁 6年 11 大 丁卯  3-2977</t>
   </si>
   <si>
     <t>弘仁 7年 11 大 壬戌  58-1048</t>
   </si>
   <si>
-    <t>弘仁 7年 12 小 壬辰  27-2812</t>
-  </si>
-  <si>
     <t>弘仁 8年 3 大 庚申 56-2880</t>
   </si>
   <si>
     <t>弘仁 8年 9 大 丁亥 23-1704</t>
   </si>
   <si>
-    <t>弘仁 8年 10 小 丁巳  52-2903</t>
-  </si>
-  <si>
     <t>弘仁 8年 12 大 乙卯 51-2878</t>
   </si>
   <si>
@@ -4983,30 +4945,15 @@
     <t>弘仁 9年 12 大 庚戌 46-1657</t>
   </si>
   <si>
-    <t>弘仁 10年 1 小 庚辰  15-3026</t>
-  </si>
-  <si>
     <t>弘仁 10年 2 大 己酉 45-1384</t>
   </si>
   <si>
-    <t>弘仁 10年 3 小 己卯 14-2828</t>
-  </si>
-  <si>
     <t>弘仁 11年 閏1 大 甲辰 40-222</t>
   </si>
   <si>
-    <t>弘仁 11年 2 小 甲戌  9-1402</t>
-  </si>
-  <si>
-    <t>弘仁 11年 3 小 癸卯  38-2626</t>
-  </si>
-  <si>
     <t>弘仁 11年 6 大 辛未  7-929</t>
   </si>
   <si>
-    <t>弘仁 11年 7 小 辛丑 36-2826</t>
-  </si>
-  <si>
     <t>弘仁 12年 7 大 乙未 31-184</t>
   </si>
   <si>
@@ -5019,9 +4966,6 @@
     <t>弘仁 13年 1 大 癸巳 29-802</t>
   </si>
   <si>
-    <t>弘仁 13年 2 小 癸亥 58-2380</t>
-  </si>
-  <si>
     <t>弘仁 14年 10 大 辛巳 17-2819</t>
   </si>
   <si>
@@ -5043,27 +4987,12 @@
     <t>天長 4年 12 大 戊子 24-1551</t>
   </si>
   <si>
-    <t>天長 5年 1 大 戊午 53-2901</t>
-  </si>
-  <si>
-    <t>天長 5年 2 小 戊子  23-1209</t>
-  </si>
-  <si>
-    <t>天長 5年 3 小 丁巳  52-2600</t>
-  </si>
-  <si>
     <t>天長 5年 9 大 癸未 19-2980</t>
   </si>
   <si>
     <t>天長 7年 5 大 甲戌  10-469</t>
   </si>
   <si>
-    <t>天長 7年 6 小 甲辰 39-1519</t>
-  </si>
-  <si>
-    <t>天長 7年 7 小 癸酉 8-2856</t>
-  </si>
-  <si>
     <t>天長 8年 9 大 乙未  31-2805</t>
   </si>
   <si>
@@ -5079,159 +5008,81 @@
     <t>承和 1年 12 大 丁丑 13-887</t>
   </si>
   <si>
-    <t>承和 2年 1 小 丁未 42-2793</t>
-  </si>
-  <si>
     <t>承和 3年 7 大 戊辰  4-1260</t>
   </si>
   <si>
-    <t>承和 3年 8 小 戊戌 33-2996</t>
-  </si>
-  <si>
     <t>承和 3年 9 大 丁卯  3-1517</t>
   </si>
   <si>
-    <t>承和 3年 10 小 丁酉 32-3000</t>
-  </si>
-  <si>
     <t>承和 5年 8 大 丙戌 22-658</t>
   </si>
   <si>
-    <t>承和 5年 9 小 丙辰 51-2800</t>
-  </si>
-  <si>
     <t>承和 6年 7 大 庚辰 16-1078</t>
   </si>
   <si>
-    <t>承和 6年 8 小 庚戌 45-2916</t>
-  </si>
-  <si>
     <t>承和 6年 11 大 己卯 15-600</t>
   </si>
   <si>
-    <t>承和 6年 12 小 己酉 44-2892</t>
-  </si>
-  <si>
     <t>承和 9年 2 大 丙寅 2-864</t>
   </si>
   <si>
-    <t>承和 9年 3 小 丙申 31-2738</t>
-  </si>
-  <si>
     <t>承和 9年 11 大 辛卯 27-518</t>
   </si>
   <si>
-    <t>承和 9年 12 小 辛酉 56-2661</t>
-  </si>
-  <si>
     <t>承和 11年 5 大 癸未 19-1172</t>
   </si>
   <si>
-    <t>承和 11年 6 小 癸丑 48-2934</t>
-  </si>
-  <si>
     <t>承和 11年 8 大 辛巳 17-1383</t>
   </si>
   <si>
-    <t>承和 11年 9 小 辛亥 46-2695</t>
-  </si>
-  <si>
     <t>承和 12年 9 大 乙巳 41-1264</t>
   </si>
   <si>
-    <t>承和 12年 10 小 乙亥 10-2799</t>
-  </si>
-  <si>
     <t>承和 12年 11 大 甲辰 40-1261</t>
   </si>
   <si>
-    <t>承和 12年 12 小 甲戌 9-2726</t>
-  </si>
-  <si>
     <t>承和 13年 10 大 己巳  5-937</t>
   </si>
   <si>
-    <t>承和 13年 11 小 己亥  34-2812</t>
-  </si>
-  <si>
     <t>承和 14年 4 大 乙未 31-1608</t>
   </si>
   <si>
-    <t>承和 14年 5 小 乙丑 0-2867</t>
-  </si>
-  <si>
     <t>承和 14年 10 大 癸巳 29-475</t>
   </si>
   <si>
-    <t>承和 14年 11 小 癸亥 58-2640</t>
-  </si>
-  <si>
     <t>嘉祥 1年 10 大 丁亥 23-564</t>
   </si>
   <si>
-    <t>嘉祥 1年 11 小 丁巳 52-2966</t>
-  </si>
-  <si>
     <t>嘉祥 2年 10 大 辛巳 17-744</t>
   </si>
   <si>
-    <t>嘉祥 2年 11 小 辛亥 46-2922</t>
-  </si>
-  <si>
     <t>嘉祥 3年 1 大 庚辰 16-942</t>
   </si>
   <si>
-    <t>嘉祥 3年 2 小 庚戌  45-2860</t>
-  </si>
-  <si>
     <t>仁寿 3年 6 大 庚申 56-1132</t>
   </si>
   <si>
-    <t>仁寿 3年 7 小 庚寅 25-2763</t>
-  </si>
-  <si>
     <t>斎衡 1年 11 大 壬午 18-1071</t>
   </si>
   <si>
-    <t>斎衡 1年 12 大 壬子 47-2602</t>
-  </si>
-  <si>
     <t>斎衡 2年 1 小 壬午 17-902</t>
   </si>
   <si>
-    <t>斎衡 2年 2 小 辛亥 46-2139</t>
-  </si>
-  <si>
     <t>斎衡 2年 11 大 丙午 42-1215</t>
   </si>
   <si>
-    <t>斎衡 2年 12 小 丙子 11-2894</t>
-  </si>
-  <si>
     <t>斎衡 3年 9 大 辛丑 37-683</t>
   </si>
   <si>
-    <t>斎衡 3年 10 小 辛未 6-2919</t>
-  </si>
-  <si>
     <t>斎衡 3年 12 大 庚午  6-1214</t>
   </si>
   <si>
-    <t>天安 1年 1 小 庚子 35-2985</t>
-  </si>
-  <si>
     <t>天安 1年 9 大 乙未 31-805</t>
   </si>
   <si>
-    <t>天安 1年 10 小 乙丑  0-2932</t>
-  </si>
-  <si>
     <t>天安 2年 1 大 甲午 30-893</t>
   </si>
   <si>
-    <t>天安 2年 2 小 甲子 59-2856</t>
-  </si>
-  <si>
     <t>貞観 1年 9 大 癸丑 49-1398</t>
   </si>
   <si>
@@ -5241,15 +5092,9 @@
     <t>貞観 2年 1 大 壬子 48-391</t>
   </si>
   <si>
-    <t>貞観 2年 2 小 壬午 17-2710</t>
-  </si>
-  <si>
     <t>貞観 2年 10 大 丁丑 13-1449</t>
   </si>
   <si>
-    <t>貞観 2年 閏10 大 丁未  42-2908</t>
-  </si>
-  <si>
     <t>貞観 2年 11 小 丁丑 12-1628</t>
   </si>
   <si>
@@ -5262,13 +5107,7 @@
     <t>貞観 3年 3 大 乙亥 11-976</t>
   </si>
   <si>
-    <t>貞観 3年 4 小 乙巳 40-2910</t>
-  </si>
-  <si>
     <t>貞観 3年 5 大 甲戌 10-1533</t>
-  </si>
-  <si>
-    <t>貞観 3年 6 小 甲辰 39-2990</t>
   </si>
   <si>
     <t>乙亥</t>
@@ -6661,6 +6500,1450 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t xml:space="preserve">ニホンキ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では55己未, 続日本紀により庚申，したがって7月朔のユリウス暦日は8月5日。</t>
+    <rPh sb="6" eb="7">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ニホンキ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ニホン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 11年 3 小 丙辰 51-2238</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では51乙卯であるが日本逸史2月の條に乙卯があるから丙辰とする。3月丙辰朔とすればそのユリウス暦日は3月28日となる。</t>
+    <rPh sb="6" eb="7">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ニホンキ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ニホン </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シュウイテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シジテゥ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サク9</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 11年 10 小 癸未 18-2659</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では18壬午，日本逸史により癸未，したがって10月朔のユリウス暦日は10月21日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では17辛巳，日本逸史により壬午，したがって閏11月朔のユリウス暦日は12月19日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウルウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 14年 9 小 乙未  30-2999</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は30甲午，日本逸史により乙未，したがって9月朔日のユリウス暦日は10月18日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は29癸巳，日本逸史により甲午，したがって正月朔日のユリウス暦日は2月14日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 16年 10 小 癸丑 48-3021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算A）では壬子であるがC）では癸丑とでる。日本逸史9月に壬子がある。したがって，進朔して癸丑とすべきである。10月癸丑朔なら，そのユリウス暦日は10月25日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シンサク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>_x0004__x001B__x0001__x0007_)</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>_x0002__x000B_9</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 17年 2 小 壬子 47-2780</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では47辛亥であるが日本逸史に壬子朔とある。したがって2月朔のユリウス暦日は2月21日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 18年 1 小 丙午 41-2849</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では41乙巳であるが日本後紀により丙午，したがって正月朔のユリウス暦日は2月10日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 18年 4 小 乙亥  10-3034</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では10甲戌であるが日本後紀により乙亥，したがって4月朔のユリウス暦日は5月10日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大同 1年 1 小 丙寅 1-2844</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では1乙丑，日本後紀により丙寅，したがって正月朔のユリウス暦日は1月24日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大同 1年 12 大 庚申 55-2820</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では55己未，日本逸史により庚申，したがって12月朔のユリウス暦日は1月13日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では25己丑，日本逸史により庚寅，したがって正月朔のユリウス暦日は2月12日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大同 3年 6 小 壬子  47-2842</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では47辛亥，日本逸史により壬子，したがって6月朔のユリウス暦日は6月28日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 4年 8 小 辛巳 16-3026</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は16庚辰，逸史により辛巳，したがって，8月朔のユリウス暦日は8月30日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 7年 12 小 壬辰  27-2812</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では27辛卯，逸史により壬辰，したがって12月朔のユリウス暦日は12月23日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 8年 10 小 丁巳  52-2903</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では52丙辰，逸史により丁巳，したがって10月朔のユリウス暦日は11月13日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 10年 1 小 庚辰  15-3026</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では15己卯であるが，逸史に庚辰朔とある。したがって正月朔のユリウス暦日は1月30日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">イツシ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シジテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>2021/07/26</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 10年 3 小 己卯 14-2828</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 11年 2 小 甲戌  9-1402</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では14戊寅であるが，逸史に己卯朔とある。したがって3月朔のユリウス暦日は3月30日。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では9癸酉であるが，逸史に甲戌朔とある。したがって2月朔のユリウス暦日は3月19日。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 11年 3 小 癸卯  38-2626</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では38壬寅であるが，4月壬申と2月甲戌より3月朔は癸卯と定まる。3月朔のユリウス暦日は4月17日。</t>
+    <rPh sb="23" eb="24">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>7/26</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サダマル</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 11年 7 小 辛丑 36-2826</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では36庚子であるが，逸史に辛丑朔とある。したがって7月朔のユリウス暦日は8月13日。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逸史巻29，9月乙未朔とある。9月乙未朔とすれば8月甲子朔はあり得ない。ユリウス暦日は9月1日となる。</t>
+    <rPh sb="10" eb="11">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>_x0000_
+_x0001_</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>_x0005__x0010__x0001_</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>_x0008__x0014__x0001__x000B__x0019_</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>_x0001__x000E__x001A__x0002__x0013_</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">_x001C__x0001__x0018_ </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>_x0001__x001C_,</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逸史巻29，9月乙未朔とある。したがって9月朔日のユリウス暦日は10月1日。</t>
+    <rPh sb="10" eb="11">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>_x0000_
+_x0001_</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>_x0005__x0010__x0001_</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>_x0008__x0017__x0001_</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>_x000B__x001A__x0001__x000E__x001B_</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>_x0002__x0013__x001D__x0001__x0018_</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>"_x0001__x001C_-_x0001__x001F_/</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弘仁 13年 2 小 癸亥 58-2380</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逸史に正月戊辰朔と計算より1日退いている。したがってユリウス暦日は2月10日。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天長 5年 1 大 戊午 53-2901</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天長 5年 2 小 戊子  23-1209</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では53丁巳であるが，逸史に戊午朔とある。したがって正月朔のユリウス暦日は1月21日となる。</t>
+    <rPh sb="26" eb="28">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では23丁亥であるが，逸史に戊子朔とある。したがって2月朔のユリウス暦日は2月20日となる。</t>
+    <rPh sb="29" eb="30">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天長 5年 3 小 丁巳  52-2600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では52丙辰であるが，逸史によれば丁巳朔，閏3月丙戌朔であるから3月朔は丁巳以外にない。したがって3月朔のユリウス暦日は3月20日となる。</t>
+    <rPh sb="23" eb="24">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天長 7年 6 小 甲辰 39-1519</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逸史巻30，2月癸亥朔とある。したがって2月朔日のユリウス暦日は2月26日。</t>
+    <rPh sb="10" eb="11">
+      <t>サクジテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逸史巻38，6月甲辰朔とある。計算は39癸卯，したがって6月朔のユリウス暦日は6月25日。</t>
+    <rPh sb="10" eb="11">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>2021/07/27</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天長 7年 7 小 癸酉 8-2856</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では8壬申であるが，癸酉にしなければ6月が28日になってしまう。したがって7月朔のユリウス暦日は7月24日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では30甲午, 逸史により乙未，計算C）では乙未−25。したがって正月朔のユリウス暦日は2月6日。</t>
+    <rPh sb="10" eb="11">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ニホンキ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 2年 1 小 丁未 42-2793</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は42丙午，続日本後紀により丁未，したがって正月朔ユリウス暦日は2月2日となる。天長10年より嘉祥2年（西暦849年）までは続日本後紀に全月朔干支がでている。それによると，この頁の3年間で計算と干支の違うのはこの承和2年正月のみで，この年の4月，10月などは小余が大きくても進朔していないことがわかる。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナガイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイレキ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ゼn</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t xml:space="preserve">サク </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カンセィ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t xml:space="preserve">ページ </t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>カンセィ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>トセィ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 3年 8 小 戊戌 33-2996</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は33丁酉，続後紀戊戌朔，したがって8月朔日のユリウス暦日は9月15日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>_x0002__x0004__x0008__x0001_</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>_x0006_	_x0001_</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">	
+_x0001__x000B__x000D_</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>_x0001__x000F__x0015_</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 3年 10 小 丁酉 32-3000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は32丙申，続後紀丁酉朔，したがって10月朔日のユリウス暦日は11月13日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>_x0002__x0004__x0008__x0001_</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>_x0006_	_x0001_</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">	
+_x0001__x000B__x000D_</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>_x0001__x000F__x0016_</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 5年 9 小 丙辰 51-2800</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は51乙卯，続後紀丙辰朔，したがって9月朔日のユリウス暦日は9月23日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>_x0002__x0004__x0006__x0001_</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 6年 8 小 庚戌 45-2916</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は45己酉，続後紀は庚戌朔，したがって8月朔日のユリウス暦日は9月12日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>_x0002__x0004__x0005__x0001_</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 6年 12 小 己酉 44-2892</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は44戊申，続後紀は己酉朔，したがって12月朔日のユリウス暦日は1月9日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>_x0002__x0004__x0005__x0001_</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 9年 3 小 丙申 31-2738</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は31乙未，続後紀は丙申朔，したがって3月朔日のユリウス暦日は4月15日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>_x0002__x0004__x0007__x0001_</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 9年 12 小 辛酉 56-2661</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は56庚申，続後紀は辛酉朔，したがって12月朔日のユリウス暦日は1月5日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>_x0002__x0004__x0005__x0001_</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 11年 6 小 癸丑 48-2934</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は48壬子，続後紀は癸丑朔，したがって6月朔日のユリウス暦日は6月20日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>_x0002__x0004__x0005__x0001_</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 11年 9 小 辛亥 46-2695</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は46庚戌，続後紀は辛亥朔，したがって9月朔日のユリウス暦日は10月16日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 12年 10 小 乙亥 10-2799</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は10甲戌，続後紀は乙亥朔，したがって10月朔日のユリウス暦日は11月4日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 12年 12 小 甲戌 9-2726</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 13年 11 小 己亥  34-2812</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 14年 5 小 乙丑 0-2867</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承和 14年 11 小 癸亥 58-2640</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は9癸酉，続後紀は甲戌朔，したがって12月朔日のユリウス暦日は1月2日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は34戊戌，続後紀は己亥朔，したがって11月朔日のユリウス暦日は11月23日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は0甲子，続後紀は乙丑朔，したがって5月朔日のユリウス暦日は6月17日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は58壬戌，続後紀は癸亥朔，したがって11月朔日のユリウス暦日は12月12日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嘉祥 1年 11 小 丁巳 52-2966</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は52丙辰，続後紀は丁巳朔，したがって11月朔日のユリウス暦日は11月30日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嘉祥 2年 11 小 辛亥 46-2922</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は46庚戌，続後紀は辛亥朔，したがって11月朔日のユリウス暦日は11月19日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>嘉祥 3年 2 小 庚戌  45-2860</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は45己酉，続後紀は庚戌朔，したがって2月朔日のユリウス暦日は3月18日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仁寿 3年 7 小 庚寅 25-2763</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は25己丑，文徳実録は庚寅朔，したがって7月朔日のユリウス暦日は8月9日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>_x0002__x0004_</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斎衡 1年 12 大 壬子 47-2602</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では47辛亥であるが，文徳実録によれば，斎衡元年10月壬子朔，同2年正月壬午朔とあるから，12月朔は壬子でなければならない。したがってこの日のユリウス日は12月24日になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ブントク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガンネn</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>_x0004__x000D__x0004__x0008__x0018_</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>_x0002__x000C__x001C_</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>_x0001__x000F_</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>_x001F__x0001__x0014_!_x0001__x0017_</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>#_x0001__x0019_</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>$_x0002__x001F_</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>&amp;_x0002_"</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>(_x0001_%1_x0001_</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>(2</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>_x0001_-</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>G_x0001_/</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では17辛巳，小余が小さく進朔とは思えない。文徳実録により壬午，したがって元日のユリウス暦日は1月23日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チイサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモエ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ブントク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジn</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガンジテゥ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斎衡 2年 2 小 辛亥 46-2139</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では46庚戌となるが，文徳実録に正月壬午朔，4月己酉朔とあるから2月朔は辛亥しかない。したがって2月朔のユリウス暦日は2月21日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ブントク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>2021/07/27</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斎衡 2年 12 小 丙子 11-2894</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斎衡 3年 10 小 辛未 6-2919</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は11乙亥，文徳実録は丙子朔，したがって12月朔日のユリウス暦日は1月12日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>_x0002__x0004_</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は6庚午，文徳実録は辛未朔，したがって10月朔日のユリウス暦日は11月2日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイ_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>_x0002__x0004_</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天安 1年 1 小 庚子 35-2985</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は35己亥，文徳実録は庚子朔，したがって正月朔日のユリウス暦日は1月30日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t/>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天安 1年 10 小 乙丑  0-2932</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は0甲子，文徳実録は乙丑朔，したがって10月朔日のユリウス暦日は10月22日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天安 2年 2 小 甲子 59-2856</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は59癸亥，文徳実録は甲子朔，したがって2月朔日のユリウス暦日は2月18日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は18壬午，三代実録は癸未朔，したがって10月朔日のユリウス暦日は10月30日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貞観 2年 2 小 壬午 17-2710</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は17辛巳，三代実録は壬午朔，したがって2月朔日のユリウス暦日は2月26日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貞観 2年 閏10 大 丁未  42-2908</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は42丙午，三代実録は丁未朔，したがって閏10月朔日のユリウス暦日は11月17日。この進朔によって中気を含まない月がずれ閏が9月から10月に変る。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シンサ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>フクマナ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は12丙子，しかし冬至が13丁丑であるから朔旦冬至にするため丁丑にかえた。したがって11月朔日のユリウス暦日は12月17日である。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガンタn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は11乙亥，三代実録は丙子朔，したがって正月朔日のユリウス暦日は2月14日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貞観 3年 4 小 乙巳 40-2910</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貞観 3年 6 小 甲辰 39-2990</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は40甲辰，三代実録は乙巳朔，したがって4月朔日のユリウス暦日は5月14日，五紀暦では41（乙巳）ー14とでる。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t xml:space="preserve">イツツ </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">キ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>レキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は39癸卯，三代実録は甲辰朔，したがって6月朔日のユリウス暦日は7月12日。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ショウガテゥ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6669,7 +7952,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -6691,6 +7974,19 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
       <family val="2"/>
       <charset val="128"/>
@@ -7022,7 +8318,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7189,6 +8485,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8350,11 +9658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG447"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="211" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H91" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomRight" activeCell="I247" sqref="I247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -8681,7 +9989,7 @@
         <v>1429</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>1639</v>
+        <v>1585</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="35" t="s">
@@ -8856,10 +10164,10 @@
         <v>1190</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>1640</v>
+        <v>1586</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>1641</v>
+        <v>1587</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="35" t="s">
@@ -9092,10 +10400,10 @@
         <v>1194</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>1642</v>
+        <v>1588</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>1644</v>
+        <v>1590</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="35" t="s">
@@ -9137,7 +10445,7 @@
         <v>956</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1645</v>
+        <v>1591</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>957</v>
@@ -9152,7 +10460,7 @@
         <v>1195</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>1647</v>
+        <v>1593</v>
       </c>
       <c r="I13" s="35" t="s">
         <v>912</v>
@@ -9197,7 +10505,7 @@
         <v>957</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1645</v>
+        <v>1591</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>912</v>
@@ -9212,10 +10520,10 @@
         <v>1196</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>1648</v>
+        <v>1594</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>1649</v>
+        <v>1595</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="35" t="s">
@@ -9254,7 +10562,7 @@
     </row>
     <row r="15" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
       <c r="B15" s="29" t="s">
-        <v>1645</v>
+        <v>1591</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>912</v>
@@ -9275,7 +10583,7 @@
         <v>912</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>1646</v>
+        <v>1592</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="52" t="s">
@@ -9964,10 +11272,10 @@
         <v>1208</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>1650</v>
+        <v>1596</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>1651</v>
+        <v>1597</v>
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="35" t="s">
@@ -10084,10 +11392,10 @@
         <v>1210</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>1652</v>
+        <v>1598</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>1653</v>
+        <v>1599</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="35" t="s">
@@ -10204,10 +11512,10 @@
         <v>1212</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>1654</v>
+        <v>1600</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>1655</v>
+        <v>1601</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="35" t="s">
@@ -10324,10 +11632,10 @@
         <v>1214</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>1656</v>
+        <v>1602</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>1658</v>
+        <v>1604</v>
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="35" t="s">
@@ -10384,7 +11692,7 @@
         <v>1215</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>1657</v>
+        <v>1603</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>912</v>
@@ -10500,10 +11808,10 @@
         <v>1217</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>1659</v>
+        <v>1605</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>1660</v>
+        <v>1606</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="35" t="s">
@@ -10567,7 +11875,7 @@
         <v>1450</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>1661</v>
+        <v>1607</v>
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="35" t="s">
@@ -10628,10 +11936,10 @@
         <v>1218</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>1662</v>
+        <v>1608</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>1663</v>
+        <v>1609</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>932</v>
@@ -10746,10 +12054,10 @@
         <v>1220</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>1664</v>
+        <v>1610</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>1665</v>
+        <v>1611</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="35" t="s">
@@ -10809,7 +12117,7 @@
         <v>1452</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>1666</v>
+        <v>1612</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="35" t="s">
@@ -10870,10 +12178,10 @@
         <v>1222</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>1667</v>
+        <v>1613</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>1668</v>
+        <v>1614</v>
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="35" t="s">
@@ -11168,10 +12476,10 @@
         <v>1227</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>1669</v>
+        <v>1615</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>1670</v>
+        <v>1616</v>
       </c>
       <c r="J47" s="35"/>
       <c r="K47" s="35" t="s">
@@ -11346,10 +12654,10 @@
         <v>1230</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>1671</v>
+        <v>1617</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>1672</v>
+        <v>1618</v>
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="35" t="s">
@@ -11466,10 +12774,10 @@
         <v>1232</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>1674</v>
+        <v>1620</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>1675</v>
+        <v>1621</v>
       </c>
       <c r="J52" s="35"/>
       <c r="K52" s="35" t="s">
@@ -11644,10 +12952,10 @@
         <v>1235</v>
       </c>
       <c r="H55" s="50" t="s">
-        <v>1676</v>
+        <v>1622</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>1677</v>
+        <v>1623</v>
       </c>
       <c r="J55" s="35"/>
       <c r="K55" s="35" t="s">
@@ -11704,7 +13012,7 @@
         <v>1236</v>
       </c>
       <c r="H56" s="50" t="s">
-        <v>1678</v>
+        <v>1624</v>
       </c>
       <c r="I56" s="35" t="s">
         <v>912</v>
@@ -11767,7 +13075,7 @@
         <v>1462</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>1679</v>
+        <v>1625</v>
       </c>
       <c r="J57" s="35"/>
       <c r="K57" s="35" t="s">
@@ -11888,10 +13196,10 @@
         <v>1239</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>1680</v>
+        <v>1626</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>1681</v>
+        <v>1627</v>
       </c>
       <c r="J59" s="35"/>
       <c r="K59" s="35" t="s">
@@ -12012,10 +13320,10 @@
         <v>1241</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>1682</v>
+        <v>1628</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>1683</v>
+        <v>1629</v>
       </c>
       <c r="J61" s="35"/>
       <c r="K61" s="35" t="s">
@@ -12132,10 +13440,10 @@
         <v>1243</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>1684</v>
+        <v>1630</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>1685</v>
+        <v>1631</v>
       </c>
       <c r="J63" s="35"/>
       <c r="K63" s="35" t="s">
@@ -12368,10 +13676,10 @@
         <v>1247</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>1686</v>
+        <v>1632</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>1690</v>
+        <v>1636</v>
       </c>
       <c r="J67" s="35"/>
       <c r="K67" s="35" t="s">
@@ -12428,7 +13736,7 @@
         <v>1248</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>1687</v>
+        <v>1633</v>
       </c>
       <c r="I68" s="35" t="s">
         <v>912</v>
@@ -12488,7 +13796,7 @@
         <v>1249</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>1688</v>
+        <v>1634</v>
       </c>
       <c r="I69" s="35" t="s">
         <v>912</v>
@@ -12548,7 +13856,7 @@
         <v>1250</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>1689</v>
+        <v>1635</v>
       </c>
       <c r="I70" s="35" t="s">
         <v>912</v>
@@ -12668,10 +13976,10 @@
         <v>1252</v>
       </c>
       <c r="H72" s="50" t="s">
-        <v>1691</v>
+        <v>1637</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>1692</v>
+        <v>1638</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="35" t="s">
@@ -12728,7 +14036,7 @@
         <v>1253</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>1693</v>
+        <v>1639</v>
       </c>
       <c r="I73" s="55" t="s">
         <v>912</v>
@@ -12791,7 +14099,7 @@
         <v>1470</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>1694</v>
+        <v>1640</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="35" t="s">
@@ -12851,7 +14159,7 @@
         <v>1471</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>1695</v>
+        <v>1641</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="35" t="s">
@@ -12971,10 +14279,10 @@
         <v>1473</v>
       </c>
       <c r="I77" s="35" t="s">
-        <v>1698</v>
+        <v>1644</v>
       </c>
       <c r="J77" s="35" t="s">
-        <v>1697</v>
+        <v>1643</v>
       </c>
       <c r="K77" s="35" t="s">
         <v>942</v>
@@ -13090,10 +14398,10 @@
         <v>1259</v>
       </c>
       <c r="H79" s="50" t="s">
-        <v>1699</v>
+        <v>1645</v>
       </c>
       <c r="I79" s="35" t="s">
-        <v>1700</v>
+        <v>1646</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="35" t="s">
@@ -13153,7 +14461,7 @@
         <v>1475</v>
       </c>
       <c r="I80" s="35" t="s">
-        <v>1701</v>
+        <v>1647</v>
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="35" t="s">
@@ -13213,7 +14521,7 @@
         <v>1476</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>1702</v>
+        <v>1648</v>
       </c>
       <c r="J81" s="35" t="s">
         <v>934</v>
@@ -13331,7 +14639,7 @@
         <v>1478</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="35" t="s">
@@ -13451,7 +14759,7 @@
         <v>1480</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>1704</v>
+        <v>1650</v>
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="35" t="s">
@@ -13571,7 +14879,7 @@
         <v>1482</v>
       </c>
       <c r="I87" s="35" t="s">
-        <v>1705</v>
+        <v>1651</v>
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="35" t="s">
@@ -13804,10 +15112,10 @@
         <v>1271</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>1706</v>
+        <v>1652</v>
       </c>
       <c r="I91" s="35" t="s">
-        <v>1708</v>
+        <v>1654</v>
       </c>
       <c r="J91" s="35"/>
       <c r="K91" s="35" t="s">
@@ -13927,7 +15235,7 @@
         <v>1487</v>
       </c>
       <c r="I93" s="35" t="s">
-        <v>1709</v>
+        <v>1655</v>
       </c>
       <c r="J93" s="35"/>
       <c r="K93" s="35" t="s">
@@ -14047,7 +15355,7 @@
         <v>1489</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>1710</v>
+        <v>1656</v>
       </c>
       <c r="J95" s="35"/>
       <c r="K95" s="35" t="s">
@@ -14222,10 +15530,10 @@
         <v>1278</v>
       </c>
       <c r="H98" s="50" t="s">
-        <v>1707</v>
+        <v>1653</v>
       </c>
       <c r="I98" s="35" t="s">
-        <v>1711</v>
+        <v>1657</v>
       </c>
       <c r="J98" s="35"/>
       <c r="K98" s="35" t="s">
@@ -14458,10 +15766,10 @@
         <v>1282</v>
       </c>
       <c r="H102" s="50" t="s">
-        <v>1712</v>
+        <v>1658</v>
       </c>
       <c r="I102" s="35" t="s">
-        <v>1713</v>
+        <v>1659</v>
       </c>
       <c r="J102" s="35"/>
       <c r="K102" s="35" t="s">
@@ -14580,7 +15888,9 @@
       <c r="H104" s="50" t="s">
         <v>1496</v>
       </c>
-      <c r="I104" s="35"/>
+      <c r="I104" s="35" t="s">
+        <v>1660</v>
+      </c>
       <c r="J104" s="35"/>
       <c r="K104" s="35" t="s">
         <v>942</v>
@@ -14638,7 +15948,9 @@
       <c r="H105" s="50" t="s">
         <v>1497</v>
       </c>
-      <c r="I105" s="35"/>
+      <c r="I105" s="55" t="s">
+        <v>912</v>
+      </c>
       <c r="J105" s="35"/>
       <c r="K105" s="35" t="s">
         <v>942</v>
@@ -14694,9 +16006,11 @@
         <v>1286</v>
       </c>
       <c r="H106" s="50" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I106" s="35"/>
+        <v>1661</v>
+      </c>
+      <c r="I106" s="35" t="s">
+        <v>1662</v>
+      </c>
       <c r="J106" s="35"/>
       <c r="K106" s="35" t="s">
         <v>942</v>
@@ -14752,9 +16066,11 @@
         <v>1287</v>
       </c>
       <c r="H107" s="50" t="s">
-        <v>1499</v>
-      </c>
-      <c r="I107" s="35"/>
+        <v>1498</v>
+      </c>
+      <c r="I107" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J107" s="35"/>
       <c r="K107" s="35" t="s">
         <v>942</v>
@@ -14810,9 +16126,11 @@
         <v>1288</v>
       </c>
       <c r="H108" s="50" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I108" s="35"/>
+        <v>1663</v>
+      </c>
+      <c r="I108" s="35" t="s">
+        <v>1664</v>
+      </c>
       <c r="J108" s="35"/>
       <c r="K108" s="35" t="s">
         <v>942</v>
@@ -14868,9 +16186,11 @@
         <v>1289</v>
       </c>
       <c r="H109" s="50" t="s">
-        <v>1501</v>
-      </c>
-      <c r="I109" s="35"/>
+        <v>1499</v>
+      </c>
+      <c r="I109" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J109" s="35"/>
       <c r="K109" s="35" t="s">
         <v>942</v>
@@ -14926,9 +16246,11 @@
         <v>1290</v>
       </c>
       <c r="H110" s="50" t="s">
-        <v>1502</v>
-      </c>
-      <c r="I110" s="35"/>
+        <v>1500</v>
+      </c>
+      <c r="I110" s="35" t="s">
+        <v>1665</v>
+      </c>
       <c r="J110" s="35"/>
       <c r="K110" s="35" t="s">
         <v>942</v>
@@ -14984,9 +16306,11 @@
         <v>1291</v>
       </c>
       <c r="H111" s="50" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I111" s="35"/>
+        <v>1501</v>
+      </c>
+      <c r="I111" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J111" s="35" t="s">
         <v>934</v>
       </c>
@@ -15040,9 +16364,11 @@
         <v>1292</v>
       </c>
       <c r="H112" s="50" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I112" s="35"/>
+        <v>1502</v>
+      </c>
+      <c r="I112" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J112" s="35" t="s">
         <v>934</v>
       </c>
@@ -15096,9 +16422,11 @@
         <v>1293</v>
       </c>
       <c r="H113" s="50" t="s">
-        <v>1505</v>
-      </c>
-      <c r="I113" s="35"/>
+        <v>1503</v>
+      </c>
+      <c r="I113" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J113" s="35" t="s">
         <v>934</v>
       </c>
@@ -15152,9 +16480,11 @@
         <v>1294</v>
       </c>
       <c r="H114" s="50" t="s">
-        <v>1506</v>
-      </c>
-      <c r="I114" s="35"/>
+        <v>1504</v>
+      </c>
+      <c r="I114" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J114" s="35"/>
       <c r="K114" s="35" t="s">
         <v>942</v>
@@ -15210,9 +16540,11 @@
         <v>1295</v>
       </c>
       <c r="H115" s="50" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I115" s="35"/>
+        <v>1666</v>
+      </c>
+      <c r="I115" s="35" t="s">
+        <v>1667</v>
+      </c>
       <c r="J115" s="35"/>
       <c r="K115" s="35" t="s">
         <v>942</v>
@@ -15268,9 +16600,11 @@
         <v>1296</v>
       </c>
       <c r="H116" s="50" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I116" s="35"/>
+        <v>1505</v>
+      </c>
+      <c r="I116" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J116" s="35"/>
       <c r="K116" s="35" t="s">
         <v>942</v>
@@ -15326,9 +16660,11 @@
         <v>1297</v>
       </c>
       <c r="H117" s="50" t="s">
-        <v>1509</v>
-      </c>
-      <c r="I117" s="35"/>
+        <v>1506</v>
+      </c>
+      <c r="I117" s="35" t="s">
+        <v>1668</v>
+      </c>
       <c r="J117" s="35"/>
       <c r="K117" s="35" t="s">
         <v>942</v>
@@ -15384,9 +16720,11 @@
         <v>1298</v>
       </c>
       <c r="H118" s="50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I118" s="35"/>
+        <v>1507</v>
+      </c>
+      <c r="I118" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J118" s="35"/>
       <c r="K118" s="35" t="s">
         <v>942</v>
@@ -15442,9 +16780,11 @@
         <v>1299</v>
       </c>
       <c r="H119" s="50" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I119" s="35"/>
+        <v>1669</v>
+      </c>
+      <c r="I119" s="35" t="s">
+        <v>1670</v>
+      </c>
       <c r="J119" s="35"/>
       <c r="K119" s="35" t="s">
         <v>942</v>
@@ -15500,9 +16840,11 @@
         <v>1300</v>
       </c>
       <c r="H120" s="50" t="s">
-        <v>1512</v>
-      </c>
-      <c r="I120" s="35"/>
+        <v>1508</v>
+      </c>
+      <c r="I120" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J120" s="35"/>
       <c r="K120" s="35" t="s">
         <v>942</v>
@@ -15558,9 +16900,11 @@
         <v>1301</v>
       </c>
       <c r="H121" s="50" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I121" s="35"/>
+        <v>1671</v>
+      </c>
+      <c r="I121" s="35" t="s">
+        <v>1672</v>
+      </c>
       <c r="J121" s="35"/>
       <c r="K121" s="35" t="s">
         <v>942</v>
@@ -15616,9 +16960,11 @@
         <v>1302</v>
       </c>
       <c r="H122" s="50" t="s">
-        <v>1514</v>
-      </c>
-      <c r="I122" s="35"/>
+        <v>1509</v>
+      </c>
+      <c r="I122" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J122" s="35" t="s">
         <v>934</v>
       </c>
@@ -15672,9 +17018,11 @@
         <v>1303</v>
       </c>
       <c r="H123" s="50" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I123" s="35"/>
+        <v>1510</v>
+      </c>
+      <c r="I123" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J123" s="35"/>
       <c r="K123" s="35" t="s">
         <v>942</v>
@@ -15730,9 +17078,11 @@
         <v>1304</v>
       </c>
       <c r="H124" s="50" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I124" s="35"/>
+        <v>1673</v>
+      </c>
+      <c r="I124" s="35" t="s">
+        <v>1674</v>
+      </c>
       <c r="J124" s="35"/>
       <c r="K124" s="35" t="s">
         <v>942</v>
@@ -15788,9 +17138,11 @@
         <v>1305</v>
       </c>
       <c r="H125" s="50" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I125" s="35"/>
+        <v>1511</v>
+      </c>
+      <c r="I125" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J125" s="35"/>
       <c r="K125" s="35" t="s">
         <v>942</v>
@@ -15846,9 +17198,11 @@
         <v>1306</v>
       </c>
       <c r="H126" s="50" t="s">
-        <v>1518</v>
-      </c>
-      <c r="I126" s="35"/>
+        <v>1675</v>
+      </c>
+      <c r="I126" s="35" t="s">
+        <v>1676</v>
+      </c>
       <c r="J126" s="35"/>
       <c r="K126" s="35" t="s">
         <v>942</v>
@@ -15904,9 +17258,11 @@
         <v>1307</v>
       </c>
       <c r="H127" s="50" t="s">
-        <v>1519</v>
-      </c>
-      <c r="I127" s="35"/>
+        <v>1512</v>
+      </c>
+      <c r="I127" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J127" s="35" t="s">
         <v>934</v>
       </c>
@@ -15960,9 +17316,11 @@
         <v>1308</v>
       </c>
       <c r="H128" s="50" t="s">
-        <v>1520</v>
-      </c>
-      <c r="I128" s="35"/>
+        <v>1513</v>
+      </c>
+      <c r="I128" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J128" s="35" t="s">
         <v>934</v>
       </c>
@@ -16016,9 +17374,11 @@
         <v>1309</v>
       </c>
       <c r="H129" s="50" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I129" s="35"/>
+        <v>1514</v>
+      </c>
+      <c r="I129" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J129" s="35" t="s">
         <v>934</v>
       </c>
@@ -16072,9 +17432,11 @@
         <v>1310</v>
       </c>
       <c r="H130" s="50" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I130" s="35"/>
+        <v>1515</v>
+      </c>
+      <c r="I130" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J130" s="35"/>
       <c r="K130" s="35" t="s">
         <v>942</v>
@@ -16130,9 +17492,11 @@
         <v>1311</v>
       </c>
       <c r="H131" s="50" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I131" s="35"/>
+        <v>1677</v>
+      </c>
+      <c r="I131" s="35" t="s">
+        <v>1678</v>
+      </c>
       <c r="J131" s="35"/>
       <c r="K131" s="35" t="s">
         <v>942</v>
@@ -16188,9 +17552,11 @@
         <v>1312</v>
       </c>
       <c r="H132" s="50" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I132" s="35"/>
+        <v>1516</v>
+      </c>
+      <c r="I132" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J132" s="35" t="s">
         <v>934</v>
       </c>
@@ -16244,9 +17610,11 @@
         <v>1313</v>
       </c>
       <c r="H133" s="50" t="s">
-        <v>1525</v>
-      </c>
-      <c r="I133" s="35"/>
+        <v>1517</v>
+      </c>
+      <c r="I133" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J133" s="35"/>
       <c r="K133" s="35" t="s">
         <v>942</v>
@@ -16302,9 +17670,11 @@
         <v>1314</v>
       </c>
       <c r="H134" s="50" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I134" s="35"/>
+        <v>1679</v>
+      </c>
+      <c r="I134" s="35" t="s">
+        <v>1680</v>
+      </c>
       <c r="J134" s="35"/>
       <c r="K134" s="35" t="s">
         <v>942</v>
@@ -16360,9 +17730,11 @@
         <v>1315</v>
       </c>
       <c r="H135" s="50" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I135" s="35"/>
+        <v>1518</v>
+      </c>
+      <c r="I135" s="35" t="s">
+        <v>1681</v>
+      </c>
       <c r="J135" s="35"/>
       <c r="K135" s="35" t="s">
         <v>942</v>
@@ -16418,9 +17790,11 @@
         <v>1316</v>
       </c>
       <c r="H136" s="50" t="s">
-        <v>1528</v>
-      </c>
-      <c r="I136" s="35"/>
+        <v>1519</v>
+      </c>
+      <c r="I136" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J136" s="35"/>
       <c r="K136" s="35" t="s">
         <v>942</v>
@@ -16476,9 +17850,11 @@
         <v>1317</v>
       </c>
       <c r="H137" s="50" t="s">
-        <v>1529</v>
-      </c>
-      <c r="I137" s="35"/>
+        <v>1682</v>
+      </c>
+      <c r="I137" s="35" t="s">
+        <v>1683</v>
+      </c>
       <c r="J137" s="35"/>
       <c r="K137" s="35" t="s">
         <v>942</v>
@@ -16534,9 +17910,11 @@
         <v>1318</v>
       </c>
       <c r="H138" s="50" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I138" s="35"/>
+        <v>1520</v>
+      </c>
+      <c r="I138" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J138" s="35" t="s">
         <v>934</v>
       </c>
@@ -16590,9 +17968,11 @@
         <v>1319</v>
       </c>
       <c r="H139" s="50" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I139" s="35"/>
+        <v>1521</v>
+      </c>
+      <c r="I139" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J139" s="35"/>
       <c r="K139" s="35" t="s">
         <v>942</v>
@@ -16648,9 +18028,11 @@
         <v>1320</v>
       </c>
       <c r="H140" s="50" t="s">
-        <v>1532</v>
-      </c>
-      <c r="I140" s="35"/>
+        <v>1684</v>
+      </c>
+      <c r="I140" s="35" t="s">
+        <v>1685</v>
+      </c>
       <c r="J140" s="35"/>
       <c r="K140" s="35" t="s">
         <v>942</v>
@@ -16706,9 +18088,11 @@
         <v>1321</v>
       </c>
       <c r="H141" s="50" t="s">
-        <v>1533</v>
-      </c>
-      <c r="I141" s="35"/>
+        <v>1522</v>
+      </c>
+      <c r="I141" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J141" s="35" t="s">
         <v>934</v>
       </c>
@@ -16762,9 +18146,11 @@
         <v>1322</v>
       </c>
       <c r="H142" s="50" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I142" s="35"/>
+        <v>1523</v>
+      </c>
+      <c r="I142" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J142" s="35"/>
       <c r="K142" s="35" t="s">
         <v>942</v>
@@ -16820,9 +18206,11 @@
         <v>1323</v>
       </c>
       <c r="H143" s="50" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I143" s="35"/>
+        <v>1686</v>
+      </c>
+      <c r="I143" s="35" t="s">
+        <v>1687</v>
+      </c>
       <c r="J143" s="35"/>
       <c r="K143" s="35" t="s">
         <v>942</v>
@@ -16878,9 +18266,11 @@
         <v>1324</v>
       </c>
       <c r="H144" s="50" t="s">
-        <v>1536</v>
-      </c>
-      <c r="I144" s="35"/>
+        <v>1524</v>
+      </c>
+      <c r="I144" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J144" s="35" t="s">
         <v>934</v>
       </c>
@@ -16934,9 +18324,11 @@
         <v>1325</v>
       </c>
       <c r="H145" s="50" t="s">
-        <v>1537</v>
-      </c>
-      <c r="I145" s="35"/>
+        <v>1525</v>
+      </c>
+      <c r="I145" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J145" s="35"/>
       <c r="K145" s="35" t="s">
         <v>942</v>
@@ -16992,9 +18384,11 @@
         <v>1326</v>
       </c>
       <c r="H146" s="50" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I146" s="35"/>
+        <v>1688</v>
+      </c>
+      <c r="I146" s="35" t="s">
+        <v>1689</v>
+      </c>
       <c r="J146" s="35"/>
       <c r="K146" s="35" t="s">
         <v>942</v>
@@ -17050,9 +18444,11 @@
         <v>1327</v>
       </c>
       <c r="H147" s="50" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I147" s="35"/>
+        <v>1526</v>
+      </c>
+      <c r="I147" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J147" s="35" t="s">
         <v>934</v>
       </c>
@@ -17106,9 +18502,11 @@
         <v>1328</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I148" s="35"/>
+        <v>1527</v>
+      </c>
+      <c r="I148" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J148" s="35" t="s">
         <v>934</v>
       </c>
@@ -17162,9 +18560,11 @@
         <v>1329</v>
       </c>
       <c r="H149" s="50" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I149" s="35"/>
+        <v>1528</v>
+      </c>
+      <c r="I149" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J149" s="35"/>
       <c r="K149" s="35" t="s">
         <v>942</v>
@@ -17220,9 +18620,11 @@
         <v>1330</v>
       </c>
       <c r="H150" s="50" t="s">
-        <v>1542</v>
-      </c>
-      <c r="I150" s="35"/>
+        <v>1690</v>
+      </c>
+      <c r="I150" s="35" t="s">
+        <v>1691</v>
+      </c>
       <c r="J150" s="35"/>
       <c r="K150" s="35" t="s">
         <v>942</v>
@@ -17278,9 +18680,11 @@
         <v>1331</v>
       </c>
       <c r="H151" s="50" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I151" s="35"/>
+        <v>1529</v>
+      </c>
+      <c r="I151" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J151" s="35"/>
       <c r="K151" s="35" t="s">
         <v>942</v>
@@ -17336,9 +18740,11 @@
         <v>1332</v>
       </c>
       <c r="H152" s="50" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I152" s="35"/>
+        <v>1692</v>
+      </c>
+      <c r="I152" s="35" t="s">
+        <v>1694</v>
+      </c>
       <c r="J152" s="35"/>
       <c r="K152" s="35" t="s">
         <v>942</v>
@@ -17394,9 +18800,11 @@
         <v>1333</v>
       </c>
       <c r="H153" s="50" t="s">
-        <v>1545</v>
-      </c>
-      <c r="I153" s="35"/>
+        <v>1530</v>
+      </c>
+      <c r="I153" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J153" s="35"/>
       <c r="K153" s="35" t="s">
         <v>942</v>
@@ -17452,9 +18860,11 @@
         <v>1334</v>
       </c>
       <c r="H154" s="50" t="s">
-        <v>1546</v>
-      </c>
-      <c r="I154" s="35"/>
+        <v>1693</v>
+      </c>
+      <c r="I154" s="35" t="s">
+        <v>1695</v>
+      </c>
       <c r="J154" s="35"/>
       <c r="K154" s="35" t="s">
         <v>942</v>
@@ -17510,9 +18920,11 @@
         <v>1335</v>
       </c>
       <c r="H155" s="50" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I155" s="35"/>
+        <v>1696</v>
+      </c>
+      <c r="I155" s="35" t="s">
+        <v>1697</v>
+      </c>
       <c r="J155" s="35"/>
       <c r="K155" s="35" t="s">
         <v>942</v>
@@ -17568,9 +18980,11 @@
         <v>1336</v>
       </c>
       <c r="H156" s="50" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I156" s="35"/>
+        <v>1531</v>
+      </c>
+      <c r="I156" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J156" s="35"/>
       <c r="K156" s="35" t="s">
         <v>942</v>
@@ -17626,9 +19040,11 @@
         <v>1337</v>
       </c>
       <c r="H157" s="50" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I157" s="35"/>
+        <v>1698</v>
+      </c>
+      <c r="I157" s="35" t="s">
+        <v>1699</v>
+      </c>
       <c r="J157" s="35"/>
       <c r="K157" s="35" t="s">
         <v>942</v>
@@ -17684,9 +19100,11 @@
         <v>1338</v>
       </c>
       <c r="H158" s="50" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I158" s="35"/>
+        <v>1532</v>
+      </c>
+      <c r="I158" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J158" s="35"/>
       <c r="K158" s="35" t="s">
         <v>942</v>
@@ -17742,9 +19160,11 @@
         <v>1339</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>1551</v>
-      </c>
-      <c r="I159" s="35"/>
+        <v>1533</v>
+      </c>
+      <c r="I159" s="35" t="s">
+        <v>1700</v>
+      </c>
       <c r="J159" s="35"/>
       <c r="K159" s="35" t="s">
         <v>942</v>
@@ -17800,9 +19220,11 @@
         <v>1340</v>
       </c>
       <c r="H160" s="50" t="s">
-        <v>1552</v>
-      </c>
-      <c r="I160" s="35"/>
+        <v>1534</v>
+      </c>
+      <c r="I160" s="35" t="s">
+        <v>1701</v>
+      </c>
       <c r="J160" s="35"/>
       <c r="K160" s="35" t="s">
         <v>942</v>
@@ -17858,9 +19280,11 @@
         <v>1341</v>
       </c>
       <c r="H161" s="50" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I161" s="35"/>
+        <v>1535</v>
+      </c>
+      <c r="I161" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J161" s="35"/>
       <c r="K161" s="35" t="s">
         <v>942</v>
@@ -17916,9 +19340,11 @@
         <v>1342</v>
       </c>
       <c r="H162" s="50" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I162" s="35"/>
+        <v>1702</v>
+      </c>
+      <c r="I162" s="35" t="s">
+        <v>1711</v>
+      </c>
       <c r="J162" s="35"/>
       <c r="K162" s="35" t="s">
         <v>942</v>
@@ -17974,9 +19400,11 @@
         <v>1343</v>
       </c>
       <c r="H163" s="50" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I163" s="35"/>
+        <v>1536</v>
+      </c>
+      <c r="I163" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J163" s="35" t="s">
         <v>934</v>
       </c>
@@ -18030,9 +19458,11 @@
         <v>1344</v>
       </c>
       <c r="H164" s="50" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I164" s="35"/>
+        <v>1537</v>
+      </c>
+      <c r="I164" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J164" s="35" t="s">
         <v>934</v>
       </c>
@@ -18086,9 +19516,11 @@
         <v>1345</v>
       </c>
       <c r="H165" s="50" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I165" s="35"/>
+        <v>1538</v>
+      </c>
+      <c r="I165" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J165" s="35" t="s">
         <v>934</v>
       </c>
@@ -18142,9 +19574,11 @@
         <v>1346</v>
       </c>
       <c r="H166" s="50" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I166" s="35"/>
+        <v>1539</v>
+      </c>
+      <c r="I166" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J166" s="35"/>
       <c r="K166" s="35" t="s">
         <v>942</v>
@@ -18200,9 +19634,11 @@
         <v>1345</v>
       </c>
       <c r="H167" s="50" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I167" s="35"/>
+        <v>1538</v>
+      </c>
+      <c r="I167" s="35" t="s">
+        <v>1703</v>
+      </c>
       <c r="J167" s="35"/>
       <c r="K167" s="35" t="s">
         <v>942</v>
@@ -18258,9 +19694,11 @@
         <v>1347</v>
       </c>
       <c r="H168" s="50" t="s">
-        <v>1559</v>
-      </c>
-      <c r="I168" s="35"/>
+        <v>1540</v>
+      </c>
+      <c r="I168" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J168" s="35" t="s">
         <v>934</v>
       </c>
@@ -18314,9 +19752,11 @@
         <v>1348</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>1560</v>
-      </c>
-      <c r="I169" s="35"/>
+        <v>1541</v>
+      </c>
+      <c r="I169" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J169" s="35" t="s">
         <v>934</v>
       </c>
@@ -18370,9 +19810,11 @@
         <v>1349</v>
       </c>
       <c r="H170" s="50" t="s">
-        <v>1561</v>
-      </c>
-      <c r="I170" s="35"/>
+        <v>1542</v>
+      </c>
+      <c r="I170" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J170" s="35"/>
       <c r="K170" s="35" t="s">
         <v>942</v>
@@ -18428,9 +19870,11 @@
         <v>1350</v>
       </c>
       <c r="H171" s="50" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I171" s="35"/>
+        <v>1704</v>
+      </c>
+      <c r="I171" s="35" t="s">
+        <v>1706</v>
+      </c>
       <c r="J171" s="35"/>
       <c r="K171" s="35" t="s">
         <v>942</v>
@@ -18486,9 +19930,11 @@
         <v>1351</v>
       </c>
       <c r="H172" s="50" t="s">
-        <v>1563</v>
-      </c>
-      <c r="I172" s="35"/>
+        <v>1705</v>
+      </c>
+      <c r="I172" s="35" t="s">
+        <v>1707</v>
+      </c>
       <c r="J172" s="35"/>
       <c r="K172" s="35" t="s">
         <v>942</v>
@@ -18544,9 +19990,11 @@
         <v>1352</v>
       </c>
       <c r="H173" s="50" t="s">
-        <v>1564</v>
-      </c>
-      <c r="I173" s="35"/>
+        <v>1708</v>
+      </c>
+      <c r="I173" s="35" t="s">
+        <v>1709</v>
+      </c>
       <c r="J173" s="35"/>
       <c r="K173" s="35" t="s">
         <v>942</v>
@@ -18602,9 +20050,11 @@
         <v>1353</v>
       </c>
       <c r="H174" s="50" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I174" s="35"/>
+        <v>1543</v>
+      </c>
+      <c r="I174" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J174" s="35" t="s">
         <v>934</v>
       </c>
@@ -18658,9 +20108,11 @@
         <v>1354</v>
       </c>
       <c r="H175" s="50" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I175" s="35"/>
+        <v>1544</v>
+      </c>
+      <c r="I175" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J175" s="35"/>
       <c r="K175" s="35" t="s">
         <v>942</v>
@@ -18716,9 +20168,11 @@
         <v>1355</v>
       </c>
       <c r="H176" s="50" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I176" s="35"/>
+        <v>1710</v>
+      </c>
+      <c r="I176" s="35" t="s">
+        <v>1712</v>
+      </c>
       <c r="J176" s="35"/>
       <c r="K176" s="35" t="s">
         <v>942</v>
@@ -18774,9 +20228,11 @@
         <v>1356</v>
       </c>
       <c r="H177" s="50" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I177" s="35"/>
+        <v>1713</v>
+      </c>
+      <c r="I177" s="35" t="s">
+        <v>1714</v>
+      </c>
       <c r="J177" s="35"/>
       <c r="K177" s="35" t="s">
         <v>942</v>
@@ -18832,9 +20288,11 @@
         <v>1357</v>
       </c>
       <c r="H178" s="50" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I178" s="35"/>
+        <v>1545</v>
+      </c>
+      <c r="I178" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J178" s="35" t="s">
         <v>934</v>
       </c>
@@ -18888,9 +20346,11 @@
         <v>1358</v>
       </c>
       <c r="H179" s="50" t="s">
-        <v>1570</v>
-      </c>
-      <c r="I179" s="35"/>
+        <v>1546</v>
+      </c>
+      <c r="I179" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J179" s="35"/>
       <c r="K179" s="35" t="s">
         <v>942</v>
@@ -18946,9 +20406,11 @@
         <v>1359</v>
       </c>
       <c r="H180" s="50" t="s">
-        <v>1571</v>
-      </c>
-      <c r="I180" s="35"/>
+        <v>1547</v>
+      </c>
+      <c r="I180" s="35" t="s">
+        <v>1715</v>
+      </c>
       <c r="J180" s="35"/>
       <c r="K180" s="35" t="s">
         <v>942</v>
@@ -19004,9 +20466,11 @@
         <v>1360</v>
       </c>
       <c r="H181" s="50" t="s">
-        <v>1572</v>
-      </c>
-      <c r="I181" s="35"/>
+        <v>1548</v>
+      </c>
+      <c r="I181" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J181" s="33" t="s">
         <v>685</v>
       </c>
@@ -19060,9 +20524,11 @@
         <v>1361</v>
       </c>
       <c r="H182" s="50" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I182" s="35"/>
+        <v>1549</v>
+      </c>
+      <c r="I182" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J182" s="35"/>
       <c r="K182" s="35" t="s">
         <v>942</v>
@@ -19098,7 +20564,7 @@
       <c r="AF182" s="34"/>
       <c r="AG182" s="34"/>
     </row>
-    <row r="183" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
+    <row r="183" spans="2:33" s="20" customFormat="1" ht="102">
       <c r="B183" s="29" t="s">
         <v>996</v>
       </c>
@@ -19118,9 +20584,11 @@
         <v>1362</v>
       </c>
       <c r="H183" s="50" t="s">
-        <v>1574</v>
-      </c>
-      <c r="I183" s="35"/>
+        <v>1716</v>
+      </c>
+      <c r="I183" s="35" t="s">
+        <v>1717</v>
+      </c>
       <c r="J183" s="35"/>
       <c r="K183" s="35" t="s">
         <v>942</v>
@@ -19176,9 +20644,11 @@
         <v>1363</v>
       </c>
       <c r="H184" s="50" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I184" s="35"/>
+        <v>1550</v>
+      </c>
+      <c r="I184" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J184" s="35"/>
       <c r="K184" s="35" t="s">
         <v>942</v>
@@ -19234,9 +20704,11 @@
         <v>1364</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I185" s="35"/>
+        <v>1718</v>
+      </c>
+      <c r="I185" s="35" t="s">
+        <v>1719</v>
+      </c>
       <c r="J185" s="35"/>
       <c r="K185" s="35" t="s">
         <v>942</v>
@@ -19292,9 +20764,11 @@
         <v>1365</v>
       </c>
       <c r="H186" s="50" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I186" s="35"/>
+        <v>1551</v>
+      </c>
+      <c r="I186" s="55" t="s">
+        <v>912</v>
+      </c>
       <c r="J186" s="35"/>
       <c r="K186" s="35" t="s">
         <v>942</v>
@@ -19350,9 +20824,11 @@
         <v>1366</v>
       </c>
       <c r="H187" s="50" t="s">
-        <v>1578</v>
-      </c>
-      <c r="I187" s="35"/>
+        <v>1720</v>
+      </c>
+      <c r="I187" s="35" t="s">
+        <v>1721</v>
+      </c>
       <c r="J187" s="35"/>
       <c r="K187" s="35" t="s">
         <v>942</v>
@@ -19408,9 +20884,11 @@
         <v>1367</v>
       </c>
       <c r="H188" s="50" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I188" s="35"/>
+        <v>1552</v>
+      </c>
+      <c r="I188" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J188" s="35"/>
       <c r="K188" s="35" t="s">
         <v>942</v>
@@ -19466,9 +20944,11 @@
         <v>1368</v>
       </c>
       <c r="H189" s="50" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I189" s="35"/>
+        <v>1722</v>
+      </c>
+      <c r="I189" s="35" t="s">
+        <v>1723</v>
+      </c>
       <c r="J189" s="35"/>
       <c r="K189" s="35" t="s">
         <v>942</v>
@@ -19524,9 +21004,11 @@
         <v>1369</v>
       </c>
       <c r="H190" s="50" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I190" s="35"/>
+        <v>1553</v>
+      </c>
+      <c r="I190" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J190" s="35"/>
       <c r="K190" s="35" t="s">
         <v>942</v>
@@ -19582,9 +21064,11 @@
         <v>1370</v>
       </c>
       <c r="H191" s="50" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I191" s="35"/>
+        <v>1724</v>
+      </c>
+      <c r="I191" s="35" t="s">
+        <v>1725</v>
+      </c>
       <c r="J191" s="35"/>
       <c r="K191" s="35" t="s">
         <v>942</v>
@@ -19640,9 +21124,11 @@
         <v>1371</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I192" s="35"/>
+        <v>1554</v>
+      </c>
+      <c r="I192" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J192" s="35"/>
       <c r="K192" s="35" t="s">
         <v>942</v>
@@ -19698,9 +21184,11 @@
         <v>1372</v>
       </c>
       <c r="H193" s="50" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I193" s="35"/>
+        <v>1726</v>
+      </c>
+      <c r="I193" s="35" t="s">
+        <v>1727</v>
+      </c>
       <c r="J193" s="35"/>
       <c r="K193" s="35" t="s">
         <v>942</v>
@@ -19756,9 +21244,11 @@
         <v>1373</v>
       </c>
       <c r="H194" s="50" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I194" s="35"/>
+        <v>1555</v>
+      </c>
+      <c r="I194" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J194" s="35"/>
       <c r="K194" s="35" t="s">
         <v>942</v>
@@ -19814,9 +21304,11 @@
         <v>1374</v>
       </c>
       <c r="H195" s="50" t="s">
-        <v>1586</v>
-      </c>
-      <c r="I195" s="35"/>
+        <v>1728</v>
+      </c>
+      <c r="I195" s="35" t="s">
+        <v>1729</v>
+      </c>
       <c r="J195" s="35"/>
       <c r="K195" s="35" t="s">
         <v>942</v>
@@ -19872,9 +21364,11 @@
         <v>1375</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>1587</v>
-      </c>
-      <c r="I196" s="35"/>
+        <v>1556</v>
+      </c>
+      <c r="I196" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J196" s="35"/>
       <c r="K196" s="35" t="s">
         <v>942</v>
@@ -19930,9 +21424,11 @@
         <v>1376</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>1588</v>
-      </c>
-      <c r="I197" s="35"/>
+        <v>1730</v>
+      </c>
+      <c r="I197" s="35" t="s">
+        <v>1731</v>
+      </c>
       <c r="J197" s="35"/>
       <c r="K197" s="35" t="s">
         <v>942</v>
@@ -19988,9 +21484,11 @@
         <v>1377</v>
       </c>
       <c r="H198" s="50" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I198" s="35"/>
+        <v>1557</v>
+      </c>
+      <c r="I198" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J198" s="35"/>
       <c r="K198" s="35" t="s">
         <v>942</v>
@@ -20046,9 +21544,11 @@
         <v>1378</v>
       </c>
       <c r="H199" s="50" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I199" s="35"/>
+        <v>1732</v>
+      </c>
+      <c r="I199" s="35" t="s">
+        <v>1733</v>
+      </c>
       <c r="J199" s="35"/>
       <c r="K199" s="35" t="s">
         <v>942</v>
@@ -20104,9 +21604,11 @@
         <v>1379</v>
       </c>
       <c r="H200" s="50" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I200" s="35"/>
+        <v>1558</v>
+      </c>
+      <c r="I200" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J200" s="35"/>
       <c r="K200" s="35" t="s">
         <v>942</v>
@@ -20162,9 +21664,11 @@
         <v>1380</v>
       </c>
       <c r="H201" s="50" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I201" s="35"/>
+        <v>1734</v>
+      </c>
+      <c r="I201" s="35" t="s">
+        <v>1735</v>
+      </c>
       <c r="J201" s="35"/>
       <c r="K201" s="35" t="s">
         <v>942</v>
@@ -20220,9 +21724,11 @@
         <v>1381</v>
       </c>
       <c r="H202" s="50" t="s">
-        <v>1593</v>
-      </c>
-      <c r="I202" s="35"/>
+        <v>1559</v>
+      </c>
+      <c r="I202" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J202" s="35"/>
       <c r="K202" s="35" t="s">
         <v>942</v>
@@ -20278,9 +21784,11 @@
         <v>1382</v>
       </c>
       <c r="H203" s="50" t="s">
-        <v>1594</v>
-      </c>
-      <c r="I203" s="35"/>
+        <v>1736</v>
+      </c>
+      <c r="I203" s="35" t="s">
+        <v>1737</v>
+      </c>
       <c r="J203" s="35"/>
       <c r="K203" s="35" t="s">
         <v>942</v>
@@ -20336,9 +21844,11 @@
         <v>1383</v>
       </c>
       <c r="H204" s="50" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I204" s="35"/>
+        <v>1560</v>
+      </c>
+      <c r="I204" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J204" s="35"/>
       <c r="K204" s="35" t="s">
         <v>942</v>
@@ -20394,9 +21904,11 @@
         <v>1384</v>
       </c>
       <c r="H205" s="50" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I205" s="35"/>
+        <v>1738</v>
+      </c>
+      <c r="I205" s="56" t="s">
+        <v>1742</v>
+      </c>
       <c r="J205" s="35"/>
       <c r="K205" s="35" t="s">
         <v>942</v>
@@ -20452,9 +21964,11 @@
         <v>1385</v>
       </c>
       <c r="H206" s="50" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I206" s="35"/>
+        <v>1561</v>
+      </c>
+      <c r="I206" s="56" t="s">
+        <v>912</v>
+      </c>
       <c r="J206" s="35"/>
       <c r="K206" s="35" t="s">
         <v>942</v>
@@ -20510,9 +22024,11 @@
         <v>1386</v>
       </c>
       <c r="H207" s="50" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I207" s="35"/>
+        <v>1739</v>
+      </c>
+      <c r="I207" s="56" t="s">
+        <v>1743</v>
+      </c>
       <c r="J207" s="35"/>
       <c r="K207" s="35" t="s">
         <v>942</v>
@@ -20568,9 +22084,11 @@
         <v>1387</v>
       </c>
       <c r="H208" s="50" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I208" s="35"/>
+        <v>1562</v>
+      </c>
+      <c r="I208" s="56" t="s">
+        <v>912</v>
+      </c>
       <c r="J208" s="35"/>
       <c r="K208" s="35" t="s">
         <v>942</v>
@@ -20626,9 +22144,11 @@
         <v>1388</v>
       </c>
       <c r="H209" s="50" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I209" s="35"/>
+        <v>1740</v>
+      </c>
+      <c r="I209" s="56" t="s">
+        <v>1744</v>
+      </c>
       <c r="J209" s="35"/>
       <c r="K209" s="35" t="s">
         <v>942</v>
@@ -20684,9 +22204,11 @@
         <v>1389</v>
       </c>
       <c r="H210" s="50" t="s">
-        <v>1601</v>
-      </c>
-      <c r="I210" s="35"/>
+        <v>1563</v>
+      </c>
+      <c r="I210" s="56" t="s">
+        <v>912</v>
+      </c>
       <c r="J210" s="35"/>
       <c r="K210" s="35" t="s">
         <v>942</v>
@@ -20742,9 +22264,11 @@
         <v>1390</v>
       </c>
       <c r="H211" s="50" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I211" s="35"/>
+        <v>1741</v>
+      </c>
+      <c r="I211" s="56" t="s">
+        <v>1745</v>
+      </c>
       <c r="J211" s="35"/>
       <c r="K211" s="35" t="s">
         <v>942</v>
@@ -20800,9 +22324,11 @@
         <v>1391</v>
       </c>
       <c r="H212" s="50" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I212" s="35"/>
+        <v>1564</v>
+      </c>
+      <c r="I212" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J212" s="35"/>
       <c r="K212" s="35" t="s">
         <v>942</v>
@@ -20858,9 +22384,11 @@
         <v>1392</v>
       </c>
       <c r="H213" s="50" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I213" s="35"/>
+        <v>1746</v>
+      </c>
+      <c r="I213" s="56" t="s">
+        <v>1747</v>
+      </c>
       <c r="J213" s="35"/>
       <c r="K213" s="35" t="s">
         <v>942</v>
@@ -20916,9 +22444,11 @@
         <v>1393</v>
       </c>
       <c r="H214" s="50" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I214" s="35"/>
+        <v>1565</v>
+      </c>
+      <c r="I214" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J214" s="35"/>
       <c r="K214" s="35" t="s">
         <v>942</v>
@@ -20974,9 +22504,11 @@
         <v>1394</v>
       </c>
       <c r="H215" s="50" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I215" s="35"/>
+        <v>1748</v>
+      </c>
+      <c r="I215" s="57" t="s">
+        <v>1749</v>
+      </c>
       <c r="J215" s="35"/>
       <c r="K215" s="35" t="s">
         <v>942</v>
@@ -21032,9 +22564,11 @@
         <v>1395</v>
       </c>
       <c r="H216" s="50" t="s">
-        <v>1607</v>
-      </c>
-      <c r="I216" s="35"/>
+        <v>1566</v>
+      </c>
+      <c r="I216" s="58" t="s">
+        <v>912</v>
+      </c>
       <c r="J216" s="35"/>
       <c r="K216" s="35" t="s">
         <v>942</v>
@@ -21090,9 +22624,11 @@
         <v>1396</v>
       </c>
       <c r="H217" s="50" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I217" s="35"/>
+        <v>1750</v>
+      </c>
+      <c r="I217" s="57" t="s">
+        <v>1751</v>
+      </c>
       <c r="J217" s="35"/>
       <c r="K217" s="35" t="s">
         <v>942</v>
@@ -21148,9 +22684,11 @@
         <v>1397</v>
       </c>
       <c r="H218" s="50" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I218" s="35"/>
+        <v>1567</v>
+      </c>
+      <c r="I218" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J218" s="35"/>
       <c r="K218" s="35" t="s">
         <v>942</v>
@@ -21206,9 +22744,11 @@
         <v>1398</v>
       </c>
       <c r="H219" s="50" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I219" s="35"/>
+        <v>1752</v>
+      </c>
+      <c r="I219" s="57" t="s">
+        <v>1753</v>
+      </c>
       <c r="J219" s="35"/>
       <c r="K219" s="35" t="s">
         <v>942</v>
@@ -21264,9 +22804,11 @@
         <v>1399</v>
       </c>
       <c r="H220" s="50" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I220" s="35"/>
+        <v>1568</v>
+      </c>
+      <c r="I220" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J220" s="35"/>
       <c r="K220" s="35" t="s">
         <v>942</v>
@@ -21322,9 +22864,11 @@
         <v>1400</v>
       </c>
       <c r="H221" s="50" t="s">
-        <v>1612</v>
-      </c>
-      <c r="I221" s="35"/>
+        <v>1754</v>
+      </c>
+      <c r="I221" s="35" t="s">
+        <v>1755</v>
+      </c>
       <c r="J221" s="35"/>
       <c r="K221" s="35" t="s">
         <v>942</v>
@@ -21380,9 +22924,11 @@
         <v>1401</v>
       </c>
       <c r="H222" s="50" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I222" s="35"/>
+        <v>1569</v>
+      </c>
+      <c r="I222" s="35" t="s">
+        <v>1756</v>
+      </c>
       <c r="J222" s="35"/>
       <c r="K222" s="35" t="s">
         <v>942</v>
@@ -21438,9 +22984,11 @@
         <v>1402</v>
       </c>
       <c r="H223" s="50" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I223" s="35"/>
+        <v>1757</v>
+      </c>
+      <c r="I223" s="35" t="s">
+        <v>1758</v>
+      </c>
       <c r="J223" s="35"/>
       <c r="K223" s="35" t="s">
         <v>942</v>
@@ -21496,9 +23044,11 @@
         <v>1403</v>
       </c>
       <c r="H224" s="50" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I224" s="35"/>
+        <v>1570</v>
+      </c>
+      <c r="I224" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J224" s="35"/>
       <c r="K224" s="35" t="s">
         <v>942</v>
@@ -21554,9 +23104,11 @@
         <v>1404</v>
       </c>
       <c r="H225" s="50" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I225" s="35"/>
+        <v>1759</v>
+      </c>
+      <c r="I225" s="57" t="s">
+        <v>1761</v>
+      </c>
       <c r="J225" s="35"/>
       <c r="K225" s="35" t="s">
         <v>942</v>
@@ -21612,9 +23164,11 @@
         <v>1405</v>
       </c>
       <c r="H226" s="50" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I226" s="35"/>
+        <v>1571</v>
+      </c>
+      <c r="I226" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J226" s="35"/>
       <c r="K226" s="35" t="s">
         <v>942</v>
@@ -21670,9 +23224,11 @@
         <v>1406</v>
       </c>
       <c r="H227" s="50" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I227" s="35"/>
+        <v>1760</v>
+      </c>
+      <c r="I227" s="57" t="s">
+        <v>1762</v>
+      </c>
       <c r="J227" s="35"/>
       <c r="K227" s="35" t="s">
         <v>942</v>
@@ -21728,9 +23284,11 @@
         <v>1407</v>
       </c>
       <c r="H228" s="50" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I228" s="35"/>
+        <v>1572</v>
+      </c>
+      <c r="I228" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J228" s="35"/>
       <c r="K228" s="35" t="s">
         <v>942</v>
@@ -21786,9 +23344,11 @@
         <v>1408</v>
       </c>
       <c r="H229" s="50" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I229" s="35"/>
+        <v>1763</v>
+      </c>
+      <c r="I229" s="57" t="s">
+        <v>1764</v>
+      </c>
       <c r="J229" s="35"/>
       <c r="K229" s="35" t="s">
         <v>942</v>
@@ -21844,9 +23404,11 @@
         <v>1409</v>
       </c>
       <c r="H230" s="50" t="s">
-        <v>1621</v>
-      </c>
-      <c r="I230" s="35"/>
+        <v>1573</v>
+      </c>
+      <c r="I230" s="59" t="s">
+        <v>912</v>
+      </c>
       <c r="J230" s="35"/>
       <c r="K230" s="35" t="s">
         <v>942</v>
@@ -21902,9 +23464,11 @@
         <v>1410</v>
       </c>
       <c r="H231" s="50" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I231" s="35"/>
+        <v>1765</v>
+      </c>
+      <c r="I231" s="57" t="s">
+        <v>1766</v>
+      </c>
       <c r="J231" s="35"/>
       <c r="K231" s="35" t="s">
         <v>942</v>
@@ -21960,9 +23524,11 @@
         <v>1411</v>
       </c>
       <c r="H232" s="50" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I232" s="35"/>
+        <v>1574</v>
+      </c>
+      <c r="I232" s="58" t="s">
+        <v>912</v>
+      </c>
       <c r="J232" s="35"/>
       <c r="K232" s="35" t="s">
         <v>942</v>
@@ -22018,9 +23584,11 @@
         <v>1412</v>
       </c>
       <c r="H233" s="50" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I233" s="35"/>
+        <v>1767</v>
+      </c>
+      <c r="I233" s="57" t="s">
+        <v>1768</v>
+      </c>
       <c r="J233" s="35"/>
       <c r="K233" s="35" t="s">
         <v>942</v>
@@ -22076,9 +23644,11 @@
         <v>1413</v>
       </c>
       <c r="H234" s="50" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I234" s="35"/>
+        <v>1575</v>
+      </c>
+      <c r="I234" s="58" t="s">
+        <v>912</v>
+      </c>
       <c r="J234" s="35"/>
       <c r="K234" s="35" t="s">
         <v>942</v>
@@ -22134,9 +23704,11 @@
         <v>1414</v>
       </c>
       <c r="H235" s="50" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I235" s="35"/>
+        <v>1576</v>
+      </c>
+      <c r="I235" s="57" t="s">
+        <v>1769</v>
+      </c>
       <c r="J235" s="35"/>
       <c r="K235" s="35" t="s">
         <v>942</v>
@@ -22192,9 +23764,11 @@
         <v>1415</v>
       </c>
       <c r="H236" s="50" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I236" s="35"/>
+        <v>1577</v>
+      </c>
+      <c r="I236" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J236" s="35"/>
       <c r="K236" s="35" t="s">
         <v>942</v>
@@ -22250,9 +23824,11 @@
         <v>1416</v>
       </c>
       <c r="H237" s="50" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I237" s="35"/>
+        <v>1770</v>
+      </c>
+      <c r="I237" s="57" t="s">
+        <v>1771</v>
+      </c>
       <c r="J237" s="35"/>
       <c r="K237" s="35" t="s">
         <v>942</v>
@@ -22308,9 +23884,11 @@
         <v>1417</v>
       </c>
       <c r="H238" s="50" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I238" s="35"/>
+        <v>1578</v>
+      </c>
+      <c r="I238" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J238" s="35"/>
       <c r="K238" s="35" t="s">
         <v>942</v>
@@ -22366,9 +23944,11 @@
         <v>1418</v>
       </c>
       <c r="H239" s="50" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I239" s="35"/>
+        <v>1772</v>
+      </c>
+      <c r="I239" s="57" t="s">
+        <v>1773</v>
+      </c>
       <c r="J239" s="35"/>
       <c r="K239" s="35" t="s">
         <v>942</v>
@@ -22424,9 +24004,11 @@
         <v>1419</v>
       </c>
       <c r="H240" s="50" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I240" s="35"/>
+        <v>1579</v>
+      </c>
+      <c r="I240" s="35" t="s">
+        <v>1774</v>
+      </c>
       <c r="J240" s="35"/>
       <c r="K240" s="35" t="s">
         <v>942</v>
@@ -22482,9 +24064,11 @@
         <v>1420</v>
       </c>
       <c r="H241" s="50" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I241" s="35"/>
+        <v>1580</v>
+      </c>
+      <c r="I241" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J241" s="35"/>
       <c r="K241" s="35" t="s">
         <v>942</v>
@@ -22540,9 +24124,11 @@
         <v>1421</v>
       </c>
       <c r="H242" s="50" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I242" s="35"/>
+        <v>1581</v>
+      </c>
+      <c r="I242" s="57" t="s">
+        <v>1775</v>
+      </c>
       <c r="J242" s="35"/>
       <c r="K242" s="35" t="s">
         <v>942</v>
@@ -22598,9 +24184,11 @@
         <v>1422</v>
       </c>
       <c r="H243" s="50" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I243" s="35"/>
+        <v>1582</v>
+      </c>
+      <c r="I243" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J243" s="35"/>
       <c r="K243" s="35" t="s">
         <v>942</v>
@@ -22656,9 +24244,11 @@
         <v>1423</v>
       </c>
       <c r="H244" s="50" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I244" s="35"/>
+        <v>1776</v>
+      </c>
+      <c r="I244" s="57" t="s">
+        <v>1778</v>
+      </c>
       <c r="J244" s="35"/>
       <c r="K244" s="35" t="s">
         <v>942</v>
@@ -22714,9 +24304,11 @@
         <v>1424</v>
       </c>
       <c r="H245" s="50" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I245" s="35"/>
+        <v>1583</v>
+      </c>
+      <c r="I245" s="35" t="s">
+        <v>912</v>
+      </c>
       <c r="J245" s="35"/>
       <c r="K245" s="35" t="s">
         <v>942</v>
@@ -22772,9 +24364,11 @@
         <v>1425</v>
       </c>
       <c r="H246" s="50" t="s">
-        <v>1637</v>
-      </c>
-      <c r="I246" s="35"/>
+        <v>1777</v>
+      </c>
+      <c r="I246" s="57" t="s">
+        <v>1779</v>
+      </c>
       <c r="J246" s="35"/>
       <c r="K246" s="35" t="s">
         <v>942</v>
@@ -40056,7 +41650,7 @@
         <v>531</v>
       </c>
       <c r="J411" s="35" t="s">
-        <v>1696</v>
+        <v>1642</v>
       </c>
       <c r="K411" s="33" t="s">
         <v>658</v>
@@ -44105,11 +45699,11 @@
   </sheetPr>
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
@@ -44216,7 +45810,7 @@
     </row>
     <row r="13" spans="1:2" ht="18.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>1638</v>
+        <v>1584</v>
       </c>
       <c r="B13" s="22">
         <v>11</v>
@@ -44232,7 +45826,7 @@
     </row>
     <row r="15" spans="1:2" ht="18.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>1643</v>
+        <v>1589</v>
       </c>
       <c r="B15" s="22">
         <v>13</v>
@@ -44416,7 +46010,7 @@
     </row>
     <row r="38" spans="1:2" ht="18.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>1673</v>
+        <v>1619</v>
       </c>
       <c r="B38" s="22">
         <v>36</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ty/ruby/zakuro/doc/operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{F957D327-49AD-5A40-BAE0-C484C5296427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC3AF7-D59A-E244-A6E3-EFCE6CA27106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7680" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7680" uniqueCount="1782">
   <si>
     <t>ID</t>
   </si>
@@ -4657,9 +4657,6 @@
     <t>神亀 5年 1 小 戊戌 34-275</t>
   </si>
   <si>
-    <t>神亀 5年 2 大 丁卯 3-1338</t>
-  </si>
-  <si>
     <t>天平 3年 6 小 戊寅  14-456</t>
   </si>
   <si>
@@ -5289,10 +5286,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2月朔を計算通り己巳とすれば，「写経目録」＊「出雲風土記」に2月30日があるから3月朔は己亥となり，ユリウス暦は3月31となる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>天平宝字 1年 1 小 庚戌 45-1308</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -5867,55 +5860,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算では21乙酉となるが，続日本紀に閏8月とある。其ためには置閏の法則に従うために閏8月朔は進朔して22丙戌にしているはずである。閏8月朔のユリウス暦日は9月18日となる。</t>
-    <rPh sb="18" eb="19">
-      <t>ウルウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ソノタ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t xml:space="preserve">オク </t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ウルウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホウソク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>シタガウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ウルウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シnガテゥガテゥガテゥ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ウルウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ニティ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>宝亀 8年 3 小 癸丑 48-2671</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -5978,193 +5922,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算では4月朔丙子，5月朔丙午，6月朔乙亥，7月朔甲辰であるが，続日本紀には3月に丙子，4月に丙午の記事がある。そうすると4月朔丁丑，5月朔丁未と考えざるを得ない。続日本紀にある8月朔甲戌と5月朔丁未から6月朔丙子，7月朔乙巳は定ってしまう。4月から7月までの朔干支はこのように決めたが，そうすると5月から5月まで4か月小の月が続く。計算上4小は絶対に生じない。果して前例にない4小などが実施されたろうか？　疑問とするところである。上記のように4月から7月まで丁丑・丁未・丙子・乙巳をとればそれぞれのユリウス暦日は5月2日，6月1日，6月30日，7月29日となる。</t>
-    <rPh sb="5" eb="6">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サクゲテゥ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ガツ </t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サクゲテゥ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サクゲテゥ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>サクゲテゥ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ゾク</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ニホn</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>カンガエ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t xml:space="preserve">エナイ </t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ゾク</t>
-    </rPh>
-    <rPh sb="83" eb="86">
-      <t>ニホn</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>7/25</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>7/25</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>サダマル</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>サクジ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>カn</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>キメタ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>ゲテゥ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>チイサイ</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ツヅク</t>
-    </rPh>
-    <rPh sb="167" eb="170">
-      <t>ケイサn</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>チイサイ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>ゼッタイ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>ショウジナ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>ハタセィ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ゼn</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>チイサイ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>ジッセィ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ギモn</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="223" eb="224">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t xml:space="preserve">ジツ </t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>ニティ</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>ニティ</t>
-    </rPh>
-    <rPh sb="268" eb="269">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="271" eb="272">
-      <t>ニティ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="277" eb="278">
-      <t>ニティ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>宝亀 10年 5 小 辛丑 36-2820</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6375,34 +6132,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小余2808だから進朔している可能性が強い。進朔なら辛巳朔，ユリウス暦日は10月12日となる。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シンサク</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツヨイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シンサク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ニティ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>計算では13丁丑, 続日本紀に戊寅朔とある。したがって3月朔のユリウス暦日は4月7日となる。</t>
     <rPh sb="10" eb="11">
       <t>ゾク</t>
@@ -6442,10 +6171,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>延暦 4年 5 小 甲午 30-3026</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>延暦 6年 4 小 乙卯  50-2822</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6694,22 +6419,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算では10甲戌であるが日本後紀により乙亥，したがって4月朔のユリウス暦日は5月10日。</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサn</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ショウガテゥ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ニティ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大同 1年 1 小 丙寅 1-2844</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -6928,38 +6637,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>逸史巻29，9月乙未朔とある。9月乙未朔とすれば8月甲子朔はあり得ない。ユリウス暦日は9月1日となる。</t>
-    <rPh sb="10" eb="11">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>_x0000_
-_x0001_</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>_x0005__x0010__x0001_</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>_x0008__x0014__x0001__x000B__x0019_</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>_x0001__x000E__x001A__x0002__x0013_</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t xml:space="preserve">_x001C__x0001__x0018_ </t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>_x0001__x001C_,</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>逸史巻29，9月乙未朔とある。したがって9月朔日のユリウス暦日は10月1日。</t>
     <rPh sb="10" eb="11">
       <t>サクジテゥ</t>
@@ -7020,31 +6697,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算では52丙辰であるが，逸史によれば丁巳朔，閏3月丙戌朔であるから3月朔は丁巳以外にない。したがって3月朔のユリウス暦日は3月20日となる。</t>
-    <rPh sb="23" eb="24">
-      <t>ウルウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ガテゥ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>サクジテゥ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ショウガテゥ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>天長 7年 6 小 甲辰 39-1519</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7098,22 +6750,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算では30甲午, 逸史により乙未，計算C）では乙未−25。したがって正月朔のユリウス暦日は2月6日。</t>
-    <rPh sb="10" eb="11">
-      <t>ゾク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t xml:space="preserve">ニホンキ </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケイサn</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>承和 2年 1 小 丁未 42-2793</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7778,19 +7414,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算は18壬午，三代実録は癸未朔，したがって10月朔日のユリウス暦日は10月30日。</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サンダイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウガテゥ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>貞観 2年 2 小 壬午 17-2710</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7932,7 +7555,362 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計算は39癸卯，三代実録は甲辰朔，したがって6月朔日のユリウス暦日は7月12日。</t>
+    <t>天平 1年 2 小 壬戌 58-7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>729-3-5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2月朔を計算通り己巳とすれば，「写経目録」＊「出雲風土記」に2月30日があるから3月朔は己亥となり，ユリウス暦は3月31日となる。</t>
+    <rPh sb="60" eb="61">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では21乙酉となるが，続日本紀に閏8月とある。そのためには置閏の法則に従うために閏8月朔は進朔して22丙戌にしているはずである。閏8月朔のユリウス暦日は9月18日となる。</t>
+    <rPh sb="18" eb="19">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウソク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シタガウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シnガテゥガテゥガテゥ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では4月朔丙子，5月朔丙午，6月朔乙亥，7月朔甲辰であるが，続日本紀には3月に丙子，4月に丙午の記事がある。そうすると4月朔丁丑，5月朔丁未と考えざるを得ない。続日本紀にある8月朔甲戌と5月朔丁未から6月朔丙子，7月朔乙巳は定ってしまう。4月から7月までの朔干支はこのように決めたが，そうすると5月から8月まで4か月小の月が続く。計算上4小は絶対に生じない。果して前例にない4小などが実施されたろうか？　疑問とするところである。上記のように4月から7月まで丁丑・丁未・丙子・乙巳をとればそれぞれのユリウス暦日は5月2日，6月1日，6月30日，7月29日となる。</t>
+    <rPh sb="5" eb="6">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サクゲテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ガツ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サクゲテゥ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サクゲテゥ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サクゲテゥ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カンガエ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t xml:space="preserve">エナイ </t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>ニホn</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>7/25</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>7/25</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>サダマル</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>サクジ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>キメタ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ゲテゥ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>チイサイ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ツヅク</t>
+    </rPh>
+    <rPh sb="167" eb="170">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>チイサイ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ショウジナ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>ハタセィ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ゼn</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>チイサイ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ジッセィ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ギモn</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t xml:space="preserve">ジツ </t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>ニティ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>延暦 4年 5 小 乙未 30-3026</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では10甲戌であるが日本後紀により乙亥，したがって4月朔のユリウス暦日は5月10日。計算C）では乙亥ー71となる。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイサn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>逸史巻29，9月乙未朔とある。9月乙未とすれば8月甲子朔はあり得ない。ユリウス暦日は9月1日となる。</t>
+    <rPh sb="10" eb="11">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>_x0000_
+_x0001_</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>_x0005__x0010__x0001_</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>_x0008__x0014__x0001__x000B__x0019_</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>_x0001__x000E__x001A__x0002__x0013_</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">_x001C__x0001__x0018_ </t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>_x0001__x001C_,</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天長 3年 10 大 甲午 30-2847</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>826-11-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では52丙辰であるが，逸史によれば2月丁巳朔，閏3月丙戌朔であるから3月朔は丁巳以外にない。したがって3月朔のユリウス暦日は3月20日となる。</t>
+    <rPh sb="20" eb="21">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サクジテゥ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算では30甲午，逸史により乙未，計算C）では乙未−25。したがって正月朔のユリウス暦日は2月6日。</t>
+    <rPh sb="10" eb="11">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ニホンキ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイサn</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は39癸卯，三代実録は甲辰朔，したがって6月朔日のユリウス暦日は7月12日。五紀暦では40（甲辰）ー9とでる。</t>
     <rPh sb="0" eb="2">
       <t>ケイショ</t>
     </rPh>
@@ -7944,6 +7922,28 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>ショウガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>計算は18壬午，三代実録は癸未朔，したがって10月朔日のユリウス暦日は10月30日。ただし，五紀暦では癸未（19）ー小余20となる。</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サンダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウガテゥ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>_x0000__x0000__x0002_</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>_x0004__x0008__x0002_</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t/>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9658,11 +9658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG447"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H241" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I247" sqref="I247"/>
+      <selection pane="bottomRight" activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -9989,7 +9989,7 @@
         <v>1429</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="35" t="s">
@@ -10164,10 +10164,10 @@
         <v>1190</v>
       </c>
       <c r="H8" s="50" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>1586</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>1587</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="35" t="s">
@@ -10279,10 +10279,10 @@
         <v>930</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>1192</v>
+        <v>1769</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>1433</v>
+        <v>1768</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>912</v>
@@ -10340,7 +10340,7 @@
         <v>1193</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I11" s="35" t="s">
         <v>912</v>
@@ -10380,7 +10380,7 @@
       <c r="AF11" s="34"/>
       <c r="AG11" s="34"/>
     </row>
-    <row r="12" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
+    <row r="12" spans="2:33" s="20" customFormat="1" ht="69" customHeight="1">
       <c r="B12" s="43" t="s">
         <v>955</v>
       </c>
@@ -10400,10 +10400,10 @@
         <v>1194</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="35" t="s">
@@ -10445,7 +10445,7 @@
         <v>956</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>957</v>
@@ -10460,7 +10460,7 @@
         <v>1195</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I13" s="35" t="s">
         <v>912</v>
@@ -10505,7 +10505,7 @@
         <v>957</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>912</v>
@@ -10520,10 +10520,10 @@
         <v>1196</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>1595</v>
+        <v>1770</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="35" t="s">
@@ -10562,7 +10562,7 @@
     </row>
     <row r="15" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
       <c r="B15" s="29" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>912</v>
@@ -10583,7 +10583,7 @@
         <v>912</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="52" t="s">
@@ -10632,7 +10632,7 @@
         <v>1197</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I16" s="35" t="s">
         <v>912</v>
@@ -10690,7 +10690,7 @@
         <v>1198</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I17" s="35" t="s">
         <v>912</v>
@@ -10748,7 +10748,7 @@
         <v>1199</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I18" s="35" t="s">
         <v>912</v>
@@ -10806,7 +10806,7 @@
         <v>1200</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>912</v>
@@ -10864,7 +10864,7 @@
         <v>1201</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>912</v>
@@ -10922,7 +10922,7 @@
         <v>1202</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>912</v>
@@ -10980,7 +10980,7 @@
         <v>1203</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>912</v>
@@ -11038,7 +11038,7 @@
         <v>1204</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>912</v>
@@ -11096,7 +11096,7 @@
         <v>1205</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>912</v>
@@ -11154,7 +11154,7 @@
         <v>1206</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I25" s="35" t="s">
         <v>912</v>
@@ -11212,7 +11212,7 @@
         <v>1207</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>912</v>
@@ -11272,10 +11272,10 @@
         <v>1208</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="35" t="s">
@@ -11332,7 +11332,7 @@
         <v>1209</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I28" s="35" t="s">
         <v>912</v>
@@ -11392,10 +11392,10 @@
         <v>1210</v>
       </c>
       <c r="H29" s="50" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="35" t="s">
@@ -11452,7 +11452,7 @@
         <v>1211</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I30" s="35" t="s">
         <v>912</v>
@@ -11512,10 +11512,10 @@
         <v>1212</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="35" t="s">
@@ -11572,7 +11572,7 @@
         <v>1213</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I32" s="35" t="s">
         <v>912</v>
@@ -11632,10 +11632,10 @@
         <v>1214</v>
       </c>
       <c r="H33" s="50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I33" s="35" t="s">
         <v>1602</v>
-      </c>
-      <c r="I33" s="35" t="s">
-        <v>1604</v>
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="35" t="s">
@@ -11692,7 +11692,7 @@
         <v>1215</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>912</v>
@@ -11752,7 +11752,7 @@
         <v>1216</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I35" s="35" t="s">
         <v>912</v>
@@ -11808,10 +11808,10 @@
         <v>1217</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="35" t="s">
@@ -11872,10 +11872,10 @@
         <v>1218</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="35" t="s">
@@ -11936,10 +11936,10 @@
         <v>1218</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="J38" s="35" t="s">
         <v>932</v>
@@ -11994,7 +11994,7 @@
         <v>1219</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I39" s="35" t="s">
         <v>912</v>
@@ -12054,10 +12054,10 @@
         <v>1220</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="35" t="s">
@@ -12114,10 +12114,10 @@
         <v>1221</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="35" t="s">
@@ -12178,10 +12178,10 @@
         <v>1222</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="35" t="s">
@@ -12242,7 +12242,7 @@
         <v>1223</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I43" s="35" t="s">
         <v>912</v>
@@ -12300,7 +12300,7 @@
         <v>1224</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I44" s="35" t="s">
         <v>912</v>
@@ -12358,7 +12358,7 @@
         <v>1225</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I45" s="35" t="s">
         <v>912</v>
@@ -12416,7 +12416,7 @@
         <v>1226</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I46" s="35" t="s">
         <v>912</v>
@@ -12476,10 +12476,10 @@
         <v>1227</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="J47" s="35"/>
       <c r="K47" s="35" t="s">
@@ -12536,7 +12536,7 @@
         <v>1228</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I48" s="35" t="s">
         <v>912</v>
@@ -12594,7 +12594,7 @@
         <v>1229</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>912</v>
@@ -12654,10 +12654,10 @@
         <v>1230</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="35" t="s">
@@ -12714,7 +12714,7 @@
         <v>1231</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I51" s="35" t="s">
         <v>912</v>
@@ -12774,10 +12774,10 @@
         <v>1232</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="J52" s="35"/>
       <c r="K52" s="35" t="s">
@@ -12834,7 +12834,7 @@
         <v>1233</v>
       </c>
       <c r="H53" s="50" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I53" s="35" t="s">
         <v>912</v>
@@ -12892,7 +12892,7 @@
         <v>1234</v>
       </c>
       <c r="H54" s="50" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I54" s="35" t="s">
         <v>912</v>
@@ -12952,10 +12952,10 @@
         <v>1235</v>
       </c>
       <c r="H55" s="50" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J55" s="35"/>
       <c r="K55" s="35" t="s">
@@ -13012,7 +13012,7 @@
         <v>1236</v>
       </c>
       <c r="H56" s="50" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="I56" s="35" t="s">
         <v>912</v>
@@ -13072,10 +13072,10 @@
         <v>1237</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="J57" s="35"/>
       <c r="K57" s="35" t="s">
@@ -13132,7 +13132,7 @@
         <v>1238</v>
       </c>
       <c r="H58" s="50" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I58" s="35" t="s">
         <v>912</v>
@@ -13196,10 +13196,10 @@
         <v>1239</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>1627</v>
+        <v>1771</v>
       </c>
       <c r="J59" s="35"/>
       <c r="K59" s="35" t="s">
@@ -13260,7 +13260,7 @@
         <v>1240</v>
       </c>
       <c r="H60" s="50" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I60" s="35" t="s">
         <v>912</v>
@@ -13320,10 +13320,10 @@
         <v>1241</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="J61" s="35"/>
       <c r="K61" s="35" t="s">
@@ -13380,7 +13380,7 @@
         <v>1242</v>
       </c>
       <c r="H62" s="50" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I62" s="35" t="s">
         <v>912</v>
@@ -13440,10 +13440,10 @@
         <v>1243</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="J63" s="35"/>
       <c r="K63" s="35" t="s">
@@ -13500,7 +13500,7 @@
         <v>1244</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I64" s="35" t="s">
         <v>912</v>
@@ -13558,7 +13558,7 @@
         <v>1245</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I65" s="35" t="s">
         <v>912</v>
@@ -13616,7 +13616,7 @@
         <v>1246</v>
       </c>
       <c r="H66" s="50" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I66" s="35" t="s">
         <v>912</v>
@@ -13676,10 +13676,10 @@
         <v>1247</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>1636</v>
+        <v>1772</v>
       </c>
       <c r="J67" s="35"/>
       <c r="K67" s="35" t="s">
@@ -13736,7 +13736,7 @@
         <v>1248</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="I68" s="35" t="s">
         <v>912</v>
@@ -13796,7 +13796,7 @@
         <v>1249</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="I69" s="35" t="s">
         <v>912</v>
@@ -13856,7 +13856,7 @@
         <v>1250</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="I70" s="35" t="s">
         <v>912</v>
@@ -13916,7 +13916,7 @@
         <v>1251</v>
       </c>
       <c r="H71" s="50" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I71" s="35" t="s">
         <v>912</v>
@@ -13976,10 +13976,10 @@
         <v>1252</v>
       </c>
       <c r="H72" s="50" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="35" t="s">
@@ -14036,7 +14036,7 @@
         <v>1253</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="I73" s="55" t="s">
         <v>912</v>
@@ -14096,10 +14096,10 @@
         <v>1254</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="35" t="s">
@@ -14156,10 +14156,10 @@
         <v>1255</v>
       </c>
       <c r="H75" s="50" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="35" t="s">
@@ -14216,7 +14216,7 @@
         <v>1256</v>
       </c>
       <c r="H76" s="50" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I76" s="35" t="s">
         <v>912</v>
@@ -14276,13 +14276,13 @@
         <v>1257</v>
       </c>
       <c r="H77" s="50" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I77" s="35" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="J77" s="35" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="K77" s="35" t="s">
         <v>942</v>
@@ -14338,7 +14338,7 @@
         <v>1258</v>
       </c>
       <c r="H78" s="50" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I78" s="35" t="s">
         <v>912</v>
@@ -14398,10 +14398,10 @@
         <v>1259</v>
       </c>
       <c r="H79" s="50" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="I79" s="35" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="35" t="s">
@@ -14458,10 +14458,10 @@
         <v>1260</v>
       </c>
       <c r="H80" s="50" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I80" s="35" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="35" t="s">
@@ -14518,10 +14518,10 @@
         <v>1261</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>1648</v>
+        <v>912</v>
       </c>
       <c r="J81" s="35" t="s">
         <v>934</v>
@@ -14576,7 +14576,7 @@
         <v>1262</v>
       </c>
       <c r="H82" s="50" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I82" s="35" t="s">
         <v>912</v>
@@ -14636,10 +14636,10 @@
         <v>1263</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="35" t="s">
@@ -14696,7 +14696,7 @@
         <v>1264</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I84" s="35" t="s">
         <v>912</v>
@@ -14756,10 +14756,10 @@
         <v>1265</v>
       </c>
       <c r="H85" s="50" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="35" t="s">
@@ -14816,7 +14816,7 @@
         <v>1266</v>
       </c>
       <c r="H86" s="50" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I86" s="35" t="s">
         <v>912</v>
@@ -14876,10 +14876,10 @@
         <v>1267</v>
       </c>
       <c r="H87" s="50" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I87" s="35" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="35" t="s">
@@ -14936,7 +14936,7 @@
         <v>1268</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I88" s="35" t="s">
         <v>912</v>
@@ -14994,7 +14994,7 @@
         <v>1269</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I89" s="35" t="s">
         <v>912</v>
@@ -15052,7 +15052,7 @@
         <v>1270</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I90" s="35" t="s">
         <v>912</v>
@@ -15112,10 +15112,10 @@
         <v>1271</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>1652</v>
+        <v>1773</v>
       </c>
       <c r="I91" s="35" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="J91" s="35"/>
       <c r="K91" s="35" t="s">
@@ -15172,7 +15172,7 @@
         <v>1272</v>
       </c>
       <c r="H92" s="50" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I92" s="35" t="s">
         <v>912</v>
@@ -15232,10 +15232,10 @@
         <v>1273</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I93" s="35" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="J93" s="35"/>
       <c r="K93" s="35" t="s">
@@ -15292,7 +15292,7 @@
         <v>1274</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I94" s="35" t="s">
         <v>912</v>
@@ -15352,10 +15352,10 @@
         <v>1275</v>
       </c>
       <c r="H95" s="50" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I95" s="35" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="J95" s="35"/>
       <c r="K95" s="35" t="s">
@@ -15412,7 +15412,7 @@
         <v>1276</v>
       </c>
       <c r="H96" s="50" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I96" s="35" t="s">
         <v>912</v>
@@ -15470,7 +15470,7 @@
         <v>1277</v>
       </c>
       <c r="H97" s="50" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I97" s="35" t="s">
         <v>912</v>
@@ -15530,10 +15530,10 @@
         <v>1278</v>
       </c>
       <c r="H98" s="50" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="I98" s="35" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="J98" s="35"/>
       <c r="K98" s="35" t="s">
@@ -15590,7 +15590,7 @@
         <v>1279</v>
       </c>
       <c r="H99" s="50" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I99" s="35" t="s">
         <v>912</v>
@@ -15648,7 +15648,7 @@
         <v>1280</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I100" s="35" t="s">
         <v>912</v>
@@ -15706,7 +15706,7 @@
         <v>1281</v>
       </c>
       <c r="H101" s="50" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I101" s="35" t="s">
         <v>912</v>
@@ -15766,10 +15766,10 @@
         <v>1282</v>
       </c>
       <c r="H102" s="50" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="I102" s="35" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="J102" s="35"/>
       <c r="K102" s="35" t="s">
@@ -15826,7 +15826,7 @@
         <v>1283</v>
       </c>
       <c r="H103" s="50" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I103" s="35" t="s">
         <v>912</v>
@@ -15886,10 +15886,10 @@
         <v>1284</v>
       </c>
       <c r="H104" s="50" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I104" s="35" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="J104" s="35"/>
       <c r="K104" s="35" t="s">
@@ -15946,7 +15946,7 @@
         <v>1285</v>
       </c>
       <c r="H105" s="50" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I105" s="55" t="s">
         <v>912</v>
@@ -16006,10 +16006,10 @@
         <v>1286</v>
       </c>
       <c r="H106" s="50" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="I106" s="35" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="J106" s="35"/>
       <c r="K106" s="35" t="s">
@@ -16066,7 +16066,7 @@
         <v>1287</v>
       </c>
       <c r="H107" s="50" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I107" s="35" t="s">
         <v>912</v>
@@ -16126,10 +16126,10 @@
         <v>1288</v>
       </c>
       <c r="H108" s="50" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="I108" s="35" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="J108" s="35"/>
       <c r="K108" s="35" t="s">
@@ -16186,7 +16186,7 @@
         <v>1289</v>
       </c>
       <c r="H109" s="50" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I109" s="35" t="s">
         <v>912</v>
@@ -16246,10 +16246,10 @@
         <v>1290</v>
       </c>
       <c r="H110" s="50" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I110" s="35" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="J110" s="35"/>
       <c r="K110" s="35" t="s">
@@ -16306,7 +16306,7 @@
         <v>1291</v>
       </c>
       <c r="H111" s="50" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I111" s="35" t="s">
         <v>912</v>
@@ -16364,7 +16364,7 @@
         <v>1292</v>
       </c>
       <c r="H112" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I112" s="35" t="s">
         <v>912</v>
@@ -16422,7 +16422,7 @@
         <v>1293</v>
       </c>
       <c r="H113" s="50" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I113" s="35" t="s">
         <v>912</v>
@@ -16480,7 +16480,7 @@
         <v>1294</v>
       </c>
       <c r="H114" s="50" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I114" s="35" t="s">
         <v>912</v>
@@ -16540,10 +16540,10 @@
         <v>1295</v>
       </c>
       <c r="H115" s="50" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="I115" s="35" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="J115" s="35"/>
       <c r="K115" s="35" t="s">
@@ -16600,7 +16600,7 @@
         <v>1296</v>
       </c>
       <c r="H116" s="50" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I116" s="35" t="s">
         <v>912</v>
@@ -16660,10 +16660,10 @@
         <v>1297</v>
       </c>
       <c r="H117" s="50" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I117" s="35" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="J117" s="35"/>
       <c r="K117" s="35" t="s">
@@ -16720,7 +16720,7 @@
         <v>1298</v>
       </c>
       <c r="H118" s="50" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I118" s="35" t="s">
         <v>912</v>
@@ -16780,10 +16780,10 @@
         <v>1299</v>
       </c>
       <c r="H119" s="50" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="I119" s="35" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="J119" s="35"/>
       <c r="K119" s="35" t="s">
@@ -16840,7 +16840,7 @@
         <v>1300</v>
       </c>
       <c r="H120" s="50" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I120" s="35" t="s">
         <v>912</v>
@@ -16900,10 +16900,10 @@
         <v>1301</v>
       </c>
       <c r="H121" s="50" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="I121" s="35" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="J121" s="35"/>
       <c r="K121" s="35" t="s">
@@ -16960,7 +16960,7 @@
         <v>1302</v>
       </c>
       <c r="H122" s="50" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I122" s="35" t="s">
         <v>912</v>
@@ -17018,7 +17018,7 @@
         <v>1303</v>
       </c>
       <c r="H123" s="50" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I123" s="35" t="s">
         <v>912</v>
@@ -17078,10 +17078,10 @@
         <v>1304</v>
       </c>
       <c r="H124" s="50" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="J124" s="35"/>
       <c r="K124" s="35" t="s">
@@ -17138,7 +17138,7 @@
         <v>1305</v>
       </c>
       <c r="H125" s="50" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I125" s="35" t="s">
         <v>912</v>
@@ -17198,10 +17198,10 @@
         <v>1306</v>
       </c>
       <c r="H126" s="50" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="I126" s="35" t="s">
-        <v>1676</v>
+        <v>1774</v>
       </c>
       <c r="J126" s="35"/>
       <c r="K126" s="35" t="s">
@@ -17258,7 +17258,7 @@
         <v>1307</v>
       </c>
       <c r="H127" s="50" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I127" s="35" t="s">
         <v>912</v>
@@ -17316,7 +17316,7 @@
         <v>1308</v>
       </c>
       <c r="H128" s="50" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I128" s="35" t="s">
         <v>912</v>
@@ -17374,7 +17374,7 @@
         <v>1309</v>
       </c>
       <c r="H129" s="50" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I129" s="35" t="s">
         <v>912</v>
@@ -17432,7 +17432,7 @@
         <v>1310</v>
       </c>
       <c r="H130" s="50" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I130" s="35" t="s">
         <v>912</v>
@@ -17492,10 +17492,10 @@
         <v>1311</v>
       </c>
       <c r="H131" s="50" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="I131" s="35" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="J131" s="35"/>
       <c r="K131" s="35" t="s">
@@ -17552,7 +17552,7 @@
         <v>1312</v>
       </c>
       <c r="H132" s="50" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I132" s="35" t="s">
         <v>912</v>
@@ -17610,7 +17610,7 @@
         <v>1313</v>
       </c>
       <c r="H133" s="50" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I133" s="35" t="s">
         <v>912</v>
@@ -17670,10 +17670,10 @@
         <v>1314</v>
       </c>
       <c r="H134" s="50" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="I134" s="35" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="J134" s="35"/>
       <c r="K134" s="35" t="s">
@@ -17730,10 +17730,10 @@
         <v>1315</v>
       </c>
       <c r="H135" s="50" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I135" s="35" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="J135" s="35"/>
       <c r="K135" s="35" t="s">
@@ -17790,7 +17790,7 @@
         <v>1316</v>
       </c>
       <c r="H136" s="50" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I136" s="35" t="s">
         <v>912</v>
@@ -17850,10 +17850,10 @@
         <v>1317</v>
       </c>
       <c r="H137" s="50" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="I137" s="35" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="J137" s="35"/>
       <c r="K137" s="35" t="s">
@@ -17910,7 +17910,7 @@
         <v>1318</v>
       </c>
       <c r="H138" s="50" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I138" s="35" t="s">
         <v>912</v>
@@ -17968,7 +17968,7 @@
         <v>1319</v>
       </c>
       <c r="H139" s="50" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I139" s="35" t="s">
         <v>912</v>
@@ -18028,10 +18028,10 @@
         <v>1320</v>
       </c>
       <c r="H140" s="50" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="I140" s="35" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="J140" s="35"/>
       <c r="K140" s="35" t="s">
@@ -18088,7 +18088,7 @@
         <v>1321</v>
       </c>
       <c r="H141" s="50" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I141" s="35" t="s">
         <v>912</v>
@@ -18146,7 +18146,7 @@
         <v>1322</v>
       </c>
       <c r="H142" s="50" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I142" s="35" t="s">
         <v>912</v>
@@ -18206,10 +18206,10 @@
         <v>1323</v>
       </c>
       <c r="H143" s="50" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="I143" s="35" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="J143" s="35"/>
       <c r="K143" s="35" t="s">
@@ -18266,7 +18266,7 @@
         <v>1324</v>
       </c>
       <c r="H144" s="50" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I144" s="35" t="s">
         <v>912</v>
@@ -18324,7 +18324,7 @@
         <v>1325</v>
       </c>
       <c r="H145" s="50" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I145" s="35" t="s">
         <v>912</v>
@@ -18384,10 +18384,10 @@
         <v>1326</v>
       </c>
       <c r="H146" s="50" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="I146" s="35" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="J146" s="35"/>
       <c r="K146" s="35" t="s">
@@ -18444,7 +18444,7 @@
         <v>1327</v>
       </c>
       <c r="H147" s="50" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I147" s="35" t="s">
         <v>912</v>
@@ -18502,7 +18502,7 @@
         <v>1328</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I148" s="35" t="s">
         <v>912</v>
@@ -18560,7 +18560,7 @@
         <v>1329</v>
       </c>
       <c r="H149" s="50" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I149" s="35" t="s">
         <v>912</v>
@@ -18620,10 +18620,10 @@
         <v>1330</v>
       </c>
       <c r="H150" s="50" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="I150" s="35" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="J150" s="35"/>
       <c r="K150" s="35" t="s">
@@ -18680,7 +18680,7 @@
         <v>1331</v>
       </c>
       <c r="H151" s="50" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I151" s="35" t="s">
         <v>912</v>
@@ -18740,10 +18740,10 @@
         <v>1332</v>
       </c>
       <c r="H152" s="50" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="I152" s="35" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="J152" s="35"/>
       <c r="K152" s="35" t="s">
@@ -18800,7 +18800,7 @@
         <v>1333</v>
       </c>
       <c r="H153" s="50" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="I153" s="35" t="s">
         <v>912</v>
@@ -18860,10 +18860,10 @@
         <v>1334</v>
       </c>
       <c r="H154" s="50" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="I154" s="35" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="J154" s="35"/>
       <c r="K154" s="35" t="s">
@@ -18920,10 +18920,10 @@
         <v>1335</v>
       </c>
       <c r="H155" s="50" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="I155" s="35" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="J155" s="35"/>
       <c r="K155" s="35" t="s">
@@ -18980,7 +18980,7 @@
         <v>1336</v>
       </c>
       <c r="H156" s="50" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I156" s="35" t="s">
         <v>912</v>
@@ -19040,10 +19040,10 @@
         <v>1337</v>
       </c>
       <c r="H157" s="50" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="I157" s="35" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="J157" s="35"/>
       <c r="K157" s="35" t="s">
@@ -19100,7 +19100,7 @@
         <v>1338</v>
       </c>
       <c r="H158" s="50" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I158" s="35" t="s">
         <v>912</v>
@@ -19160,10 +19160,10 @@
         <v>1339</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I159" s="35" t="s">
-        <v>1700</v>
+        <v>1775</v>
       </c>
       <c r="J159" s="35"/>
       <c r="K159" s="35" t="s">
@@ -19220,10 +19220,10 @@
         <v>1340</v>
       </c>
       <c r="H160" s="50" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I160" s="35" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="J160" s="35"/>
       <c r="K160" s="35" t="s">
@@ -19280,7 +19280,7 @@
         <v>1341</v>
       </c>
       <c r="H161" s="50" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I161" s="35" t="s">
         <v>912</v>
@@ -19340,10 +19340,10 @@
         <v>1342</v>
       </c>
       <c r="H162" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I162" s="35" t="s">
         <v>1702</v>
-      </c>
-      <c r="I162" s="35" t="s">
-        <v>1711</v>
       </c>
       <c r="J162" s="35"/>
       <c r="K162" s="35" t="s">
@@ -19400,7 +19400,7 @@
         <v>1343</v>
       </c>
       <c r="H163" s="50" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="I163" s="35" t="s">
         <v>912</v>
@@ -19458,7 +19458,7 @@
         <v>1344</v>
       </c>
       <c r="H164" s="50" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I164" s="35" t="s">
         <v>912</v>
@@ -19516,7 +19516,7 @@
         <v>1345</v>
       </c>
       <c r="H165" s="50" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I165" s="35" t="s">
         <v>912</v>
@@ -19574,7 +19574,7 @@
         <v>1346</v>
       </c>
       <c r="H166" s="50" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I166" s="35" t="s">
         <v>912</v>
@@ -19631,13 +19631,13 @@
         <v>931</v>
       </c>
       <c r="G167" s="31" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="H167" s="50" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="I167" s="35" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="J167" s="35"/>
       <c r="K167" s="35" t="s">
@@ -19691,10 +19691,10 @@
         <v>939</v>
       </c>
       <c r="G168" s="31" t="s">
-        <v>1347</v>
+        <v>1777</v>
       </c>
       <c r="H168" s="50" t="s">
-        <v>1540</v>
+        <v>1776</v>
       </c>
       <c r="I168" s="35" t="s">
         <v>912</v>
@@ -19752,7 +19752,7 @@
         <v>1348</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I169" s="35" t="s">
         <v>912</v>
@@ -19810,7 +19810,7 @@
         <v>1349</v>
       </c>
       <c r="H170" s="50" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I170" s="35" t="s">
         <v>912</v>
@@ -19870,10 +19870,10 @@
         <v>1350</v>
       </c>
       <c r="H171" s="50" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="I171" s="35" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="J171" s="35"/>
       <c r="K171" s="35" t="s">
@@ -19930,10 +19930,10 @@
         <v>1351</v>
       </c>
       <c r="H172" s="50" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="I172" s="35" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="J172" s="35"/>
       <c r="K172" s="35" t="s">
@@ -19990,10 +19990,10 @@
         <v>1352</v>
       </c>
       <c r="H173" s="50" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="I173" s="35" t="s">
-        <v>1709</v>
+        <v>1778</v>
       </c>
       <c r="J173" s="35"/>
       <c r="K173" s="35" t="s">
@@ -20050,7 +20050,7 @@
         <v>1353</v>
       </c>
       <c r="H174" s="50" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I174" s="35" t="s">
         <v>912</v>
@@ -20108,7 +20108,7 @@
         <v>1354</v>
       </c>
       <c r="H175" s="50" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I175" s="35" t="s">
         <v>912</v>
@@ -20168,10 +20168,10 @@
         <v>1355</v>
       </c>
       <c r="H176" s="50" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="I176" s="35" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="J176" s="35"/>
       <c r="K176" s="35" t="s">
@@ -20228,10 +20228,10 @@
         <v>1356</v>
       </c>
       <c r="H177" s="50" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="I177" s="35" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="J177" s="35"/>
       <c r="K177" s="35" t="s">
@@ -20288,7 +20288,7 @@
         <v>1357</v>
       </c>
       <c r="H178" s="50" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I178" s="35" t="s">
         <v>912</v>
@@ -20346,7 +20346,7 @@
         <v>1358</v>
       </c>
       <c r="H179" s="50" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="I179" s="35" t="s">
         <v>912</v>
@@ -20406,10 +20406,10 @@
         <v>1359</v>
       </c>
       <c r="H180" s="50" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I180" s="35" t="s">
-        <v>1715</v>
+        <v>1779</v>
       </c>
       <c r="J180" s="35"/>
       <c r="K180" s="35" t="s">
@@ -20466,7 +20466,7 @@
         <v>1360</v>
       </c>
       <c r="H181" s="50" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I181" s="35" t="s">
         <v>912</v>
@@ -20524,7 +20524,7 @@
         <v>1361</v>
       </c>
       <c r="H182" s="50" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I182" s="35" t="s">
         <v>912</v>
@@ -20584,10 +20584,10 @@
         <v>1362</v>
       </c>
       <c r="H183" s="50" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="I183" s="35" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="J183" s="35"/>
       <c r="K183" s="35" t="s">
@@ -20644,7 +20644,7 @@
         <v>1363</v>
       </c>
       <c r="H184" s="50" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I184" s="35" t="s">
         <v>912</v>
@@ -20704,10 +20704,10 @@
         <v>1364</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="I185" s="35" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="J185" s="35"/>
       <c r="K185" s="35" t="s">
@@ -20764,7 +20764,7 @@
         <v>1365</v>
       </c>
       <c r="H186" s="50" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I186" s="55" t="s">
         <v>912</v>
@@ -20824,10 +20824,10 @@
         <v>1366</v>
       </c>
       <c r="H187" s="50" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="I187" s="35" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="J187" s="35"/>
       <c r="K187" s="35" t="s">
@@ -20884,7 +20884,7 @@
         <v>1367</v>
       </c>
       <c r="H188" s="50" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="I188" s="35" t="s">
         <v>912</v>
@@ -20944,10 +20944,10 @@
         <v>1368</v>
       </c>
       <c r="H189" s="50" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="I189" s="35" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="J189" s="35"/>
       <c r="K189" s="35" t="s">
@@ -21004,7 +21004,7 @@
         <v>1369</v>
       </c>
       <c r="H190" s="50" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="I190" s="35" t="s">
         <v>912</v>
@@ -21064,10 +21064,10 @@
         <v>1370</v>
       </c>
       <c r="H191" s="50" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="I191" s="35" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="J191" s="35"/>
       <c r="K191" s="35" t="s">
@@ -21124,7 +21124,7 @@
         <v>1371</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I192" s="35" t="s">
         <v>912</v>
@@ -21184,10 +21184,10 @@
         <v>1372</v>
       </c>
       <c r="H193" s="50" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="I193" s="35" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="J193" s="35"/>
       <c r="K193" s="35" t="s">
@@ -21244,7 +21244,7 @@
         <v>1373</v>
       </c>
       <c r="H194" s="50" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="I194" s="35" t="s">
         <v>912</v>
@@ -21304,10 +21304,10 @@
         <v>1374</v>
       </c>
       <c r="H195" s="50" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="I195" s="35" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="J195" s="35"/>
       <c r="K195" s="35" t="s">
@@ -21364,7 +21364,7 @@
         <v>1375</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I196" s="35" t="s">
         <v>912</v>
@@ -21424,10 +21424,10 @@
         <v>1376</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="I197" s="35" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="J197" s="35"/>
       <c r="K197" s="35" t="s">
@@ -21484,7 +21484,7 @@
         <v>1377</v>
       </c>
       <c r="H198" s="50" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I198" s="35" t="s">
         <v>912</v>
@@ -21544,10 +21544,10 @@
         <v>1378</v>
       </c>
       <c r="H199" s="50" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="I199" s="35" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="J199" s="35"/>
       <c r="K199" s="35" t="s">
@@ -21604,7 +21604,7 @@
         <v>1379</v>
       </c>
       <c r="H200" s="50" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I200" s="35" t="s">
         <v>912</v>
@@ -21664,10 +21664,10 @@
         <v>1380</v>
       </c>
       <c r="H201" s="50" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="I201" s="35" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="J201" s="35"/>
       <c r="K201" s="35" t="s">
@@ -21724,7 +21724,7 @@
         <v>1381</v>
       </c>
       <c r="H202" s="50" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I202" s="35" t="s">
         <v>912</v>
@@ -21784,10 +21784,10 @@
         <v>1382</v>
       </c>
       <c r="H203" s="50" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="I203" s="35" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="J203" s="35"/>
       <c r="K203" s="35" t="s">
@@ -21844,7 +21844,7 @@
         <v>1383</v>
       </c>
       <c r="H204" s="50" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I204" s="35" t="s">
         <v>912</v>
@@ -21904,10 +21904,10 @@
         <v>1384</v>
       </c>
       <c r="H205" s="50" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="I205" s="56" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="J205" s="35"/>
       <c r="K205" s="35" t="s">
@@ -21964,7 +21964,7 @@
         <v>1385</v>
       </c>
       <c r="H206" s="50" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I206" s="56" t="s">
         <v>912</v>
@@ -22024,10 +22024,10 @@
         <v>1386</v>
       </c>
       <c r="H207" s="50" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="I207" s="56" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="J207" s="35"/>
       <c r="K207" s="35" t="s">
@@ -22084,7 +22084,7 @@
         <v>1387</v>
       </c>
       <c r="H208" s="50" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I208" s="56" t="s">
         <v>912</v>
@@ -22144,10 +22144,10 @@
         <v>1388</v>
       </c>
       <c r="H209" s="50" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="I209" s="56" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="J209" s="35"/>
       <c r="K209" s="35" t="s">
@@ -22204,7 +22204,7 @@
         <v>1389</v>
       </c>
       <c r="H210" s="50" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I210" s="56" t="s">
         <v>912</v>
@@ -22264,10 +22264,10 @@
         <v>1390</v>
       </c>
       <c r="H211" s="50" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="I211" s="56" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="J211" s="35"/>
       <c r="K211" s="35" t="s">
@@ -22324,7 +22324,7 @@
         <v>1391</v>
       </c>
       <c r="H212" s="50" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I212" s="35" t="s">
         <v>912</v>
@@ -22384,10 +22384,10 @@
         <v>1392</v>
       </c>
       <c r="H213" s="50" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="I213" s="56" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="J213" s="35"/>
       <c r="K213" s="35" t="s">
@@ -22444,7 +22444,7 @@
         <v>1393</v>
       </c>
       <c r="H214" s="50" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="I214" s="35" t="s">
         <v>912</v>
@@ -22504,10 +22504,10 @@
         <v>1394</v>
       </c>
       <c r="H215" s="50" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="I215" s="57" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="J215" s="35"/>
       <c r="K215" s="35" t="s">
@@ -22564,7 +22564,7 @@
         <v>1395</v>
       </c>
       <c r="H216" s="50" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I216" s="58" t="s">
         <v>912</v>
@@ -22624,10 +22624,10 @@
         <v>1396</v>
       </c>
       <c r="H217" s="50" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="I217" s="57" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="J217" s="35"/>
       <c r="K217" s="35" t="s">
@@ -22684,7 +22684,7 @@
         <v>1397</v>
       </c>
       <c r="H218" s="50" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="I218" s="35" t="s">
         <v>912</v>
@@ -22744,10 +22744,10 @@
         <v>1398</v>
       </c>
       <c r="H219" s="50" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="I219" s="57" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="J219" s="35"/>
       <c r="K219" s="35" t="s">
@@ -22804,7 +22804,7 @@
         <v>1399</v>
       </c>
       <c r="H220" s="50" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I220" s="35" t="s">
         <v>912</v>
@@ -22864,10 +22864,10 @@
         <v>1400</v>
       </c>
       <c r="H221" s="50" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="I221" s="35" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="J221" s="35"/>
       <c r="K221" s="35" t="s">
@@ -22924,10 +22924,10 @@
         <v>1401</v>
       </c>
       <c r="H222" s="50" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I222" s="35" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="J222" s="35"/>
       <c r="K222" s="35" t="s">
@@ -22984,10 +22984,10 @@
         <v>1402</v>
       </c>
       <c r="H223" s="50" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="I223" s="35" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="J223" s="35"/>
       <c r="K223" s="35" t="s">
@@ -23044,7 +23044,7 @@
         <v>1403</v>
       </c>
       <c r="H224" s="50" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I224" s="35" t="s">
         <v>912</v>
@@ -23104,10 +23104,10 @@
         <v>1404</v>
       </c>
       <c r="H225" s="50" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="I225" s="57" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="J225" s="35"/>
       <c r="K225" s="35" t="s">
@@ -23164,7 +23164,7 @@
         <v>1405</v>
       </c>
       <c r="H226" s="50" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I226" s="35" t="s">
         <v>912</v>
@@ -23224,10 +23224,10 @@
         <v>1406</v>
       </c>
       <c r="H227" s="50" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="I227" s="57" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="J227" s="35"/>
       <c r="K227" s="35" t="s">
@@ -23284,7 +23284,7 @@
         <v>1407</v>
       </c>
       <c r="H228" s="50" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I228" s="35" t="s">
         <v>912</v>
@@ -23344,10 +23344,10 @@
         <v>1408</v>
       </c>
       <c r="H229" s="50" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="I229" s="57" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="J229" s="35"/>
       <c r="K229" s="35" t="s">
@@ -23404,7 +23404,7 @@
         <v>1409</v>
       </c>
       <c r="H230" s="50" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I230" s="59" t="s">
         <v>912</v>
@@ -23464,10 +23464,10 @@
         <v>1410</v>
       </c>
       <c r="H231" s="50" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="I231" s="57" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="J231" s="35"/>
       <c r="K231" s="35" t="s">
@@ -23524,7 +23524,7 @@
         <v>1411</v>
       </c>
       <c r="H232" s="50" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I232" s="58" t="s">
         <v>912</v>
@@ -23584,10 +23584,10 @@
         <v>1412</v>
       </c>
       <c r="H233" s="50" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="I233" s="57" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="J233" s="35"/>
       <c r="K233" s="35" t="s">
@@ -23644,7 +23644,7 @@
         <v>1413</v>
       </c>
       <c r="H234" s="50" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I234" s="58" t="s">
         <v>912</v>
@@ -23704,10 +23704,10 @@
         <v>1414</v>
       </c>
       <c r="H235" s="50" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I235" s="57" t="s">
-        <v>1769</v>
+        <v>1781</v>
       </c>
       <c r="J235" s="35"/>
       <c r="K235" s="35" t="s">
@@ -23764,7 +23764,7 @@
         <v>1415</v>
       </c>
       <c r="H236" s="50" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I236" s="35" t="s">
         <v>912</v>
@@ -23824,10 +23824,10 @@
         <v>1416</v>
       </c>
       <c r="H237" s="50" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="I237" s="57" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="J237" s="35"/>
       <c r="K237" s="35" t="s">
@@ -23884,7 +23884,7 @@
         <v>1417</v>
       </c>
       <c r="H238" s="50" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I238" s="35" t="s">
         <v>912</v>
@@ -23944,10 +23944,10 @@
         <v>1418</v>
       </c>
       <c r="H239" s="50" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="I239" s="57" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="J239" s="35"/>
       <c r="K239" s="35" t="s">
@@ -24004,10 +24004,10 @@
         <v>1419</v>
       </c>
       <c r="H240" s="50" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I240" s="35" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="J240" s="35"/>
       <c r="K240" s="35" t="s">
@@ -24064,7 +24064,7 @@
         <v>1420</v>
       </c>
       <c r="H241" s="50" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I241" s="35" t="s">
         <v>912</v>
@@ -24124,10 +24124,10 @@
         <v>1421</v>
       </c>
       <c r="H242" s="50" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I242" s="57" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
       <c r="J242" s="35"/>
       <c r="K242" s="35" t="s">
@@ -24184,7 +24184,7 @@
         <v>1422</v>
       </c>
       <c r="H243" s="50" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I243" s="35" t="s">
         <v>912</v>
@@ -24244,10 +24244,10 @@
         <v>1423</v>
       </c>
       <c r="H244" s="50" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
       <c r="I244" s="57" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="J244" s="35"/>
       <c r="K244" s="35" t="s">
@@ -24304,7 +24304,7 @@
         <v>1424</v>
       </c>
       <c r="H245" s="50" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I245" s="35" t="s">
         <v>912</v>
@@ -24364,10 +24364,10 @@
         <v>1425</v>
       </c>
       <c r="H246" s="50" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="I246" s="57" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="J246" s="35"/>
       <c r="K246" s="35" t="s">
@@ -41650,7 +41650,7 @@
         <v>531</v>
       </c>
       <c r="J411" s="35" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="K411" s="33" t="s">
         <v>658</v>
@@ -45810,7 +45810,7 @@
     </row>
     <row r="13" spans="1:2" ht="18.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B13" s="22">
         <v>11</v>
@@ -45826,7 +45826,7 @@
     </row>
     <row r="15" spans="1:2" ht="18.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B15" s="22">
         <v>13</v>
@@ -46010,7 +46010,7 @@
     </row>
     <row r="38" spans="1:2" ht="18.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B38" s="22">
         <v>36</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ty/ruby/zakuro/doc/operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD500E6-F44F-9549-91BF-33F537148D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE835286-EFF5-3546-AE4A-D4AB3DD42C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="500" windowWidth="31920" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10533" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10726" uniqueCount="1896">
   <si>
     <t>ID</t>
   </si>
@@ -10122,10 +10122,10 @@
   <dimension ref="A1:AG447"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -10489,7 +10489,9 @@
       <c r="I4" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K4" s="33" t="s">
         <v>942</v>
       </c>
@@ -10592,7 +10594,9 @@
       <c r="I5" s="33" t="s">
         <v>1581</v>
       </c>
-      <c r="J5" s="31"/>
+      <c r="J5" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K5" s="33" t="s">
         <v>942</v>
       </c>
@@ -10800,7 +10804,9 @@
       <c r="I7" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K7" s="33" t="s">
         <v>942</v>
       </c>
@@ -10903,7 +10909,9 @@
       <c r="I8" s="33" t="s">
         <v>1583</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K8" s="33" t="s">
         <v>942</v>
       </c>
@@ -11216,7 +11224,9 @@
       <c r="I11" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K11" s="33" t="s">
         <v>942</v>
       </c>
@@ -11319,7 +11329,9 @@
       <c r="I12" s="33" t="s">
         <v>1586</v>
       </c>
-      <c r="J12" s="44"/>
+      <c r="J12" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K12" s="33" t="s">
         <v>942</v>
       </c>
@@ -11422,7 +11434,9 @@
       <c r="I13" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J13" s="31"/>
+      <c r="J13" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K13" s="33" t="s">
         <v>942</v>
       </c>
@@ -11525,7 +11539,9 @@
       <c r="I14" s="33" t="s">
         <v>1791</v>
       </c>
-      <c r="J14" s="31"/>
+      <c r="J14" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K14" s="33" t="s">
         <v>942</v>
       </c>
@@ -11628,7 +11644,9 @@
       <c r="I15" s="33" t="s">
         <v>1588</v>
       </c>
-      <c r="J15" s="31"/>
+      <c r="J15" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K15" s="49" t="s">
         <v>933</v>
       </c>
@@ -12781,7 +12799,9 @@
       <c r="I26" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J26" s="31"/>
+      <c r="J26" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K26" s="33" t="s">
         <v>942</v>
       </c>
@@ -12884,7 +12904,9 @@
       <c r="I27" s="33" t="s">
         <v>1592</v>
       </c>
-      <c r="J27" s="31"/>
+      <c r="J27" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K27" s="33" t="s">
         <v>942</v>
       </c>
@@ -12987,7 +13009,9 @@
       <c r="I28" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J28" s="31"/>
+      <c r="J28" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K28" s="33" t="s">
         <v>942</v>
       </c>
@@ -13090,7 +13114,9 @@
       <c r="I29" s="33" t="s">
         <v>1594</v>
       </c>
-      <c r="J29" s="31"/>
+      <c r="J29" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K29" s="33" t="s">
         <v>942</v>
       </c>
@@ -13193,7 +13219,9 @@
       <c r="I30" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J30" s="31"/>
+      <c r="J30" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K30" s="33" t="s">
         <v>942</v>
       </c>
@@ -13296,7 +13324,9 @@
       <c r="I31" s="33" t="s">
         <v>1596</v>
       </c>
-      <c r="J31" s="31"/>
+      <c r="J31" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K31" s="33" t="s">
         <v>942</v>
       </c>
@@ -13399,7 +13429,9 @@
       <c r="I32" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J32" s="31"/>
+      <c r="J32" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K32" s="33" t="s">
         <v>942</v>
       </c>
@@ -13502,7 +13534,9 @@
       <c r="I33" s="33" t="s">
         <v>1599</v>
       </c>
-      <c r="J33" s="31"/>
+      <c r="J33" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K33" s="33" t="s">
         <v>942</v>
       </c>
@@ -13605,7 +13639,9 @@
       <c r="I34" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J34" s="31"/>
+      <c r="J34" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K34" s="33" t="s">
         <v>942</v>
       </c>
@@ -13813,7 +13849,9 @@
       <c r="I36" s="33" t="s">
         <v>1601</v>
       </c>
-      <c r="J36" s="31"/>
+      <c r="J36" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K36" s="33" t="s">
         <v>942</v>
       </c>
@@ -13916,7 +13954,9 @@
       <c r="I37" s="33" t="s">
         <v>1602</v>
       </c>
-      <c r="J37" s="31"/>
+      <c r="J37" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K37" s="33" t="s">
         <v>942</v>
       </c>
@@ -14124,7 +14164,9 @@
       <c r="I39" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J39" s="31"/>
+      <c r="J39" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K39" s="33" t="s">
         <v>942</v>
       </c>
@@ -14227,7 +14269,9 @@
       <c r="I40" s="33" t="s">
         <v>1606</v>
       </c>
-      <c r="J40" s="31"/>
+      <c r="J40" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K40" s="33" t="s">
         <v>942</v>
       </c>
@@ -14330,7 +14374,9 @@
       <c r="I41" s="33" t="s">
         <v>1607</v>
       </c>
-      <c r="J41" s="31"/>
+      <c r="J41" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K41" s="33" t="s">
         <v>942</v>
       </c>
@@ -14433,7 +14479,9 @@
       <c r="I42" s="33" t="s">
         <v>1609</v>
       </c>
-      <c r="J42" s="31"/>
+      <c r="J42" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K42" s="33" t="s">
         <v>942</v>
       </c>
@@ -14851,7 +14899,9 @@
       <c r="I46" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J46" s="33"/>
+      <c r="J46" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K46" s="33" t="s">
         <v>942</v>
       </c>
@@ -14954,7 +15004,9 @@
       <c r="I47" s="33" t="s">
         <v>1611</v>
       </c>
-      <c r="J47" s="33"/>
+      <c r="J47" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K47" s="33" t="s">
         <v>942</v>
       </c>
@@ -15162,7 +15214,9 @@
       <c r="I49" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J49" s="33"/>
+      <c r="J49" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K49" s="33" t="s">
         <v>942</v>
       </c>
@@ -15265,7 +15319,9 @@
       <c r="I50" s="33" t="s">
         <v>1613</v>
       </c>
-      <c r="J50" s="33"/>
+      <c r="J50" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K50" s="33" t="s">
         <v>942</v>
       </c>
@@ -15368,7 +15424,9 @@
       <c r="I51" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J51" s="33"/>
+      <c r="J51" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K51" s="33" t="s">
         <v>942</v>
       </c>
@@ -15471,7 +15529,9 @@
       <c r="I52" s="33" t="s">
         <v>1616</v>
       </c>
-      <c r="J52" s="33"/>
+      <c r="J52" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K52" s="33" t="s">
         <v>942</v>
       </c>
@@ -15679,7 +15739,9 @@
       <c r="I54" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J54" s="33"/>
+      <c r="J54" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K54" s="33" t="s">
         <v>942</v>
       </c>
@@ -15782,7 +15844,9 @@
       <c r="I55" s="33" t="s">
         <v>1618</v>
       </c>
-      <c r="J55" s="33"/>
+      <c r="J55" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K55" s="33" t="s">
         <v>942</v>
       </c>
@@ -15885,7 +15949,9 @@
       <c r="I56" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J56" s="33"/>
+      <c r="J56" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K56" s="33" t="s">
         <v>942</v>
       </c>
@@ -15988,7 +16054,9 @@
       <c r="I57" s="33" t="s">
         <v>1620</v>
       </c>
-      <c r="J57" s="33"/>
+      <c r="J57" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K57" s="33" t="s">
         <v>942</v>
       </c>
@@ -16091,7 +16159,9 @@
       <c r="I58" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J58" s="33"/>
+      <c r="J58" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K58" s="33" t="s">
         <v>942</v>
       </c>
@@ -16194,7 +16264,9 @@
       <c r="I59" s="33" t="s">
         <v>1767</v>
       </c>
-      <c r="J59" s="33"/>
+      <c r="J59" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K59" s="33" t="s">
         <v>942</v>
       </c>
@@ -16297,7 +16369,9 @@
       <c r="I60" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J60" s="33"/>
+      <c r="J60" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K60" s="33" t="s">
         <v>942</v>
       </c>
@@ -16400,7 +16474,9 @@
       <c r="I61" s="33" t="s">
         <v>1623</v>
       </c>
-      <c r="J61" s="33"/>
+      <c r="J61" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K61" s="33" t="s">
         <v>942</v>
       </c>
@@ -16503,7 +16579,9 @@
       <c r="I62" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J62" s="33"/>
+      <c r="J62" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K62" s="33" t="s">
         <v>942</v>
       </c>
@@ -16606,7 +16684,9 @@
       <c r="I63" s="33" t="s">
         <v>1625</v>
       </c>
-      <c r="J63" s="33"/>
+      <c r="J63" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K63" s="33" t="s">
         <v>942</v>
       </c>
@@ -16919,7 +16999,9 @@
       <c r="I66" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J66" s="33"/>
+      <c r="J66" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K66" s="33" t="s">
         <v>942</v>
       </c>
@@ -17022,7 +17104,9 @@
       <c r="I67" s="33" t="s">
         <v>1768</v>
       </c>
-      <c r="J67" s="33"/>
+      <c r="J67" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K67" s="33" t="s">
         <v>942</v>
       </c>
@@ -17125,7 +17209,9 @@
       <c r="I68" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J68" s="33"/>
+      <c r="J68" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K68" s="33" t="s">
         <v>942</v>
       </c>
@@ -17228,7 +17314,9 @@
       <c r="I69" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J69" s="33"/>
+      <c r="J69" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K69" s="33" t="s">
         <v>942</v>
       </c>
@@ -17331,7 +17419,9 @@
       <c r="I70" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J70" s="31"/>
+      <c r="J70" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K70" s="33" t="s">
         <v>942</v>
       </c>
@@ -17434,7 +17524,9 @@
       <c r="I71" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J71" s="31"/>
+      <c r="J71" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K71" s="33" t="s">
         <v>942</v>
       </c>
@@ -17537,7 +17629,9 @@
       <c r="I72" s="33" t="s">
         <v>1631</v>
       </c>
-      <c r="J72" s="31"/>
+      <c r="J72" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K72" s="33" t="s">
         <v>942</v>
       </c>
@@ -17640,7 +17734,9 @@
       <c r="I73" s="52" t="s">
         <v>912</v>
       </c>
-      <c r="J73" s="31"/>
+      <c r="J73" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K73" s="33" t="s">
         <v>942</v>
       </c>
@@ -17743,7 +17839,9 @@
       <c r="I74" s="33" t="s">
         <v>1633</v>
       </c>
-      <c r="J74" s="31"/>
+      <c r="J74" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K74" s="33" t="s">
         <v>942</v>
       </c>
@@ -17846,7 +17944,9 @@
       <c r="I75" s="33" t="s">
         <v>1634</v>
       </c>
-      <c r="J75" s="31"/>
+      <c r="J75" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K75" s="33" t="s">
         <v>942</v>
       </c>
@@ -17949,7 +18049,9 @@
       <c r="I76" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J76" s="31"/>
+      <c r="J76" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K76" s="33" t="s">
         <v>942</v>
       </c>
@@ -18157,7 +18259,9 @@
       <c r="I78" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J78" s="31"/>
+      <c r="J78" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K78" s="33" t="s">
         <v>942</v>
       </c>
@@ -18260,7 +18364,9 @@
       <c r="I79" s="33" t="s">
         <v>1639</v>
       </c>
-      <c r="J79" s="31"/>
+      <c r="J79" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K79" s="33" t="s">
         <v>942</v>
       </c>
@@ -18363,7 +18469,9 @@
       <c r="I80" s="33" t="s">
         <v>1640</v>
       </c>
-      <c r="J80" s="31"/>
+      <c r="J80" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K80" s="33" t="s">
         <v>942</v>
       </c>
@@ -18571,7 +18679,9 @@
       <c r="I82" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J82" s="31"/>
+      <c r="J82" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K82" s="33" t="s">
         <v>942</v>
       </c>
@@ -18674,7 +18784,9 @@
       <c r="I83" s="33" t="s">
         <v>1641</v>
       </c>
-      <c r="J83" s="31"/>
+      <c r="J83" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K83" s="33" t="s">
         <v>942</v>
       </c>
@@ -18777,7 +18889,9 @@
       <c r="I84" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J84" s="31"/>
+      <c r="J84" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K84" s="33" t="s">
         <v>942</v>
       </c>
@@ -18880,7 +18994,9 @@
       <c r="I85" s="33" t="s">
         <v>1642</v>
       </c>
-      <c r="J85" s="31"/>
+      <c r="J85" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K85" s="33" t="s">
         <v>942</v>
       </c>
@@ -18983,7 +19099,9 @@
       <c r="I86" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J86" s="31"/>
+      <c r="J86" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K86" s="33" t="s">
         <v>942</v>
       </c>
@@ -19086,7 +19204,9 @@
       <c r="I87" s="33" t="s">
         <v>1643</v>
       </c>
-      <c r="J87" s="31"/>
+      <c r="J87" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K87" s="33" t="s">
         <v>942</v>
       </c>
@@ -19399,7 +19519,9 @@
       <c r="I90" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J90" s="33"/>
+      <c r="J90" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K90" s="33" t="s">
         <v>942</v>
       </c>
@@ -19502,7 +19624,9 @@
       <c r="I91" s="33" t="s">
         <v>1645</v>
       </c>
-      <c r="J91" s="33"/>
+      <c r="J91" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K91" s="33" t="s">
         <v>942</v>
       </c>
@@ -19605,7 +19729,9 @@
       <c r="I92" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J92" s="33"/>
+      <c r="J92" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K92" s="33" t="s">
         <v>942</v>
       </c>
@@ -19708,7 +19834,9 @@
       <c r="I93" s="33" t="s">
         <v>1646</v>
       </c>
-      <c r="J93" s="33"/>
+      <c r="J93" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K93" s="33" t="s">
         <v>942</v>
       </c>
@@ -19811,7 +19939,9 @@
       <c r="I94" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J94" s="33"/>
+      <c r="J94" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K94" s="33" t="s">
         <v>942</v>
       </c>
@@ -19914,7 +20044,9 @@
       <c r="I95" s="33" t="s">
         <v>1647</v>
       </c>
-      <c r="J95" s="33"/>
+      <c r="J95" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K95" s="33" t="s">
         <v>942</v>
       </c>
@@ -20122,7 +20254,9 @@
       <c r="I97" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J97" s="33"/>
+      <c r="J97" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K97" s="33" t="s">
         <v>942</v>
       </c>
@@ -20225,7 +20359,9 @@
       <c r="I98" s="33" t="s">
         <v>1648</v>
       </c>
-      <c r="J98" s="33"/>
+      <c r="J98" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K98" s="33" t="s">
         <v>942</v>
       </c>
@@ -20538,7 +20674,9 @@
       <c r="I101" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J101" s="33"/>
+      <c r="J101" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K101" s="33" t="s">
         <v>942</v>
       </c>
@@ -20641,7 +20779,9 @@
       <c r="I102" s="33" t="s">
         <v>1650</v>
       </c>
-      <c r="J102" s="33"/>
+      <c r="J102" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K102" s="33" t="s">
         <v>942</v>
       </c>
@@ -20744,7 +20884,9 @@
       <c r="I103" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J103" s="33"/>
+      <c r="J103" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K103" s="33" t="s">
         <v>942</v>
       </c>
@@ -20847,7 +20989,9 @@
       <c r="I104" s="33" t="s">
         <v>1651</v>
       </c>
-      <c r="J104" s="33"/>
+      <c r="J104" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K104" s="33" t="s">
         <v>942</v>
       </c>
@@ -20950,7 +21094,9 @@
       <c r="I105" s="52" t="s">
         <v>912</v>
       </c>
-      <c r="J105" s="33"/>
+      <c r="J105" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K105" s="33" t="s">
         <v>942</v>
       </c>
@@ -21053,7 +21199,9 @@
       <c r="I106" s="33" t="s">
         <v>1653</v>
       </c>
-      <c r="J106" s="33"/>
+      <c r="J106" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K106" s="33" t="s">
         <v>942</v>
       </c>
@@ -21156,7 +21304,9 @@
       <c r="I107" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J107" s="33"/>
+      <c r="J107" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K107" s="33" t="s">
         <v>942</v>
       </c>
@@ -21259,7 +21409,9 @@
       <c r="I108" s="33" t="s">
         <v>1655</v>
       </c>
-      <c r="J108" s="33"/>
+      <c r="J108" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K108" s="33" t="s">
         <v>942</v>
       </c>
@@ -21362,7 +21514,9 @@
       <c r="I109" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J109" s="33"/>
+      <c r="J109" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K109" s="33" t="s">
         <v>942</v>
       </c>
@@ -21465,7 +21619,9 @@
       <c r="I110" s="33" t="s">
         <v>1656</v>
       </c>
-      <c r="J110" s="33"/>
+      <c r="J110" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K110" s="33" t="s">
         <v>942</v>
       </c>
@@ -21883,7 +22039,9 @@
       <c r="I114" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J114" s="33"/>
+      <c r="J114" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K114" s="33" t="s">
         <v>942</v>
       </c>
@@ -21986,7 +22144,9 @@
       <c r="I115" s="33" t="s">
         <v>1658</v>
       </c>
-      <c r="J115" s="33"/>
+      <c r="J115" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K115" s="33" t="s">
         <v>942</v>
       </c>
@@ -22089,7 +22249,9 @@
       <c r="I116" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J116" s="33"/>
+      <c r="J116" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K116" s="33" t="s">
         <v>942</v>
       </c>
@@ -22192,7 +22354,9 @@
       <c r="I117" s="33" t="s">
         <v>1659</v>
       </c>
-      <c r="J117" s="33"/>
+      <c r="J117" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K117" s="33" t="s">
         <v>942</v>
       </c>
@@ -22295,7 +22459,9 @@
       <c r="I118" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J118" s="33"/>
+      <c r="J118" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K118" s="33" t="s">
         <v>942</v>
       </c>
@@ -22398,7 +22564,9 @@
       <c r="I119" s="33" t="s">
         <v>1661</v>
       </c>
-      <c r="J119" s="33"/>
+      <c r="J119" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K119" s="33" t="s">
         <v>942</v>
       </c>
@@ -22501,7 +22669,9 @@
       <c r="I120" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J120" s="33"/>
+      <c r="J120" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K120" s="33" t="s">
         <v>942</v>
       </c>
@@ -22604,7 +22774,9 @@
       <c r="I121" s="33" t="s">
         <v>1663</v>
       </c>
-      <c r="J121" s="33"/>
+      <c r="J121" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K121" s="33" t="s">
         <v>942</v>
       </c>
@@ -22812,7 +22984,9 @@
       <c r="I123" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J123" s="33"/>
+      <c r="J123" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K123" s="33" t="s">
         <v>942</v>
       </c>
@@ -22915,7 +23089,9 @@
       <c r="I124" s="33" t="s">
         <v>1665</v>
       </c>
-      <c r="J124" s="33"/>
+      <c r="J124" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K124" s="33" t="s">
         <v>942</v>
       </c>
@@ -23018,7 +23194,9 @@
       <c r="I125" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J125" s="33"/>
+      <c r="J125" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K125" s="33" t="s">
         <v>942</v>
       </c>
@@ -23121,7 +23299,9 @@
       <c r="I126" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="J126" s="33"/>
+      <c r="J126" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K126" s="33" t="s">
         <v>942</v>
       </c>
@@ -23539,7 +23719,9 @@
       <c r="I130" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J130" s="33"/>
+      <c r="J130" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K130" s="33" t="s">
         <v>942</v>
       </c>
@@ -23642,7 +23824,9 @@
       <c r="I131" s="33" t="s">
         <v>1668</v>
       </c>
-      <c r="J131" s="33"/>
+      <c r="J131" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K131" s="33" t="s">
         <v>942</v>
       </c>
@@ -23850,7 +24034,9 @@
       <c r="I133" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J133" s="33"/>
+      <c r="J133" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K133" s="33" t="s">
         <v>942</v>
       </c>
@@ -23953,7 +24139,9 @@
       <c r="I134" s="33" t="s">
         <v>1670</v>
       </c>
-      <c r="J134" s="33"/>
+      <c r="J134" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K134" s="33" t="s">
         <v>942</v>
       </c>
@@ -24056,7 +24244,9 @@
       <c r="I135" s="33" t="s">
         <v>1671</v>
       </c>
-      <c r="J135" s="33"/>
+      <c r="J135" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K135" s="33" t="s">
         <v>942</v>
       </c>
@@ -24159,7 +24349,9 @@
       <c r="I136" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J136" s="33"/>
+      <c r="J136" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K136" s="33" t="s">
         <v>942</v>
       </c>
@@ -24262,7 +24454,9 @@
       <c r="I137" s="33" t="s">
         <v>1673</v>
       </c>
-      <c r="J137" s="33"/>
+      <c r="J137" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K137" s="33" t="s">
         <v>942</v>
       </c>
@@ -24470,7 +24664,9 @@
       <c r="I139" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J139" s="33"/>
+      <c r="J139" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K139" s="33" t="s">
         <v>942</v>
       </c>
@@ -24573,7 +24769,9 @@
       <c r="I140" s="33" t="s">
         <v>1675</v>
       </c>
-      <c r="J140" s="33"/>
+      <c r="J140" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K140" s="33" t="s">
         <v>942</v>
       </c>
@@ -24781,7 +24979,9 @@
       <c r="I142" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J142" s="33"/>
+      <c r="J142" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K142" s="33" t="s">
         <v>942</v>
       </c>
@@ -24884,7 +25084,9 @@
       <c r="I143" s="33" t="s">
         <v>1677</v>
       </c>
-      <c r="J143" s="33"/>
+      <c r="J143" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K143" s="33" t="s">
         <v>942</v>
       </c>
@@ -25092,7 +25294,9 @@
       <c r="I145" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J145" s="33"/>
+      <c r="J145" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K145" s="33" t="s">
         <v>942</v>
       </c>
@@ -25195,7 +25399,9 @@
       <c r="I146" s="33" t="s">
         <v>1679</v>
       </c>
-      <c r="J146" s="33"/>
+      <c r="J146" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K146" s="33" t="s">
         <v>942</v>
       </c>
@@ -25508,7 +25714,9 @@
       <c r="I149" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J149" s="33"/>
+      <c r="J149" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K149" s="33" t="s">
         <v>942</v>
       </c>
@@ -25611,7 +25819,9 @@
       <c r="I150" s="33" t="s">
         <v>1681</v>
       </c>
-      <c r="J150" s="33"/>
+      <c r="J150" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K150" s="33" t="s">
         <v>942</v>
       </c>
@@ -25714,7 +25924,9 @@
       <c r="I151" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J151" s="33"/>
+      <c r="J151" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K151" s="33" t="s">
         <v>942</v>
       </c>
@@ -25817,7 +26029,9 @@
       <c r="I152" s="33" t="s">
         <v>1684</v>
       </c>
-      <c r="J152" s="33"/>
+      <c r="J152" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K152" s="33" t="s">
         <v>942</v>
       </c>
@@ -25920,7 +26134,9 @@
       <c r="I153" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J153" s="33"/>
+      <c r="J153" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K153" s="33" t="s">
         <v>942</v>
       </c>
@@ -26023,7 +26239,9 @@
       <c r="I154" s="33" t="s">
         <v>1685</v>
       </c>
-      <c r="J154" s="33"/>
+      <c r="J154" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K154" s="33" t="s">
         <v>942</v>
       </c>
@@ -26126,7 +26344,9 @@
       <c r="I155" s="33" t="s">
         <v>1687</v>
       </c>
-      <c r="J155" s="33"/>
+      <c r="J155" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K155" s="33" t="s">
         <v>942</v>
       </c>
@@ -26229,7 +26449,9 @@
       <c r="I156" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J156" s="33"/>
+      <c r="J156" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K156" s="33" t="s">
         <v>942</v>
       </c>
@@ -26332,7 +26554,9 @@
       <c r="I157" s="33" t="s">
         <v>1689</v>
       </c>
-      <c r="J157" s="33"/>
+      <c r="J157" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K157" s="33" t="s">
         <v>942</v>
       </c>
@@ -26435,7 +26659,9 @@
       <c r="I158" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J158" s="33"/>
+      <c r="J158" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K158" s="33" t="s">
         <v>942</v>
       </c>
@@ -26538,7 +26764,9 @@
       <c r="I159" s="33" t="s">
         <v>1771</v>
       </c>
-      <c r="J159" s="33"/>
+      <c r="J159" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K159" s="33" t="s">
         <v>942</v>
       </c>
@@ -26641,7 +26869,9 @@
       <c r="I160" s="33" t="s">
         <v>1690</v>
       </c>
-      <c r="J160" s="33"/>
+      <c r="J160" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K160" s="33" t="s">
         <v>942</v>
       </c>
@@ -26744,7 +26974,9 @@
       <c r="I161" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J161" s="33"/>
+      <c r="J161" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K161" s="33" t="s">
         <v>942</v>
       </c>
@@ -26847,7 +27079,9 @@
       <c r="I162" s="33" t="s">
         <v>1699</v>
       </c>
-      <c r="J162" s="33"/>
+      <c r="J162" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K162" s="33" t="s">
         <v>942</v>
       </c>
@@ -27265,7 +27499,9 @@
       <c r="I166" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J166" s="33"/>
+      <c r="J166" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K166" s="33" t="s">
         <v>942</v>
       </c>
@@ -27368,7 +27604,9 @@
       <c r="I167" s="33" t="s">
         <v>1692</v>
       </c>
-      <c r="J167" s="33"/>
+      <c r="J167" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K167" s="33" t="s">
         <v>942</v>
       </c>
@@ -27681,7 +27919,9 @@
       <c r="I170" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J170" s="33"/>
+      <c r="J170" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K170" s="33" t="s">
         <v>942</v>
       </c>
@@ -27784,7 +28024,9 @@
       <c r="I171" s="33" t="s">
         <v>1695</v>
       </c>
-      <c r="J171" s="33"/>
+      <c r="J171" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K171" s="33" t="s">
         <v>942</v>
       </c>
@@ -27887,7 +28129,9 @@
       <c r="I172" s="33" t="s">
         <v>1696</v>
       </c>
-      <c r="J172" s="33"/>
+      <c r="J172" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K172" s="33" t="s">
         <v>942</v>
       </c>
@@ -27990,7 +28234,9 @@
       <c r="I173" s="33" t="s">
         <v>1774</v>
       </c>
-      <c r="J173" s="33"/>
+      <c r="J173" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K173" s="33" t="s">
         <v>942</v>
       </c>
@@ -28198,7 +28444,9 @@
       <c r="I175" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J175" s="33"/>
+      <c r="J175" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K175" s="33" t="s">
         <v>942</v>
       </c>
@@ -28301,7 +28549,9 @@
       <c r="I176" s="33" t="s">
         <v>1700</v>
       </c>
-      <c r="J176" s="33"/>
+      <c r="J176" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K176" s="33" t="s">
         <v>942</v>
       </c>
@@ -28404,7 +28654,9 @@
       <c r="I177" s="33" t="s">
         <v>1702</v>
       </c>
-      <c r="J177" s="33"/>
+      <c r="J177" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K177" s="33" t="s">
         <v>942</v>
       </c>
@@ -28612,7 +28864,9 @@
       <c r="I179" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J179" s="33"/>
+      <c r="J179" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K179" s="33" t="s">
         <v>942</v>
       </c>
@@ -28715,7 +28969,9 @@
       <c r="I180" s="33" t="s">
         <v>1775</v>
       </c>
-      <c r="J180" s="33"/>
+      <c r="J180" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K180" s="33" t="s">
         <v>942</v>
       </c>
@@ -28923,7 +29179,9 @@
       <c r="I182" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J182" s="33"/>
+      <c r="J182" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K182" s="33" t="s">
         <v>942</v>
       </c>
@@ -29026,7 +29284,9 @@
       <c r="I183" s="33" t="s">
         <v>1704</v>
       </c>
-      <c r="J183" s="33"/>
+      <c r="J183" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K183" s="33" t="s">
         <v>942</v>
       </c>
@@ -29129,7 +29389,9 @@
       <c r="I184" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J184" s="33"/>
+      <c r="J184" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K184" s="33" t="s">
         <v>942</v>
       </c>
@@ -29232,7 +29494,9 @@
       <c r="I185" s="33" t="s">
         <v>1706</v>
       </c>
-      <c r="J185" s="33"/>
+      <c r="J185" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K185" s="33" t="s">
         <v>942</v>
       </c>
@@ -29335,7 +29599,9 @@
       <c r="I186" s="52" t="s">
         <v>912</v>
       </c>
-      <c r="J186" s="33"/>
+      <c r="J186" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K186" s="33" t="s">
         <v>942</v>
       </c>
@@ -29438,7 +29704,9 @@
       <c r="I187" s="33" t="s">
         <v>1708</v>
       </c>
-      <c r="J187" s="33"/>
+      <c r="J187" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K187" s="33" t="s">
         <v>942</v>
       </c>
@@ -29541,7 +29809,9 @@
       <c r="I188" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J188" s="33"/>
+      <c r="J188" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K188" s="33" t="s">
         <v>942</v>
       </c>
@@ -29644,7 +29914,9 @@
       <c r="I189" s="33" t="s">
         <v>1710</v>
       </c>
-      <c r="J189" s="33"/>
+      <c r="J189" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K189" s="33" t="s">
         <v>942</v>
       </c>
@@ -29747,7 +30019,9 @@
       <c r="I190" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J190" s="33"/>
+      <c r="J190" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K190" s="33" t="s">
         <v>942</v>
       </c>
@@ -29850,7 +30124,9 @@
       <c r="I191" s="33" t="s">
         <v>1712</v>
       </c>
-      <c r="J191" s="33"/>
+      <c r="J191" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K191" s="33" t="s">
         <v>942</v>
       </c>
@@ -29953,7 +30229,9 @@
       <c r="I192" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J192" s="33"/>
+      <c r="J192" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K192" s="33" t="s">
         <v>942</v>
       </c>
@@ -30056,7 +30334,9 @@
       <c r="I193" s="33" t="s">
         <v>1714</v>
       </c>
-      <c r="J193" s="33"/>
+      <c r="J193" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K193" s="33" t="s">
         <v>942</v>
       </c>
@@ -30159,7 +30439,9 @@
       <c r="I194" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J194" s="33"/>
+      <c r="J194" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K194" s="33" t="s">
         <v>942</v>
       </c>
@@ -30262,7 +30544,9 @@
       <c r="I195" s="33" t="s">
         <v>1716</v>
       </c>
-      <c r="J195" s="33"/>
+      <c r="J195" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K195" s="33" t="s">
         <v>942</v>
       </c>
@@ -30365,7 +30649,9 @@
       <c r="I196" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J196" s="33"/>
+      <c r="J196" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K196" s="33" t="s">
         <v>942</v>
       </c>
@@ -30468,7 +30754,9 @@
       <c r="I197" s="33" t="s">
         <v>1718</v>
       </c>
-      <c r="J197" s="33"/>
+      <c r="J197" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K197" s="33" t="s">
         <v>942</v>
       </c>
@@ -30571,7 +30859,9 @@
       <c r="I198" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J198" s="33"/>
+      <c r="J198" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K198" s="33" t="s">
         <v>942</v>
       </c>
@@ -30674,7 +30964,9 @@
       <c r="I199" s="33" t="s">
         <v>1720</v>
       </c>
-      <c r="J199" s="33"/>
+      <c r="J199" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K199" s="33" t="s">
         <v>942</v>
       </c>
@@ -30777,7 +31069,9 @@
       <c r="I200" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J200" s="33"/>
+      <c r="J200" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K200" s="33" t="s">
         <v>942</v>
       </c>
@@ -30880,7 +31174,9 @@
       <c r="I201" s="33" t="s">
         <v>1722</v>
       </c>
-      <c r="J201" s="33"/>
+      <c r="J201" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K201" s="33" t="s">
         <v>942</v>
       </c>
@@ -30983,7 +31279,9 @@
       <c r="I202" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J202" s="33"/>
+      <c r="J202" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K202" s="33" t="s">
         <v>942</v>
       </c>
@@ -31086,7 +31384,9 @@
       <c r="I203" s="33" t="s">
         <v>1724</v>
       </c>
-      <c r="J203" s="33"/>
+      <c r="J203" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K203" s="33" t="s">
         <v>942</v>
       </c>
@@ -31189,7 +31489,9 @@
       <c r="I204" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J204" s="33"/>
+      <c r="J204" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K204" s="33" t="s">
         <v>942</v>
       </c>
@@ -31292,7 +31594,9 @@
       <c r="I205" s="53" t="s">
         <v>1729</v>
       </c>
-      <c r="J205" s="33"/>
+      <c r="J205" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K205" s="33" t="s">
         <v>942</v>
       </c>
@@ -31395,7 +31699,9 @@
       <c r="I206" s="53" t="s">
         <v>912</v>
       </c>
-      <c r="J206" s="33"/>
+      <c r="J206" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K206" s="33" t="s">
         <v>942</v>
       </c>
@@ -31498,7 +31804,9 @@
       <c r="I207" s="53" t="s">
         <v>1730</v>
       </c>
-      <c r="J207" s="33"/>
+      <c r="J207" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K207" s="33" t="s">
         <v>942</v>
       </c>
@@ -31601,7 +31909,9 @@
       <c r="I208" s="53" t="s">
         <v>912</v>
       </c>
-      <c r="J208" s="33"/>
+      <c r="J208" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K208" s="33" t="s">
         <v>942</v>
       </c>
@@ -31704,7 +32014,9 @@
       <c r="I209" s="53" t="s">
         <v>1731</v>
       </c>
-      <c r="J209" s="33"/>
+      <c r="J209" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K209" s="33" t="s">
         <v>942</v>
       </c>
@@ -31807,7 +32119,9 @@
       <c r="I210" s="53" t="s">
         <v>912</v>
       </c>
-      <c r="J210" s="33"/>
+      <c r="J210" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K210" s="33" t="s">
         <v>942</v>
       </c>
@@ -31910,7 +32224,9 @@
       <c r="I211" s="53" t="s">
         <v>1732</v>
       </c>
-      <c r="J211" s="33"/>
+      <c r="J211" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K211" s="33" t="s">
         <v>942</v>
       </c>
@@ -32013,7 +32329,9 @@
       <c r="I212" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J212" s="33"/>
+      <c r="J212" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K212" s="33" t="s">
         <v>942</v>
       </c>
@@ -32116,7 +32434,9 @@
       <c r="I213" s="53" t="s">
         <v>1734</v>
       </c>
-      <c r="J213" s="33"/>
+      <c r="J213" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K213" s="33" t="s">
         <v>942</v>
       </c>
@@ -32219,7 +32539,9 @@
       <c r="I214" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J214" s="33"/>
+      <c r="J214" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K214" s="33" t="s">
         <v>942</v>
       </c>
@@ -32322,7 +32644,9 @@
       <c r="I215" s="54" t="s">
         <v>1736</v>
       </c>
-      <c r="J215" s="33"/>
+      <c r="J215" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K215" s="33" t="s">
         <v>942</v>
       </c>
@@ -32425,7 +32749,9 @@
       <c r="I216" s="55" t="s">
         <v>912</v>
       </c>
-      <c r="J216" s="33"/>
+      <c r="J216" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K216" s="33" t="s">
         <v>942</v>
       </c>
@@ -32528,7 +32854,9 @@
       <c r="I217" s="54" t="s">
         <v>1738</v>
       </c>
-      <c r="J217" s="33"/>
+      <c r="J217" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K217" s="33" t="s">
         <v>942</v>
       </c>
@@ -32631,7 +32959,9 @@
       <c r="I218" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J218" s="33"/>
+      <c r="J218" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K218" s="33" t="s">
         <v>942</v>
       </c>
@@ -32734,7 +33064,9 @@
       <c r="I219" s="54" t="s">
         <v>1740</v>
       </c>
-      <c r="J219" s="33"/>
+      <c r="J219" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K219" s="33" t="s">
         <v>942</v>
       </c>
@@ -32837,7 +33169,9 @@
       <c r="I220" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J220" s="33"/>
+      <c r="J220" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K220" s="33" t="s">
         <v>942</v>
       </c>
@@ -32940,7 +33274,9 @@
       <c r="I221" s="33" t="s">
         <v>1742</v>
       </c>
-      <c r="J221" s="33"/>
+      <c r="J221" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K221" s="33" t="s">
         <v>942</v>
       </c>
@@ -33043,7 +33379,9 @@
       <c r="I222" s="33" t="s">
         <v>1743</v>
       </c>
-      <c r="J222" s="33"/>
+      <c r="J222" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K222" s="33" t="s">
         <v>942</v>
       </c>
@@ -33146,7 +33484,9 @@
       <c r="I223" s="33" t="s">
         <v>1745</v>
       </c>
-      <c r="J223" s="33"/>
+      <c r="J223" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K223" s="33" t="s">
         <v>942</v>
       </c>
@@ -33249,7 +33589,9 @@
       <c r="I224" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J224" s="33"/>
+      <c r="J224" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K224" s="33" t="s">
         <v>942</v>
       </c>
@@ -33352,7 +33694,9 @@
       <c r="I225" s="54" t="s">
         <v>1748</v>
       </c>
-      <c r="J225" s="33"/>
+      <c r="J225" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K225" s="33" t="s">
         <v>942</v>
       </c>
@@ -33455,7 +33799,9 @@
       <c r="I226" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J226" s="33"/>
+      <c r="J226" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K226" s="33" t="s">
         <v>942</v>
       </c>
@@ -33558,7 +33904,9 @@
       <c r="I227" s="54" t="s">
         <v>1749</v>
       </c>
-      <c r="J227" s="33"/>
+      <c r="J227" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K227" s="33" t="s">
         <v>942</v>
       </c>
@@ -33661,7 +34009,9 @@
       <c r="I228" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J228" s="33"/>
+      <c r="J228" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K228" s="33" t="s">
         <v>942</v>
       </c>
@@ -33764,7 +34114,9 @@
       <c r="I229" s="54" t="s">
         <v>1751</v>
       </c>
-      <c r="J229" s="33"/>
+      <c r="J229" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K229" s="33" t="s">
         <v>942</v>
       </c>
@@ -33867,7 +34219,9 @@
       <c r="I230" s="56" t="s">
         <v>912</v>
       </c>
-      <c r="J230" s="33"/>
+      <c r="J230" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K230" s="33" t="s">
         <v>942</v>
       </c>
@@ -33970,7 +34324,9 @@
       <c r="I231" s="54" t="s">
         <v>1753</v>
       </c>
-      <c r="J231" s="33"/>
+      <c r="J231" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K231" s="33" t="s">
         <v>942</v>
       </c>
@@ -34073,7 +34429,9 @@
       <c r="I232" s="55" t="s">
         <v>912</v>
       </c>
-      <c r="J232" s="33"/>
+      <c r="J232" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K232" s="33" t="s">
         <v>942</v>
       </c>
@@ -34176,7 +34534,9 @@
       <c r="I233" s="54" t="s">
         <v>1755</v>
       </c>
-      <c r="J233" s="33"/>
+      <c r="J233" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K233" s="33" t="s">
         <v>942</v>
       </c>
@@ -34279,7 +34639,9 @@
       <c r="I234" s="55" t="s">
         <v>912</v>
       </c>
-      <c r="J234" s="33"/>
+      <c r="J234" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K234" s="33" t="s">
         <v>942</v>
       </c>
@@ -34382,7 +34744,9 @@
       <c r="I235" s="54" t="s">
         <v>1777</v>
       </c>
-      <c r="J235" s="33"/>
+      <c r="J235" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K235" s="33" t="s">
         <v>942</v>
       </c>
@@ -34485,7 +34849,9 @@
       <c r="I236" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J236" s="33"/>
+      <c r="J236" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K236" s="33" t="s">
         <v>942</v>
       </c>
@@ -34588,7 +34954,9 @@
       <c r="I237" s="54" t="s">
         <v>1757</v>
       </c>
-      <c r="J237" s="33"/>
+      <c r="J237" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K237" s="33" t="s">
         <v>942</v>
       </c>
@@ -34691,7 +35059,9 @@
       <c r="I238" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J238" s="33"/>
+      <c r="J238" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K238" s="33" t="s">
         <v>942</v>
       </c>
@@ -34794,7 +35164,9 @@
       <c r="I239" s="54" t="s">
         <v>1759</v>
       </c>
-      <c r="J239" s="33"/>
+      <c r="J239" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K239" s="33" t="s">
         <v>942</v>
       </c>
@@ -34897,7 +35269,9 @@
       <c r="I240" s="33" t="s">
         <v>1760</v>
       </c>
-      <c r="J240" s="33"/>
+      <c r="J240" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K240" s="33" t="s">
         <v>942</v>
       </c>
@@ -35000,7 +35374,9 @@
       <c r="I241" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J241" s="33"/>
+      <c r="J241" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K241" s="33" t="s">
         <v>942</v>
       </c>
@@ -35103,7 +35479,9 @@
       <c r="I242" s="54" t="s">
         <v>1761</v>
       </c>
-      <c r="J242" s="33"/>
+      <c r="J242" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K242" s="33" t="s">
         <v>942</v>
       </c>
@@ -35206,7 +35584,9 @@
       <c r="I243" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J243" s="33"/>
+      <c r="J243" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K243" s="33" t="s">
         <v>942</v>
       </c>
@@ -35309,7 +35689,9 @@
       <c r="I244" s="54" t="s">
         <v>1764</v>
       </c>
-      <c r="J244" s="33"/>
+      <c r="J244" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K244" s="33" t="s">
         <v>942</v>
       </c>
@@ -35412,7 +35794,9 @@
       <c r="I245" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="J245" s="33"/>
+      <c r="J245" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K245" s="33" t="s">
         <v>942</v>
       </c>
@@ -35515,7 +35899,9 @@
       <c r="I246" s="54" t="s">
         <v>1776</v>
       </c>
-      <c r="J246" s="33"/>
+      <c r="J246" s="33" t="s">
+        <v>912</v>
+      </c>
       <c r="K246" s="33" t="s">
         <v>942</v>
       </c>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ty/ruby/zakuro/doc/operation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE835286-EFF5-3546-AE4A-D4AB3DD42C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3134A3-4C74-E546-A0CB-03A67C53109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="31920" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="27220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月" sheetId="3" r:id="rId1"/>
     <sheet name="年" sheetId="4" r:id="rId2"/>
     <sheet name="十干十二支" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="n" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">月!$B$1:$AG$447</definedName>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10726" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10663" uniqueCount="1911">
   <si>
     <t>ID</t>
   </si>
@@ -4700,9 +4698,6 @@
     <t>天平宝字 6年 12 大 乙巳 41-791</t>
   </si>
   <si>
-    <t>天平宝字 7年 1 大 甲辰  41-130</t>
-  </si>
-  <si>
     <t>天平神護 2年 3 大 丙辰 52-1182</t>
   </si>
   <si>
@@ -8417,6 +8412,70 @@
   </si>
   <si>
     <t>戊辰</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壬戌</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>己亥</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>癸卯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>己巳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辛丑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲戌</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甲午</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乙巳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>癸巳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>辛亥</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壬申</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>癸酉</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>763-1-19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壬寅</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>766-5-13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丙午</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10122,10 +10181,10 @@
   <dimension ref="A1:AG447"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -10140,13 +10199,12 @@
     <col min="8" max="8" width="17" style="11" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" style="11" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" style="11" customWidth="1"/>
-    <col min="11" max="12" width="9.85546875" style="11" customWidth="1"/>
-    <col min="13" max="14" width="9.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="7.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="11" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="11" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="9.85546875" style="11" customWidth="1"/>
+    <col min="15" max="18" width="7.85546875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8" style="11" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="11" customWidth="1"/>
     <col min="23" max="24" width="7.85546875" style="11" customWidth="1"/>
     <col min="25" max="26" width="13.85546875" style="11" customWidth="1"/>
     <col min="27" max="28" width="13.85546875" style="20" customWidth="1"/>
@@ -10592,7 +10650,7 @@
         <v>1427</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>912</v>
@@ -10643,7 +10701,7 @@
         <v>1187</v>
       </c>
       <c r="Z5" s="33" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AA5" s="32">
         <f>IF(W5="-","-",VLOOKUP(W5,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -10904,10 +10962,10 @@
         <v>1190</v>
       </c>
       <c r="H8" s="47" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>1582</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>1583</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>912</v>
@@ -10958,7 +11016,7 @@
         <v>1190</v>
       </c>
       <c r="Z8" s="33" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AA8" s="32">
         <f>IF(W8="-","-",VLOOKUP(W8,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -11111,10 +11169,10 @@
         <v>930</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>912</v>
@@ -11324,10 +11382,10 @@
         <v>1193</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>912</v>
@@ -11378,7 +11436,7 @@
         <v>1193</v>
       </c>
       <c r="Z12" s="49" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AA12" s="32">
         <f>IF(W12="-","-",VLOOKUP(W12,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -11414,7 +11472,7 @@
         <v>956</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>957</v>
@@ -11429,7 +11487,7 @@
         <v>1194</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>912</v>
@@ -11519,7 +11577,7 @@
         <v>957</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>912</v>
@@ -11534,10 +11592,10 @@
         <v>1195</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>912</v>
@@ -11588,7 +11646,7 @@
         <v>1195</v>
       </c>
       <c r="Z14" s="33" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AA14" s="32">
         <f>IF(W14="-","-",VLOOKUP(W14,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -11621,7 +11679,7 @@
     </row>
     <row r="15" spans="2:33" s="20" customFormat="1" ht="48.5" customHeight="1">
       <c r="B15" s="27" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>912</v>
@@ -11642,7 +11700,7 @@
         <v>912</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>912</v>
@@ -12899,10 +12957,10 @@
         <v>1207</v>
       </c>
       <c r="H27" s="47" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I27" s="33" t="s">
         <v>1591</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>1592</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>912</v>
@@ -12953,7 +13011,7 @@
         <v>1207</v>
       </c>
       <c r="Z27" s="33" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="AA27" s="32">
         <f>IF(W27="-","-",VLOOKUP(W27,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13109,10 +13167,10 @@
         <v>1209</v>
       </c>
       <c r="H29" s="47" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I29" s="33" t="s">
         <v>1593</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>1594</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>912</v>
@@ -13163,7 +13221,7 @@
         <v>1209</v>
       </c>
       <c r="Z29" s="33" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AA29" s="32">
         <f>IF(W29="-","-",VLOOKUP(W29,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13319,10 +13377,10 @@
         <v>1211</v>
       </c>
       <c r="H31" s="47" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I31" s="33" t="s">
         <v>1595</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>1596</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>912</v>
@@ -13373,7 +13431,7 @@
         <v>1211</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="AA31" s="32">
         <f>IF(W31="-","-",VLOOKUP(W31,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13529,10 +13587,10 @@
         <v>1213</v>
       </c>
       <c r="H33" s="47" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>912</v>
@@ -13583,7 +13641,7 @@
         <v>1213</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AA33" s="32">
         <f>IF(W33="-","-",VLOOKUP(W33,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13634,7 +13692,7 @@
         <v>1214</v>
       </c>
       <c r="H34" s="47" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I34" s="33" t="s">
         <v>912</v>
@@ -13688,7 +13746,7 @@
         <v>1214</v>
       </c>
       <c r="Z34" s="33" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AA34" s="32">
         <f>IF(W34="-","-",VLOOKUP(W34,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13745,7 +13803,7 @@
         <v>912</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>942</v>
@@ -13841,13 +13899,13 @@
         <v>931</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>1216</v>
+        <v>1907</v>
       </c>
       <c r="H36" s="47" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I36" s="33" t="s">
         <v>1600</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>1601</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>912</v>
@@ -13856,7 +13914,7 @@
         <v>942</v>
       </c>
       <c r="L36" s="33" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="M36" s="33" t="s">
         <v>922</v>
@@ -13949,10 +14007,10 @@
         <v>1217</v>
       </c>
       <c r="H37" s="47" t="s">
-        <v>1447</v>
+        <v>1602</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="J37" s="33" t="s">
         <v>912</v>
@@ -13961,7 +14019,7 @@
         <v>942</v>
       </c>
       <c r="L37" s="33" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="M37" s="33" t="s">
         <v>938</v>
@@ -14003,7 +14061,7 @@
         <v>1217</v>
       </c>
       <c r="Z37" s="33" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AA37" s="32">
         <f>IF(W37="-","-",VLOOKUP(W37,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -14054,10 +14112,10 @@
         <v>1217</v>
       </c>
       <c r="H38" s="47" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I38" s="33" t="s">
         <v>1603</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>1604</v>
       </c>
       <c r="J38" s="33" t="s">
         <v>932</v>
@@ -14147,7 +14205,7 @@
         <v>912</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>912</v>
+        <v>976</v>
       </c>
       <c r="E39" s="28">
         <v>120</v>
@@ -14159,7 +14217,7 @@
         <v>1218</v>
       </c>
       <c r="H39" s="47" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I39" s="33" t="s">
         <v>912</v>
@@ -14261,13 +14319,13 @@
         <v>922</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>1219</v>
+        <v>1909</v>
       </c>
       <c r="H40" s="47" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I40" s="33" t="s">
         <v>1605</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>1606</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>912</v>
@@ -14318,7 +14376,7 @@
         <v>1219</v>
       </c>
       <c r="Z40" s="33" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AA40" s="32">
         <f>IF(W40="-","-",VLOOKUP(W40,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -14369,10 +14427,10 @@
         <v>1220</v>
       </c>
       <c r="H41" s="47" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="J41" s="33" t="s">
         <v>912</v>
@@ -14399,7 +14457,7 @@
         <v>912</v>
       </c>
       <c r="R41" s="33" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="S41" s="33" t="s">
         <v>912</v>
@@ -14474,10 +14532,10 @@
         <v>1221</v>
       </c>
       <c r="H42" s="47" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I42" s="33" t="s">
         <v>1608</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>1609</v>
       </c>
       <c r="J42" s="33" t="s">
         <v>912</v>
@@ -14486,7 +14544,7 @@
         <v>942</v>
       </c>
       <c r="L42" s="33" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M42" s="33" t="s">
         <v>928</v>
@@ -14501,7 +14559,7 @@
         <v>660</v>
       </c>
       <c r="Q42" s="33" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="R42" s="33" t="s">
         <v>912</v>
@@ -14528,7 +14586,7 @@
         <v>1221</v>
       </c>
       <c r="Z42" s="33" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AA42" s="32">
         <f>IF(W42="-","-",VLOOKUP(W42,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -14579,7 +14637,7 @@
         <v>1222</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I43" s="33" t="s">
         <v>912</v>
@@ -14684,7 +14742,7 @@
         <v>1223</v>
       </c>
       <c r="H44" s="47" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>912</v>
@@ -14789,7 +14847,7 @@
         <v>1224</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>912</v>
@@ -14894,7 +14952,7 @@
         <v>1225</v>
       </c>
       <c r="H46" s="47" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I46" s="33" t="s">
         <v>912</v>
@@ -14999,10 +15057,10 @@
         <v>1226</v>
       </c>
       <c r="H47" s="47" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I47" s="33" t="s">
         <v>1610</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>1611</v>
       </c>
       <c r="J47" s="33" t="s">
         <v>912</v>
@@ -15053,7 +15111,7 @@
         <v>1226</v>
       </c>
       <c r="Z47" s="33" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="AA47" s="32">
         <f>IF(W47="-","-",VLOOKUP(W47,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15104,7 +15162,7 @@
         <v>1227</v>
       </c>
       <c r="H48" s="47" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>912</v>
@@ -15209,7 +15267,7 @@
         <v>1228</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I49" s="33" t="s">
         <v>912</v>
@@ -15314,10 +15372,10 @@
         <v>1229</v>
       </c>
       <c r="H50" s="47" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I50" s="33" t="s">
         <v>1612</v>
-      </c>
-      <c r="I50" s="33" t="s">
-        <v>1613</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>912</v>
@@ -15368,7 +15426,7 @@
         <v>1229</v>
       </c>
       <c r="Z50" s="33" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="AA50" s="32">
         <f>IF(W50="-","-",VLOOKUP(W50,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15419,7 +15477,7 @@
         <v>1230</v>
       </c>
       <c r="H51" s="47" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I51" s="33" t="s">
         <v>912</v>
@@ -15524,10 +15582,10 @@
         <v>1231</v>
       </c>
       <c r="H52" s="47" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I52" s="33" t="s">
         <v>1615</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>1616</v>
       </c>
       <c r="J52" s="33" t="s">
         <v>912</v>
@@ -15578,7 +15636,7 @@
         <v>1231</v>
       </c>
       <c r="Z52" s="33" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="AA52" s="32">
         <f>IF(W52="-","-",VLOOKUP(W52,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15629,7 +15687,7 @@
         <v>1232</v>
       </c>
       <c r="H53" s="47" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I53" s="33" t="s">
         <v>912</v>
@@ -15734,7 +15792,7 @@
         <v>1233</v>
       </c>
       <c r="H54" s="47" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I54" s="33" t="s">
         <v>912</v>
@@ -15839,10 +15897,10 @@
         <v>1234</v>
       </c>
       <c r="H55" s="47" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I55" s="33" t="s">
         <v>1617</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>1618</v>
       </c>
       <c r="J55" s="33" t="s">
         <v>912</v>
@@ -15893,7 +15951,7 @@
         <v>1234</v>
       </c>
       <c r="Z55" s="33" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="AA55" s="32">
         <f>IF(W55="-","-",VLOOKUP(W55,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15944,7 +16002,7 @@
         <v>1235</v>
       </c>
       <c r="H56" s="47" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I56" s="33" t="s">
         <v>912</v>
@@ -16049,10 +16107,10 @@
         <v>1236</v>
       </c>
       <c r="H57" s="47" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="J57" s="33" t="s">
         <v>912</v>
@@ -16103,7 +16161,7 @@
         <v>1236</v>
       </c>
       <c r="Z57" s="33" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="AA57" s="32">
         <f>IF(W57="-","-",VLOOKUP(W57,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -16154,7 +16212,7 @@
         <v>1237</v>
       </c>
       <c r="H58" s="47" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I58" s="33" t="s">
         <v>912</v>
@@ -16184,7 +16242,7 @@
         <v>912</v>
       </c>
       <c r="R58" s="33" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="S58" s="33" t="s">
         <v>912</v>
@@ -16259,10 +16317,10 @@
         <v>1238</v>
       </c>
       <c r="H59" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J59" s="33" t="s">
         <v>912</v>
@@ -16271,7 +16329,7 @@
         <v>942</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="M59" s="33" t="s">
         <v>925</v>
@@ -16286,7 +16344,7 @@
         <v>660</v>
       </c>
       <c r="Q59" s="33" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="R59" s="33" t="s">
         <v>912</v>
@@ -16313,7 +16371,7 @@
         <v>1238</v>
       </c>
       <c r="Z59" s="33" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="AA59" s="32">
         <f>IF(W59="-","-",VLOOKUP(W59,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -16364,7 +16422,7 @@
         <v>1239</v>
       </c>
       <c r="H60" s="47" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I60" s="33" t="s">
         <v>912</v>
@@ -16469,10 +16527,10 @@
         <v>1240</v>
       </c>
       <c r="H61" s="47" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I61" s="33" t="s">
         <v>1622</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>1623</v>
       </c>
       <c r="J61" s="33" t="s">
         <v>912</v>
@@ -16523,7 +16581,7 @@
         <v>1240</v>
       </c>
       <c r="Z61" s="33" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="AA61" s="32">
         <f>IF(W61="-","-",VLOOKUP(W61,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -16574,7 +16632,7 @@
         <v>1241</v>
       </c>
       <c r="H62" s="47" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>912</v>
@@ -16679,10 +16737,10 @@
         <v>1242</v>
       </c>
       <c r="H63" s="47" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I63" s="33" t="s">
         <v>1624</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>1625</v>
       </c>
       <c r="J63" s="33" t="s">
         <v>912</v>
@@ -16733,7 +16791,7 @@
         <v>1242</v>
       </c>
       <c r="Z63" s="33" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AA63" s="32">
         <f>IF(W63="-","-",VLOOKUP(W63,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -16784,7 +16842,7 @@
         <v>1243</v>
       </c>
       <c r="H64" s="47" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I64" s="33" t="s">
         <v>912</v>
@@ -16889,7 +16947,7 @@
         <v>1244</v>
       </c>
       <c r="H65" s="47" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I65" s="33" t="s">
         <v>912</v>
@@ -16994,7 +17052,7 @@
         <v>1245</v>
       </c>
       <c r="H66" s="47" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I66" s="33" t="s">
         <v>912</v>
@@ -17099,10 +17157,10 @@
         <v>1246</v>
       </c>
       <c r="H67" s="47" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="I67" s="33" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J67" s="33" t="s">
         <v>912</v>
@@ -17153,7 +17211,7 @@
         <v>1246</v>
       </c>
       <c r="Z67" s="33" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="AA67" s="32">
         <f>IF(W67="-","-",VLOOKUP(W67,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17204,7 +17262,7 @@
         <v>1247</v>
       </c>
       <c r="H68" s="47" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I68" s="33" t="s">
         <v>912</v>
@@ -17258,7 +17316,7 @@
         <v>1247</v>
       </c>
       <c r="Z68" s="33" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="AA68" s="32">
         <f>IF(W68="-","-",VLOOKUP(W68,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17309,7 +17367,7 @@
         <v>1248</v>
       </c>
       <c r="H69" s="47" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I69" s="33" t="s">
         <v>912</v>
@@ -17363,7 +17421,7 @@
         <v>1248</v>
       </c>
       <c r="Z69" s="33" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AA69" s="32">
         <f>IF(W69="-","-",VLOOKUP(W69,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17414,7 +17472,7 @@
         <v>1249</v>
       </c>
       <c r="H70" s="47" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I70" s="33" t="s">
         <v>912</v>
@@ -17468,7 +17526,7 @@
         <v>1249</v>
       </c>
       <c r="Z70" s="33" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AA70" s="32">
         <f>IF(W70="-","-",VLOOKUP(W70,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17519,7 +17577,7 @@
         <v>1250</v>
       </c>
       <c r="H71" s="47" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I71" s="33" t="s">
         <v>912</v>
@@ -17624,10 +17682,10 @@
         <v>1251</v>
       </c>
       <c r="H72" s="47" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I72" s="33" t="s">
         <v>1630</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>1631</v>
       </c>
       <c r="J72" s="33" t="s">
         <v>912</v>
@@ -17678,7 +17736,7 @@
         <v>1251</v>
       </c>
       <c r="Z72" s="33" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AA72" s="32">
         <f>IF(W72="-","-",VLOOKUP(W72,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17729,7 +17787,7 @@
         <v>1252</v>
       </c>
       <c r="H73" s="47" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I73" s="52" t="s">
         <v>912</v>
@@ -17834,10 +17892,10 @@
         <v>1253</v>
       </c>
       <c r="H74" s="47" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="J74" s="33" t="s">
         <v>912</v>
@@ -17888,7 +17946,7 @@
         <v>1253</v>
       </c>
       <c r="Z74" s="33" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="AA74" s="32">
         <f>IF(W74="-","-",VLOOKUP(W74,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17939,10 +17997,10 @@
         <v>1254</v>
       </c>
       <c r="H75" s="47" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I75" s="33" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="J75" s="33" t="s">
         <v>912</v>
@@ -17993,7 +18051,7 @@
         <v>1254</v>
       </c>
       <c r="Z75" s="33" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AA75" s="32">
         <f>IF(W75="-","-",VLOOKUP(W75,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18044,7 +18102,7 @@
         <v>1255</v>
       </c>
       <c r="H76" s="47" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I76" s="33" t="s">
         <v>912</v>
@@ -18149,13 +18207,13 @@
         <v>1256</v>
       </c>
       <c r="H77" s="47" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="K77" s="33" t="s">
         <v>942</v>
@@ -18203,7 +18261,7 @@
         <v>1256</v>
       </c>
       <c r="Z77" s="33" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AA77" s="32">
         <f>IF(W77="-","-",VLOOKUP(W77,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18254,7 +18312,7 @@
         <v>1257</v>
       </c>
       <c r="H78" s="47" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>912</v>
@@ -18359,10 +18417,10 @@
         <v>1258</v>
       </c>
       <c r="H79" s="47" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I79" s="33" t="s">
         <v>1638</v>
-      </c>
-      <c r="I79" s="33" t="s">
-        <v>1639</v>
       </c>
       <c r="J79" s="33" t="s">
         <v>912</v>
@@ -18413,7 +18471,7 @@
         <v>1258</v>
       </c>
       <c r="Z79" s="33" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="AA79" s="32">
         <f>IF(W79="-","-",VLOOKUP(W79,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18464,10 +18522,10 @@
         <v>1259</v>
       </c>
       <c r="H80" s="47" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I80" s="33" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J80" s="33" t="s">
         <v>912</v>
@@ -18518,7 +18576,7 @@
         <v>1259</v>
       </c>
       <c r="Z80" s="33" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="AA80" s="32">
         <f>IF(W80="-","-",VLOOKUP(W80,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18569,7 +18627,7 @@
         <v>1260</v>
       </c>
       <c r="H81" s="47" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I81" s="33" t="s">
         <v>912</v>
@@ -18674,7 +18732,7 @@
         <v>1261</v>
       </c>
       <c r="H82" s="47" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>912</v>
@@ -18779,10 +18837,10 @@
         <v>1262</v>
       </c>
       <c r="H83" s="47" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I83" s="33" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J83" s="33" t="s">
         <v>912</v>
@@ -18833,7 +18891,7 @@
         <v>1262</v>
       </c>
       <c r="Z83" s="33" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AA83" s="32">
         <f>IF(W83="-","-",VLOOKUP(W83,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18884,7 +18942,7 @@
         <v>1263</v>
       </c>
       <c r="H84" s="47" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I84" s="33" t="s">
         <v>912</v>
@@ -18989,10 +19047,10 @@
         <v>1264</v>
       </c>
       <c r="H85" s="47" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J85" s="33" t="s">
         <v>912</v>
@@ -19043,7 +19101,7 @@
         <v>1264</v>
       </c>
       <c r="Z85" s="33" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="AA85" s="32">
         <f>IF(W85="-","-",VLOOKUP(W85,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19094,7 +19152,7 @@
         <v>1265</v>
       </c>
       <c r="H86" s="47" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I86" s="33" t="s">
         <v>912</v>
@@ -19199,10 +19257,10 @@
         <v>1266</v>
       </c>
       <c r="H87" s="47" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J87" s="33" t="s">
         <v>912</v>
@@ -19253,7 +19311,7 @@
         <v>1266</v>
       </c>
       <c r="Z87" s="33" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="AA87" s="32">
         <f>IF(W87="-","-",VLOOKUP(W87,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19304,7 +19362,7 @@
         <v>1267</v>
       </c>
       <c r="H88" s="47" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I88" s="33" t="s">
         <v>912</v>
@@ -19409,7 +19467,7 @@
         <v>1268</v>
       </c>
       <c r="H89" s="47" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I89" s="33" t="s">
         <v>912</v>
@@ -19514,7 +19572,7 @@
         <v>1269</v>
       </c>
       <c r="H90" s="47" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I90" s="33" t="s">
         <v>912</v>
@@ -19619,10 +19677,10 @@
         <v>1270</v>
       </c>
       <c r="H91" s="47" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J91" s="33" t="s">
         <v>912</v>
@@ -19673,7 +19731,7 @@
         <v>1270</v>
       </c>
       <c r="Z91" s="33" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="AA91" s="32">
         <f>IF(W91="-","-",VLOOKUP(W91,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19724,7 +19782,7 @@
         <v>1271</v>
       </c>
       <c r="H92" s="47" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>912</v>
@@ -19829,10 +19887,10 @@
         <v>1272</v>
       </c>
       <c r="H93" s="47" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J93" s="33" t="s">
         <v>912</v>
@@ -19883,7 +19941,7 @@
         <v>1272</v>
       </c>
       <c r="Z93" s="33" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AA93" s="32">
         <f>IF(W93="-","-",VLOOKUP(W93,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19934,7 +19992,7 @@
         <v>1273</v>
       </c>
       <c r="H94" s="47" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I94" s="33" t="s">
         <v>912</v>
@@ -20039,10 +20097,10 @@
         <v>1274</v>
       </c>
       <c r="H95" s="47" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J95" s="33" t="s">
         <v>912</v>
@@ -20093,7 +20151,7 @@
         <v>1274</v>
       </c>
       <c r="Z95" s="33" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="AA95" s="32">
         <f>IF(W95="-","-",VLOOKUP(W95,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20144,7 +20202,7 @@
         <v>1275</v>
       </c>
       <c r="H96" s="47" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I96" s="33" t="s">
         <v>912</v>
@@ -20249,7 +20307,7 @@
         <v>1276</v>
       </c>
       <c r="H97" s="47" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I97" s="33" t="s">
         <v>912</v>
@@ -20354,10 +20412,10 @@
         <v>1277</v>
       </c>
       <c r="H98" s="47" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="J98" s="33" t="s">
         <v>912</v>
@@ -20408,7 +20466,7 @@
         <v>1277</v>
       </c>
       <c r="Z98" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="AA98" s="32">
         <f>IF(W98="-","-",VLOOKUP(W98,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20459,7 +20517,7 @@
         <v>1278</v>
       </c>
       <c r="H99" s="47" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I99" s="33" t="s">
         <v>912</v>
@@ -20564,7 +20622,7 @@
         <v>1279</v>
       </c>
       <c r="H100" s="47" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I100" s="33" t="s">
         <v>912</v>
@@ -20669,7 +20727,7 @@
         <v>1280</v>
       </c>
       <c r="H101" s="47" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I101" s="33" t="s">
         <v>912</v>
@@ -20774,10 +20832,10 @@
         <v>1281</v>
       </c>
       <c r="H102" s="47" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I102" s="33" t="s">
         <v>1649</v>
-      </c>
-      <c r="I102" s="33" t="s">
-        <v>1650</v>
       </c>
       <c r="J102" s="33" t="s">
         <v>912</v>
@@ -20828,7 +20886,7 @@
         <v>1281</v>
       </c>
       <c r="Z102" s="33" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="AA102" s="32">
         <f>IF(W102="-","-",VLOOKUP(W102,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20879,7 +20937,7 @@
         <v>1282</v>
       </c>
       <c r="H103" s="47" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I103" s="33" t="s">
         <v>912</v>
@@ -20984,10 +21042,10 @@
         <v>1283</v>
       </c>
       <c r="H104" s="47" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I104" s="33" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J104" s="33" t="s">
         <v>912</v>
@@ -21038,7 +21096,7 @@
         <v>1283</v>
       </c>
       <c r="Z104" s="33" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="AA104" s="32">
         <f>IF(W104="-","-",VLOOKUP(W104,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21089,7 +21147,7 @@
         <v>1284</v>
       </c>
       <c r="H105" s="47" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I105" s="52" t="s">
         <v>912</v>
@@ -21194,10 +21252,10 @@
         <v>1285</v>
       </c>
       <c r="H106" s="47" t="s">
+        <v>1651</v>
+      </c>
+      <c r="I106" s="33" t="s">
         <v>1652</v>
-      </c>
-      <c r="I106" s="33" t="s">
-        <v>1653</v>
       </c>
       <c r="J106" s="33" t="s">
         <v>912</v>
@@ -21248,7 +21306,7 @@
         <v>1285</v>
       </c>
       <c r="Z106" s="33" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="AA106" s="32">
         <f>IF(W106="-","-",VLOOKUP(W106,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21299,7 +21357,7 @@
         <v>1286</v>
       </c>
       <c r="H107" s="47" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I107" s="33" t="s">
         <v>912</v>
@@ -21404,10 +21462,10 @@
         <v>1287</v>
       </c>
       <c r="H108" s="47" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I108" s="33" t="s">
         <v>1654</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>1655</v>
       </c>
       <c r="J108" s="33" t="s">
         <v>912</v>
@@ -21458,7 +21516,7 @@
         <v>1287</v>
       </c>
       <c r="Z108" s="33" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="AA108" s="32">
         <f>IF(W108="-","-",VLOOKUP(W108,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21509,7 +21567,7 @@
         <v>1288</v>
       </c>
       <c r="H109" s="47" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I109" s="33" t="s">
         <v>912</v>
@@ -21614,10 +21672,10 @@
         <v>1289</v>
       </c>
       <c r="H110" s="47" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I110" s="33" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="J110" s="33" t="s">
         <v>912</v>
@@ -21668,7 +21726,7 @@
         <v>1289</v>
       </c>
       <c r="Z110" s="33" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AA110" s="32">
         <f>IF(W110="-","-",VLOOKUP(W110,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21719,7 +21777,7 @@
         <v>1290</v>
       </c>
       <c r="H111" s="47" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I111" s="33" t="s">
         <v>912</v>
@@ -21824,7 +21882,7 @@
         <v>1291</v>
       </c>
       <c r="H112" s="47" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I112" s="33" t="s">
         <v>912</v>
@@ -21929,7 +21987,7 @@
         <v>1292</v>
       </c>
       <c r="H113" s="47" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I113" s="33" t="s">
         <v>912</v>
@@ -22034,7 +22092,7 @@
         <v>1293</v>
       </c>
       <c r="H114" s="47" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I114" s="33" t="s">
         <v>912</v>
@@ -22139,10 +22197,10 @@
         <v>1294</v>
       </c>
       <c r="H115" s="47" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I115" s="33" t="s">
         <v>1657</v>
-      </c>
-      <c r="I115" s="33" t="s">
-        <v>1658</v>
       </c>
       <c r="J115" s="33" t="s">
         <v>912</v>
@@ -22193,7 +22251,7 @@
         <v>1294</v>
       </c>
       <c r="Z115" s="33" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="AA115" s="32">
         <f>IF(W115="-","-",VLOOKUP(W115,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22244,7 +22302,7 @@
         <v>1295</v>
       </c>
       <c r="H116" s="47" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I116" s="33" t="s">
         <v>912</v>
@@ -22349,10 +22407,10 @@
         <v>1296</v>
       </c>
       <c r="H117" s="47" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I117" s="33" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="J117" s="33" t="s">
         <v>912</v>
@@ -22403,7 +22461,7 @@
         <v>1296</v>
       </c>
       <c r="Z117" s="33" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="AA117" s="32">
         <f>IF(W117="-","-",VLOOKUP(W117,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22454,7 +22512,7 @@
         <v>1297</v>
       </c>
       <c r="H118" s="47" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I118" s="33" t="s">
         <v>912</v>
@@ -22559,10 +22617,10 @@
         <v>1298</v>
       </c>
       <c r="H119" s="47" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I119" s="33" t="s">
         <v>1660</v>
-      </c>
-      <c r="I119" s="33" t="s">
-        <v>1661</v>
       </c>
       <c r="J119" s="33" t="s">
         <v>912</v>
@@ -22613,7 +22671,7 @@
         <v>1298</v>
       </c>
       <c r="Z119" s="33" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AA119" s="32">
         <f>IF(W119="-","-",VLOOKUP(W119,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22664,7 +22722,7 @@
         <v>1299</v>
       </c>
       <c r="H120" s="47" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I120" s="33" t="s">
         <v>912</v>
@@ -22769,10 +22827,10 @@
         <v>1300</v>
       </c>
       <c r="H121" s="47" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I121" s="33" t="s">
         <v>1662</v>
-      </c>
-      <c r="I121" s="33" t="s">
-        <v>1663</v>
       </c>
       <c r="J121" s="33" t="s">
         <v>912</v>
@@ -22823,7 +22881,7 @@
         <v>1300</v>
       </c>
       <c r="Z121" s="33" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="AA121" s="32">
         <f>IF(W121="-","-",VLOOKUP(W121,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22874,7 +22932,7 @@
         <v>1301</v>
       </c>
       <c r="H122" s="47" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I122" s="33" t="s">
         <v>912</v>
@@ -22979,7 +23037,7 @@
         <v>1302</v>
       </c>
       <c r="H123" s="47" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I123" s="33" t="s">
         <v>912</v>
@@ -23084,10 +23142,10 @@
         <v>1303</v>
       </c>
       <c r="H124" s="47" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I124" s="33" t="s">
         <v>1664</v>
-      </c>
-      <c r="I124" s="33" t="s">
-        <v>1665</v>
       </c>
       <c r="J124" s="33" t="s">
         <v>912</v>
@@ -23138,7 +23196,7 @@
         <v>1303</v>
       </c>
       <c r="Z124" s="33" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="AA124" s="32">
         <f>IF(W124="-","-",VLOOKUP(W124,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23189,7 +23247,7 @@
         <v>1304</v>
       </c>
       <c r="H125" s="47" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I125" s="33" t="s">
         <v>912</v>
@@ -23294,10 +23352,10 @@
         <v>1305</v>
       </c>
       <c r="H126" s="47" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I126" s="33" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J126" s="33" t="s">
         <v>912</v>
@@ -23348,7 +23406,7 @@
         <v>1305</v>
       </c>
       <c r="Z126" s="33" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="AA126" s="32">
         <f>IF(W126="-","-",VLOOKUP(W126,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23399,7 +23457,7 @@
         <v>1306</v>
       </c>
       <c r="H127" s="47" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I127" s="33" t="s">
         <v>912</v>
@@ -23504,7 +23562,7 @@
         <v>1307</v>
       </c>
       <c r="H128" s="47" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I128" s="33" t="s">
         <v>912</v>
@@ -23609,7 +23667,7 @@
         <v>1308</v>
       </c>
       <c r="H129" s="47" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I129" s="33" t="s">
         <v>912</v>
@@ -23714,7 +23772,7 @@
         <v>1309</v>
       </c>
       <c r="H130" s="47" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I130" s="33" t="s">
         <v>912</v>
@@ -23819,10 +23877,10 @@
         <v>1310</v>
       </c>
       <c r="H131" s="47" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I131" s="33" t="s">
         <v>1667</v>
-      </c>
-      <c r="I131" s="33" t="s">
-        <v>1668</v>
       </c>
       <c r="J131" s="33" t="s">
         <v>912</v>
@@ -23873,7 +23931,7 @@
         <v>1310</v>
       </c>
       <c r="Z131" s="33" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="AA131" s="32">
         <f>IF(W131="-","-",VLOOKUP(W131,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23924,7 +23982,7 @@
         <v>1311</v>
       </c>
       <c r="H132" s="47" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I132" s="33" t="s">
         <v>912</v>
@@ -24029,7 +24087,7 @@
         <v>1312</v>
       </c>
       <c r="H133" s="47" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I133" s="33" t="s">
         <v>912</v>
@@ -24134,10 +24192,10 @@
         <v>1313</v>
       </c>
       <c r="H134" s="47" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I134" s="33" t="s">
         <v>1669</v>
-      </c>
-      <c r="I134" s="33" t="s">
-        <v>1670</v>
       </c>
       <c r="J134" s="33" t="s">
         <v>912</v>
@@ -24188,7 +24246,7 @@
         <v>1313</v>
       </c>
       <c r="Z134" s="33" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AA134" s="32">
         <f>IF(W134="-","-",VLOOKUP(W134,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24239,10 +24297,10 @@
         <v>1314</v>
       </c>
       <c r="H135" s="47" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J135" s="33" t="s">
         <v>912</v>
@@ -24293,7 +24351,7 @@
         <v>1314</v>
       </c>
       <c r="Z135" s="33" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="AA135" s="32">
         <f>IF(W135="-","-",VLOOKUP(W135,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24344,7 +24402,7 @@
         <v>1315</v>
       </c>
       <c r="H136" s="47" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I136" s="33" t="s">
         <v>912</v>
@@ -24449,10 +24507,10 @@
         <v>1316</v>
       </c>
       <c r="H137" s="47" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I137" s="33" t="s">
         <v>1672</v>
-      </c>
-      <c r="I137" s="33" t="s">
-        <v>1673</v>
       </c>
       <c r="J137" s="33" t="s">
         <v>912</v>
@@ -24503,7 +24561,7 @@
         <v>1316</v>
       </c>
       <c r="Z137" s="33" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="AA137" s="32">
         <f>IF(W137="-","-",VLOOKUP(W137,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24554,7 +24612,7 @@
         <v>1317</v>
       </c>
       <c r="H138" s="47" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I138" s="33" t="s">
         <v>912</v>
@@ -24659,7 +24717,7 @@
         <v>1318</v>
       </c>
       <c r="H139" s="47" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I139" s="33" t="s">
         <v>912</v>
@@ -24764,10 +24822,10 @@
         <v>1319</v>
       </c>
       <c r="H140" s="47" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I140" s="33" t="s">
         <v>1674</v>
-      </c>
-      <c r="I140" s="33" t="s">
-        <v>1675</v>
       </c>
       <c r="J140" s="33" t="s">
         <v>912</v>
@@ -24818,7 +24876,7 @@
         <v>1319</v>
       </c>
       <c r="Z140" s="33" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="AA140" s="32">
         <f>IF(W140="-","-",VLOOKUP(W140,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24869,7 +24927,7 @@
         <v>1320</v>
       </c>
       <c r="H141" s="47" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I141" s="33" t="s">
         <v>912</v>
@@ -24974,7 +25032,7 @@
         <v>1321</v>
       </c>
       <c r="H142" s="47" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I142" s="33" t="s">
         <v>912</v>
@@ -25079,10 +25137,10 @@
         <v>1322</v>
       </c>
       <c r="H143" s="47" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I143" s="33" t="s">
         <v>1676</v>
-      </c>
-      <c r="I143" s="33" t="s">
-        <v>1677</v>
       </c>
       <c r="J143" s="33" t="s">
         <v>912</v>
@@ -25133,7 +25191,7 @@
         <v>1322</v>
       </c>
       <c r="Z143" s="33" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="AA143" s="32">
         <f>IF(W143="-","-",VLOOKUP(W143,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25184,7 +25242,7 @@
         <v>1323</v>
       </c>
       <c r="H144" s="47" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I144" s="33" t="s">
         <v>912</v>
@@ -25289,7 +25347,7 @@
         <v>1324</v>
       </c>
       <c r="H145" s="47" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I145" s="33" t="s">
         <v>912</v>
@@ -25394,10 +25452,10 @@
         <v>1325</v>
       </c>
       <c r="H146" s="47" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I146" s="33" t="s">
         <v>1678</v>
-      </c>
-      <c r="I146" s="33" t="s">
-        <v>1679</v>
       </c>
       <c r="J146" s="33" t="s">
         <v>912</v>
@@ -25448,7 +25506,7 @@
         <v>1325</v>
       </c>
       <c r="Z146" s="33" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="AA146" s="32">
         <f>IF(W146="-","-",VLOOKUP(W146,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25499,7 +25557,7 @@
         <v>1326</v>
       </c>
       <c r="H147" s="47" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I147" s="33" t="s">
         <v>912</v>
@@ -25604,7 +25662,7 @@
         <v>1327</v>
       </c>
       <c r="H148" s="47" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I148" s="33" t="s">
         <v>912</v>
@@ -25709,7 +25767,7 @@
         <v>1328</v>
       </c>
       <c r="H149" s="47" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I149" s="33" t="s">
         <v>912</v>
@@ -25814,10 +25872,10 @@
         <v>1329</v>
       </c>
       <c r="H150" s="47" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I150" s="33" t="s">
         <v>1680</v>
-      </c>
-      <c r="I150" s="33" t="s">
-        <v>1681</v>
       </c>
       <c r="J150" s="33" t="s">
         <v>912</v>
@@ -25868,7 +25926,7 @@
         <v>1329</v>
       </c>
       <c r="Z150" s="33" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="AA150" s="32">
         <f>IF(W150="-","-",VLOOKUP(W150,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25919,7 +25977,7 @@
         <v>1330</v>
       </c>
       <c r="H151" s="47" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>912</v>
@@ -26024,10 +26082,10 @@
         <v>1331</v>
       </c>
       <c r="H152" s="47" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J152" s="33" t="s">
         <v>912</v>
@@ -26078,7 +26136,7 @@
         <v>1331</v>
       </c>
       <c r="Z152" s="33" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="AA152" s="32">
         <f>IF(W152="-","-",VLOOKUP(W152,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26129,7 +26187,7 @@
         <v>1332</v>
       </c>
       <c r="H153" s="47" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I153" s="33" t="s">
         <v>912</v>
@@ -26234,10 +26292,10 @@
         <v>1333</v>
       </c>
       <c r="H154" s="47" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J154" s="33" t="s">
         <v>912</v>
@@ -26288,7 +26346,7 @@
         <v>1333</v>
       </c>
       <c r="Z154" s="33" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="AA154" s="32">
         <f>IF(W154="-","-",VLOOKUP(W154,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26339,10 +26397,10 @@
         <v>1334</v>
       </c>
       <c r="H155" s="47" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I155" s="33" t="s">
         <v>1686</v>
-      </c>
-      <c r="I155" s="33" t="s">
-        <v>1687</v>
       </c>
       <c r="J155" s="33" t="s">
         <v>912</v>
@@ -26393,7 +26451,7 @@
         <v>1334</v>
       </c>
       <c r="Z155" s="33" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="AA155" s="32">
         <f>IF(W155="-","-",VLOOKUP(W155,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26444,7 +26502,7 @@
         <v>1335</v>
       </c>
       <c r="H156" s="47" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I156" s="33" t="s">
         <v>912</v>
@@ -26549,10 +26607,10 @@
         <v>1336</v>
       </c>
       <c r="H157" s="47" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I157" s="33" t="s">
         <v>1688</v>
-      </c>
-      <c r="I157" s="33" t="s">
-        <v>1689</v>
       </c>
       <c r="J157" s="33" t="s">
         <v>912</v>
@@ -26603,7 +26661,7 @@
         <v>1336</v>
       </c>
       <c r="Z157" s="33" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="AA157" s="32">
         <f>IF(W157="-","-",VLOOKUP(W157,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26654,7 +26712,7 @@
         <v>1337</v>
       </c>
       <c r="H158" s="47" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>912</v>
@@ -26759,10 +26817,10 @@
         <v>1338</v>
       </c>
       <c r="H159" s="47" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="J159" s="33" t="s">
         <v>912</v>
@@ -26813,7 +26871,7 @@
         <v>1338</v>
       </c>
       <c r="Z159" s="33" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="AA159" s="32">
         <f>IF(W159="-","-",VLOOKUP(W159,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26864,10 +26922,10 @@
         <v>1339</v>
       </c>
       <c r="H160" s="47" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="J160" s="33" t="s">
         <v>912</v>
@@ -26918,7 +26976,7 @@
         <v>1339</v>
       </c>
       <c r="Z160" s="33" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="AA160" s="32">
         <f>IF(W160="-","-",VLOOKUP(W160,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26969,7 +27027,7 @@
         <v>1340</v>
       </c>
       <c r="H161" s="47" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>912</v>
@@ -27074,10 +27132,10 @@
         <v>1341</v>
       </c>
       <c r="H162" s="47" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J162" s="33" t="s">
         <v>912</v>
@@ -27128,7 +27186,7 @@
         <v>1341</v>
       </c>
       <c r="Z162" s="33" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AA162" s="32">
         <f>IF(W162="-","-",VLOOKUP(W162,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27179,7 +27237,7 @@
         <v>1342</v>
       </c>
       <c r="H163" s="47" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I163" s="33" t="s">
         <v>912</v>
@@ -27284,7 +27342,7 @@
         <v>1343</v>
       </c>
       <c r="H164" s="47" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I164" s="33" t="s">
         <v>912</v>
@@ -27389,7 +27447,7 @@
         <v>1344</v>
       </c>
       <c r="H165" s="47" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I165" s="33" t="s">
         <v>912</v>
@@ -27494,7 +27552,7 @@
         <v>1345</v>
       </c>
       <c r="H166" s="47" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="I166" s="33" t="s">
         <v>912</v>
@@ -27599,10 +27657,10 @@
         <v>1346</v>
       </c>
       <c r="H167" s="47" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="J167" s="33" t="s">
         <v>912</v>
@@ -27647,13 +27705,13 @@
         <v>144</v>
       </c>
       <c r="X167" s="33" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="Y167" s="31" t="s">
         <v>1346</v>
       </c>
       <c r="Z167" s="33" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="AA167" s="32">
         <f>IF(W167="-","-",VLOOKUP(W167,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27701,10 +27759,10 @@
         <v>939</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H168" s="47" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="I168" s="33" t="s">
         <v>912</v>
@@ -27809,7 +27867,7 @@
         <v>1347</v>
       </c>
       <c r="H169" s="47" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I169" s="33" t="s">
         <v>912</v>
@@ -27914,7 +27972,7 @@
         <v>1348</v>
       </c>
       <c r="H170" s="47" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I170" s="33" t="s">
         <v>912</v>
@@ -28019,10 +28077,10 @@
         <v>1349</v>
       </c>
       <c r="H171" s="47" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J171" s="33" t="s">
         <v>912</v>
@@ -28073,7 +28131,7 @@
         <v>1349</v>
       </c>
       <c r="Z171" s="33" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AA171" s="32">
         <f>IF(W171="-","-",VLOOKUP(W171,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28124,10 +28182,10 @@
         <v>1350</v>
       </c>
       <c r="H172" s="47" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J172" s="33" t="s">
         <v>912</v>
@@ -28178,7 +28236,7 @@
         <v>1350</v>
       </c>
       <c r="Z172" s="33" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="AA172" s="32">
         <f>IF(W172="-","-",VLOOKUP(W172,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28229,10 +28287,10 @@
         <v>1351</v>
       </c>
       <c r="H173" s="47" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J173" s="33" t="s">
         <v>912</v>
@@ -28283,7 +28341,7 @@
         <v>1351</v>
       </c>
       <c r="Z173" s="33" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AA173" s="32">
         <f>IF(W173="-","-",VLOOKUP(W173,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28334,7 +28392,7 @@
         <v>1352</v>
       </c>
       <c r="H174" s="47" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I174" s="33" t="s">
         <v>912</v>
@@ -28439,7 +28497,7 @@
         <v>1353</v>
       </c>
       <c r="H175" s="47" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="I175" s="33" t="s">
         <v>912</v>
@@ -28544,10 +28602,10 @@
         <v>1354</v>
       </c>
       <c r="H176" s="47" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I176" s="33" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J176" s="33" t="s">
         <v>912</v>
@@ -28598,7 +28656,7 @@
         <v>1354</v>
       </c>
       <c r="Z176" s="33" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="AA176" s="32">
         <f>IF(W176="-","-",VLOOKUP(W176,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28649,10 +28707,10 @@
         <v>1355</v>
       </c>
       <c r="H177" s="47" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I177" s="33" t="s">
         <v>1701</v>
-      </c>
-      <c r="I177" s="33" t="s">
-        <v>1702</v>
       </c>
       <c r="J177" s="33" t="s">
         <v>912</v>
@@ -28703,7 +28761,7 @@
         <v>1355</v>
       </c>
       <c r="Z177" s="33" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="AA177" s="32">
         <f>IF(W177="-","-",VLOOKUP(W177,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28754,7 +28812,7 @@
         <v>1356</v>
       </c>
       <c r="H178" s="47" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I178" s="33" t="s">
         <v>912</v>
@@ -28859,7 +28917,7 @@
         <v>1357</v>
       </c>
       <c r="H179" s="47" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I179" s="33" t="s">
         <v>912</v>
@@ -28964,10 +29022,10 @@
         <v>1358</v>
       </c>
       <c r="H180" s="47" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="I180" s="33" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="J180" s="33" t="s">
         <v>912</v>
@@ -29018,7 +29076,7 @@
         <v>1358</v>
       </c>
       <c r="Z180" s="33" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="AA180" s="32">
         <f>IF(W180="-","-",VLOOKUP(W180,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29069,7 +29127,7 @@
         <v>1359</v>
       </c>
       <c r="H181" s="47" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I181" s="33" t="s">
         <v>912</v>
@@ -29174,7 +29232,7 @@
         <v>1360</v>
       </c>
       <c r="H182" s="47" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I182" s="33" t="s">
         <v>912</v>
@@ -29279,10 +29337,10 @@
         <v>1361</v>
       </c>
       <c r="H183" s="47" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I183" s="33" t="s">
         <v>1703</v>
-      </c>
-      <c r="I183" s="33" t="s">
-        <v>1704</v>
       </c>
       <c r="J183" s="33" t="s">
         <v>912</v>
@@ -29333,7 +29391,7 @@
         <v>1361</v>
       </c>
       <c r="Z183" s="33" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="AA183" s="32">
         <f>IF(W183="-","-",VLOOKUP(W183,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29384,7 +29442,7 @@
         <v>1362</v>
       </c>
       <c r="H184" s="47" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="I184" s="33" t="s">
         <v>912</v>
@@ -29489,10 +29547,10 @@
         <v>1363</v>
       </c>
       <c r="H185" s="47" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I185" s="33" t="s">
         <v>1705</v>
-      </c>
-      <c r="I185" s="33" t="s">
-        <v>1706</v>
       </c>
       <c r="J185" s="33" t="s">
         <v>912</v>
@@ -29543,7 +29601,7 @@
         <v>1363</v>
       </c>
       <c r="Z185" s="33" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="AA185" s="32">
         <f>IF(W185="-","-",VLOOKUP(W185,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29594,7 +29652,7 @@
         <v>1364</v>
       </c>
       <c r="H186" s="47" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I186" s="52" t="s">
         <v>912</v>
@@ -29699,10 +29757,10 @@
         <v>1365</v>
       </c>
       <c r="H187" s="47" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I187" s="33" t="s">
         <v>1707</v>
-      </c>
-      <c r="I187" s="33" t="s">
-        <v>1708</v>
       </c>
       <c r="J187" s="33" t="s">
         <v>912</v>
@@ -29753,7 +29811,7 @@
         <v>1365</v>
       </c>
       <c r="Z187" s="33" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="AA187" s="32">
         <f>IF(W187="-","-",VLOOKUP(W187,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29804,7 +29862,7 @@
         <v>1366</v>
       </c>
       <c r="H188" s="47" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I188" s="33" t="s">
         <v>912</v>
@@ -29909,10 +29967,10 @@
         <v>1367</v>
       </c>
       <c r="H189" s="47" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I189" s="33" t="s">
         <v>1709</v>
-      </c>
-      <c r="I189" s="33" t="s">
-        <v>1710</v>
       </c>
       <c r="J189" s="33" t="s">
         <v>912</v>
@@ -29963,7 +30021,7 @@
         <v>1367</v>
       </c>
       <c r="Z189" s="33" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="AA189" s="32">
         <f>IF(W189="-","-",VLOOKUP(W189,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30014,7 +30072,7 @@
         <v>1368</v>
       </c>
       <c r="H190" s="47" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I190" s="33" t="s">
         <v>912</v>
@@ -30119,10 +30177,10 @@
         <v>1369</v>
       </c>
       <c r="H191" s="47" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I191" s="33" t="s">
         <v>1711</v>
-      </c>
-      <c r="I191" s="33" t="s">
-        <v>1712</v>
       </c>
       <c r="J191" s="33" t="s">
         <v>912</v>
@@ -30173,7 +30231,7 @@
         <v>1369</v>
       </c>
       <c r="Z191" s="33" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AA191" s="32">
         <f>IF(W191="-","-",VLOOKUP(W191,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30224,7 +30282,7 @@
         <v>1370</v>
       </c>
       <c r="H192" s="47" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I192" s="33" t="s">
         <v>912</v>
@@ -30329,10 +30387,10 @@
         <v>1371</v>
       </c>
       <c r="H193" s="47" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I193" s="33" t="s">
         <v>1713</v>
-      </c>
-      <c r="I193" s="33" t="s">
-        <v>1714</v>
       </c>
       <c r="J193" s="33" t="s">
         <v>912</v>
@@ -30383,7 +30441,7 @@
         <v>1371</v>
       </c>
       <c r="Z193" s="33" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="AA193" s="32">
         <f>IF(W193="-","-",VLOOKUP(W193,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30434,7 +30492,7 @@
         <v>1372</v>
       </c>
       <c r="H194" s="47" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I194" s="33" t="s">
         <v>912</v>
@@ -30539,10 +30597,10 @@
         <v>1373</v>
       </c>
       <c r="H195" s="47" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I195" s="33" t="s">
         <v>1715</v>
-      </c>
-      <c r="I195" s="33" t="s">
-        <v>1716</v>
       </c>
       <c r="J195" s="33" t="s">
         <v>912</v>
@@ -30593,7 +30651,7 @@
         <v>1373</v>
       </c>
       <c r="Z195" s="33" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="AA195" s="32">
         <f>IF(W195="-","-",VLOOKUP(W195,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30644,7 +30702,7 @@
         <v>1374</v>
       </c>
       <c r="H196" s="47" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="I196" s="33" t="s">
         <v>912</v>
@@ -30749,10 +30807,10 @@
         <v>1375</v>
       </c>
       <c r="H197" s="47" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I197" s="33" t="s">
         <v>1717</v>
-      </c>
-      <c r="I197" s="33" t="s">
-        <v>1718</v>
       </c>
       <c r="J197" s="33" t="s">
         <v>912</v>
@@ -30803,7 +30861,7 @@
         <v>1375</v>
       </c>
       <c r="Z197" s="33" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="AA197" s="32">
         <f>IF(W197="-","-",VLOOKUP(W197,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30854,7 +30912,7 @@
         <v>1376</v>
       </c>
       <c r="H198" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="I198" s="33" t="s">
         <v>912</v>
@@ -30959,10 +31017,10 @@
         <v>1377</v>
       </c>
       <c r="H199" s="47" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I199" s="33" t="s">
         <v>1719</v>
-      </c>
-      <c r="I199" s="33" t="s">
-        <v>1720</v>
       </c>
       <c r="J199" s="33" t="s">
         <v>912</v>
@@ -31013,7 +31071,7 @@
         <v>1377</v>
       </c>
       <c r="Z199" s="33" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="AA199" s="32">
         <f>IF(W199="-","-",VLOOKUP(W199,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31064,7 +31122,7 @@
         <v>1378</v>
       </c>
       <c r="H200" s="47" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I200" s="33" t="s">
         <v>912</v>
@@ -31169,10 +31227,10 @@
         <v>1379</v>
       </c>
       <c r="H201" s="47" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I201" s="33" t="s">
         <v>1721</v>
-      </c>
-      <c r="I201" s="33" t="s">
-        <v>1722</v>
       </c>
       <c r="J201" s="33" t="s">
         <v>912</v>
@@ -31223,7 +31281,7 @@
         <v>1379</v>
       </c>
       <c r="Z201" s="33" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="AA201" s="32">
         <f>IF(W201="-","-",VLOOKUP(W201,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31274,7 +31332,7 @@
         <v>1380</v>
       </c>
       <c r="H202" s="47" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="I202" s="33" t="s">
         <v>912</v>
@@ -31379,10 +31437,10 @@
         <v>1381</v>
       </c>
       <c r="H203" s="47" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I203" s="33" t="s">
         <v>1723</v>
-      </c>
-      <c r="I203" s="33" t="s">
-        <v>1724</v>
       </c>
       <c r="J203" s="33" t="s">
         <v>912</v>
@@ -31433,7 +31491,7 @@
         <v>1381</v>
       </c>
       <c r="Z203" s="33" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="AA203" s="32">
         <f>IF(W203="-","-",VLOOKUP(W203,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31484,7 +31542,7 @@
         <v>1382</v>
       </c>
       <c r="H204" s="47" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I204" s="33" t="s">
         <v>912</v>
@@ -31589,10 +31647,10 @@
         <v>1383</v>
       </c>
       <c r="H205" s="47" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I205" s="53" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J205" s="33" t="s">
         <v>912</v>
@@ -31643,7 +31701,7 @@
         <v>1383</v>
       </c>
       <c r="Z205" s="33" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AA205" s="32">
         <f>IF(W205="-","-",VLOOKUP(W205,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31694,7 +31752,7 @@
         <v>1384</v>
       </c>
       <c r="H206" s="47" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I206" s="53" t="s">
         <v>912</v>
@@ -31799,10 +31857,10 @@
         <v>1385</v>
       </c>
       <c r="H207" s="47" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="I207" s="53" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J207" s="33" t="s">
         <v>912</v>
@@ -31853,7 +31911,7 @@
         <v>1385</v>
       </c>
       <c r="Z207" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="AA207" s="32">
         <f>IF(W207="-","-",VLOOKUP(W207,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31904,7 +31962,7 @@
         <v>1386</v>
       </c>
       <c r="H208" s="47" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I208" s="53" t="s">
         <v>912</v>
@@ -32009,10 +32067,10 @@
         <v>1387</v>
       </c>
       <c r="H209" s="47" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="I209" s="53" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="J209" s="33" t="s">
         <v>912</v>
@@ -32063,7 +32121,7 @@
         <v>1387</v>
       </c>
       <c r="Z209" s="33" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="AA209" s="32">
         <f>IF(W209="-","-",VLOOKUP(W209,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32114,7 +32172,7 @@
         <v>1388</v>
       </c>
       <c r="H210" s="47" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I210" s="53" t="s">
         <v>912</v>
@@ -32219,10 +32277,10 @@
         <v>1389</v>
       </c>
       <c r="H211" s="47" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I211" s="53" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J211" s="33" t="s">
         <v>912</v>
@@ -32273,7 +32331,7 @@
         <v>1389</v>
       </c>
       <c r="Z211" s="33" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="AA211" s="32">
         <f>IF(W211="-","-",VLOOKUP(W211,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32324,7 +32382,7 @@
         <v>1390</v>
       </c>
       <c r="H212" s="47" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I212" s="33" t="s">
         <v>912</v>
@@ -32429,10 +32487,10 @@
         <v>1391</v>
       </c>
       <c r="H213" s="47" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I213" s="53" t="s">
         <v>1733</v>
-      </c>
-      <c r="I213" s="53" t="s">
-        <v>1734</v>
       </c>
       <c r="J213" s="33" t="s">
         <v>912</v>
@@ -32483,7 +32541,7 @@
         <v>1391</v>
       </c>
       <c r="Z213" s="33" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="AA213" s="32">
         <f>IF(W213="-","-",VLOOKUP(W213,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32534,7 +32592,7 @@
         <v>1392</v>
       </c>
       <c r="H214" s="47" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I214" s="33" t="s">
         <v>912</v>
@@ -32639,10 +32697,10 @@
         <v>1393</v>
       </c>
       <c r="H215" s="47" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I215" s="54" t="s">
         <v>1735</v>
-      </c>
-      <c r="I215" s="54" t="s">
-        <v>1736</v>
       </c>
       <c r="J215" s="33" t="s">
         <v>912</v>
@@ -32693,7 +32751,7 @@
         <v>1393</v>
       </c>
       <c r="Z215" s="33" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="AA215" s="32">
         <f>IF(W215="-","-",VLOOKUP(W215,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32744,7 +32802,7 @@
         <v>1394</v>
       </c>
       <c r="H216" s="47" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I216" s="55" t="s">
         <v>912</v>
@@ -32849,10 +32907,10 @@
         <v>1395</v>
       </c>
       <c r="H217" s="47" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I217" s="54" t="s">
         <v>1737</v>
-      </c>
-      <c r="I217" s="54" t="s">
-        <v>1738</v>
       </c>
       <c r="J217" s="33" t="s">
         <v>912</v>
@@ -32903,7 +32961,7 @@
         <v>1395</v>
       </c>
       <c r="Z217" s="33" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="AA217" s="32">
         <f>IF(W217="-","-",VLOOKUP(W217,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32954,7 +33012,7 @@
         <v>1396</v>
       </c>
       <c r="H218" s="47" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I218" s="33" t="s">
         <v>912</v>
@@ -33059,10 +33117,10 @@
         <v>1397</v>
       </c>
       <c r="H219" s="47" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I219" s="54" t="s">
         <v>1739</v>
-      </c>
-      <c r="I219" s="54" t="s">
-        <v>1740</v>
       </c>
       <c r="J219" s="33" t="s">
         <v>912</v>
@@ -33113,7 +33171,7 @@
         <v>1397</v>
       </c>
       <c r="Z219" s="33" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="AA219" s="32">
         <f>IF(W219="-","-",VLOOKUP(W219,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33164,7 +33222,7 @@
         <v>1398</v>
       </c>
       <c r="H220" s="47" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I220" s="33" t="s">
         <v>912</v>
@@ -33269,10 +33327,10 @@
         <v>1399</v>
       </c>
       <c r="H221" s="47" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I221" s="33" t="s">
         <v>1741</v>
-      </c>
-      <c r="I221" s="33" t="s">
-        <v>1742</v>
       </c>
       <c r="J221" s="33" t="s">
         <v>912</v>
@@ -33323,7 +33381,7 @@
         <v>1399</v>
       </c>
       <c r="Z221" s="33" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="AA221" s="32">
         <f>IF(W221="-","-",VLOOKUP(W221,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33374,10 +33432,10 @@
         <v>1400</v>
       </c>
       <c r="H222" s="47" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="I222" s="33" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J222" s="33" t="s">
         <v>912</v>
@@ -33428,7 +33486,7 @@
         <v>1400</v>
       </c>
       <c r="Z222" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="AA222" s="32">
         <f>IF(W222="-","-",VLOOKUP(W222,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33476,13 +33534,13 @@
         <v>931</v>
       </c>
       <c r="G223" s="29" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H223" s="47" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I223" s="33" t="s">
         <v>1744</v>
-      </c>
-      <c r="I223" s="33" t="s">
-        <v>1745</v>
       </c>
       <c r="J223" s="33" t="s">
         <v>912</v>
@@ -33530,10 +33588,10 @@
         <v>50</v>
       </c>
       <c r="Y223" s="33" t="s">
+        <v>1879</v>
+      </c>
+      <c r="Z223" s="33" t="s">
         <v>1880</v>
-      </c>
-      <c r="Z223" s="33" t="s">
-        <v>1881</v>
       </c>
       <c r="AA223" s="32">
         <f>IF(W223="-","-",VLOOKUP(W223,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33584,7 +33642,7 @@
         <v>1401</v>
       </c>
       <c r="H224" s="47" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I224" s="33" t="s">
         <v>912</v>
@@ -33689,10 +33747,10 @@
         <v>1402</v>
       </c>
       <c r="H225" s="47" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="I225" s="54" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J225" s="33" t="s">
         <v>912</v>
@@ -33743,7 +33801,7 @@
         <v>1402</v>
       </c>
       <c r="Z225" s="33" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AA225" s="32">
         <f>IF(W225="-","-",VLOOKUP(W225,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33794,7 +33852,7 @@
         <v>1403</v>
       </c>
       <c r="H226" s="47" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="I226" s="33" t="s">
         <v>912</v>
@@ -33899,10 +33957,10 @@
         <v>1404</v>
       </c>
       <c r="H227" s="47" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="I227" s="54" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="J227" s="33" t="s">
         <v>912</v>
@@ -33953,7 +34011,7 @@
         <v>1404</v>
       </c>
       <c r="Z227" s="33" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="AA227" s="32">
         <f>IF(W227="-","-",VLOOKUP(W227,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34004,7 +34062,7 @@
         <v>1405</v>
       </c>
       <c r="H228" s="47" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I228" s="33" t="s">
         <v>912</v>
@@ -34109,10 +34167,10 @@
         <v>1406</v>
       </c>
       <c r="H229" s="47" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I229" s="54" t="s">
         <v>1750</v>
-      </c>
-      <c r="I229" s="54" t="s">
-        <v>1751</v>
       </c>
       <c r="J229" s="33" t="s">
         <v>912</v>
@@ -34163,7 +34221,7 @@
         <v>1406</v>
       </c>
       <c r="Z229" s="33" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AA229" s="32">
         <f>IF(W229="-","-",VLOOKUP(W229,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34214,7 +34272,7 @@
         <v>1407</v>
       </c>
       <c r="H230" s="47" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I230" s="56" t="s">
         <v>912</v>
@@ -34319,10 +34377,10 @@
         <v>1408</v>
       </c>
       <c r="H231" s="47" t="s">
+        <v>1751</v>
+      </c>
+      <c r="I231" s="54" t="s">
         <v>1752</v>
-      </c>
-      <c r="I231" s="54" t="s">
-        <v>1753</v>
       </c>
       <c r="J231" s="33" t="s">
         <v>912</v>
@@ -34373,7 +34431,7 @@
         <v>1408</v>
       </c>
       <c r="Z231" s="33" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="AA231" s="32">
         <f>IF(W231="-","-",VLOOKUP(W231,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34424,7 +34482,7 @@
         <v>1409</v>
       </c>
       <c r="H232" s="47" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I232" s="55" t="s">
         <v>912</v>
@@ -34529,10 +34587,10 @@
         <v>1410</v>
       </c>
       <c r="H233" s="47" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I233" s="54" t="s">
         <v>1754</v>
-      </c>
-      <c r="I233" s="54" t="s">
-        <v>1755</v>
       </c>
       <c r="J233" s="33" t="s">
         <v>912</v>
@@ -34583,7 +34641,7 @@
         <v>1410</v>
       </c>
       <c r="Z233" s="33" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="AA233" s="32">
         <f>IF(W233="-","-",VLOOKUP(W233,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34634,7 +34692,7 @@
         <v>1411</v>
       </c>
       <c r="H234" s="47" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I234" s="55" t="s">
         <v>912</v>
@@ -34739,10 +34797,10 @@
         <v>1412</v>
       </c>
       <c r="H235" s="47" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I235" s="54" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J235" s="33" t="s">
         <v>912</v>
@@ -34793,7 +34851,7 @@
         <v>1412</v>
       </c>
       <c r="Z235" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="AA235" s="32">
         <f>IF(W235="-","-",VLOOKUP(W235,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34844,7 +34902,7 @@
         <v>1413</v>
       </c>
       <c r="H236" s="47" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I236" s="33" t="s">
         <v>912</v>
@@ -34949,10 +35007,10 @@
         <v>1414</v>
       </c>
       <c r="H237" s="47" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I237" s="54" t="s">
         <v>1756</v>
-      </c>
-      <c r="I237" s="54" t="s">
-        <v>1757</v>
       </c>
       <c r="J237" s="33" t="s">
         <v>912</v>
@@ -35003,7 +35061,7 @@
         <v>1414</v>
       </c>
       <c r="Z237" s="33" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="AA237" s="32">
         <f>IF(W237="-","-",VLOOKUP(W237,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35054,7 +35112,7 @@
         <v>1415</v>
       </c>
       <c r="H238" s="47" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="I238" s="33" t="s">
         <v>912</v>
@@ -35069,10 +35127,10 @@
         <v>666</v>
       </c>
       <c r="M238" s="33" t="s">
+        <v>1777</v>
+      </c>
+      <c r="N238" s="33" t="s">
         <v>1778</v>
-      </c>
-      <c r="N238" s="33" t="s">
-        <v>1779</v>
       </c>
       <c r="O238" s="33" t="s">
         <v>936</v>
@@ -35084,7 +35142,7 @@
         <v>912</v>
       </c>
       <c r="R238" s="33" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="S238" s="33" t="s">
         <v>912</v>
@@ -35159,10 +35217,10 @@
         <v>1416</v>
       </c>
       <c r="H239" s="47" t="s">
+        <v>1757</v>
+      </c>
+      <c r="I239" s="54" t="s">
         <v>1758</v>
-      </c>
-      <c r="I239" s="54" t="s">
-        <v>1759</v>
       </c>
       <c r="J239" s="33" t="s">
         <v>912</v>
@@ -35171,13 +35229,13 @@
         <v>942</v>
       </c>
       <c r="L239" s="33" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M239" s="33" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N239" s="33" t="s">
         <v>1779</v>
-      </c>
-      <c r="N239" s="33" t="s">
-        <v>1780</v>
       </c>
       <c r="O239" s="33" t="s">
         <v>935</v>
@@ -35186,7 +35244,7 @@
         <v>935</v>
       </c>
       <c r="Q239" s="33" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="R239" s="33" t="s">
         <v>912</v>
@@ -35213,7 +35271,7 @@
         <v>1416</v>
       </c>
       <c r="Z239" s="33" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="AA239" s="32">
         <f>IF(W239="-","-",VLOOKUP(W239,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35264,10 +35322,10 @@
         <v>1417</v>
       </c>
       <c r="H240" s="47" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I240" s="33" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J240" s="33" t="s">
         <v>912</v>
@@ -35318,7 +35376,7 @@
         <v>1417</v>
       </c>
       <c r="Z240" s="33" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="AA240" s="32">
         <f>IF(W240="-","-",VLOOKUP(W240,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35369,7 +35427,7 @@
         <v>1418</v>
       </c>
       <c r="H241" s="47" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I241" s="33" t="s">
         <v>912</v>
@@ -35474,10 +35532,10 @@
         <v>1419</v>
       </c>
       <c r="H242" s="47" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I242" s="54" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J242" s="33" t="s">
         <v>912</v>
@@ -35528,7 +35586,7 @@
         <v>1419</v>
       </c>
       <c r="Z242" s="33" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="AA242" s="32">
         <f>IF(W242="-","-",VLOOKUP(W242,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35579,7 +35637,7 @@
         <v>1420</v>
       </c>
       <c r="H243" s="47" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I243" s="33" t="s">
         <v>912</v>
@@ -35684,10 +35742,10 @@
         <v>1421</v>
       </c>
       <c r="H244" s="47" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="I244" s="54" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="J244" s="33" t="s">
         <v>912</v>
@@ -35738,7 +35796,7 @@
         <v>1421</v>
       </c>
       <c r="Z244" s="33" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="AA244" s="32">
         <f>IF(W244="-","-",VLOOKUP(W244,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35789,7 +35847,7 @@
         <v>1422</v>
       </c>
       <c r="H245" s="47" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I245" s="33" t="s">
         <v>912</v>
@@ -35894,10 +35952,10 @@
         <v>1423</v>
       </c>
       <c r="H246" s="47" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="I246" s="54" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J246" s="33" t="s">
         <v>912</v>
@@ -35948,7 +36006,7 @@
         <v>1423</v>
       </c>
       <c r="Z246" s="33" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="AA246" s="32">
         <f>IF(W246="-","-",VLOOKUP(W246,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -53225,7 +53283,7 @@
         <v>531</v>
       </c>
       <c r="J411" s="33" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K411" s="31" t="s">
         <v>658</v>
@@ -57275,10 +57333,10 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
@@ -57337,7 +57395,7 @@
     </row>
     <row r="7" spans="1:2" ht="18.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>144</v>
+        <v>1898</v>
       </c>
       <c r="B7" s="22">
         <v>5</v>
@@ -57361,7 +57419,7 @@
     </row>
     <row r="10" spans="1:2" ht="18.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>132</v>
+        <v>1905</v>
       </c>
       <c r="B10" s="22">
         <v>8</v>
@@ -57369,7 +57427,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>131</v>
+        <v>1906</v>
       </c>
       <c r="B11" s="22">
         <v>9</v>
@@ -57377,7 +57435,7 @@
     </row>
     <row r="12" spans="1:2" ht="18.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>71</v>
+        <v>1900</v>
       </c>
       <c r="B12" s="22">
         <v>10</v>
@@ -57385,7 +57443,7 @@
     </row>
     <row r="13" spans="1:2" ht="18.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B13" s="22">
         <v>11</v>
@@ -57401,7 +57459,7 @@
     </row>
     <row r="15" spans="1:2" ht="18.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B15" s="22">
         <v>13</v>
@@ -57529,7 +57587,7 @@
     </row>
     <row r="31" spans="1:2" ht="18.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>186</v>
+        <v>1903</v>
       </c>
       <c r="B31" s="22">
         <v>29</v>
@@ -57537,7 +57595,7 @@
     </row>
     <row r="32" spans="1:2" ht="18.25" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>180</v>
+        <v>1901</v>
       </c>
       <c r="B32" s="22">
         <v>30</v>
@@ -57577,7 +57635,7 @@
     </row>
     <row r="37" spans="1:2" ht="18.25" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>408</v>
+        <v>1896</v>
       </c>
       <c r="B37" s="22">
         <v>35</v>
@@ -57585,7 +57643,7 @@
     </row>
     <row r="38" spans="1:2" ht="18.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B38" s="22">
         <v>36</v>
@@ -57593,7 +57651,7 @@
     </row>
     <row r="39" spans="1:2" ht="18.25" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>906</v>
+        <v>1899</v>
       </c>
       <c r="B39" s="22">
         <v>37</v>
@@ -57601,7 +57659,7 @@
     </row>
     <row r="40" spans="1:2" ht="18.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>907</v>
+        <v>1908</v>
       </c>
       <c r="B40" s="22">
         <v>38</v>
@@ -57609,7 +57667,7 @@
     </row>
     <row r="41" spans="1:2" ht="18.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>220</v>
+        <v>1897</v>
       </c>
       <c r="B41" s="22">
         <v>39</v>
@@ -57625,7 +57683,7 @@
     </row>
     <row r="43" spans="1:2" ht="18.25" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>908</v>
+        <v>1902</v>
       </c>
       <c r="B43" s="22">
         <v>41</v>
@@ -57633,7 +57691,7 @@
     </row>
     <row r="44" spans="1:2" ht="18.25" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>63</v>
+        <v>1910</v>
       </c>
       <c r="B44" s="22">
         <v>42</v>
@@ -57673,7 +57731,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>50</v>
+        <v>1904</v>
       </c>
       <c r="B49" s="22">
         <v>47</v>
@@ -57761,7 +57819,7 @@
     </row>
     <row r="60" spans="1:2" ht="18.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>30</v>
+        <v>1895</v>
       </c>
       <c r="B60" s="22">
         <v>58</v>
@@ -57773,2745 +57831,6 @@
       </c>
       <c r="B61" s="22">
         <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E75309-5634-B44A-BC49-F1309183631B}">
-  <dimension ref="A1:B245"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B245"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1">
-        <v>54</v>
-      </c>
-      <c r="B1" t="str">
-        <f>IF(A1="-","-",VLOOKUP(A1,n!A$2:B$61,2,FALSE))</f>
-        <v>戊午</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2">
-        <v>52</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(A2="-","-",VLOOKUP(A2,n!A$2:B$61,2,FALSE))</f>
-        <v>丙辰</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
-      <c r="A3">
-        <v>39</v>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(A3="-","-",VLOOKUP(A3,n!A$2:B$61,2,FALSE))</f>
-        <v>癸卯</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IF(A4="-","-",VLOOKUP(A4,n!A$2:B$61,2,FALSE))</f>
-        <v>壬申</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IF(A5="-","-",VLOOKUP(A5,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6">
-        <v>42</v>
-      </c>
-      <c r="B6" t="str">
-        <f>IF(A6="-","-",VLOOKUP(A6,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7" t="str">
-        <f>IF(A7="-","-",VLOOKUP(A7,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
-      <c r="A8">
-        <v>34</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IF(A8="-","-",VLOOKUP(A8,n!A$2:B$61,2,FALSE))</f>
-        <v>戊戌</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17">
-      <c r="A9">
-        <v>58</v>
-      </c>
-      <c r="B9" t="str">
-        <f>IF(A9="-","-",VLOOKUP(A9,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10" t="str">
-        <f>IF(A10="-","-",VLOOKUP(A10,n!A$2:B$61,2,FALSE))</f>
-        <v>戊寅</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
-      <c r="A11">
-        <v>44</v>
-      </c>
-      <c r="B11" t="str">
-        <f>IF(A11="-","-",VLOOKUP(A11,n!A$2:B$61,2,FALSE))</f>
-        <v>戊申</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="str">
-        <f>IF(A12="-","-",VLOOKUP(A12,n!A$2:B$61,2,FALSE))</f>
-        <v>己巳</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17">
-      <c r="A13">
-        <v>34</v>
-      </c>
-      <c r="B13" t="str">
-        <f>IF(A13="-","-",VLOOKUP(A13,n!A$2:B$61,2,FALSE))</f>
-        <v>戊戌</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="str">
-        <f>IF(A14="-","-",VLOOKUP(A14,n!A$2:B$61,2,FALSE))</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15">
-        <v>24</v>
-      </c>
-      <c r="B15" t="str">
-        <f>IF(A15="-","-",VLOOKUP(A15,n!A$2:B$61,2,FALSE))</f>
-        <v>戊子</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16">
-        <v>54</v>
-      </c>
-      <c r="B16" t="str">
-        <f>IF(A16="-","-",VLOOKUP(A16,n!A$2:B$61,2,FALSE))</f>
-        <v>戊午</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="str">
-        <f>IF(A17="-","-",VLOOKUP(A17,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17">
-      <c r="A18">
-        <v>42</v>
-      </c>
-      <c r="B18" t="str">
-        <f>IF(A18="-","-",VLOOKUP(A18,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" t="str">
-        <f>IF(A19="-","-",VLOOKUP(A19,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="str">
-        <f>IF(A20="-","-",VLOOKUP(A20,n!A$2:B$61,2,FALSE))</f>
-        <v>戊辰</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17">
-      <c r="A21">
-        <v>56</v>
-      </c>
-      <c r="B21" t="str">
-        <f>IF(A21="-","-",VLOOKUP(A21,n!A$2:B$61,2,FALSE))</f>
-        <v>庚申</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22" t="str">
-        <f>IF(A22="-","-",VLOOKUP(A22,n!A$2:B$61,2,FALSE))</f>
-        <v>己丑</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17">
-      <c r="A23">
-        <v>45</v>
-      </c>
-      <c r="B23" t="str">
-        <f>IF(A23="-","-",VLOOKUP(A23,n!A$2:B$61,2,FALSE))</f>
-        <v>己酉</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="str">
-        <f>IF(A24="-","-",VLOOKUP(A24,n!A$2:B$61,2,FALSE))</f>
-        <v>丙戌</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25" t="str">
-        <f>IF(A25="-","-",VLOOKUP(A25,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17">
-      <c r="A26">
-        <v>45</v>
-      </c>
-      <c r="B26" t="str">
-        <f>IF(A26="-","-",VLOOKUP(A26,n!A$2:B$61,2,FALSE))</f>
-        <v>己酉</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17">
-      <c r="A27">
-        <v>55</v>
-      </c>
-      <c r="B27" t="str">
-        <f>IF(A27="-","-",VLOOKUP(A27,n!A$2:B$61,2,FALSE))</f>
-        <v>己未</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="str">
-        <f>IF(A28="-","-",VLOOKUP(A28,n!A$2:B$61,2,FALSE))</f>
-        <v>己丑</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17">
-      <c r="A29">
-        <v>19</v>
-      </c>
-      <c r="B29" t="str">
-        <f>IF(A29="-","-",VLOOKUP(A29,n!A$2:B$61,2,FALSE))</f>
-        <v>癸未</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17">
-      <c r="A30">
-        <v>48</v>
-      </c>
-      <c r="B30" t="str">
-        <f>IF(A30="-","-",VLOOKUP(A30,n!A$2:B$61,2,FALSE))</f>
-        <v>壬子</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17">
-      <c r="A31">
-        <v>47</v>
-      </c>
-      <c r="B31" t="str">
-        <f>IF(A31="-","-",VLOOKUP(A31,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17">
-      <c r="A32">
-        <v>17</v>
-      </c>
-      <c r="B32" t="str">
-        <f>IF(A32="-","-",VLOOKUP(A32,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17">
-      <c r="A33">
-        <v>47</v>
-      </c>
-      <c r="B33" t="str">
-        <f>IF(A33="-","-",VLOOKUP(A33,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17">
-      <c r="A34">
-        <v>41</v>
-      </c>
-      <c r="B34" t="str">
-        <f>IF(A34="-","-",VLOOKUP(A34,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35" t="str">
-        <f>IF(A35="-","-",VLOOKUP(A35,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17">
-      <c r="A36">
-        <v>41</v>
-      </c>
-      <c r="B36" t="str">
-        <f>IF(A36="-","-",VLOOKUP(A36,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17">
-      <c r="A37">
-        <v>41</v>
-      </c>
-      <c r="B37" t="str">
-        <f>IF(A37="-","-",VLOOKUP(A37,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17">
-      <c r="A38">
-        <v>52</v>
-      </c>
-      <c r="B38" t="str">
-        <f>IF(A38="-","-",VLOOKUP(A38,n!A$2:B$61,2,FALSE))</f>
-        <v>丙辰</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17">
-      <c r="A39">
-        <v>21</v>
-      </c>
-      <c r="B39" t="str">
-        <f>IF(A39="-","-",VLOOKUP(A39,n!A$2:B$61,2,FALSE))</f>
-        <v>乙酉</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40" t="str">
-        <f>IF(A40="-","-",VLOOKUP(A40,n!A$2:B$61,2,FALSE))</f>
-        <v>癸酉</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="str">
-        <f>IF(A41="-","-",VLOOKUP(A41,n!A$2:B$61,2,FALSE))</f>
-        <v>壬寅</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="str">
-        <f>IF(A42="-","-",VLOOKUP(A42,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="str">
-        <f>IF(A43="-","-",VLOOKUP(A43,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17">
-      <c r="A44">
-        <v>58</v>
-      </c>
-      <c r="B44" t="str">
-        <f>IF(A44="-","-",VLOOKUP(A44,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="str">
-        <f>IF(A45="-","-",VLOOKUP(A45,n!A$2:B$61,2,FALSE))</f>
-        <v>丁未</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17">
-      <c r="A46">
-        <v>12</v>
-      </c>
-      <c r="B46" t="str">
-        <f>IF(A46="-","-",VLOOKUP(A46,n!A$2:B$61,2,FALSE))</f>
-        <v>丙子</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17">
-      <c r="A47">
-        <v>41</v>
-      </c>
-      <c r="B47" t="str">
-        <f>IF(A47="-","-",VLOOKUP(A47,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17">
-      <c r="A48">
-        <v>9</v>
-      </c>
-      <c r="B48" t="str">
-        <f>IF(A48="-","-",VLOOKUP(A48,n!A$2:B$61,2,FALSE))</f>
-        <v>癸酉</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17">
-      <c r="A49">
-        <v>38</v>
-      </c>
-      <c r="B49" t="str">
-        <f>IF(A49="-","-",VLOOKUP(A49,n!A$2:B$61,2,FALSE))</f>
-        <v>壬寅</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50" t="str">
-        <f>IF(A50="-","-",VLOOKUP(A50,n!A$2:B$61,2,FALSE))</f>
-        <v>辛未</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="17">
-      <c r="A51">
-        <v>36</v>
-      </c>
-      <c r="B51" t="str">
-        <f>IF(A51="-","-",VLOOKUP(A51,n!A$2:B$61,2,FALSE))</f>
-        <v>庚子</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="str">
-        <f>IF(A52="-","-",VLOOKUP(A52,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17">
-      <c r="A53">
-        <v>29</v>
-      </c>
-      <c r="B53" t="str">
-        <f>IF(A53="-","-",VLOOKUP(A53,n!A$2:B$61,2,FALSE))</f>
-        <v>癸巳</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17">
-      <c r="A54">
-        <v>58</v>
-      </c>
-      <c r="B54" t="str">
-        <f>IF(A54="-","-",VLOOKUP(A54,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17">
-      <c r="A55">
-        <v>58</v>
-      </c>
-      <c r="B55" t="str">
-        <f>IF(A55="-","-",VLOOKUP(A55,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17">
-      <c r="A56">
-        <v>27</v>
-      </c>
-      <c r="B56" t="str">
-        <f>IF(A56="-","-",VLOOKUP(A56,n!A$2:B$61,2,FALSE))</f>
-        <v>辛卯</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17">
-      <c r="A57">
-        <v>52</v>
-      </c>
-      <c r="B57" t="str">
-        <f>IF(A57="-","-",VLOOKUP(A57,n!A$2:B$61,2,FALSE))</f>
-        <v>丙辰</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="17">
-      <c r="A58">
-        <v>21</v>
-      </c>
-      <c r="B58" t="str">
-        <f>IF(A58="-","-",VLOOKUP(A58,n!A$2:B$61,2,FALSE))</f>
-        <v>乙酉</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17">
-      <c r="A59">
-        <v>19</v>
-      </c>
-      <c r="B59" t="str">
-        <f>IF(A59="-","-",VLOOKUP(A59,n!A$2:B$61,2,FALSE))</f>
-        <v>癸未</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="17">
-      <c r="A60">
-        <v>48</v>
-      </c>
-      <c r="B60" t="str">
-        <f>IF(A60="-","-",VLOOKUP(A60,n!A$2:B$61,2,FALSE))</f>
-        <v>壬子</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17">
-      <c r="A61">
-        <v>47</v>
-      </c>
-      <c r="B61" t="str">
-        <f>IF(A61="-","-",VLOOKUP(A61,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17">
-      <c r="A62">
-        <v>16</v>
-      </c>
-      <c r="B62" t="str">
-        <f>IF(A62="-","-",VLOOKUP(A62,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17">
-      <c r="A63">
-        <v>15</v>
-      </c>
-      <c r="B63" t="str">
-        <f>IF(A63="-","-",VLOOKUP(A63,n!A$2:B$61,2,FALSE))</f>
-        <v>己卯</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17">
-      <c r="A64">
-        <v>14</v>
-      </c>
-      <c r="B64" t="str">
-        <f>IF(A64="-","-",VLOOKUP(A64,n!A$2:B$61,2,FALSE))</f>
-        <v>戊寅</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17">
-      <c r="A65">
-        <v>43</v>
-      </c>
-      <c r="B65" t="str">
-        <f>IF(A65="-","-",VLOOKUP(A65,n!A$2:B$61,2,FALSE))</f>
-        <v>丁未</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17">
-      <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="B66" t="str">
-        <f>IF(A66="-","-",VLOOKUP(A66,n!A$2:B$61,2,FALSE))</f>
-        <v>丙子</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17">
-      <c r="A67">
-        <v>42</v>
-      </c>
-      <c r="B67" t="str">
-        <f>IF(A67="-","-",VLOOKUP(A67,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17">
-      <c r="A68">
-        <v>11</v>
-      </c>
-      <c r="B68" t="str">
-        <f>IF(A68="-","-",VLOOKUP(A68,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17">
-      <c r="A69">
-        <v>40</v>
-      </c>
-      <c r="B69" t="str">
-        <f>IF(A69="-","-",VLOOKUP(A69,n!A$2:B$61,2,FALSE))</f>
-        <v>甲辰</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17">
-      <c r="A70">
-        <v>7</v>
-      </c>
-      <c r="B70" t="str">
-        <f>IF(A70="-","-",VLOOKUP(A70,n!A$2:B$61,2,FALSE))</f>
-        <v>辛未</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="17">
-      <c r="A71">
-        <v>36</v>
-      </c>
-      <c r="B71" t="str">
-        <f>IF(A71="-","-",VLOOKUP(A71,n!A$2:B$61,2,FALSE))</f>
-        <v>庚子</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72" t="str">
-        <f>IF(A72="-","-",VLOOKUP(A72,n!A$2:B$61,2,FALSE))</f>
-        <v>丁卯</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17">
-      <c r="A73">
-        <v>32</v>
-      </c>
-      <c r="B73" t="str">
-        <f>IF(A73="-","-",VLOOKUP(A73,n!A$2:B$61,2,FALSE))</f>
-        <v>丙申</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" t="str">
-        <f>IF(A74="-","-",VLOOKUP(A74,n!A$2:B$61,2,FALSE))</f>
-        <v>丙寅</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17">
-      <c r="A75">
-        <v>32</v>
-      </c>
-      <c r="B75" t="str">
-        <f>IF(A75="-","-",VLOOKUP(A75,n!A$2:B$61,2,FALSE))</f>
-        <v>丙申</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="17">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="str">
-        <f>IF(A76="-","-",VLOOKUP(A76,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17">
-      <c r="A77">
-        <v>57</v>
-      </c>
-      <c r="B77" t="str">
-        <f>IF(A77="-","-",VLOOKUP(A77,n!A$2:B$61,2,FALSE))</f>
-        <v>辛酉</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="17">
-      <c r="A78">
-        <v>26</v>
-      </c>
-      <c r="B78" t="str">
-        <f>IF(A78="-","-",VLOOKUP(A78,n!A$2:B$61,2,FALSE))</f>
-        <v>庚寅</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17">
-      <c r="A79">
-        <v>56</v>
-      </c>
-      <c r="B79" t="str">
-        <f>IF(A79="-","-",VLOOKUP(A79,n!A$2:B$61,2,FALSE))</f>
-        <v>庚申</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="17">
-      <c r="A80">
-        <v>16</v>
-      </c>
-      <c r="B80" t="str">
-        <f>IF(A80="-","-",VLOOKUP(A80,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17">
-      <c r="A81">
-        <v>44</v>
-      </c>
-      <c r="B81" t="str">
-        <f>IF(A81="-","-",VLOOKUP(A81,n!A$2:B$61,2,FALSE))</f>
-        <v>戊申</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17">
-      <c r="A82">
-        <v>13</v>
-      </c>
-      <c r="B82" t="str">
-        <f>IF(A82="-","-",VLOOKUP(A82,n!A$2:B$61,2,FALSE))</f>
-        <v>丁丑</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17">
-      <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83" t="str">
-        <f>IF(A83="-","-",VLOOKUP(A83,n!A$2:B$61,2,FALSE))</f>
-        <v>丙子</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17">
-      <c r="A84">
-        <v>41</v>
-      </c>
-      <c r="B84" t="str">
-        <f>IF(A84="-","-",VLOOKUP(A84,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17">
-      <c r="A85">
-        <v>11</v>
-      </c>
-      <c r="B85" t="str">
-        <f>IF(A85="-","-",VLOOKUP(A85,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17">
-      <c r="A86">
-        <v>40</v>
-      </c>
-      <c r="B86" t="str">
-        <f>IF(A86="-","-",VLOOKUP(A86,n!A$2:B$61,2,FALSE))</f>
-        <v>甲辰</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17">
-      <c r="A87">
-        <v>4</v>
-      </c>
-      <c r="B87" t="str">
-        <f>IF(A87="-","-",VLOOKUP(A87,n!A$2:B$61,2,FALSE))</f>
-        <v>戊辰</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="17">
-      <c r="A88">
-        <v>34</v>
-      </c>
-      <c r="B88" t="str">
-        <f>IF(A88="-","-",VLOOKUP(A88,n!A$2:B$61,2,FALSE))</f>
-        <v>戊戌</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="str">
-        <f>IF(A89="-","-",VLOOKUP(A89,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17">
-      <c r="A90">
-        <v>30</v>
-      </c>
-      <c r="B90" t="str">
-        <f>IF(A90="-","-",VLOOKUP(A90,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17">
-      <c r="A91">
-        <v>59</v>
-      </c>
-      <c r="B91" t="str">
-        <f>IF(A91="-","-",VLOOKUP(A91,n!A$2:B$61,2,FALSE))</f>
-        <v>癸亥</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17">
-      <c r="A92">
-        <v>28</v>
-      </c>
-      <c r="B92" t="str">
-        <f>IF(A92="-","-",VLOOKUP(A92,n!A$2:B$61,2,FALSE))</f>
-        <v>壬辰</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17">
-      <c r="A93">
-        <v>25</v>
-      </c>
-      <c r="B93" t="str">
-        <f>IF(A93="-","-",VLOOKUP(A93,n!A$2:B$61,2,FALSE))</f>
-        <v>己丑</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="17">
-      <c r="A94">
-        <v>54</v>
-      </c>
-      <c r="B94" t="str">
-        <f>IF(A94="-","-",VLOOKUP(A94,n!A$2:B$61,2,FALSE))</f>
-        <v>戊午</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="17">
-      <c r="A95">
-        <v>22</v>
-      </c>
-      <c r="B95" t="str">
-        <f>IF(A95="-","-",VLOOKUP(A95,n!A$2:B$61,2,FALSE))</f>
-        <v>丙戌</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="17">
-      <c r="A96">
-        <v>21</v>
-      </c>
-      <c r="B96" t="str">
-        <f>IF(A96="-","-",VLOOKUP(A96,n!A$2:B$61,2,FALSE))</f>
-        <v>乙酉</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="17">
-      <c r="A97">
-        <v>50</v>
-      </c>
-      <c r="B97" t="str">
-        <f>IF(A97="-","-",VLOOKUP(A97,n!A$2:B$61,2,FALSE))</f>
-        <v>甲寅</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="17">
-      <c r="A98">
-        <v>16</v>
-      </c>
-      <c r="B98" t="str">
-        <f>IF(A98="-","-",VLOOKUP(A98,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="17">
-      <c r="A99">
-        <v>15</v>
-      </c>
-      <c r="B99" t="str">
-        <f>IF(A99="-","-",VLOOKUP(A99,n!A$2:B$61,2,FALSE))</f>
-        <v>己卯</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="17">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" t="str">
-        <f>IF(A100="-","-",VLOOKUP(A100,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="17">
-      <c r="A101">
-        <v>30</v>
-      </c>
-      <c r="B101" t="str">
-        <f>IF(A101="-","-",VLOOKUP(A101,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="17">
-      <c r="A102">
-        <v>26</v>
-      </c>
-      <c r="B102" t="str">
-        <f>IF(A102="-","-",VLOOKUP(A102,n!A$2:B$61,2,FALSE))</f>
-        <v>庚寅</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="17">
-      <c r="A103">
-        <v>55</v>
-      </c>
-      <c r="B103" t="str">
-        <f>IF(A103="-","-",VLOOKUP(A103,n!A$2:B$61,2,FALSE))</f>
-        <v>己未</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="17">
-      <c r="A104">
-        <v>22</v>
-      </c>
-      <c r="B104" t="str">
-        <f>IF(A104="-","-",VLOOKUP(A104,n!A$2:B$61,2,FALSE))</f>
-        <v>丙戌</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="17">
-      <c r="A105">
-        <v>51</v>
-      </c>
-      <c r="B105" t="str">
-        <f>IF(A105="-","-",VLOOKUP(A105,n!A$2:B$61,2,FALSE))</f>
-        <v>乙卯</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="17">
-      <c r="A106">
-        <v>49</v>
-      </c>
-      <c r="B106" t="str">
-        <f>IF(A106="-","-",VLOOKUP(A106,n!A$2:B$61,2,FALSE))</f>
-        <v>癸丑</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17">
-      <c r="A107">
-        <v>18</v>
-      </c>
-      <c r="B107" t="str">
-        <f>IF(A107="-","-",VLOOKUP(A107,n!A$2:B$61,2,FALSE))</f>
-        <v>壬午</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="17">
-      <c r="A108">
-        <v>48</v>
-      </c>
-      <c r="B108" t="str">
-        <f>IF(A108="-","-",VLOOKUP(A108,n!A$2:B$61,2,FALSE))</f>
-        <v>壬子</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="17">
-      <c r="A109">
-        <v>17</v>
-      </c>
-      <c r="B109" t="str">
-        <f>IF(A109="-","-",VLOOKUP(A109,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="17">
-      <c r="A110">
-        <v>41</v>
-      </c>
-      <c r="B110" t="str">
-        <f>IF(A110="-","-",VLOOKUP(A110,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="17">
-      <c r="A111">
-        <v>8</v>
-      </c>
-      <c r="B111" t="str">
-        <f>IF(A111="-","-",VLOOKUP(A111,n!A$2:B$61,2,FALSE))</f>
-        <v>壬申</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="17">
-      <c r="A112">
-        <v>6</v>
-      </c>
-      <c r="B112" t="str">
-        <f>IF(A112="-","-",VLOOKUP(A112,n!A$2:B$61,2,FALSE))</f>
-        <v>庚午</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="17">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" t="str">
-        <f>IF(A113="-","-",VLOOKUP(A113,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="17">
-      <c r="A114">
-        <v>30</v>
-      </c>
-      <c r="B114" t="str">
-        <f>IF(A114="-","-",VLOOKUP(A114,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115" t="str">
-        <f>IF(A115="-","-",VLOOKUP(A115,n!A$2:B$61,2,FALSE))</f>
-        <v>甲子</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="17">
-      <c r="A116">
-        <v>29</v>
-      </c>
-      <c r="B116" t="str">
-        <f>IF(A116="-","-",VLOOKUP(A116,n!A$2:B$61,2,FALSE))</f>
-        <v>癸巳</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="17">
-      <c r="A117">
-        <v>19</v>
-      </c>
-      <c r="B117" t="str">
-        <f>IF(A117="-","-",VLOOKUP(A117,n!A$2:B$61,2,FALSE))</f>
-        <v>癸未</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="17">
-      <c r="A118">
-        <v>48</v>
-      </c>
-      <c r="B118" t="str">
-        <f>IF(A118="-","-",VLOOKUP(A118,n!A$2:B$61,2,FALSE))</f>
-        <v>壬子</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="17">
-      <c r="A119">
-        <v>18</v>
-      </c>
-      <c r="B119" t="str">
-        <f>IF(A119="-","-",VLOOKUP(A119,n!A$2:B$61,2,FALSE))</f>
-        <v>壬午</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="17">
-      <c r="A120">
-        <v>47</v>
-      </c>
-      <c r="B120" t="str">
-        <f>IF(A120="-","-",VLOOKUP(A120,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="17">
-      <c r="A121">
-        <v>12</v>
-      </c>
-      <c r="B121" t="str">
-        <f>IF(A121="-","-",VLOOKUP(A121,n!A$2:B$61,2,FALSE))</f>
-        <v>丙子</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="17">
-      <c r="A122">
-        <v>12</v>
-      </c>
-      <c r="B122" t="str">
-        <f>IF(A122="-","-",VLOOKUP(A122,n!A$2:B$61,2,FALSE))</f>
-        <v>丙子</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="17">
-      <c r="A123">
-        <v>41</v>
-      </c>
-      <c r="B123" t="str">
-        <f>IF(A123="-","-",VLOOKUP(A123,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="17">
-      <c r="A124">
-        <v>41</v>
-      </c>
-      <c r="B124" t="str">
-        <f>IF(A124="-","-",VLOOKUP(A124,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="17">
-      <c r="A125">
-        <v>10</v>
-      </c>
-      <c r="B125" t="str">
-        <f>IF(A125="-","-",VLOOKUP(A125,n!A$2:B$61,2,FALSE))</f>
-        <v>甲戌</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="17">
-      <c r="A126">
-        <v>27</v>
-      </c>
-      <c r="B126" t="str">
-        <f>IF(A126="-","-",VLOOKUP(A126,n!A$2:B$61,2,FALSE))</f>
-        <v>辛卯</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="17">
-      <c r="A127">
-        <v>22</v>
-      </c>
-      <c r="B127" t="str">
-        <f>IF(A127="-","-",VLOOKUP(A127,n!A$2:B$61,2,FALSE))</f>
-        <v>丙戌</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="17">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128" t="str">
-        <f>IF(A128="-","-",VLOOKUP(A128,n!A$2:B$61,2,FALSE))</f>
-        <v>丙寅</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="17">
-      <c r="A129">
-        <v>32</v>
-      </c>
-      <c r="B129" t="str">
-        <f>IF(A129="-","-",VLOOKUP(A129,n!A$2:B$61,2,FALSE))</f>
-        <v>丙申</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="17">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130" t="str">
-        <f>IF(A130="-","-",VLOOKUP(A130,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="17">
-      <c r="A131">
-        <v>26</v>
-      </c>
-      <c r="B131" t="str">
-        <f>IF(A131="-","-",VLOOKUP(A131,n!A$2:B$61,2,FALSE))</f>
-        <v>庚寅</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="17">
-      <c r="A132">
-        <v>26</v>
-      </c>
-      <c r="B132" t="str">
-        <f>IF(A132="-","-",VLOOKUP(A132,n!A$2:B$61,2,FALSE))</f>
-        <v>庚寅</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="17">
-      <c r="A133">
-        <v>55</v>
-      </c>
-      <c r="B133" t="str">
-        <f>IF(A133="-","-",VLOOKUP(A133,n!A$2:B$61,2,FALSE))</f>
-        <v>己未</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="17">
-      <c r="A134">
-        <v>25</v>
-      </c>
-      <c r="B134" t="str">
-        <f>IF(A134="-","-",VLOOKUP(A134,n!A$2:B$61,2,FALSE))</f>
-        <v>己丑</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="17">
-      <c r="A135">
-        <v>18</v>
-      </c>
-      <c r="B135" t="str">
-        <f>IF(A135="-","-",VLOOKUP(A135,n!A$2:B$61,2,FALSE))</f>
-        <v>壬午</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="17">
-      <c r="A136">
-        <v>47</v>
-      </c>
-      <c r="B136" t="str">
-        <f>IF(A136="-","-",VLOOKUP(A136,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="17">
-      <c r="A137">
-        <v>14</v>
-      </c>
-      <c r="B137" t="str">
-        <f>IF(A137="-","-",VLOOKUP(A137,n!A$2:B$61,2,FALSE))</f>
-        <v>戊寅</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="17">
-      <c r="A138">
-        <v>47</v>
-      </c>
-      <c r="B138" t="str">
-        <f>IF(A138="-","-",VLOOKUP(A138,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="17">
-      <c r="A139">
-        <v>16</v>
-      </c>
-      <c r="B139" t="str">
-        <f>IF(A139="-","-",VLOOKUP(A139,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="17">
-      <c r="A140">
-        <v>3</v>
-      </c>
-      <c r="B140" t="str">
-        <f>IF(A140="-","-",VLOOKUP(A140,n!A$2:B$61,2,FALSE))</f>
-        <v>丁卯</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="17">
-      <c r="A141">
-        <v>58</v>
-      </c>
-      <c r="B141" t="str">
-        <f>IF(A141="-","-",VLOOKUP(A141,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="17">
-      <c r="A142">
-        <v>27</v>
-      </c>
-      <c r="B142" t="str">
-        <f>IF(A142="-","-",VLOOKUP(A142,n!A$2:B$61,2,FALSE))</f>
-        <v>辛卯</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="17">
-      <c r="A143">
-        <v>56</v>
-      </c>
-      <c r="B143" t="str">
-        <f>IF(A143="-","-",VLOOKUP(A143,n!A$2:B$61,2,FALSE))</f>
-        <v>庚申</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="17">
-      <c r="A144">
-        <v>23</v>
-      </c>
-      <c r="B144" t="str">
-        <f>IF(A144="-","-",VLOOKUP(A144,n!A$2:B$61,2,FALSE))</f>
-        <v>丁亥</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="17">
-      <c r="A145">
-        <v>52</v>
-      </c>
-      <c r="B145" t="str">
-        <f>IF(A145="-","-",VLOOKUP(A145,n!A$2:B$61,2,FALSE))</f>
-        <v>丙辰</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="17">
-      <c r="A146">
-        <v>51</v>
-      </c>
-      <c r="B146" t="str">
-        <f>IF(A146="-","-",VLOOKUP(A146,n!A$2:B$61,2,FALSE))</f>
-        <v>乙卯</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="17">
-      <c r="A147">
-        <v>19</v>
-      </c>
-      <c r="B147" t="str">
-        <f>IF(A147="-","-",VLOOKUP(A147,n!A$2:B$61,2,FALSE))</f>
-        <v>癸未</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="17">
-      <c r="A148">
-        <v>46</v>
-      </c>
-      <c r="B148" t="str">
-        <f>IF(A148="-","-",VLOOKUP(A148,n!A$2:B$61,2,FALSE))</f>
-        <v>庚戌</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="17">
-      <c r="A149">
-        <v>15</v>
-      </c>
-      <c r="B149" t="str">
-        <f>IF(A149="-","-",VLOOKUP(A149,n!A$2:B$61,2,FALSE))</f>
-        <v>己卯</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="17">
-      <c r="A150">
-        <v>45</v>
-      </c>
-      <c r="B150" t="str">
-        <f>IF(A150="-","-",VLOOKUP(A150,n!A$2:B$61,2,FALSE))</f>
-        <v>己酉</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="17">
-      <c r="A151">
-        <v>14</v>
-      </c>
-      <c r="B151" t="str">
-        <f>IF(A151="-","-",VLOOKUP(A151,n!A$2:B$61,2,FALSE))</f>
-        <v>戊寅</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="17">
-      <c r="A152">
-        <v>40</v>
-      </c>
-      <c r="B152" t="str">
-        <f>IF(A152="-","-",VLOOKUP(A152,n!A$2:B$61,2,FALSE))</f>
-        <v>甲辰</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="17">
-      <c r="A153">
-        <v>9</v>
-      </c>
-      <c r="B153" t="str">
-        <f>IF(A153="-","-",VLOOKUP(A153,n!A$2:B$61,2,FALSE))</f>
-        <v>癸酉</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="17">
-      <c r="A154">
-        <v>38</v>
-      </c>
-      <c r="B154" t="str">
-        <f>IF(A154="-","-",VLOOKUP(A154,n!A$2:B$61,2,FALSE))</f>
-        <v>壬寅</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="17">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" t="str">
-        <f>IF(A155="-","-",VLOOKUP(A155,n!A$2:B$61,2,FALSE))</f>
-        <v>辛未</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="17">
-      <c r="A156">
-        <v>36</v>
-      </c>
-      <c r="B156" t="str">
-        <f>IF(A156="-","-",VLOOKUP(A156,n!A$2:B$61,2,FALSE))</f>
-        <v>庚子</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="17">
-      <c r="A157">
-        <v>31</v>
-      </c>
-      <c r="B157" t="str">
-        <f>IF(A157="-","-",VLOOKUP(A157,n!A$2:B$61,2,FALSE))</f>
-        <v>乙未</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="17">
-      <c r="A158">
-        <v>0</v>
-      </c>
-      <c r="B158" t="str">
-        <f>IF(A158="-","-",VLOOKUP(A158,n!A$2:B$61,2,FALSE))</f>
-        <v>甲子</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="17">
-      <c r="A159">
-        <v>30</v>
-      </c>
-      <c r="B159" t="str">
-        <f>IF(A159="-","-",VLOOKUP(A159,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="17">
-      <c r="A160">
-        <v>29</v>
-      </c>
-      <c r="B160" t="str">
-        <f>IF(A160="-","-",VLOOKUP(A160,n!A$2:B$61,2,FALSE))</f>
-        <v>癸巳</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="17">
-      <c r="A161">
-        <v>58</v>
-      </c>
-      <c r="B161" t="str">
-        <f>IF(A161="-","-",VLOOKUP(A161,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="17">
-      <c r="A162">
-        <v>17</v>
-      </c>
-      <c r="B162" t="str">
-        <f>IF(A162="-","-",VLOOKUP(A162,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="17">
-      <c r="A163">
-        <v>16</v>
-      </c>
-      <c r="B163" t="str">
-        <f>IF(A163="-","-",VLOOKUP(A163,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="17">
-      <c r="A164">
-        <v>39</v>
-      </c>
-      <c r="B164" t="str">
-        <f>IF(A164="-","-",VLOOKUP(A164,n!A$2:B$61,2,FALSE))</f>
-        <v>癸卯</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="17">
-      <c r="A165">
-        <v>10</v>
-      </c>
-      <c r="B165" t="str">
-        <f>IF(A165="-","-",VLOOKUP(A165,n!A$2:B$61,2,FALSE))</f>
-        <v>甲戌</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="17">
-      <c r="A166">
-        <v>5</v>
-      </c>
-      <c r="B166" t="str">
-        <f>IF(A166="-","-",VLOOKUP(A166,n!A$2:B$61,2,FALSE))</f>
-        <v>己巳</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="17">
-      <c r="A167">
-        <v>30</v>
-      </c>
-      <c r="B167" t="str">
-        <f>IF(A167="-","-",VLOOKUP(A167,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="17">
-      <c r="A168">
-        <v>56</v>
-      </c>
-      <c r="B168" t="str">
-        <f>IF(A168="-","-",VLOOKUP(A168,n!A$2:B$61,2,FALSE))</f>
-        <v>庚申</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="17">
-      <c r="A169">
-        <v>24</v>
-      </c>
-      <c r="B169" t="str">
-        <f>IF(A169="-","-",VLOOKUP(A169,n!A$2:B$61,2,FALSE))</f>
-        <v>戊子</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="17">
-      <c r="A170">
-        <v>53</v>
-      </c>
-      <c r="B170" t="str">
-        <f>IF(A170="-","-",VLOOKUP(A170,n!A$2:B$61,2,FALSE))</f>
-        <v>丁巳</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="17">
-      <c r="A171">
-        <v>23</v>
-      </c>
-      <c r="B171" t="str">
-        <f>IF(A171="-","-",VLOOKUP(A171,n!A$2:B$61,2,FALSE))</f>
-        <v>丁亥</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="17">
-      <c r="A172">
-        <v>52</v>
-      </c>
-      <c r="B172" t="str">
-        <f>IF(A172="-","-",VLOOKUP(A172,n!A$2:B$61,2,FALSE))</f>
-        <v>丙辰</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="17">
-      <c r="A173">
-        <v>19</v>
-      </c>
-      <c r="B173" t="str">
-        <f>IF(A173="-","-",VLOOKUP(A173,n!A$2:B$61,2,FALSE))</f>
-        <v>癸未</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="17">
-      <c r="A174">
-        <v>10</v>
-      </c>
-      <c r="B174" t="str">
-        <f>IF(A174="-","-",VLOOKUP(A174,n!A$2:B$61,2,FALSE))</f>
-        <v>甲戌</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="17">
-      <c r="A175">
-        <v>39</v>
-      </c>
-      <c r="B175" t="str">
-        <f>IF(A175="-","-",VLOOKUP(A175,n!A$2:B$61,2,FALSE))</f>
-        <v>癸卯</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="17">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" t="str">
-        <f>IF(A176="-","-",VLOOKUP(A176,n!A$2:B$61,2,FALSE))</f>
-        <v>壬申</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="17">
-      <c r="A177">
-        <v>31</v>
-      </c>
-      <c r="B177" t="str">
-        <f>IF(A177="-","-",VLOOKUP(A177,n!A$2:B$61,2,FALSE))</f>
-        <v>乙未</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="17">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178" t="str">
-        <f>IF(A178="-","-",VLOOKUP(A178,n!A$2:B$61,2,FALSE))</f>
-        <v>乙丑</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="17">
-      <c r="A179">
-        <v>30</v>
-      </c>
-      <c r="B179" t="str">
-        <f>IF(A179="-","-",VLOOKUP(A179,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="17">
-      <c r="A180">
-        <v>0</v>
-      </c>
-      <c r="B180" t="str">
-        <f>IF(A180="-","-",VLOOKUP(A180,n!A$2:B$61,2,FALSE))</f>
-        <v>甲子</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="17">
-      <c r="A181">
-        <v>13</v>
-      </c>
-      <c r="B181" t="str">
-        <f>IF(A181="-","-",VLOOKUP(A181,n!A$2:B$61,2,FALSE))</f>
-        <v>丁丑</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="17">
-      <c r="A182">
-        <v>42</v>
-      </c>
-      <c r="B182" t="str">
-        <f>IF(A182="-","-",VLOOKUP(A182,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="17">
-      <c r="A183">
-        <v>4</v>
-      </c>
-      <c r="B183" t="str">
-        <f>IF(A183="-","-",VLOOKUP(A183,n!A$2:B$61,2,FALSE))</f>
-        <v>戊辰</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="17">
-      <c r="A184">
-        <v>33</v>
-      </c>
-      <c r="B184" t="str">
-        <f>IF(A184="-","-",VLOOKUP(A184,n!A$2:B$61,2,FALSE))</f>
-        <v>丁酉</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="17">
-      <c r="A185">
-        <v>3</v>
-      </c>
-      <c r="B185" t="str">
-        <f>IF(A185="-","-",VLOOKUP(A185,n!A$2:B$61,2,FALSE))</f>
-        <v>丁卯</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="17">
-      <c r="A186">
-        <v>32</v>
-      </c>
-      <c r="B186" t="str">
-        <f>IF(A186="-","-",VLOOKUP(A186,n!A$2:B$61,2,FALSE))</f>
-        <v>丙申</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="17">
-      <c r="A187">
-        <v>22</v>
-      </c>
-      <c r="B187" t="str">
-        <f>IF(A187="-","-",VLOOKUP(A187,n!A$2:B$61,2,FALSE))</f>
-        <v>丙戌</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="17">
-      <c r="A188">
-        <v>51</v>
-      </c>
-      <c r="B188" t="str">
-        <f>IF(A188="-","-",VLOOKUP(A188,n!A$2:B$61,2,FALSE))</f>
-        <v>乙卯</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="17">
-      <c r="A189">
-        <v>16</v>
-      </c>
-      <c r="B189" t="str">
-        <f>IF(A189="-","-",VLOOKUP(A189,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="17">
-      <c r="A190">
-        <v>45</v>
-      </c>
-      <c r="B190" t="str">
-        <f>IF(A190="-","-",VLOOKUP(A190,n!A$2:B$61,2,FALSE))</f>
-        <v>己酉</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="17">
-      <c r="A191">
-        <v>15</v>
-      </c>
-      <c r="B191" t="str">
-        <f>IF(A191="-","-",VLOOKUP(A191,n!A$2:B$61,2,FALSE))</f>
-        <v>己卯</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="17">
-      <c r="A192">
-        <v>44</v>
-      </c>
-      <c r="B192" t="str">
-        <f>IF(A192="-","-",VLOOKUP(A192,n!A$2:B$61,2,FALSE))</f>
-        <v>戊申</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="17">
-      <c r="A193">
-        <v>2</v>
-      </c>
-      <c r="B193" t="str">
-        <f>IF(A193="-","-",VLOOKUP(A193,n!A$2:B$61,2,FALSE))</f>
-        <v>丙寅</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="17">
-      <c r="A194">
-        <v>31</v>
-      </c>
-      <c r="B194" t="str">
-        <f>IF(A194="-","-",VLOOKUP(A194,n!A$2:B$61,2,FALSE))</f>
-        <v>乙未</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="17">
-      <c r="A195">
-        <v>27</v>
-      </c>
-      <c r="B195" t="str">
-        <f>IF(A195="-","-",VLOOKUP(A195,n!A$2:B$61,2,FALSE))</f>
-        <v>辛卯</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="17">
-      <c r="A196">
-        <v>56</v>
-      </c>
-      <c r="B196" t="str">
-        <f>IF(A196="-","-",VLOOKUP(A196,n!A$2:B$61,2,FALSE))</f>
-        <v>庚申</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="17">
-      <c r="A197">
-        <v>19</v>
-      </c>
-      <c r="B197" t="str">
-        <f>IF(A197="-","-",VLOOKUP(A197,n!A$2:B$61,2,FALSE))</f>
-        <v>癸未</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="17">
-      <c r="A198">
-        <v>48</v>
-      </c>
-      <c r="B198" t="str">
-        <f>IF(A198="-","-",VLOOKUP(A198,n!A$2:B$61,2,FALSE))</f>
-        <v>壬子</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="17">
-      <c r="A199">
-        <v>17</v>
-      </c>
-      <c r="B199" t="str">
-        <f>IF(A199="-","-",VLOOKUP(A199,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="17">
-      <c r="A200">
-        <v>46</v>
-      </c>
-      <c r="B200" t="str">
-        <f>IF(A200="-","-",VLOOKUP(A200,n!A$2:B$61,2,FALSE))</f>
-        <v>庚戌</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="17">
-      <c r="A201">
-        <v>41</v>
-      </c>
-      <c r="B201" t="str">
-        <f>IF(A201="-","-",VLOOKUP(A201,n!A$2:B$61,2,FALSE))</f>
-        <v>乙巳</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="17">
-      <c r="A202">
-        <v>10</v>
-      </c>
-      <c r="B202" t="str">
-        <f>IF(A202="-","-",VLOOKUP(A202,n!A$2:B$61,2,FALSE))</f>
-        <v>甲戌</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="17">
-      <c r="A203">
-        <v>40</v>
-      </c>
-      <c r="B203" t="str">
-        <f>IF(A203="-","-",VLOOKUP(A203,n!A$2:B$61,2,FALSE))</f>
-        <v>甲辰</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="17">
-      <c r="A204">
-        <v>9</v>
-      </c>
-      <c r="B204" t="str">
-        <f>IF(A204="-","-",VLOOKUP(A204,n!A$2:B$61,2,FALSE))</f>
-        <v>癸酉</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="17">
-      <c r="A205">
-        <v>5</v>
-      </c>
-      <c r="B205" t="str">
-        <f>IF(A205="-","-",VLOOKUP(A205,n!A$2:B$61,2,FALSE))</f>
-        <v>己巳</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="17">
-      <c r="A206">
-        <v>34</v>
-      </c>
-      <c r="B206" t="str">
-        <f>IF(A206="-","-",VLOOKUP(A206,n!A$2:B$61,2,FALSE))</f>
-        <v>戊戌</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="17">
-      <c r="A207">
-        <v>31</v>
-      </c>
-      <c r="B207" t="str">
-        <f>IF(A207="-","-",VLOOKUP(A207,n!A$2:B$61,2,FALSE))</f>
-        <v>乙未</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="17">
-      <c r="A208">
-        <v>0</v>
-      </c>
-      <c r="B208" t="str">
-        <f>IF(A208="-","-",VLOOKUP(A208,n!A$2:B$61,2,FALSE))</f>
-        <v>甲子</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="17">
-      <c r="A209">
-        <v>29</v>
-      </c>
-      <c r="B209" t="str">
-        <f>IF(A209="-","-",VLOOKUP(A209,n!A$2:B$61,2,FALSE))</f>
-        <v>癸巳</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="17">
-      <c r="A210">
-        <v>58</v>
-      </c>
-      <c r="B210" t="str">
-        <f>IF(A210="-","-",VLOOKUP(A210,n!A$2:B$61,2,FALSE))</f>
-        <v>壬戌</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="17">
-      <c r="A211">
-        <v>23</v>
-      </c>
-      <c r="B211" t="str">
-        <f>IF(A211="-","-",VLOOKUP(A211,n!A$2:B$61,2,FALSE))</f>
-        <v>丁亥</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="17">
-      <c r="A212">
-        <v>52</v>
-      </c>
-      <c r="B212" t="str">
-        <f>IF(A212="-","-",VLOOKUP(A212,n!A$2:B$61,2,FALSE))</f>
-        <v>丙辰</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="17">
-      <c r="A213">
-        <v>17</v>
-      </c>
-      <c r="B213" t="str">
-        <f>IF(A213="-","-",VLOOKUP(A213,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="17">
-      <c r="A214">
-        <v>46</v>
-      </c>
-      <c r="B214" t="str">
-        <f>IF(A214="-","-",VLOOKUP(A214,n!A$2:B$61,2,FALSE))</f>
-        <v>庚戌</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="17">
-      <c r="A215">
-        <v>16</v>
-      </c>
-      <c r="B215" t="str">
-        <f>IF(A215="-","-",VLOOKUP(A215,n!A$2:B$61,2,FALSE))</f>
-        <v>庚辰</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="17">
-      <c r="A216">
-        <v>45</v>
-      </c>
-      <c r="B216" t="str">
-        <f>IF(A216="-","-",VLOOKUP(A216,n!A$2:B$61,2,FALSE))</f>
-        <v>己酉</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="17">
-      <c r="A217">
-        <v>56</v>
-      </c>
-      <c r="B217" t="str">
-        <f>IF(A217="-","-",VLOOKUP(A217,n!A$2:B$61,2,FALSE))</f>
-        <v>庚申</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="17">
-      <c r="A218">
-        <v>25</v>
-      </c>
-      <c r="B218" t="str">
-        <f>IF(A218="-","-",VLOOKUP(A218,n!A$2:B$61,2,FALSE))</f>
-        <v>己丑</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="17">
-      <c r="A219">
-        <v>18</v>
-      </c>
-      <c r="B219" t="str">
-        <f>IF(A219="-","-",VLOOKUP(A219,n!A$2:B$61,2,FALSE))</f>
-        <v>壬午</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="17">
-      <c r="A220">
-        <v>47</v>
-      </c>
-      <c r="B220" t="str">
-        <f>IF(A220="-","-",VLOOKUP(A220,n!A$2:B$61,2,FALSE))</f>
-        <v>辛亥</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="17">
-      <c r="A221">
-        <v>17</v>
-      </c>
-      <c r="B221" t="str">
-        <f>IF(A221="-","-",VLOOKUP(A221,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="17">
-      <c r="A222">
-        <v>46</v>
-      </c>
-      <c r="B222" t="str">
-        <f>IF(A222="-","-",VLOOKUP(A222,n!A$2:B$61,2,FALSE))</f>
-        <v>庚戌</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="17">
-      <c r="A223">
-        <v>42</v>
-      </c>
-      <c r="B223" t="str">
-        <f>IF(A223="-","-",VLOOKUP(A223,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="17">
-      <c r="A224">
-        <v>11</v>
-      </c>
-      <c r="B224" t="str">
-        <f>IF(A224="-","-",VLOOKUP(A224,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="17">
-      <c r="A225">
-        <v>37</v>
-      </c>
-      <c r="B225" t="str">
-        <f>IF(A225="-","-",VLOOKUP(A225,n!A$2:B$61,2,FALSE))</f>
-        <v>辛丑</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="17">
-      <c r="A226">
-        <v>6</v>
-      </c>
-      <c r="B226" t="str">
-        <f>IF(A226="-","-",VLOOKUP(A226,n!A$2:B$61,2,FALSE))</f>
-        <v>庚午</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="17">
-      <c r="A227">
-        <v>6</v>
-      </c>
-      <c r="B227" t="str">
-        <f>IF(A227="-","-",VLOOKUP(A227,n!A$2:B$61,2,FALSE))</f>
-        <v>庚午</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="17">
-      <c r="A228">
-        <v>35</v>
-      </c>
-      <c r="B228" t="str">
-        <f>IF(A228="-","-",VLOOKUP(A228,n!A$2:B$61,2,FALSE))</f>
-        <v>己亥</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="17">
-      <c r="A229">
-        <v>31</v>
-      </c>
-      <c r="B229" t="str">
-        <f>IF(A229="-","-",VLOOKUP(A229,n!A$2:B$61,2,FALSE))</f>
-        <v>乙未</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="17">
-      <c r="A230">
-        <v>0</v>
-      </c>
-      <c r="B230" t="str">
-        <f>IF(A230="-","-",VLOOKUP(A230,n!A$2:B$61,2,FALSE))</f>
-        <v>甲子</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="17">
-      <c r="A231">
-        <v>30</v>
-      </c>
-      <c r="B231" t="str">
-        <f>IF(A231="-","-",VLOOKUP(A231,n!A$2:B$61,2,FALSE))</f>
-        <v>甲午</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="17">
-      <c r="A232">
-        <v>59</v>
-      </c>
-      <c r="B232" t="str">
-        <f>IF(A232="-","-",VLOOKUP(A232,n!A$2:B$61,2,FALSE))</f>
-        <v>癸亥</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="17">
-      <c r="A233">
-        <v>49</v>
-      </c>
-      <c r="B233" t="str">
-        <f>IF(A233="-","-",VLOOKUP(A233,n!A$2:B$61,2,FALSE))</f>
-        <v>癸丑</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="17">
-      <c r="A234">
-        <v>18</v>
-      </c>
-      <c r="B234" t="str">
-        <f>IF(A234="-","-",VLOOKUP(A234,n!A$2:B$61,2,FALSE))</f>
-        <v>壬午</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="17">
-      <c r="A235">
-        <v>48</v>
-      </c>
-      <c r="B235" t="str">
-        <f>IF(A235="-","-",VLOOKUP(A235,n!A$2:B$61,2,FALSE))</f>
-        <v>壬子</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="17">
-      <c r="A236">
-        <v>17</v>
-      </c>
-      <c r="B236" t="str">
-        <f>IF(A236="-","-",VLOOKUP(A236,n!A$2:B$61,2,FALSE))</f>
-        <v>辛巳</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="17">
-      <c r="A237">
-        <v>13</v>
-      </c>
-      <c r="B237" t="str">
-        <f>IF(A237="-","-",VLOOKUP(A237,n!A$2:B$61,2,FALSE))</f>
-        <v>丁丑</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="17">
-      <c r="A238">
-        <v>42</v>
-      </c>
-      <c r="B238" t="str">
-        <f>IF(A238="-","-",VLOOKUP(A238,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="17">
-      <c r="A239">
-        <v>12</v>
-      </c>
-      <c r="B239" t="str">
-        <f>IF(A239="-","-",VLOOKUP(A239,n!A$2:B$61,2,FALSE))</f>
-        <v>丙子</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="17">
-      <c r="A240">
-        <v>42</v>
-      </c>
-      <c r="B240" t="str">
-        <f>IF(A240="-","-",VLOOKUP(A240,n!A$2:B$61,2,FALSE))</f>
-        <v>丙午</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="17">
-      <c r="A241">
-        <v>11</v>
-      </c>
-      <c r="B241" t="str">
-        <f>IF(A241="-","-",VLOOKUP(A241,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="17">
-      <c r="A242">
-        <v>11</v>
-      </c>
-      <c r="B242" t="str">
-        <f>IF(A242="-","-",VLOOKUP(A242,n!A$2:B$61,2,FALSE))</f>
-        <v>乙亥</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="17">
-      <c r="A243">
-        <v>40</v>
-      </c>
-      <c r="B243" t="str">
-        <f>IF(A243="-","-",VLOOKUP(A243,n!A$2:B$61,2,FALSE))</f>
-        <v>甲辰</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="17">
-      <c r="A244">
-        <v>10</v>
-      </c>
-      <c r="B244" t="str">
-        <f>IF(A244="-","-",VLOOKUP(A244,n!A$2:B$61,2,FALSE))</f>
-        <v>甲戌</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="17">
-      <c r="A245">
-        <v>39</v>
-      </c>
-      <c r="B245" t="str">
-        <f>IF(A245="-","-",VLOOKUP(A245,n!A$2:B$61,2,FALSE))</f>
-        <v>癸卯</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60DE4BB-37B2-7A4B-AAB1-C2651D9A8A84}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B61"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="19.5703125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="19.5703125" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.5" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.5" customHeight="1">
-      <c r="A2" s="21">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A3" s="22">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A4" s="22">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A5" s="22">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A6" s="22">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A7" s="22">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A8" s="22">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A9" s="22">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A10" s="22">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A11" s="22">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A12" s="22">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A13" s="22">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A14" s="22">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A15" s="22">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A16" s="22">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A17" s="22">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A18" s="22">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A19" s="22">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A20" s="22">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A21" s="22">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A22" s="22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A23" s="22">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A24" s="22">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A25" s="22">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A26" s="22">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A27" s="22">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A28" s="22">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A29" s="22">
-        <v>27</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A30" s="22">
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A31" s="22">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A32" s="22">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A33" s="22">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A34" s="22">
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A35" s="22">
-        <v>33</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A36" s="22">
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A37" s="22">
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A38" s="22">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A39" s="22">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A40" s="22">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A41" s="22">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A42" s="22">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A43" s="22">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A44" s="22">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A45" s="22">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A46" s="22">
-        <v>44</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A47" s="22">
-        <v>45</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A48" s="22">
-        <v>46</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A49" s="22">
-        <v>47</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A50" s="22">
-        <v>48</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A51" s="22">
-        <v>49</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A52" s="22">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A53" s="22">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A54" s="22">
-        <v>52</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A55" s="22">
-        <v>53</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A56" s="22">
-        <v>54</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A57" s="22">
-        <v>55</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A58" s="22">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A59" s="22">
-        <v>57</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A60" s="22">
-        <v>58</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18.25" customHeight="1">
-      <c r="A61" s="22">
-        <v>59</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20769E43-1F4D-43F5-AAF2-412E762A4453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC174AE-DF5B-7B47-B960-F578A2FC5530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="5760" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11671" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11671" uniqueCount="2100">
   <si>
     <t>ID</t>
   </si>
@@ -10469,6 +10466,23 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <rPh sb="2" eb="3">
+      <t>ガテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>閏12月</t>
+    <rPh sb="0" eb="1">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガテゥ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -12278,38 +12292,38 @@
   <dimension ref="A1:AG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H358" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H464" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N368" sqref="N368"/>
+      <selection pane="bottomRight" activeCell="B473" sqref="B473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="22" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="22" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" style="11" customWidth="1"/>
     <col min="5" max="5" width="6" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="11" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" style="11" customWidth="1"/>
-    <col min="11" max="14" width="9.88671875" style="11" customWidth="1"/>
-    <col min="15" max="18" width="7.88671875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="11" customWidth="1"/>
+    <col min="11" max="14" width="9.85546875" style="11" customWidth="1"/>
+    <col min="15" max="18" width="7.85546875" style="11" customWidth="1"/>
     <col min="19" max="19" width="8" style="11" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="11" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" style="11" customWidth="1"/>
-    <col min="23" max="24" width="7.88671875" style="11" customWidth="1"/>
-    <col min="25" max="28" width="13.88671875" style="11" customWidth="1"/>
-    <col min="29" max="29" width="10.5546875" style="11" customWidth="1"/>
-    <col min="30" max="33" width="10.44140625" style="11" customWidth="1"/>
-    <col min="34" max="34" width="19.5546875" style="11" customWidth="1"/>
-    <col min="35" max="16384" width="19.5546875" style="11"/>
+    <col min="20" max="20" width="7.85546875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="11" customWidth="1"/>
+    <col min="23" max="24" width="7.85546875" style="11" customWidth="1"/>
+    <col min="25" max="28" width="13.85546875" style="11" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="11" customWidth="1"/>
+    <col min="30" max="33" width="10.42578125" style="11" customWidth="1"/>
+    <col min="34" max="34" width="19.5703125" style="11" customWidth="1"/>
+    <col min="35" max="16384" width="19.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="48.45" customHeight="1">
+    <row r="1" spans="1:33" ht="48.5" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12407,7 +12421,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="48.45" customHeight="1">
+    <row r="2" spans="1:33" ht="48.5" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="24" t="s">
         <v>1822</v>
@@ -12513,7 +12527,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="48.45" customHeight="1">
+    <row r="3" spans="1:33" ht="48.5" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="33" t="s">
         <v>1824</v>
@@ -12619,7 +12633,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="48.45" customHeight="1">
+    <row r="4" spans="1:33" ht="48.5" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="33" t="s">
         <v>1826</v>
@@ -12725,7 +12739,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="48.45" customHeight="1">
+    <row r="5" spans="1:33" ht="48.5" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="33" t="s">
         <v>1828</v>
@@ -12831,7 +12845,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="48.45" customHeight="1">
+    <row r="6" spans="1:33" ht="48.5" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="33" t="s">
         <v>1830</v>
@@ -12937,7 +12951,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="48.45" customHeight="1">
+    <row r="7" spans="1:33" ht="48.5" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="33" t="s">
         <v>1832</v>
@@ -13043,7 +13057,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="48.45" customHeight="1">
+    <row r="8" spans="1:33" ht="48.5" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="33" t="s">
         <v>1834</v>
@@ -13149,7 +13163,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="48.45" customHeight="1">
+    <row r="9" spans="1:33" ht="48.5" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="33" t="s">
         <v>1836</v>
@@ -13255,7 +13269,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="48.45" customHeight="1">
+    <row r="10" spans="1:33" ht="48.5" customHeight="1">
       <c r="A10" s="66"/>
       <c r="B10" s="33" t="s">
         <v>1837</v>
@@ -13361,7 +13375,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="48.45" customHeight="1">
+    <row r="11" spans="1:33" ht="48.5" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="33" t="s">
         <v>1876</v>
@@ -13467,7 +13481,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="48.45" customHeight="1">
+    <row r="12" spans="1:33" ht="48.5" customHeight="1">
       <c r="A12" s="66"/>
       <c r="B12" s="33" t="s">
         <v>1840</v>
@@ -13573,7 +13587,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="48.45" customHeight="1">
+    <row r="13" spans="1:33" ht="48.5" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="33" t="s">
         <v>1878</v>
@@ -13679,7 +13693,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="48.45" customHeight="1">
+    <row r="14" spans="1:33" ht="48.5" customHeight="1">
       <c r="A14" s="66"/>
       <c r="B14" s="33" t="s">
         <v>1842</v>
@@ -13785,7 +13799,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="48.45" customHeight="1">
+    <row r="15" spans="1:33" ht="48.5" customHeight="1">
       <c r="A15" s="66"/>
       <c r="B15" s="33" t="s">
         <v>1880</v>
@@ -13891,7 +13905,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="48.45" customHeight="1">
+    <row r="16" spans="1:33" ht="48.5" customHeight="1">
       <c r="A16" s="66"/>
       <c r="B16" s="33" t="s">
         <v>1844</v>
@@ -13997,7 +14011,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="48.45" customHeight="1">
+    <row r="17" spans="1:33" ht="48.5" customHeight="1">
       <c r="A17" s="66"/>
       <c r="B17" s="33" t="s">
         <v>1884</v>
@@ -14103,7 +14117,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="48.45" customHeight="1">
+    <row r="18" spans="1:33" ht="48.5" customHeight="1">
       <c r="A18" s="66"/>
       <c r="B18" s="33" t="s">
         <v>1845</v>
@@ -14209,7 +14223,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="48.45" customHeight="1">
+    <row r="19" spans="1:33" ht="48.5" customHeight="1">
       <c r="A19" s="66"/>
       <c r="B19" s="33" t="s">
         <v>1846</v>
@@ -14315,7 +14329,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="48.45" customHeight="1">
+    <row r="20" spans="1:33" ht="48.5" customHeight="1">
       <c r="A20" s="66"/>
       <c r="B20" s="33" t="s">
         <v>1847</v>
@@ -14421,7 +14435,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="48.45" customHeight="1">
+    <row r="21" spans="1:33" ht="48.5" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="33" t="s">
         <v>1852</v>
@@ -14527,7 +14541,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="48.45" customHeight="1">
+    <row r="22" spans="1:33" ht="48.5" customHeight="1">
       <c r="A22" s="66"/>
       <c r="B22" s="33" t="s">
         <v>1875</v>
@@ -14633,7 +14647,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="48.45" customHeight="1">
+    <row r="23" spans="1:33" ht="48.5" customHeight="1">
       <c r="A23" s="66"/>
       <c r="B23" s="33" t="s">
         <v>922</v>
@@ -14739,7 +14753,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="48.45" customHeight="1">
+    <row r="24" spans="1:33" ht="48.5" customHeight="1">
       <c r="A24" s="66"/>
       <c r="B24" s="41" t="s">
         <v>923</v>
@@ -14845,7 +14859,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="48.45" customHeight="1">
+    <row r="25" spans="1:33" ht="48.5" customHeight="1">
       <c r="A25" s="66"/>
       <c r="B25" s="33" t="s">
         <v>897</v>
@@ -14951,7 +14965,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="48.45" customHeight="1">
+    <row r="26" spans="1:33" ht="48.5" customHeight="1">
       <c r="A26" s="66"/>
       <c r="B26" s="33" t="s">
         <v>898</v>
@@ -15057,7 +15071,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="48.45" customHeight="1">
+    <row r="27" spans="1:33" ht="48.5" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="33" t="s">
         <v>1140</v>
@@ -15163,7 +15177,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="48.45" customHeight="1">
+    <row r="28" spans="1:33" ht="48.5" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="33" t="s">
         <v>900</v>
@@ -15269,7 +15283,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="48.45" customHeight="1">
+    <row r="29" spans="1:33" ht="48.5" customHeight="1">
       <c r="A29" s="66"/>
       <c r="B29" s="33" t="s">
         <v>901</v>
@@ -15375,7 +15389,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="48.45" customHeight="1">
+    <row r="30" spans="1:33" ht="48.5" customHeight="1">
       <c r="A30" s="66"/>
       <c r="B30" s="33" t="s">
         <v>924</v>
@@ -15481,7 +15495,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="48.45" customHeight="1">
+    <row r="31" spans="1:33" ht="48.5" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="33" t="s">
         <v>925</v>
@@ -15587,7 +15601,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="48.45" customHeight="1">
+    <row r="32" spans="1:33" ht="48.5" customHeight="1">
       <c r="A32" s="66"/>
       <c r="B32" s="33" t="s">
         <v>928</v>
@@ -15799,7 +15813,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="48.45" customHeight="1">
+    <row r="34" spans="1:33" ht="48.5" customHeight="1">
       <c r="A34" s="66"/>
       <c r="B34" s="33" t="s">
         <v>930</v>
@@ -15905,7 +15919,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="48.45" customHeight="1">
+    <row r="35" spans="1:33" ht="48.5" customHeight="1">
       <c r="A35" s="66"/>
       <c r="B35" s="33" t="s">
         <v>931</v>
@@ -16011,7 +16025,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="48.45" customHeight="1">
+    <row r="36" spans="1:33" ht="48.5" customHeight="1">
       <c r="A36" s="66"/>
       <c r="B36" s="33" t="s">
         <v>1526</v>
@@ -16117,7 +16131,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="48.45" customHeight="1">
+    <row r="37" spans="1:33" ht="48.5" customHeight="1">
       <c r="A37" s="66"/>
       <c r="B37" s="33" t="s">
         <v>932</v>
@@ -16223,7 +16237,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="48.45" customHeight="1">
+    <row r="38" spans="1:33" ht="48.5" customHeight="1">
       <c r="A38" s="66"/>
       <c r="B38" s="33" t="s">
         <v>1141</v>
@@ -16329,7 +16343,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="48.45" customHeight="1">
+    <row r="39" spans="1:33" ht="48.5" customHeight="1">
       <c r="A39" s="66"/>
       <c r="B39" s="33" t="s">
         <v>933</v>
@@ -16435,7 +16449,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="48.45" customHeight="1">
+    <row r="40" spans="1:33" ht="48.5" customHeight="1">
       <c r="A40" s="66"/>
       <c r="B40" s="33" t="s">
         <v>934</v>
@@ -16541,7 +16555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="48.45" customHeight="1">
+    <row r="41" spans="1:33" ht="48.5" customHeight="1">
       <c r="A41" s="66"/>
       <c r="B41" s="33" t="s">
         <v>935</v>
@@ -16647,7 +16661,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="23" customFormat="1" ht="48.45" customHeight="1">
+    <row r="42" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="45" t="s">
         <v>1903</v>
@@ -16753,7 +16767,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="23" customFormat="1" ht="48.45" customHeight="1">
+    <row r="43" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A43" s="67"/>
       <c r="B43" s="45" t="s">
         <v>1907</v>
@@ -16859,7 +16873,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="23" customFormat="1" ht="48.45" customHeight="1">
+    <row r="44" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A44" s="67"/>
       <c r="B44" s="45" t="s">
         <v>1912</v>
@@ -16965,7 +16979,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="23" customFormat="1" ht="48.45" customHeight="1">
+    <row r="45" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A45" s="67"/>
       <c r="B45" s="45" t="s">
         <v>1908</v>
@@ -17071,7 +17085,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="48.45" customHeight="1">
+    <row r="46" spans="1:33" ht="48.5" customHeight="1">
       <c r="A46" s="66"/>
       <c r="B46" s="33" t="s">
         <v>936</v>
@@ -17177,7 +17191,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="48.45" customHeight="1">
+    <row r="47" spans="1:33" ht="48.5" customHeight="1">
       <c r="A47" s="66"/>
       <c r="B47" s="33" t="s">
         <v>1142</v>
@@ -17283,7 +17297,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="48.45" customHeight="1">
+    <row r="48" spans="1:33" ht="48.5" customHeight="1">
       <c r="A48" s="66"/>
       <c r="B48" s="33" t="s">
         <v>937</v>
@@ -17389,7 +17403,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="48.45" customHeight="1">
+    <row r="49" spans="1:33" ht="48.5" customHeight="1">
       <c r="A49" s="66"/>
       <c r="B49" s="33" t="s">
         <v>938</v>
@@ -17495,7 +17509,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="48.45" customHeight="1">
+    <row r="50" spans="1:33" ht="48.5" customHeight="1">
       <c r="A50" s="66"/>
       <c r="B50" s="33" t="s">
         <v>939</v>
@@ -17601,7 +17615,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="48.45" customHeight="1">
+    <row r="51" spans="1:33" ht="48.5" customHeight="1">
       <c r="A51" s="66"/>
       <c r="B51" s="33" t="s">
         <v>940</v>
@@ -17707,7 +17721,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="48.45" customHeight="1">
+    <row r="52" spans="1:33" ht="48.5" customHeight="1">
       <c r="A52" s="66"/>
       <c r="B52" s="33" t="s">
         <v>941</v>
@@ -17813,7 +17827,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="48.45" customHeight="1">
+    <row r="53" spans="1:33" ht="48.5" customHeight="1">
       <c r="A53" s="66"/>
       <c r="B53" s="33" t="s">
         <v>942</v>
@@ -17919,7 +17933,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="48.45" customHeight="1">
+    <row r="54" spans="1:33" ht="48.5" customHeight="1">
       <c r="A54" s="66"/>
       <c r="B54" s="33" t="s">
         <v>943</v>
@@ -18025,7 +18039,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="48.45" customHeight="1">
+    <row r="55" spans="1:33" ht="48.5" customHeight="1">
       <c r="A55" s="66"/>
       <c r="B55" s="33" t="s">
         <v>944</v>
@@ -18131,7 +18145,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="48.45" customHeight="1">
+    <row r="56" spans="1:33" ht="48.5" customHeight="1">
       <c r="A56" s="66"/>
       <c r="B56" s="33" t="s">
         <v>945</v>
@@ -18237,7 +18251,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="48.45" customHeight="1">
+    <row r="57" spans="1:33" ht="48.5" customHeight="1">
       <c r="A57" s="66"/>
       <c r="B57" s="33" t="s">
         <v>946</v>
@@ -18343,7 +18357,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="48.45" customHeight="1">
+    <row r="58" spans="1:33" ht="48.5" customHeight="1">
       <c r="A58" s="66"/>
       <c r="B58" s="33" t="s">
         <v>947</v>
@@ -18449,7 +18463,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="48.45" customHeight="1">
+    <row r="59" spans="1:33" ht="48.5" customHeight="1">
       <c r="A59" s="66"/>
       <c r="B59" s="33" t="s">
         <v>948</v>
@@ -18555,7 +18569,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="48.45" customHeight="1">
+    <row r="60" spans="1:33" ht="48.5" customHeight="1">
       <c r="A60" s="66"/>
       <c r="B60" s="33" t="s">
         <v>926</v>
@@ -18661,7 +18675,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="48.45" customHeight="1">
+    <row r="61" spans="1:33" ht="48.5" customHeight="1">
       <c r="A61" s="66"/>
       <c r="B61" s="33" t="s">
         <v>927</v>
@@ -18767,7 +18781,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="48.45" customHeight="1">
+    <row r="62" spans="1:33" ht="48.5" customHeight="1">
       <c r="A62" s="66"/>
       <c r="B62" s="33" t="s">
         <v>915</v>
@@ -18873,7 +18887,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="48.45" customHeight="1">
+    <row r="63" spans="1:33" ht="48.5" customHeight="1">
       <c r="A63" s="66"/>
       <c r="B63" s="33" t="s">
         <v>1143</v>
@@ -18979,7 +18993,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="48.45" customHeight="1">
+    <row r="64" spans="1:33" ht="48.5" customHeight="1">
       <c r="A64" s="66"/>
       <c r="B64" s="33" t="s">
         <v>949</v>
@@ -19085,7 +19099,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="48.45" customHeight="1">
+    <row r="65" spans="1:33" ht="48.5" customHeight="1">
       <c r="A65" s="66"/>
       <c r="B65" s="33" t="s">
         <v>950</v>
@@ -19191,7 +19205,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="48.45" customHeight="1">
+    <row r="66" spans="1:33" ht="48.5" customHeight="1">
       <c r="A66" s="66"/>
       <c r="B66" s="33" t="s">
         <v>1000</v>
@@ -19297,7 +19311,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="48.45" customHeight="1">
+    <row r="67" spans="1:33" ht="48.5" customHeight="1">
       <c r="A67" s="66"/>
       <c r="B67" s="33" t="s">
         <v>1026</v>
@@ -19403,7 +19417,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="48.45" customHeight="1">
+    <row r="68" spans="1:33" ht="48.5" customHeight="1">
       <c r="A68" s="66"/>
       <c r="B68" s="33" t="s">
         <v>951</v>
@@ -19509,7 +19523,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="48.45" customHeight="1">
+    <row r="69" spans="1:33" ht="48.5" customHeight="1">
       <c r="A69" s="66"/>
       <c r="B69" s="33" t="s">
         <v>1001</v>
@@ -19615,7 +19629,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="48.45" customHeight="1">
+    <row r="70" spans="1:33" ht="48.5" customHeight="1">
       <c r="A70" s="66"/>
       <c r="B70" s="33" t="s">
         <v>981</v>
@@ -19721,7 +19735,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="48.45" customHeight="1">
+    <row r="71" spans="1:33" ht="48.5" customHeight="1">
       <c r="A71" s="66"/>
       <c r="B71" s="33" t="s">
         <v>952</v>
@@ -19827,7 +19841,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="48.45" customHeight="1">
+    <row r="72" spans="1:33" ht="48.5" customHeight="1">
       <c r="A72" s="66"/>
       <c r="B72" s="33" t="s">
         <v>1002</v>
@@ -19933,7 +19947,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="48.45" customHeight="1">
+    <row r="73" spans="1:33" ht="48.5" customHeight="1">
       <c r="A73" s="66"/>
       <c r="B73" s="33" t="s">
         <v>1085</v>
@@ -20039,7 +20053,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="48.45" customHeight="1">
+    <row r="74" spans="1:33" ht="48.5" customHeight="1">
       <c r="A74" s="66"/>
       <c r="B74" s="33" t="s">
         <v>1027</v>
@@ -20145,7 +20159,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="48.45" customHeight="1">
+    <row r="75" spans="1:33" ht="48.5" customHeight="1">
       <c r="A75" s="66"/>
       <c r="B75" s="33" t="s">
         <v>1115</v>
@@ -20251,7 +20265,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="48.45" customHeight="1">
+    <row r="76" spans="1:33" ht="48.5" customHeight="1">
       <c r="A76" s="66"/>
       <c r="B76" s="33" t="s">
         <v>1047</v>
@@ -20357,7 +20371,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="48.45" customHeight="1">
+    <row r="77" spans="1:33" ht="48.5" customHeight="1">
       <c r="A77" s="66"/>
       <c r="B77" s="33" t="s">
         <v>1064</v>
@@ -20463,7 +20477,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="48.45" customHeight="1">
+    <row r="78" spans="1:33" ht="48.5" customHeight="1">
       <c r="A78" s="66"/>
       <c r="B78" s="33" t="s">
         <v>1128</v>
@@ -20569,7 +20583,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="48.45" customHeight="1">
+    <row r="79" spans="1:33" ht="48.5" customHeight="1">
       <c r="A79" s="66"/>
       <c r="B79" s="33" t="s">
         <v>1077</v>
@@ -20675,7 +20689,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="48.45" customHeight="1">
+    <row r="80" spans="1:33" ht="48.5" customHeight="1">
       <c r="A80" s="66"/>
       <c r="B80" s="33" t="s">
         <v>1131</v>
@@ -20781,7 +20795,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="48.45" customHeight="1">
+    <row r="81" spans="1:33" ht="48.5" customHeight="1">
       <c r="A81" s="66"/>
       <c r="B81" s="33" t="s">
         <v>1084</v>
@@ -20887,7 +20901,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="48.45" customHeight="1">
+    <row r="82" spans="1:33" ht="48.5" customHeight="1">
       <c r="A82" s="66"/>
       <c r="B82" s="33" t="s">
         <v>982</v>
@@ -20993,7 +21007,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="48.45" customHeight="1">
+    <row r="83" spans="1:33" ht="48.5" customHeight="1">
       <c r="A83" s="66"/>
       <c r="B83" s="33" t="s">
         <v>953</v>
@@ -21099,7 +21113,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="48.45" customHeight="1">
+    <row r="84" spans="1:33" ht="48.5" customHeight="1">
       <c r="A84" s="66"/>
       <c r="B84" s="33" t="s">
         <v>1099</v>
@@ -21205,7 +21219,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="48.45" customHeight="1">
+    <row r="85" spans="1:33" ht="48.5" customHeight="1">
       <c r="A85" s="66"/>
       <c r="B85" s="33" t="s">
         <v>1003</v>
@@ -21311,7 +21325,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="48.45" customHeight="1">
+    <row r="86" spans="1:33" ht="48.5" customHeight="1">
       <c r="A86" s="66"/>
       <c r="B86" s="33" t="s">
         <v>1086</v>
@@ -21417,7 +21431,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="48.45" customHeight="1">
+    <row r="87" spans="1:33" ht="48.5" customHeight="1">
       <c r="A87" s="66"/>
       <c r="B87" s="33" t="s">
         <v>1028</v>
@@ -21523,7 +21537,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="48.45" customHeight="1">
+    <row r="88" spans="1:33" ht="48.5" customHeight="1">
       <c r="A88" s="66"/>
       <c r="B88" s="33" t="s">
         <v>1048</v>
@@ -21629,7 +21643,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="48.45" customHeight="1">
+    <row r="89" spans="1:33" ht="48.5" customHeight="1">
       <c r="A89" s="66"/>
       <c r="B89" s="33" t="s">
         <v>1065</v>
@@ -21735,7 +21749,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="48.45" customHeight="1">
+    <row r="90" spans="1:33" ht="48.5" customHeight="1">
       <c r="A90" s="66"/>
       <c r="B90" s="33" t="s">
         <v>1137</v>
@@ -21841,7 +21855,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="226.8">
+    <row r="91" spans="1:33" ht="198">
       <c r="A91" s="66"/>
       <c r="B91" s="33" t="s">
         <v>1078</v>
@@ -21947,7 +21961,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="48.45" customHeight="1">
+    <row r="92" spans="1:33" ht="48.5" customHeight="1">
       <c r="A92" s="66"/>
       <c r="B92" s="33" t="s">
         <v>2024</v>
@@ -22053,7 +22067,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="48.45" customHeight="1">
+    <row r="93" spans="1:33" ht="48.5" customHeight="1">
       <c r="A93" s="66"/>
       <c r="B93" s="33" t="s">
         <v>2025</v>
@@ -22159,7 +22173,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="48.45" customHeight="1">
+    <row r="94" spans="1:33" ht="48.5" customHeight="1">
       <c r="A94" s="66"/>
       <c r="B94" s="33" t="s">
         <v>2026</v>
@@ -22265,7 +22279,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="48.45" customHeight="1">
+    <row r="95" spans="1:33" ht="48.5" customHeight="1">
       <c r="A95" s="66"/>
       <c r="B95" s="33" t="s">
         <v>983</v>
@@ -22371,7 +22385,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="48.45" customHeight="1">
+    <row r="96" spans="1:33" ht="48.5" customHeight="1">
       <c r="A96" s="66"/>
       <c r="B96" s="33" t="s">
         <v>954</v>
@@ -22477,7 +22491,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="48.45" customHeight="1">
+    <row r="97" spans="1:33" ht="48.5" customHeight="1">
       <c r="A97" s="66"/>
       <c r="B97" s="33" t="s">
         <v>1100</v>
@@ -22583,7 +22597,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="48.45" customHeight="1">
+    <row r="98" spans="1:33" ht="48.5" customHeight="1">
       <c r="A98" s="66"/>
       <c r="B98" s="33" t="s">
         <v>1004</v>
@@ -22689,7 +22703,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="48.45" customHeight="1">
+    <row r="99" spans="1:33" ht="48.5" customHeight="1">
       <c r="A99" s="66"/>
       <c r="B99" s="33" t="s">
         <v>1029</v>
@@ -22795,7 +22809,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="48.45" customHeight="1">
+    <row r="100" spans="1:33" ht="48.5" customHeight="1">
       <c r="A100" s="66"/>
       <c r="B100" s="33" t="s">
         <v>1116</v>
@@ -22901,7 +22915,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="48.45" customHeight="1">
+    <row r="101" spans="1:33" ht="48.5" customHeight="1">
       <c r="A101" s="66"/>
       <c r="B101" s="33" t="s">
         <v>1049</v>
@@ -23007,7 +23021,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="48.45" customHeight="1">
+    <row r="102" spans="1:33" ht="48.5" customHeight="1">
       <c r="A102" s="66"/>
       <c r="B102" s="33" t="s">
         <v>1138</v>
@@ -23113,7 +23127,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="48.45" customHeight="1">
+    <row r="103" spans="1:33" ht="48.5" customHeight="1">
       <c r="A103" s="66"/>
       <c r="B103" s="33" t="s">
         <v>1066</v>
@@ -23219,7 +23233,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="48.45" customHeight="1">
+    <row r="104" spans="1:33" ht="48.5" customHeight="1">
       <c r="A104" s="66"/>
       <c r="B104" s="33" t="s">
         <v>1079</v>
@@ -23325,7 +23339,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="48.45" customHeight="1">
+    <row r="105" spans="1:33" ht="48.5" customHeight="1">
       <c r="A105" s="66"/>
       <c r="B105" s="33" t="s">
         <v>955</v>
@@ -23431,7 +23445,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="48.45" customHeight="1">
+    <row r="106" spans="1:33" ht="48.5" customHeight="1">
       <c r="A106" s="66"/>
       <c r="B106" s="33" t="s">
         <v>1101</v>
@@ -23537,7 +23551,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="48.45" customHeight="1">
+    <row r="107" spans="1:33" ht="48.5" customHeight="1">
       <c r="A107" s="66"/>
       <c r="B107" s="33" t="s">
         <v>1005</v>
@@ -23643,7 +23657,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="48.45" customHeight="1">
+    <row r="108" spans="1:33" ht="48.5" customHeight="1">
       <c r="A108" s="66"/>
       <c r="B108" s="33" t="s">
         <v>1087</v>
@@ -23749,7 +23763,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="48.45" customHeight="1">
+    <row r="109" spans="1:33" ht="48.5" customHeight="1">
       <c r="A109" s="66"/>
       <c r="B109" s="33" t="s">
         <v>1030</v>
@@ -23855,7 +23869,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="48.45" customHeight="1">
+    <row r="110" spans="1:33" ht="48.5" customHeight="1">
       <c r="A110" s="66"/>
       <c r="B110" s="33" t="s">
         <v>1117</v>
@@ -23961,7 +23975,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="48.45" customHeight="1">
+    <row r="111" spans="1:33" ht="48.5" customHeight="1">
       <c r="A111" s="66"/>
       <c r="B111" s="33" t="s">
         <v>1050</v>
@@ -24067,7 +24081,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="48.45" customHeight="1">
+    <row r="112" spans="1:33" ht="48.5" customHeight="1">
       <c r="A112" s="66"/>
       <c r="B112" s="51" t="s">
         <v>1067</v>
@@ -24173,7 +24187,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="48.45" customHeight="1">
+    <row r="113" spans="1:33" ht="48.5" customHeight="1">
       <c r="A113" s="66"/>
       <c r="B113" s="33" t="s">
         <v>2028</v>
@@ -24279,7 +24293,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="48.45" customHeight="1">
+    <row r="114" spans="1:33" ht="48.5" customHeight="1">
       <c r="A114" s="66"/>
       <c r="B114" s="33" t="s">
         <v>2029</v>
@@ -24385,7 +24399,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="48.45" customHeight="1">
+    <row r="115" spans="1:33" ht="48.5" customHeight="1">
       <c r="A115" s="66"/>
       <c r="B115" s="33" t="s">
         <v>984</v>
@@ -24491,7 +24505,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="48.45" customHeight="1">
+    <row r="116" spans="1:33" ht="48.5" customHeight="1">
       <c r="A116" s="66"/>
       <c r="B116" s="33" t="s">
         <v>956</v>
@@ -24597,7 +24611,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="48.45" customHeight="1">
+    <row r="117" spans="1:33" ht="48.5" customHeight="1">
       <c r="A117" s="66"/>
       <c r="B117" s="33" t="s">
         <v>1102</v>
@@ -24703,7 +24717,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="48.45" customHeight="1">
+    <row r="118" spans="1:33" ht="48.5" customHeight="1">
       <c r="A118" s="66"/>
       <c r="B118" s="33" t="s">
         <v>1006</v>
@@ -24809,7 +24823,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="48.45" customHeight="1">
+    <row r="119" spans="1:33" ht="48.5" customHeight="1">
       <c r="A119" s="66"/>
       <c r="B119" s="33" t="s">
         <v>1088</v>
@@ -24915,7 +24929,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="48.45" customHeight="1">
+    <row r="120" spans="1:33" ht="48.5" customHeight="1">
       <c r="A120" s="66"/>
       <c r="B120" s="33" t="s">
         <v>1031</v>
@@ -25021,7 +25035,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="48.45" customHeight="1">
+    <row r="121" spans="1:33" ht="48.5" customHeight="1">
       <c r="A121" s="66"/>
       <c r="B121" s="33" t="s">
         <v>1051</v>
@@ -25127,7 +25141,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="48.45" customHeight="1">
+    <row r="122" spans="1:33" ht="48.5" customHeight="1">
       <c r="A122" s="66"/>
       <c r="B122" s="33" t="s">
         <v>1136</v>
@@ -25233,7 +25247,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="48.45" customHeight="1">
+    <row r="123" spans="1:33" ht="48.5" customHeight="1">
       <c r="A123" s="66"/>
       <c r="B123" s="33" t="s">
         <v>1068</v>
@@ -25339,7 +25353,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="48.45" customHeight="1">
+    <row r="124" spans="1:33" ht="48.5" customHeight="1">
       <c r="A124" s="66"/>
       <c r="B124" s="33" t="s">
         <v>1080</v>
@@ -25445,7 +25459,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="48.45" customHeight="1">
+    <row r="125" spans="1:33" ht="48.5" customHeight="1">
       <c r="A125" s="66"/>
       <c r="B125" s="33" t="s">
         <v>957</v>
@@ -25551,7 +25565,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="48.45" customHeight="1">
+    <row r="126" spans="1:33" ht="48.5" customHeight="1">
       <c r="A126" s="66"/>
       <c r="B126" s="33" t="s">
         <v>1103</v>
@@ -25657,7 +25671,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="48.45" customHeight="1">
+    <row r="127" spans="1:33" ht="48.5" customHeight="1">
       <c r="A127" s="66"/>
       <c r="B127" s="33" t="s">
         <v>1007</v>
@@ -25763,7 +25777,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="48.45" customHeight="1">
+    <row r="128" spans="1:33" ht="48.5" customHeight="1">
       <c r="A128" s="66"/>
       <c r="B128" s="33" t="s">
         <v>2030</v>
@@ -25869,7 +25883,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="48.45" customHeight="1">
+    <row r="129" spans="1:33" ht="48.5" customHeight="1">
       <c r="A129" s="66"/>
       <c r="B129" s="33" t="s">
         <v>2031</v>
@@ -25975,7 +25989,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="48.45" customHeight="1">
+    <row r="130" spans="1:33" ht="48.5" customHeight="1">
       <c r="A130" s="66"/>
       <c r="B130" s="33" t="s">
         <v>985</v>
@@ -26081,7 +26095,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="48.45" customHeight="1">
+    <row r="131" spans="1:33" ht="48.5" customHeight="1">
       <c r="A131" s="66"/>
       <c r="B131" s="33" t="s">
         <v>958</v>
@@ -26187,7 +26201,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="48.45" customHeight="1">
+    <row r="132" spans="1:33" ht="48.5" customHeight="1">
       <c r="A132" s="66"/>
       <c r="B132" s="33" t="s">
         <v>1104</v>
@@ -26293,7 +26307,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="48.45" customHeight="1">
+    <row r="133" spans="1:33" ht="48.5" customHeight="1">
       <c r="A133" s="66"/>
       <c r="B133" s="33" t="s">
         <v>1008</v>
@@ -26399,7 +26413,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="48.45" customHeight="1">
+    <row r="134" spans="1:33" ht="48.5" customHeight="1">
       <c r="A134" s="66"/>
       <c r="B134" s="33" t="s">
         <v>1089</v>
@@ -26505,7 +26519,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="48.45" customHeight="1">
+    <row r="135" spans="1:33" ht="48.5" customHeight="1">
       <c r="A135" s="66"/>
       <c r="B135" s="33" t="s">
         <v>1032</v>
@@ -26611,7 +26625,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="48.45" customHeight="1">
+    <row r="136" spans="1:33" ht="48.5" customHeight="1">
       <c r="A136" s="66"/>
       <c r="B136" s="33" t="s">
         <v>1118</v>
@@ -26717,7 +26731,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="48.45" customHeight="1">
+    <row r="137" spans="1:33" ht="48.5" customHeight="1">
       <c r="A137" s="66"/>
       <c r="B137" s="33" t="s">
         <v>1052</v>
@@ -26823,7 +26837,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="48.45" customHeight="1">
+    <row r="138" spans="1:33" ht="48.5" customHeight="1">
       <c r="A138" s="66"/>
       <c r="B138" s="33" t="s">
         <v>1069</v>
@@ -26929,7 +26943,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="48.45" customHeight="1">
+    <row r="139" spans="1:33" ht="48.5" customHeight="1">
       <c r="A139" s="66"/>
       <c r="B139" s="51" t="s">
         <v>1935</v>
@@ -27035,7 +27049,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="48.45" customHeight="1">
+    <row r="140" spans="1:33" ht="48.5" customHeight="1">
       <c r="A140" s="66"/>
       <c r="B140" s="51" t="s">
         <v>1934</v>
@@ -27141,7 +27155,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="48.45" customHeight="1">
+    <row r="141" spans="1:33" ht="48.5" customHeight="1">
       <c r="A141" s="66"/>
       <c r="B141" s="33" t="s">
         <v>2034</v>
@@ -27247,7 +27261,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="48.45" customHeight="1">
+    <row r="142" spans="1:33" ht="48.5" customHeight="1">
       <c r="A142" s="66"/>
       <c r="B142" s="33" t="s">
         <v>959</v>
@@ -27353,7 +27367,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="48.45" customHeight="1">
+    <row r="143" spans="1:33" ht="48.5" customHeight="1">
       <c r="A143" s="66"/>
       <c r="B143" s="51" t="s">
         <v>1009</v>
@@ -27459,7 +27473,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="48.45" customHeight="1">
+    <row r="144" spans="1:33" ht="48.5" customHeight="1">
       <c r="A144" s="66"/>
       <c r="B144" s="33" t="s">
         <v>2037</v>
@@ -27565,7 +27579,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="48.45" customHeight="1">
+    <row r="145" spans="1:33" ht="48.5" customHeight="1">
       <c r="A145" s="66"/>
       <c r="B145" s="33" t="s">
         <v>2038</v>
@@ -27671,7 +27685,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="48.45" customHeight="1">
+    <row r="146" spans="1:33" ht="48.5" customHeight="1">
       <c r="A146" s="66"/>
       <c r="B146" s="33" t="s">
         <v>2039</v>
@@ -27777,7 +27791,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="48.45" customHeight="1">
+    <row r="147" spans="1:33" ht="48.5" customHeight="1">
       <c r="A147" s="66"/>
       <c r="B147" s="33" t="s">
         <v>2040</v>
@@ -27883,7 +27897,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="48.45" customHeight="1">
+    <row r="148" spans="1:33" ht="48.5" customHeight="1">
       <c r="A148" s="66"/>
       <c r="B148" s="33" t="s">
         <v>2041</v>
@@ -27989,7 +28003,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="48.45" customHeight="1">
+    <row r="149" spans="1:33" ht="48.5" customHeight="1">
       <c r="A149" s="66"/>
       <c r="B149" s="33" t="s">
         <v>986</v>
@@ -28095,7 +28109,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="48.45" customHeight="1">
+    <row r="150" spans="1:33" ht="48.5" customHeight="1">
       <c r="A150" s="66"/>
       <c r="B150" s="33" t="s">
         <v>980</v>
@@ -28201,7 +28215,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="151" spans="1:33" ht="48.45" customHeight="1">
+    <row r="151" spans="1:33" ht="48.5" customHeight="1">
       <c r="A151" s="66"/>
       <c r="B151" s="33" t="s">
         <v>1105</v>
@@ -28307,7 +28321,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="48.45" customHeight="1">
+    <row r="152" spans="1:33" ht="48.5" customHeight="1">
       <c r="A152" s="66"/>
       <c r="B152" s="33" t="s">
         <v>1010</v>
@@ -28413,7 +28427,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="48.45" customHeight="1">
+    <row r="153" spans="1:33" ht="48.5" customHeight="1">
       <c r="A153" s="66"/>
       <c r="B153" s="33" t="s">
         <v>1033</v>
@@ -28519,7 +28533,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="154" spans="1:33" ht="48.45" customHeight="1">
+    <row r="154" spans="1:33" ht="48.5" customHeight="1">
       <c r="A154" s="66"/>
       <c r="B154" s="33" t="s">
         <v>1119</v>
@@ -28625,7 +28639,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="48.45" customHeight="1">
+    <row r="155" spans="1:33" ht="48.5" customHeight="1">
       <c r="A155" s="66"/>
       <c r="B155" s="33" t="s">
         <v>1053</v>
@@ -28731,7 +28745,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="48.45" customHeight="1">
+    <row r="156" spans="1:33" ht="48.5" customHeight="1">
       <c r="A156" s="66"/>
       <c r="B156" s="33" t="s">
         <v>1139</v>
@@ -28837,7 +28851,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="48.45" customHeight="1">
+    <row r="157" spans="1:33" ht="48.5" customHeight="1">
       <c r="A157" s="66"/>
       <c r="B157" s="33" t="s">
         <v>1070</v>
@@ -28943,7 +28957,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="48.45" customHeight="1">
+    <row r="158" spans="1:33" ht="48.5" customHeight="1">
       <c r="A158" s="66"/>
       <c r="B158" s="33" t="s">
         <v>979</v>
@@ -29049,7 +29063,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="48.45" customHeight="1">
+    <row r="159" spans="1:33" ht="48.5" customHeight="1">
       <c r="A159" s="66"/>
       <c r="B159" s="33" t="s">
         <v>1011</v>
@@ -29155,7 +29169,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="160" spans="1:33" ht="48.45" customHeight="1">
+    <row r="160" spans="1:33" ht="48.5" customHeight="1">
       <c r="A160" s="66"/>
       <c r="B160" s="33" t="s">
         <v>978</v>
@@ -29261,7 +29275,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="48.45" customHeight="1">
+    <row r="161" spans="1:33" ht="48.5" customHeight="1">
       <c r="A161" s="66"/>
       <c r="B161" s="33" t="s">
         <v>987</v>
@@ -29367,7 +29381,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="162" spans="1:33" ht="48.45" customHeight="1">
+    <row r="162" spans="1:33" ht="48.5" customHeight="1">
       <c r="A162" s="66"/>
       <c r="B162" s="33" t="s">
         <v>977</v>
@@ -29473,7 +29487,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="48.45" customHeight="1">
+    <row r="163" spans="1:33" ht="48.5" customHeight="1">
       <c r="A163" s="66"/>
       <c r="B163" s="33" t="s">
         <v>1012</v>
@@ -29579,7 +29593,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="48.45" customHeight="1">
+    <row r="164" spans="1:33" ht="48.5" customHeight="1">
       <c r="A164" s="66"/>
       <c r="B164" s="33" t="s">
         <v>1090</v>
@@ -29685,7 +29699,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="48.45" customHeight="1">
+    <row r="165" spans="1:33" ht="48.5" customHeight="1">
       <c r="A165" s="66"/>
       <c r="B165" s="33" t="s">
         <v>1034</v>
@@ -29791,7 +29805,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="48.45" customHeight="1">
+    <row r="166" spans="1:33" ht="48.5" customHeight="1">
       <c r="A166" s="66"/>
       <c r="B166" s="33" t="s">
         <v>1054</v>
@@ -29897,7 +29911,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="48.45" customHeight="1">
+    <row r="167" spans="1:33" ht="48.5" customHeight="1">
       <c r="A167" s="66"/>
       <c r="B167" s="33" t="s">
         <v>1135</v>
@@ -30003,7 +30017,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="48.45" customHeight="1">
+    <row r="168" spans="1:33" ht="48.5" customHeight="1">
       <c r="A168" s="66"/>
       <c r="B168" s="33" t="s">
         <v>1071</v>
@@ -30109,7 +30123,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="169" spans="1:33" ht="48.45" customHeight="1">
+    <row r="169" spans="1:33" ht="48.5" customHeight="1">
       <c r="A169" s="66"/>
       <c r="B169" s="33" t="s">
         <v>1081</v>
@@ -30215,7 +30229,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="170" spans="1:33" ht="48.45" customHeight="1">
+    <row r="170" spans="1:33" ht="48.5" customHeight="1">
       <c r="A170" s="66"/>
       <c r="B170" s="51" t="s">
         <v>1955</v>
@@ -30321,7 +30335,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="48.45" customHeight="1">
+    <row r="171" spans="1:33" ht="48.5" customHeight="1">
       <c r="A171" s="66"/>
       <c r="B171" s="51" t="s">
         <v>1956</v>
@@ -30427,7 +30441,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="172" spans="1:33" ht="48.45" customHeight="1">
+    <row r="172" spans="1:33" ht="48.5" customHeight="1">
       <c r="A172" s="66"/>
       <c r="B172" s="51" t="s">
         <v>1962</v>
@@ -30533,7 +30547,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="48.45" customHeight="1">
+    <row r="173" spans="1:33" ht="48.5" customHeight="1">
       <c r="A173" s="66"/>
       <c r="B173" s="51" t="s">
         <v>1963</v>
@@ -30639,7 +30653,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="174" spans="1:33" ht="48.45" customHeight="1">
+    <row r="174" spans="1:33" ht="48.5" customHeight="1">
       <c r="A174" s="66"/>
       <c r="B174" s="33" t="s">
         <v>988</v>
@@ -30745,7 +30759,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="175" spans="1:33" ht="48.45" customHeight="1">
+    <row r="175" spans="1:33" ht="48.5" customHeight="1">
       <c r="A175" s="66"/>
       <c r="B175" s="33" t="s">
         <v>976</v>
@@ -30851,7 +30865,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="176" spans="1:33" ht="48.45" customHeight="1">
+    <row r="176" spans="1:33" ht="48.5" customHeight="1">
       <c r="A176" s="66"/>
       <c r="B176" s="33" t="s">
         <v>975</v>
@@ -30957,7 +30971,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="177" spans="1:33" ht="48.45" customHeight="1">
+    <row r="177" spans="1:33" ht="48.5" customHeight="1">
       <c r="A177" s="66"/>
       <c r="B177" s="33" t="s">
         <v>1106</v>
@@ -31063,7 +31077,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="178" spans="1:33" ht="48.45" customHeight="1">
+    <row r="178" spans="1:33" ht="48.5" customHeight="1">
       <c r="A178" s="66"/>
       <c r="B178" s="33" t="s">
         <v>1013</v>
@@ -31169,7 +31183,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="179" spans="1:33" ht="48.45" customHeight="1">
+    <row r="179" spans="1:33" ht="48.5" customHeight="1">
       <c r="A179" s="66"/>
       <c r="B179" s="33" t="s">
         <v>1035</v>
@@ -31275,7 +31289,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="180" spans="1:33" ht="48.45" customHeight="1">
+    <row r="180" spans="1:33" ht="48.5" customHeight="1">
       <c r="A180" s="66"/>
       <c r="B180" s="33" t="s">
         <v>1120</v>
@@ -31381,7 +31395,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="181" spans="1:33" ht="48.45" customHeight="1">
+    <row r="181" spans="1:33" ht="48.5" customHeight="1">
       <c r="A181" s="66"/>
       <c r="B181" s="33" t="s">
         <v>1055</v>
@@ -31487,7 +31501,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="182" spans="1:33" ht="48.45" customHeight="1">
+    <row r="182" spans="1:33" ht="48.5" customHeight="1">
       <c r="A182" s="66"/>
       <c r="B182" s="33" t="s">
         <v>1072</v>
@@ -31593,7 +31607,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="183" spans="1:33" ht="48.45" customHeight="1">
+    <row r="183" spans="1:33" ht="48.5" customHeight="1">
       <c r="A183" s="66"/>
       <c r="B183" s="33" t="s">
         <v>2044</v>
@@ -31699,7 +31713,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="184" spans="1:33" ht="48.45" customHeight="1">
+    <row r="184" spans="1:33" ht="48.5" customHeight="1">
       <c r="A184" s="66"/>
       <c r="B184" s="33" t="s">
         <v>974</v>
@@ -31805,7 +31819,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="185" spans="1:33" ht="48.45" customHeight="1">
+    <row r="185" spans="1:33" ht="48.5" customHeight="1">
       <c r="A185" s="66"/>
       <c r="B185" s="33" t="s">
         <v>1107</v>
@@ -31911,7 +31925,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="186" spans="1:33" ht="48.45" customHeight="1">
+    <row r="186" spans="1:33" ht="48.5" customHeight="1">
       <c r="A186" s="66"/>
       <c r="B186" s="33" t="s">
         <v>1014</v>
@@ -32017,7 +32031,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="187" spans="1:33" ht="48.45" customHeight="1">
+    <row r="187" spans="1:33" ht="48.5" customHeight="1">
       <c r="A187" s="66"/>
       <c r="B187" s="33" t="s">
         <v>1091</v>
@@ -32123,7 +32137,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="188" spans="1:33" ht="48.45" customHeight="1">
+    <row r="188" spans="1:33" ht="48.5" customHeight="1">
       <c r="A188" s="66"/>
       <c r="B188" s="33" t="s">
         <v>1036</v>
@@ -32229,7 +32243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="189" spans="1:33" ht="48.45" customHeight="1">
+    <row r="189" spans="1:33" ht="48.5" customHeight="1">
       <c r="A189" s="66"/>
       <c r="B189" s="33" t="s">
         <v>1121</v>
@@ -32335,7 +32349,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="48.45" customHeight="1">
+    <row r="190" spans="1:33" ht="48.5" customHeight="1">
       <c r="A190" s="66"/>
       <c r="B190" s="33" t="s">
         <v>1056</v>
@@ -32441,7 +32455,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="48.45" customHeight="1">
+    <row r="191" spans="1:33" ht="48.5" customHeight="1">
       <c r="A191" s="66"/>
       <c r="B191" s="33" t="s">
         <v>1073</v>
@@ -32547,7 +32561,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="192" spans="1:33" ht="48.45" customHeight="1">
+    <row r="192" spans="1:33" ht="48.5" customHeight="1">
       <c r="A192" s="66"/>
       <c r="B192" s="33" t="s">
         <v>1129</v>
@@ -32653,7 +32667,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="193" spans="1:33" ht="48.45" customHeight="1">
+    <row r="193" spans="1:33" ht="48.5" customHeight="1">
       <c r="A193" s="66"/>
       <c r="B193" s="33" t="s">
         <v>1082</v>
@@ -32759,7 +32773,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="194" spans="1:33" ht="48.45" customHeight="1">
+    <row r="194" spans="1:33" ht="48.5" customHeight="1">
       <c r="A194" s="66"/>
       <c r="B194" s="33" t="s">
         <v>973</v>
@@ -32865,7 +32879,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="48.45" customHeight="1">
+    <row r="195" spans="1:33" ht="48.5" customHeight="1">
       <c r="A195" s="66"/>
       <c r="B195" s="33" t="s">
         <v>1983</v>
@@ -32971,7 +32985,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="48.45" customHeight="1">
+    <row r="196" spans="1:33" ht="48.5" customHeight="1">
       <c r="A196" s="66"/>
       <c r="B196" s="33" t="s">
         <v>1984</v>
@@ -33077,7 +33091,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="197" spans="1:33" ht="48.45" customHeight="1">
+    <row r="197" spans="1:33" ht="48.5" customHeight="1">
       <c r="A197" s="66"/>
       <c r="B197" s="33" t="s">
         <v>1015</v>
@@ -33183,7 +33197,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="198" spans="1:33" ht="48.45" customHeight="1">
+    <row r="198" spans="1:33" ht="48.5" customHeight="1">
       <c r="A198" s="66"/>
       <c r="B198" s="33" t="s">
         <v>1092</v>
@@ -33289,7 +33303,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="48.45" customHeight="1">
+    <row r="199" spans="1:33" ht="48.5" customHeight="1">
       <c r="A199" s="66"/>
       <c r="B199" s="33" t="s">
         <v>1037</v>
@@ -33395,7 +33409,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="200" spans="1:33" ht="48.45" customHeight="1">
+    <row r="200" spans="1:33" ht="48.5" customHeight="1">
       <c r="A200" s="66"/>
       <c r="B200" s="33" t="s">
         <v>972</v>
@@ -33501,7 +33515,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="48.45" customHeight="1">
+    <row r="201" spans="1:33" ht="48.5" customHeight="1">
       <c r="A201" s="66"/>
       <c r="B201" s="33" t="s">
         <v>1016</v>
@@ -33607,7 +33621,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="202" spans="1:33" ht="48.45" customHeight="1">
+    <row r="202" spans="1:33" ht="48.5" customHeight="1">
       <c r="A202" s="66"/>
       <c r="B202" s="33" t="s">
         <v>1093</v>
@@ -33713,7 +33727,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="48.45" customHeight="1">
+    <row r="203" spans="1:33" ht="48.5" customHeight="1">
       <c r="A203" s="66"/>
       <c r="B203" s="33" t="s">
         <v>1038</v>
@@ -33819,7 +33833,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="48.45" customHeight="1">
+    <row r="204" spans="1:33" ht="48.5" customHeight="1">
       <c r="A204" s="66"/>
       <c r="B204" s="33" t="s">
         <v>1057</v>
@@ -33925,7 +33939,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="48.45" customHeight="1">
+    <row r="205" spans="1:33" ht="48.5" customHeight="1">
       <c r="A205" s="66"/>
       <c r="B205" s="33" t="s">
         <v>971</v>
@@ -34031,7 +34045,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="48.45" customHeight="1">
+    <row r="206" spans="1:33" ht="48.5" customHeight="1">
       <c r="A206" s="66"/>
       <c r="B206" s="33" t="s">
         <v>2047</v>
@@ -34137,7 +34151,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="207" spans="1:33" ht="48.45" customHeight="1">
+    <row r="207" spans="1:33" ht="48.5" customHeight="1">
       <c r="A207" s="66"/>
       <c r="B207" s="33" t="s">
         <v>2048</v>
@@ -34243,7 +34257,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="208" spans="1:33" ht="48.45" customHeight="1">
+    <row r="208" spans="1:33" ht="48.5" customHeight="1">
       <c r="A208" s="66"/>
       <c r="B208" s="33" t="s">
         <v>2049</v>
@@ -34349,7 +34363,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="48.45" customHeight="1">
+    <row r="209" spans="1:33" ht="48.5" customHeight="1">
       <c r="A209" s="66"/>
       <c r="B209" s="33" t="s">
         <v>2050</v>
@@ -34455,7 +34469,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="210" spans="1:33" ht="48.45" customHeight="1">
+    <row r="210" spans="1:33" ht="48.5" customHeight="1">
       <c r="A210" s="66"/>
       <c r="B210" s="33" t="s">
         <v>2051</v>
@@ -34561,7 +34575,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="211" spans="1:33" ht="48.45" customHeight="1">
+    <row r="211" spans="1:33" ht="48.5" customHeight="1">
       <c r="A211" s="66"/>
       <c r="B211" s="33" t="s">
         <v>2052</v>
@@ -34667,7 +34681,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="212" spans="1:33" ht="48.45" customHeight="1">
+    <row r="212" spans="1:33" ht="48.5" customHeight="1">
       <c r="A212" s="66"/>
       <c r="B212" s="33" t="s">
         <v>2053</v>
@@ -34773,7 +34787,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="213" spans="1:33" ht="48.45" customHeight="1">
+    <row r="213" spans="1:33" ht="48.5" customHeight="1">
       <c r="A213" s="66"/>
       <c r="B213" s="33" t="s">
         <v>989</v>
@@ -34879,7 +34893,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="214" spans="1:33" ht="48.45" customHeight="1">
+    <row r="214" spans="1:33" ht="48.5" customHeight="1">
       <c r="A214" s="66"/>
       <c r="B214" s="33" t="s">
         <v>970</v>
@@ -34985,7 +34999,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="215" spans="1:33" ht="48.45" customHeight="1">
+    <row r="215" spans="1:33" ht="48.5" customHeight="1">
       <c r="A215" s="66"/>
       <c r="B215" s="33" t="s">
         <v>1017</v>
@@ -35091,7 +35105,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="216" spans="1:33" ht="48.45" customHeight="1">
+    <row r="216" spans="1:33" ht="48.5" customHeight="1">
       <c r="A216" s="66"/>
       <c r="B216" s="33" t="s">
         <v>2055</v>
@@ -35197,7 +35211,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="217" spans="1:33" ht="48.45" customHeight="1">
+    <row r="217" spans="1:33" ht="48.5" customHeight="1">
       <c r="A217" s="66"/>
       <c r="B217" s="33" t="s">
         <v>1039</v>
@@ -35303,7 +35317,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="218" spans="1:33" ht="48.45" customHeight="1">
+    <row r="218" spans="1:33" ht="48.5" customHeight="1">
       <c r="A218" s="66"/>
       <c r="B218" s="33" t="s">
         <v>1122</v>
@@ -35409,7 +35423,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="219" spans="1:33" ht="48.45" customHeight="1">
+    <row r="219" spans="1:33" ht="48.5" customHeight="1">
       <c r="A219" s="66"/>
       <c r="B219" s="33" t="s">
         <v>1058</v>
@@ -35515,7 +35529,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="220" spans="1:33" ht="48.45" customHeight="1">
+    <row r="220" spans="1:33" ht="48.5" customHeight="1">
       <c r="A220" s="66"/>
       <c r="B220" s="51" t="s">
         <v>2010</v>
@@ -35621,7 +35635,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="221" spans="1:33" ht="48.45" customHeight="1">
+    <row r="221" spans="1:33" ht="48.5" customHeight="1">
       <c r="A221" s="66"/>
       <c r="B221" s="33" t="s">
         <v>990</v>
@@ -35727,7 +35741,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="222" spans="1:33" ht="129.6">
+    <row r="222" spans="1:33" ht="108">
       <c r="A222" s="66"/>
       <c r="B222" s="33" t="s">
         <v>969</v>
@@ -35833,7 +35847,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="223" spans="1:33" ht="48.45" customHeight="1">
+    <row r="223" spans="1:33" ht="48.5" customHeight="1">
       <c r="A223" s="66"/>
       <c r="B223" s="33" t="s">
         <v>991</v>
@@ -35939,7 +35953,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="224" spans="1:33" ht="48.45" customHeight="1">
+    <row r="224" spans="1:33" ht="48.5" customHeight="1">
       <c r="A224" s="66"/>
       <c r="B224" s="33" t="s">
         <v>968</v>
@@ -36045,7 +36059,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="225" spans="1:33" ht="48.45" customHeight="1">
+    <row r="225" spans="1:33" ht="48.5" customHeight="1">
       <c r="A225" s="66"/>
       <c r="B225" s="33" t="s">
         <v>1108</v>
@@ -36151,7 +36165,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="226" spans="1:33" ht="48.45" customHeight="1">
+    <row r="226" spans="1:33" ht="48.5" customHeight="1">
       <c r="A226" s="66"/>
       <c r="B226" s="33" t="s">
         <v>1018</v>
@@ -36257,7 +36271,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="227" spans="1:33" ht="48.45" customHeight="1">
+    <row r="227" spans="1:33" ht="48.5" customHeight="1">
       <c r="A227" s="66"/>
       <c r="B227" s="33" t="s">
         <v>1094</v>
@@ -36363,7 +36377,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="228" spans="1:33" ht="48.45" customHeight="1">
+    <row r="228" spans="1:33" ht="48.5" customHeight="1">
       <c r="A228" s="66"/>
       <c r="B228" s="33" t="s">
         <v>1040</v>
@@ -36469,7 +36483,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="229" spans="1:33" ht="48.45" customHeight="1">
+    <row r="229" spans="1:33" ht="48.5" customHeight="1">
       <c r="A229" s="66"/>
       <c r="B229" s="33" t="s">
         <v>992</v>
@@ -36575,7 +36589,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="230" spans="1:33" ht="48.45" customHeight="1">
+    <row r="230" spans="1:33" ht="48.5" customHeight="1">
       <c r="A230" s="66"/>
       <c r="B230" s="33" t="s">
         <v>967</v>
@@ -36681,7 +36695,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="231" spans="1:33" ht="48.45" customHeight="1">
+    <row r="231" spans="1:33" ht="48.5" customHeight="1">
       <c r="A231" s="66"/>
       <c r="B231" s="33" t="s">
         <v>1109</v>
@@ -36787,7 +36801,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="232" spans="1:33" ht="48.45" customHeight="1">
+    <row r="232" spans="1:33" ht="48.5" customHeight="1">
       <c r="A232" s="66"/>
       <c r="B232" s="33" t="s">
         <v>1019</v>
@@ -36893,7 +36907,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="233" spans="1:33" ht="48.45" customHeight="1">
+    <row r="233" spans="1:33" ht="48.5" customHeight="1">
       <c r="A233" s="66"/>
       <c r="B233" s="33" t="s">
         <v>993</v>
@@ -36999,7 +37013,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="234" spans="1:33" ht="48.45" customHeight="1">
+    <row r="234" spans="1:33" ht="48.5" customHeight="1">
       <c r="A234" s="66"/>
       <c r="B234" s="33" t="s">
         <v>966</v>
@@ -37105,7 +37119,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="235" spans="1:33" ht="48.45" customHeight="1">
+    <row r="235" spans="1:33" ht="48.5" customHeight="1">
       <c r="A235" s="66"/>
       <c r="B235" s="33" t="s">
         <v>1110</v>
@@ -37211,7 +37225,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="236" spans="1:33" ht="48.45" customHeight="1">
+    <row r="236" spans="1:33" ht="48.5" customHeight="1">
       <c r="A236" s="66"/>
       <c r="B236" s="33" t="s">
         <v>1020</v>
@@ -37317,7 +37331,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="237" spans="1:33" ht="48.45" customHeight="1">
+    <row r="237" spans="1:33" ht="48.5" customHeight="1">
       <c r="A237" s="66"/>
       <c r="B237" s="33" t="s">
         <v>1095</v>
@@ -37423,7 +37437,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="238" spans="1:33" ht="48.45" customHeight="1">
+    <row r="238" spans="1:33" ht="48.5" customHeight="1">
       <c r="A238" s="66"/>
       <c r="B238" s="33" t="s">
         <v>1041</v>
@@ -37529,7 +37543,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="48.45" customHeight="1">
+    <row r="239" spans="1:33" ht="48.5" customHeight="1">
       <c r="A239" s="66"/>
       <c r="B239" s="33" t="s">
         <v>1123</v>
@@ -37635,7 +37649,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="240" spans="1:33" ht="48.45" customHeight="1">
+    <row r="240" spans="1:33" ht="48.5" customHeight="1">
       <c r="A240" s="66"/>
       <c r="B240" s="33" t="s">
         <v>1059</v>
@@ -37741,7 +37755,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="241" spans="1:33" ht="48.45" customHeight="1">
+    <row r="241" spans="1:33" ht="48.5" customHeight="1">
       <c r="A241" s="66"/>
       <c r="B241" s="33" t="s">
         <v>994</v>
@@ -37847,7 +37861,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="242" spans="1:33" ht="48.45" customHeight="1">
+    <row r="242" spans="1:33" ht="48.5" customHeight="1">
       <c r="A242" s="66"/>
       <c r="B242" s="33" t="s">
         <v>965</v>
@@ -37953,7 +37967,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="48.45" customHeight="1">
+    <row r="243" spans="1:33" ht="48.5" customHeight="1">
       <c r="A243" s="66"/>
       <c r="B243" s="33" t="s">
         <v>1111</v>
@@ -38059,7 +38073,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="244" spans="1:33" ht="48.45" customHeight="1">
+    <row r="244" spans="1:33" ht="48.5" customHeight="1">
       <c r="A244" s="66"/>
       <c r="B244" s="33" t="s">
         <v>1021</v>
@@ -38165,7 +38179,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="48.45" customHeight="1">
+    <row r="245" spans="1:33" ht="48.5" customHeight="1">
       <c r="A245" s="66"/>
       <c r="B245" s="33" t="s">
         <v>1096</v>
@@ -38271,7 +38285,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="246" spans="1:33" ht="48.45" customHeight="1">
+    <row r="246" spans="1:33" ht="48.5" customHeight="1">
       <c r="A246" s="66"/>
       <c r="B246" s="33" t="s">
         <v>1042</v>
@@ -38377,7 +38391,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="247" spans="1:33" ht="48.45" customHeight="1">
+    <row r="247" spans="1:33" ht="48.5" customHeight="1">
       <c r="A247" s="66"/>
       <c r="B247" s="33" t="s">
         <v>1124</v>
@@ -38483,7 +38497,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="248" spans="1:33" ht="48.45" customHeight="1">
+    <row r="248" spans="1:33" ht="48.5" customHeight="1">
       <c r="A248" s="66"/>
       <c r="B248" s="33" t="s">
         <v>1060</v>
@@ -38589,7 +38603,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="249" spans="1:33" ht="48.45" customHeight="1">
+    <row r="249" spans="1:33" ht="48.5" customHeight="1">
       <c r="A249" s="66"/>
       <c r="B249" s="33" t="s">
         <v>1134</v>
@@ -38695,7 +38709,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="250" spans="1:33" ht="48.45" customHeight="1">
+    <row r="250" spans="1:33" ht="48.5" customHeight="1">
       <c r="A250" s="66"/>
       <c r="B250" s="33" t="s">
         <v>1074</v>
@@ -38801,7 +38815,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="251" spans="1:33" ht="48.45" customHeight="1">
+    <row r="251" spans="1:33" ht="48.5" customHeight="1">
       <c r="A251" s="66"/>
       <c r="B251" s="33" t="s">
         <v>995</v>
@@ -38907,7 +38921,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="252" spans="1:33" ht="48.45" customHeight="1">
+    <row r="252" spans="1:33" ht="48.5" customHeight="1">
       <c r="A252" s="66"/>
       <c r="B252" s="33" t="s">
         <v>963</v>
@@ -39013,7 +39027,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="253" spans="1:33" ht="48.45" customHeight="1">
+    <row r="253" spans="1:33" ht="48.5" customHeight="1">
       <c r="A253" s="66"/>
       <c r="B253" s="33" t="s">
         <v>1112</v>
@@ -39119,7 +39133,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="254" spans="1:33" ht="48.45" customHeight="1">
+    <row r="254" spans="1:33" ht="48.5" customHeight="1">
       <c r="A254" s="66"/>
       <c r="B254" s="33" t="s">
         <v>1022</v>
@@ -39225,7 +39239,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="255" spans="1:33" ht="48.45" customHeight="1">
+    <row r="255" spans="1:33" ht="48.5" customHeight="1">
       <c r="A255" s="66"/>
       <c r="B255" s="33" t="s">
         <v>1097</v>
@@ -39331,7 +39345,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="256" spans="1:33" ht="48.45" customHeight="1">
+    <row r="256" spans="1:33" ht="48.5" customHeight="1">
       <c r="A256" s="66"/>
       <c r="B256" s="33" t="s">
         <v>1043</v>
@@ -39437,7 +39451,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="257" spans="1:33" ht="48.45" customHeight="1">
+    <row r="257" spans="1:33" ht="48.5" customHeight="1">
       <c r="A257" s="66"/>
       <c r="B257" s="33" t="s">
         <v>996</v>
@@ -39543,7 +39557,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="258" spans="1:33" ht="48.45" customHeight="1">
+    <row r="258" spans="1:33" ht="48.5" customHeight="1">
       <c r="A258" s="66"/>
       <c r="B258" s="33" t="s">
         <v>964</v>
@@ -39649,7 +39663,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="259" spans="1:33" ht="48.45" customHeight="1">
+    <row r="259" spans="1:33" ht="48.5" customHeight="1">
       <c r="A259" s="66"/>
       <c r="B259" s="33" t="s">
         <v>997</v>
@@ -39755,7 +39769,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="260" spans="1:33" ht="48.45" customHeight="1">
+    <row r="260" spans="1:33" ht="48.5" customHeight="1">
       <c r="A260" s="66"/>
       <c r="B260" s="33" t="s">
         <v>962</v>
@@ -39861,7 +39875,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="261" spans="1:33" ht="48.45" customHeight="1">
+    <row r="261" spans="1:33" ht="48.5" customHeight="1">
       <c r="A261" s="66"/>
       <c r="B261" s="33" t="s">
         <v>1023</v>
@@ -39967,7 +39981,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="262" spans="1:33" ht="48.45" customHeight="1">
+    <row r="262" spans="1:33" ht="48.5" customHeight="1">
       <c r="A262" s="66"/>
       <c r="B262" s="33" t="s">
         <v>1044</v>
@@ -40073,7 +40087,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="263" spans="1:33" ht="48.45" customHeight="1">
+    <row r="263" spans="1:33" ht="48.5" customHeight="1">
       <c r="A263" s="66"/>
       <c r="B263" s="33" t="s">
         <v>1125</v>
@@ -40179,7 +40193,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="264" spans="1:33" ht="48.45" customHeight="1">
+    <row r="264" spans="1:33" ht="48.5" customHeight="1">
       <c r="A264" s="66"/>
       <c r="B264" s="33" t="s">
         <v>1061</v>
@@ -40285,7 +40299,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="265" spans="1:33" ht="48.45" customHeight="1">
+    <row r="265" spans="1:33" ht="48.5" customHeight="1">
       <c r="A265" s="66"/>
       <c r="B265" s="33" t="s">
         <v>1133</v>
@@ -40391,7 +40405,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="266" spans="1:33" ht="48.45" customHeight="1">
+    <row r="266" spans="1:33" ht="48.5" customHeight="1">
       <c r="A266" s="66"/>
       <c r="B266" s="33" t="s">
         <v>1075</v>
@@ -40497,7 +40511,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="267" spans="1:33" ht="48.45" customHeight="1">
+    <row r="267" spans="1:33" ht="48.5" customHeight="1">
       <c r="A267" s="66"/>
       <c r="B267" s="33" t="s">
         <v>998</v>
@@ -40603,7 +40617,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="268" spans="1:33" ht="48.45" customHeight="1">
+    <row r="268" spans="1:33" ht="48.5" customHeight="1">
       <c r="A268" s="66"/>
       <c r="B268" s="33" t="s">
         <v>961</v>
@@ -40709,7 +40723,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="269" spans="1:33" ht="48.45" customHeight="1">
+    <row r="269" spans="1:33" ht="48.5" customHeight="1">
       <c r="A269" s="66"/>
       <c r="B269" s="33" t="s">
         <v>1113</v>
@@ -40815,7 +40829,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="270" spans="1:33" ht="48.45" customHeight="1">
+    <row r="270" spans="1:33" ht="48.5" customHeight="1">
       <c r="A270" s="66"/>
       <c r="B270" s="33" t="s">
         <v>1024</v>
@@ -40921,7 +40935,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="271" spans="1:33" ht="48.45" customHeight="1">
+    <row r="271" spans="1:33" ht="48.5" customHeight="1">
       <c r="A271" s="66"/>
       <c r="B271" s="33" t="s">
         <v>1098</v>
@@ -41027,7 +41041,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="272" spans="1:33" ht="48.45" customHeight="1">
+    <row r="272" spans="1:33" ht="48.5" customHeight="1">
       <c r="A272" s="66"/>
       <c r="B272" s="33" t="s">
         <v>1045</v>
@@ -41133,7 +41147,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="273" spans="1:33" ht="48.45" customHeight="1">
+    <row r="273" spans="1:33" ht="48.5" customHeight="1">
       <c r="A273" s="66"/>
       <c r="B273" s="33" t="s">
         <v>1126</v>
@@ -41239,7 +41253,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="274" spans="1:33" ht="48.45" customHeight="1">
+    <row r="274" spans="1:33" ht="48.5" customHeight="1">
       <c r="A274" s="66"/>
       <c r="B274" s="33" t="s">
         <v>1062</v>
@@ -41345,7 +41359,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="275" spans="1:33" ht="48.45" customHeight="1">
+    <row r="275" spans="1:33" ht="48.5" customHeight="1">
       <c r="A275" s="66"/>
       <c r="B275" s="33" t="s">
         <v>999</v>
@@ -41451,7 +41465,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="276" spans="1:33" ht="48.45" customHeight="1">
+    <row r="276" spans="1:33" ht="48.5" customHeight="1">
       <c r="A276" s="66"/>
       <c r="B276" s="33" t="s">
         <v>960</v>
@@ -41557,7 +41571,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="277" spans="1:33" ht="48.45" customHeight="1">
+    <row r="277" spans="1:33" ht="48.5" customHeight="1">
       <c r="A277" s="66"/>
       <c r="B277" s="33" t="s">
         <v>1114</v>
@@ -41663,7 +41677,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="278" spans="1:33" ht="48.45" customHeight="1">
+    <row r="278" spans="1:33" ht="48.5" customHeight="1">
       <c r="A278" s="66"/>
       <c r="B278" s="33" t="s">
         <v>1025</v>
@@ -41769,7 +41783,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="279" spans="1:33" ht="48.45" customHeight="1">
+    <row r="279" spans="1:33" ht="48.5" customHeight="1">
       <c r="A279" s="66"/>
       <c r="B279" s="33" t="s">
         <v>1046</v>
@@ -41875,7 +41889,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="280" spans="1:33" ht="48.45" customHeight="1">
+    <row r="280" spans="1:33" ht="48.5" customHeight="1">
       <c r="A280" s="66"/>
       <c r="B280" s="33" t="s">
         <v>1127</v>
@@ -41981,7 +41995,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="281" spans="1:33" ht="48.45" customHeight="1">
+    <row r="281" spans="1:33" ht="48.5" customHeight="1">
       <c r="A281" s="66"/>
       <c r="B281" s="33" t="s">
         <v>1063</v>
@@ -42087,7 +42101,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="282" spans="1:33" ht="48.45" customHeight="1">
+    <row r="282" spans="1:33" ht="48.5" customHeight="1">
       <c r="A282" s="66"/>
       <c r="B282" s="33" t="s">
         <v>1132</v>
@@ -42193,7 +42207,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="283" spans="1:33" ht="48.45" customHeight="1">
+    <row r="283" spans="1:33" ht="48.5" customHeight="1">
       <c r="A283" s="66"/>
       <c r="B283" s="33" t="s">
         <v>1076</v>
@@ -42299,7 +42313,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="284" spans="1:33" ht="48.45" customHeight="1">
+    <row r="284" spans="1:33" ht="48.5" customHeight="1">
       <c r="A284" s="66"/>
       <c r="B284" s="33" t="s">
         <v>1130</v>
@@ -42405,7 +42419,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="285" spans="1:33" ht="48.45" customHeight="1">
+    <row r="285" spans="1:33" ht="48.5" customHeight="1">
       <c r="A285" s="66"/>
       <c r="B285" s="33" t="s">
         <v>1083</v>
@@ -42511,7 +42525,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="286" spans="1:33" ht="48.45" customHeight="1">
+    <row r="286" spans="1:33" ht="48.5" customHeight="1">
       <c r="A286" s="66"/>
       <c r="B286" s="33" t="s">
         <v>634</v>
@@ -42617,7 +42631,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="287" spans="1:33" ht="48.3" customHeight="1">
+    <row r="287" spans="1:33" ht="48.25" customHeight="1">
       <c r="A287" s="66"/>
       <c r="B287" s="51" t="s">
         <v>2022</v>
@@ -42723,7 +42737,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="288" spans="1:33" ht="48.3" customHeight="1">
+    <row r="288" spans="1:33" ht="48.25" customHeight="1">
       <c r="A288" s="66"/>
       <c r="B288" s="33" t="s">
         <v>641</v>
@@ -42829,7 +42843,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="289" spans="1:33" ht="48.3" customHeight="1">
+    <row r="289" spans="1:33" ht="48.25" customHeight="1">
       <c r="A289" s="66"/>
       <c r="B289" s="33" t="s">
         <v>24</v>
@@ -42935,7 +42949,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="290" spans="1:33" ht="48.3" customHeight="1">
+    <row r="290" spans="1:33" ht="48.25" customHeight="1">
       <c r="A290" s="66"/>
       <c r="B290" s="33" t="s">
         <v>31</v>
@@ -43041,7 +43055,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="291" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="291" spans="1:33" ht="33.25" customHeight="1">
       <c r="A291" s="66"/>
       <c r="B291" s="33" t="s">
         <v>887</v>
@@ -43147,7 +43161,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="292" spans="1:33" ht="63.3" customHeight="1">
+    <row r="292" spans="1:33" ht="63.25" customHeight="1">
       <c r="A292" s="66"/>
       <c r="B292" s="33" t="s">
         <v>38</v>
@@ -43253,7 +43267,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="293" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="293" spans="1:33" ht="33.25" customHeight="1">
       <c r="A293" s="66"/>
       <c r="B293" s="33" t="s">
         <v>646</v>
@@ -43359,7 +43373,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="294" spans="1:33" ht="48.3" customHeight="1">
+    <row r="294" spans="1:33" ht="48.25" customHeight="1">
       <c r="A294" s="66"/>
       <c r="B294" s="33" t="s">
         <v>44</v>
@@ -43465,7 +43479,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="295" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="295" spans="1:33" ht="33.25" customHeight="1">
       <c r="A295" s="66"/>
       <c r="B295" s="33" t="s">
         <v>649</v>
@@ -43571,7 +43585,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="296" spans="1:33" ht="48.3" customHeight="1">
+    <row r="296" spans="1:33" ht="48.25" customHeight="1">
       <c r="A296" s="66"/>
       <c r="B296" s="33" t="s">
         <v>51</v>
@@ -43677,7 +43691,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="297" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="297" spans="1:33" ht="33.25" customHeight="1">
       <c r="A297" s="66"/>
       <c r="B297" s="33" t="s">
         <v>652</v>
@@ -43783,7 +43797,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="298" spans="1:33" ht="48.3" customHeight="1">
+    <row r="298" spans="1:33" ht="48.25" customHeight="1">
       <c r="A298" s="66"/>
       <c r="B298" s="33" t="s">
         <v>58</v>
@@ -43889,7 +43903,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="299" spans="1:33" ht="63.3" customHeight="1">
+    <row r="299" spans="1:33" ht="63.25" customHeight="1">
       <c r="A299" s="66"/>
       <c r="B299" s="33" t="s">
         <v>65</v>
@@ -43995,7 +44009,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="300" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="300" spans="1:33" ht="33.25" customHeight="1">
       <c r="A300" s="66"/>
       <c r="B300" s="33" t="s">
         <v>655</v>
@@ -44101,7 +44115,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="301" spans="1:33" ht="48.3" customHeight="1">
+    <row r="301" spans="1:33" ht="48.25" customHeight="1">
       <c r="A301" s="66"/>
       <c r="B301" s="33" t="s">
         <v>70</v>
@@ -44207,7 +44221,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="302" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="302" spans="1:33" ht="33.25" customHeight="1">
       <c r="A302" s="66"/>
       <c r="B302" s="33" t="s">
         <v>658</v>
@@ -44313,7 +44327,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="303" spans="1:33" ht="108.3" customHeight="1">
+    <row r="303" spans="1:33" ht="108.25" customHeight="1">
       <c r="A303" s="66"/>
       <c r="B303" s="33" t="s">
         <v>76</v>
@@ -44419,7 +44433,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="304" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="304" spans="1:33" ht="33.25" customHeight="1">
       <c r="A304" s="66"/>
       <c r="B304" s="33" t="s">
         <v>664</v>
@@ -44525,7 +44539,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="305" spans="1:33" ht="63.3" customHeight="1">
+    <row r="305" spans="1:33" ht="63.25" customHeight="1">
       <c r="A305" s="66"/>
       <c r="B305" s="33" t="s">
         <v>80</v>
@@ -44631,7 +44645,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="306" spans="1:33" ht="48.3" customHeight="1">
+    <row r="306" spans="1:33" ht="48.25" customHeight="1">
       <c r="A306" s="66"/>
       <c r="B306" s="33" t="s">
         <v>87</v>
@@ -44737,7 +44751,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="307" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="307" spans="1:33" ht="33.25" customHeight="1">
       <c r="A307" s="66"/>
       <c r="B307" s="33" t="s">
         <v>668</v>
@@ -44843,7 +44857,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="308" spans="1:33" ht="48.3" customHeight="1">
+    <row r="308" spans="1:33" ht="48.25" customHeight="1">
       <c r="A308" s="66"/>
       <c r="B308" s="33" t="s">
         <v>94</v>
@@ -44949,7 +44963,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="309" spans="1:33" ht="48.3" customHeight="1">
+    <row r="309" spans="1:33" ht="48.25" customHeight="1">
       <c r="A309" s="66"/>
       <c r="B309" s="33" t="s">
         <v>101</v>
@@ -45055,7 +45069,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="310" spans="1:33" ht="48.3" customHeight="1">
+    <row r="310" spans="1:33" ht="48.25" customHeight="1">
       <c r="A310" s="66"/>
       <c r="B310" s="33" t="s">
         <v>106</v>
@@ -45161,7 +45175,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="311" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="311" spans="1:33" ht="33.25" customHeight="1">
       <c r="A311" s="66"/>
       <c r="B311" s="33" t="s">
         <v>671</v>
@@ -45267,7 +45281,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="312" spans="1:33" ht="63.3" customHeight="1">
+    <row r="312" spans="1:33" ht="63.25" customHeight="1">
       <c r="A312" s="66"/>
       <c r="B312" s="33" t="s">
         <v>112</v>
@@ -45373,7 +45387,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="313" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="313" spans="1:33" ht="33.25" customHeight="1">
       <c r="A313" s="66"/>
       <c r="B313" s="33" t="s">
         <v>674</v>
@@ -45479,7 +45493,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="314" spans="1:33" ht="33.25" customHeight="1">
       <c r="A314" s="66"/>
       <c r="B314" s="33" t="s">
         <v>118</v>
@@ -45585,7 +45599,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="315" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="315" spans="1:33" ht="33.25" customHeight="1">
       <c r="A315" s="66"/>
       <c r="B315" s="33" t="s">
         <v>677</v>
@@ -45691,7 +45705,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="316" spans="1:33" ht="48.3" customHeight="1">
+    <row r="316" spans="1:33" ht="48.25" customHeight="1">
       <c r="A316" s="66"/>
       <c r="B316" s="33" t="s">
         <v>124</v>
@@ -45797,7 +45811,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="317" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="317" spans="1:33" ht="33.25" customHeight="1">
       <c r="A317" s="66"/>
       <c r="B317" s="33" t="s">
         <v>680</v>
@@ -45903,7 +45917,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="318" spans="1:33" ht="48.3" customHeight="1">
+    <row r="318" spans="1:33" ht="48.25" customHeight="1">
       <c r="A318" s="66"/>
       <c r="B318" s="33" t="s">
         <v>130</v>
@@ -46009,7 +46023,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="319" spans="1:33" ht="33.25" customHeight="1">
       <c r="A319" s="66"/>
       <c r="B319" s="33" t="s">
         <v>682</v>
@@ -46115,7 +46129,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="48.3" customHeight="1">
+    <row r="320" spans="1:33" ht="48.25" customHeight="1">
       <c r="A320" s="66"/>
       <c r="B320" s="33" t="s">
         <v>135</v>
@@ -46221,7 +46235,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="321" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="321" spans="1:33" ht="33.25" customHeight="1">
       <c r="A321" s="66"/>
       <c r="B321" s="33" t="s">
         <v>685</v>
@@ -46327,7 +46341,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="322" spans="1:33" ht="48.3" customHeight="1">
+    <row r="322" spans="1:33" ht="48.25" customHeight="1">
       <c r="A322" s="66"/>
       <c r="B322" s="33" t="s">
         <v>142</v>
@@ -46433,7 +46447,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="323" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="323" spans="1:33" ht="33.25" customHeight="1">
       <c r="A323" s="66"/>
       <c r="B323" s="33" t="s">
         <v>688</v>
@@ -46539,7 +46553,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="324" spans="1:33" ht="48.3" customHeight="1">
+    <row r="324" spans="1:33" ht="48.25" customHeight="1">
       <c r="A324" s="66"/>
       <c r="B324" s="33" t="s">
         <v>149</v>
@@ -46645,7 +46659,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="325" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="325" spans="1:33" ht="33.25" customHeight="1">
       <c r="A325" s="66"/>
       <c r="B325" s="33" t="s">
         <v>691</v>
@@ -46751,7 +46765,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="326" spans="1:33" ht="48.3" customHeight="1">
+    <row r="326" spans="1:33" ht="48.25" customHeight="1">
       <c r="A326" s="66"/>
       <c r="B326" s="33" t="s">
         <v>154</v>
@@ -46857,7 +46871,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="327" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="327" spans="1:33" ht="33.25" customHeight="1">
       <c r="A327" s="66"/>
       <c r="B327" s="33" t="s">
         <v>694</v>
@@ -46963,7 +46977,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="328" spans="1:33" ht="48.3" customHeight="1">
+    <row r="328" spans="1:33" ht="48.25" customHeight="1">
       <c r="A328" s="66"/>
       <c r="B328" s="33" t="s">
         <v>160</v>
@@ -47069,7 +47083,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="329" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="329" spans="1:33" ht="33.25" customHeight="1">
       <c r="A329" s="66"/>
       <c r="B329" s="33" t="s">
         <v>697</v>
@@ -47175,7 +47189,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="330" spans="1:33" ht="48.3" customHeight="1">
+    <row r="330" spans="1:33" ht="48.25" customHeight="1">
       <c r="A330" s="66"/>
       <c r="B330" s="33" t="s">
         <v>166</v>
@@ -47281,7 +47295,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="331" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="331" spans="1:33" ht="33.25" customHeight="1">
       <c r="A331" s="66"/>
       <c r="B331" s="33" t="s">
         <v>700</v>
@@ -47387,7 +47401,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="332" spans="1:33" ht="48.3" customHeight="1">
+    <row r="332" spans="1:33" ht="48.25" customHeight="1">
       <c r="A332" s="66"/>
       <c r="B332" s="33" t="s">
         <v>171</v>
@@ -47493,7 +47507,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="333" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="333" spans="1:33" ht="33.25" customHeight="1">
       <c r="A333" s="66"/>
       <c r="B333" s="33" t="s">
         <v>703</v>
@@ -47599,7 +47613,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="334" spans="1:33" ht="48.3" customHeight="1">
+    <row r="334" spans="1:33" ht="48.25" customHeight="1">
       <c r="A334" s="66"/>
       <c r="B334" s="33" t="s">
         <v>178</v>
@@ -47705,7 +47719,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="335" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="335" spans="1:33" ht="33.25" customHeight="1">
       <c r="A335" s="66"/>
       <c r="B335" s="33" t="s">
         <v>706</v>
@@ -47811,7 +47825,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="336" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="336" spans="1:33" ht="33.25" customHeight="1">
       <c r="A336" s="66"/>
       <c r="B336" s="33" t="s">
         <v>184</v>
@@ -47917,7 +47931,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="337" spans="1:33" ht="78.3" customHeight="1">
+    <row r="337" spans="1:33" ht="78.25" customHeight="1">
       <c r="A337" s="66"/>
       <c r="B337" s="33" t="s">
         <v>185</v>
@@ -48023,7 +48037,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="338" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="338" spans="1:33" ht="33.25" customHeight="1">
       <c r="A338" s="66"/>
       <c r="B338" s="33" t="s">
         <v>709</v>
@@ -48129,7 +48143,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="339" spans="1:33" ht="48.3" customHeight="1">
+    <row r="339" spans="1:33" ht="48.25" customHeight="1">
       <c r="A339" s="66"/>
       <c r="B339" s="33" t="s">
         <v>196</v>
@@ -48235,7 +48249,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="340" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="340" spans="1:33" ht="33.25" customHeight="1">
       <c r="A340" s="66"/>
       <c r="B340" s="33" t="s">
         <v>712</v>
@@ -48341,7 +48355,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="341" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="341" spans="1:33" ht="33.25" customHeight="1">
       <c r="A341" s="66"/>
       <c r="B341" s="33" t="s">
         <v>201</v>
@@ -48447,7 +48461,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="342" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="342" spans="1:33" ht="33.25" customHeight="1">
       <c r="A342" s="66"/>
       <c r="B342" s="33" t="s">
         <v>715</v>
@@ -48553,7 +48567,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="343" spans="1:33" ht="78.3" customHeight="1">
+    <row r="343" spans="1:33" ht="78.25" customHeight="1">
       <c r="A343" s="66"/>
       <c r="B343" s="33" t="s">
         <v>207</v>
@@ -48659,7 +48673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="344" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="344" spans="1:33" ht="33.25" customHeight="1">
       <c r="A344" s="66"/>
       <c r="B344" s="33" t="s">
         <v>718</v>
@@ -48765,7 +48779,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="345" spans="1:33" ht="78.3" customHeight="1">
+    <row r="345" spans="1:33" ht="78.25" customHeight="1">
       <c r="A345" s="66"/>
       <c r="B345" s="33" t="s">
         <v>212</v>
@@ -48871,7 +48885,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="346" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="346" spans="1:33" ht="33.25" customHeight="1">
       <c r="A346" s="66"/>
       <c r="B346" s="33" t="s">
         <v>721</v>
@@ -48977,7 +48991,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="347" spans="1:33" ht="48.3" customHeight="1">
+    <row r="347" spans="1:33" ht="48.25" customHeight="1">
       <c r="A347" s="66"/>
       <c r="B347" s="33" t="s">
         <v>218</v>
@@ -49083,7 +49097,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="348" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="348" spans="1:33" ht="33.25" customHeight="1">
       <c r="A348" s="66"/>
       <c r="B348" s="33" t="s">
         <v>724</v>
@@ -49189,7 +49203,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="349" spans="1:33" ht="63.3" customHeight="1">
+    <row r="349" spans="1:33" ht="63.25" customHeight="1">
       <c r="A349" s="66"/>
       <c r="B349" s="33" t="s">
         <v>223</v>
@@ -49295,7 +49309,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="350" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="350" spans="1:33" ht="33.25" customHeight="1">
       <c r="A350" s="66"/>
       <c r="B350" s="33" t="s">
         <v>727</v>
@@ -49401,7 +49415,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="351" spans="1:33" ht="48.3" customHeight="1">
+    <row r="351" spans="1:33" ht="48.25" customHeight="1">
       <c r="A351" s="66"/>
       <c r="B351" s="33" t="s">
         <v>230</v>
@@ -49507,7 +49521,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="352" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="352" spans="1:33" ht="33.25" customHeight="1">
       <c r="A352" s="66"/>
       <c r="B352" s="33" t="s">
         <v>730</v>
@@ -49613,7 +49627,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="353" spans="1:33" ht="48.3" customHeight="1">
+    <row r="353" spans="1:33" ht="48.25" customHeight="1">
       <c r="A353" s="66"/>
       <c r="B353" s="33" t="s">
         <v>235</v>
@@ -49719,7 +49733,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="354" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="354" spans="1:33" ht="33.25" customHeight="1">
       <c r="A354" s="66"/>
       <c r="B354" s="33" t="s">
         <v>241</v>
@@ -49825,7 +49839,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="355" spans="1:33" ht="153.30000000000001" customHeight="1">
+    <row r="355" spans="1:33" ht="153.25" customHeight="1">
       <c r="A355" s="66"/>
       <c r="B355" s="33" t="s">
         <v>236</v>
@@ -49931,7 +49945,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="356" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="356" spans="1:33" ht="33.25" customHeight="1">
       <c r="A356" s="66"/>
       <c r="B356" s="33" t="s">
         <v>2063</v>
@@ -50037,7 +50051,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="357" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="357" spans="1:33" ht="33.25" customHeight="1">
       <c r="A357" s="66"/>
       <c r="B357" s="33" t="s">
         <v>2062</v>
@@ -50143,7 +50157,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="358" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="358" spans="1:33" ht="33.25" customHeight="1">
       <c r="A358" s="66"/>
       <c r="B358" s="33" t="s">
         <v>734</v>
@@ -50249,7 +50263,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="359" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="359" spans="1:33" ht="33.25" customHeight="1">
       <c r="A359" s="66"/>
       <c r="B359" s="33" t="s">
         <v>250</v>
@@ -50355,7 +50369,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="360" spans="1:33" ht="78.3" customHeight="1">
+    <row r="360" spans="1:33" ht="78.25" customHeight="1">
       <c r="A360" s="66"/>
       <c r="B360" s="33" t="s">
         <v>251</v>
@@ -50461,7 +50475,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="361" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="361" spans="1:33" ht="33.25" customHeight="1">
       <c r="A361" s="66"/>
       <c r="B361" s="33" t="s">
         <v>2070</v>
@@ -50567,7 +50581,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="362" spans="1:33" ht="48.6">
+    <row r="362" spans="1:33" ht="54">
       <c r="A362" s="66"/>
       <c r="B362" s="33" t="s">
         <v>2071</v>
@@ -50673,7 +50687,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="363" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="363" spans="1:33" ht="33.25" customHeight="1">
       <c r="A363" s="66"/>
       <c r="B363" s="33" t="s">
         <v>737</v>
@@ -50779,7 +50793,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="364" spans="1:33" ht="63.3" customHeight="1">
+    <row r="364" spans="1:33" ht="63.25" customHeight="1">
       <c r="A364" s="66"/>
       <c r="B364" s="33" t="s">
         <v>258</v>
@@ -50885,7 +50899,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="365" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="365" spans="1:33" ht="33.25" customHeight="1">
       <c r="A365" s="66"/>
       <c r="B365" s="33" t="s">
         <v>741</v>
@@ -50991,7 +51005,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="366" spans="1:33" ht="63.3" customHeight="1">
+    <row r="366" spans="1:33" ht="63.25" customHeight="1">
       <c r="A366" s="66"/>
       <c r="B366" s="33" t="s">
         <v>263</v>
@@ -51097,7 +51111,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="367" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="367" spans="1:33" ht="33.25" customHeight="1">
       <c r="A367" s="66"/>
       <c r="B367" s="33" t="s">
         <v>745</v>
@@ -51203,7 +51217,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="368" spans="1:33" ht="123.3" customHeight="1">
+    <row r="368" spans="1:33" ht="123.25" customHeight="1">
       <c r="A368" s="66"/>
       <c r="B368" s="33" t="s">
         <v>270</v>
@@ -51309,7 +51323,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="369" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="369" spans="1:33" ht="33.25" customHeight="1">
       <c r="A369" s="66"/>
       <c r="B369" s="33" t="s">
         <v>749</v>
@@ -51415,7 +51429,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="370" spans="1:33" ht="63.3" customHeight="1">
+    <row r="370" spans="1:33" ht="63.25" customHeight="1">
       <c r="A370" s="66"/>
       <c r="B370" s="33" t="s">
         <v>277</v>
@@ -51521,7 +51535,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="371" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="371" spans="1:33" ht="33.25" customHeight="1">
       <c r="A371" s="66"/>
       <c r="B371" s="33" t="s">
         <v>752</v>
@@ -51627,7 +51641,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="372" spans="1:33" ht="78.3" customHeight="1">
+    <row r="372" spans="1:33" ht="78.25" customHeight="1">
       <c r="A372" s="66"/>
       <c r="B372" s="33" t="s">
         <v>282</v>
@@ -51733,7 +51747,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="373" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="373" spans="1:33" ht="33.25" customHeight="1">
       <c r="A373" s="66"/>
       <c r="B373" s="33" t="s">
         <v>755</v>
@@ -51839,7 +51853,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="374" spans="1:33" ht="63.3" customHeight="1">
+    <row r="374" spans="1:33" ht="63.25" customHeight="1">
       <c r="A374" s="66"/>
       <c r="B374" s="33" t="s">
         <v>287</v>
@@ -51945,7 +51959,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="375" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="375" spans="1:33" ht="33.25" customHeight="1">
       <c r="A375" s="66"/>
       <c r="B375" s="33" t="s">
         <v>758</v>
@@ -52051,7 +52065,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="376" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="376" spans="1:33" ht="33.25" customHeight="1">
       <c r="A376" s="66"/>
       <c r="B376" s="33" t="s">
         <v>292</v>
@@ -52157,7 +52171,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="377" spans="1:33" ht="63.3" customHeight="1">
+    <row r="377" spans="1:33" ht="63.25" customHeight="1">
       <c r="A377" s="66"/>
       <c r="B377" s="33" t="s">
         <v>293</v>
@@ -52263,7 +52277,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="378" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="378" spans="1:33" ht="33.25" customHeight="1">
       <c r="A378" s="66"/>
       <c r="B378" s="33" t="s">
         <v>761</v>
@@ -52369,7 +52383,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="379" spans="1:33" ht="48.3" customHeight="1">
+    <row r="379" spans="1:33" ht="48.25" customHeight="1">
       <c r="A379" s="66"/>
       <c r="B379" s="33" t="s">
         <v>303</v>
@@ -52475,7 +52489,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="380" spans="1:33" ht="78.3" customHeight="1">
+    <row r="380" spans="1:33" ht="78.25" customHeight="1">
       <c r="A380" s="66"/>
       <c r="B380" s="33" t="s">
         <v>304</v>
@@ -52581,7 +52595,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="381" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="381" spans="1:33" ht="33.25" customHeight="1">
       <c r="A381" s="66"/>
       <c r="B381" s="33" t="s">
         <v>764</v>
@@ -52687,7 +52701,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="382" spans="1:33" ht="48.3" customHeight="1">
+    <row r="382" spans="1:33" ht="48.25" customHeight="1">
       <c r="A382" s="66"/>
       <c r="B382" s="33" t="s">
         <v>311</v>
@@ -52793,7 +52807,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="383" spans="1:33" ht="78.3" customHeight="1">
+    <row r="383" spans="1:33" ht="78.25" customHeight="1">
       <c r="A383" s="66"/>
       <c r="B383" s="33" t="s">
         <v>312</v>
@@ -52899,7 +52913,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="384" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="384" spans="1:33" ht="33.25" customHeight="1">
       <c r="A384" s="66"/>
       <c r="B384" s="33" t="s">
         <v>767</v>
@@ -53005,7 +53019,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="385" spans="1:33" ht="48.3" customHeight="1">
+    <row r="385" spans="1:33" ht="48.25" customHeight="1">
       <c r="A385" s="66"/>
       <c r="B385" s="33" t="s">
         <v>319</v>
@@ -53111,7 +53125,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="386" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="386" spans="1:33" ht="33.25" customHeight="1">
       <c r="A386" s="66"/>
       <c r="B386" s="33" t="s">
         <v>770</v>
@@ -53217,7 +53231,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="387" spans="1:33" ht="93.3" customHeight="1">
+    <row r="387" spans="1:33" ht="93.25" customHeight="1">
       <c r="A387" s="66"/>
       <c r="B387" s="33" t="s">
         <v>324</v>
@@ -53323,7 +53337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="388" spans="1:33" ht="33.25" customHeight="1">
       <c r="A388" s="66"/>
       <c r="B388" s="33" t="s">
         <v>328</v>
@@ -53429,7 +53443,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="389" spans="1:33" ht="48.3" customHeight="1">
+    <row r="389" spans="1:33" ht="48.25" customHeight="1">
       <c r="A389" s="66"/>
       <c r="B389" s="33" t="s">
         <v>773</v>
@@ -53535,7 +53549,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="390" spans="1:33" ht="48.3" customHeight="1">
+    <row r="390" spans="1:33" ht="48.25" customHeight="1">
       <c r="A390" s="66"/>
       <c r="B390" s="33" t="s">
         <v>332</v>
@@ -53641,7 +53655,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="391" spans="1:33" ht="78.3" customHeight="1">
+    <row r="391" spans="1:33" ht="78.25" customHeight="1">
       <c r="A391" s="66"/>
       <c r="B391" s="33" t="s">
         <v>338</v>
@@ -53747,7 +53761,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="392" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="392" spans="1:33" ht="33.25" customHeight="1">
       <c r="A392" s="66"/>
       <c r="B392" s="33" t="s">
         <v>776</v>
@@ -53853,7 +53867,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="393" spans="1:33" ht="78.3" customHeight="1">
+    <row r="393" spans="1:33" ht="78.25" customHeight="1">
       <c r="A393" s="66"/>
       <c r="B393" s="33" t="s">
         <v>343</v>
@@ -53959,7 +53973,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="394" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="394" spans="1:33" ht="33.25" customHeight="1">
       <c r="A394" s="66"/>
       <c r="B394" s="33" t="s">
         <v>779</v>
@@ -54065,7 +54079,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="395" spans="1:33" ht="78.3" customHeight="1">
+    <row r="395" spans="1:33" ht="78.25" customHeight="1">
       <c r="A395" s="66"/>
       <c r="B395" s="33" t="s">
         <v>348</v>
@@ -54171,7 +54185,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="396" spans="1:33" ht="48.3" customHeight="1">
+    <row r="396" spans="1:33" ht="48.25" customHeight="1">
       <c r="A396" s="66"/>
       <c r="B396" s="33" t="s">
         <v>783</v>
@@ -54277,7 +54291,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="397" spans="1:33" ht="63.3" customHeight="1">
+    <row r="397" spans="1:33" ht="63.25" customHeight="1">
       <c r="A397" s="66"/>
       <c r="B397" s="33" t="s">
         <v>353</v>
@@ -54383,7 +54397,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="398" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="398" spans="1:33" ht="33.25" customHeight="1">
       <c r="A398" s="66"/>
       <c r="B398" s="33" t="s">
         <v>786</v>
@@ -54489,7 +54503,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="399" spans="1:33" ht="48.3" customHeight="1">
+    <row r="399" spans="1:33" ht="48.25" customHeight="1">
       <c r="A399" s="66"/>
       <c r="B399" s="33" t="s">
         <v>358</v>
@@ -54595,7 +54609,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="400" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="400" spans="1:33" ht="33.25" customHeight="1">
       <c r="A400" s="66"/>
       <c r="B400" s="33" t="s">
         <v>789</v>
@@ -54701,7 +54715,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="401" spans="1:33" ht="48.3" customHeight="1">
+    <row r="401" spans="1:33" ht="48.25" customHeight="1">
       <c r="A401" s="66"/>
       <c r="B401" s="33" t="s">
         <v>363</v>
@@ -54807,7 +54821,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="402" spans="1:33" ht="48.3" customHeight="1">
+    <row r="402" spans="1:33" ht="48.25" customHeight="1">
       <c r="A402" s="66"/>
       <c r="B402" s="33" t="s">
         <v>364</v>
@@ -54913,7 +54927,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="403" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="403" spans="1:33" ht="33.25" customHeight="1">
       <c r="A403" s="66"/>
       <c r="B403" s="33" t="s">
         <v>792</v>
@@ -55019,7 +55033,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="404" spans="1:33" ht="78.3" customHeight="1">
+    <row r="404" spans="1:33" ht="78.25" customHeight="1">
       <c r="A404" s="66"/>
       <c r="B404" s="33" t="s">
         <v>371</v>
@@ -55125,7 +55139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="405" spans="1:33" ht="33.25" customHeight="1">
       <c r="A405" s="66"/>
       <c r="B405" s="33" t="s">
         <v>377</v>
@@ -55231,7 +55245,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="406" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="406" spans="1:33" ht="33.25" customHeight="1">
       <c r="A406" s="66"/>
       <c r="B406" s="33" t="s">
         <v>795</v>
@@ -55337,7 +55351,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="407" spans="1:33" ht="48.3" customHeight="1">
+    <row r="407" spans="1:33" ht="48.25" customHeight="1">
       <c r="A407" s="66"/>
       <c r="B407" s="33" t="s">
         <v>798</v>
@@ -55443,7 +55457,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="408" spans="1:33" ht="63.3" customHeight="1">
+    <row r="408" spans="1:33" ht="63.25" customHeight="1">
       <c r="A408" s="66"/>
       <c r="B408" s="33" t="s">
         <v>381</v>
@@ -55549,7 +55563,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="409" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="409" spans="1:33" ht="33.25" customHeight="1">
       <c r="A409" s="66"/>
       <c r="B409" s="33" t="s">
         <v>801</v>
@@ -55655,7 +55669,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="410" spans="1:33" ht="63.3" customHeight="1">
+    <row r="410" spans="1:33" ht="63.25" customHeight="1">
       <c r="A410" s="66"/>
       <c r="B410" s="33" t="s">
         <v>386</v>
@@ -55761,7 +55775,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="411" spans="1:33" ht="63.3" customHeight="1">
+    <row r="411" spans="1:33" ht="63.25" customHeight="1">
       <c r="A411" s="66"/>
       <c r="B411" s="33" t="s">
         <v>390</v>
@@ -55867,7 +55881,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="412" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="412" spans="1:33" ht="33.25" customHeight="1">
       <c r="A412" s="66"/>
       <c r="B412" s="33" t="s">
         <v>804</v>
@@ -55973,7 +55987,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="413" spans="1:33" ht="48.3" customHeight="1">
+    <row r="413" spans="1:33" ht="48.25" customHeight="1">
       <c r="A413" s="66"/>
       <c r="B413" s="33" t="s">
         <v>396</v>
@@ -56079,7 +56093,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="414" spans="1:33" ht="48.3" customHeight="1">
+    <row r="414" spans="1:33" ht="48.25" customHeight="1">
       <c r="A414" s="66"/>
       <c r="B414" s="33" t="s">
         <v>404</v>
@@ -56185,7 +56199,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="415" spans="1:33" ht="48.3" customHeight="1">
+    <row r="415" spans="1:33" ht="48.25" customHeight="1">
       <c r="A415" s="66"/>
       <c r="B415" s="33" t="s">
         <v>409</v>
@@ -56291,7 +56305,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="416" spans="1:33" ht="48.3" customHeight="1">
+    <row r="416" spans="1:33" ht="48.25" customHeight="1">
       <c r="A416" s="66"/>
       <c r="B416" s="33" t="s">
         <v>414</v>
@@ -56397,7 +56411,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="417" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="417" spans="1:33" ht="33.25" customHeight="1">
       <c r="A417" s="66"/>
       <c r="B417" s="33" t="s">
         <v>807</v>
@@ -56503,7 +56517,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="418" spans="1:33" ht="48.3" customHeight="1">
+    <row r="418" spans="1:33" ht="48.25" customHeight="1">
       <c r="A418" s="66"/>
       <c r="B418" s="33" t="s">
         <v>419</v>
@@ -56609,7 +56623,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="419" spans="1:33" ht="168.3" customHeight="1">
+    <row r="419" spans="1:33" ht="168.25" customHeight="1">
       <c r="A419" s="66"/>
       <c r="B419" s="33" t="s">
         <v>397</v>
@@ -56715,7 +56729,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="420" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="420" spans="1:33" ht="33.25" customHeight="1">
       <c r="A420" s="66"/>
       <c r="B420" s="33" t="s">
         <v>810</v>
@@ -56821,7 +56835,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="421" spans="1:33" ht="48.3" customHeight="1">
+    <row r="421" spans="1:33" ht="48.25" customHeight="1">
       <c r="A421" s="66"/>
       <c r="B421" s="33" t="s">
         <v>426</v>
@@ -56927,7 +56941,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="422" spans="1:33" ht="48.3" customHeight="1">
+    <row r="422" spans="1:33" ht="48.25" customHeight="1">
       <c r="A422" s="66"/>
       <c r="B422" s="33" t="s">
         <v>430</v>
@@ -57033,7 +57047,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="423" spans="1:33" ht="48.3" customHeight="1">
+    <row r="423" spans="1:33" ht="48.25" customHeight="1">
       <c r="A423" s="66"/>
       <c r="B423" s="33" t="s">
         <v>435</v>
@@ -57139,7 +57153,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="424" spans="1:33" ht="123.3" customHeight="1">
+    <row r="424" spans="1:33" ht="123.25" customHeight="1">
       <c r="A424" s="66"/>
       <c r="B424" s="33" t="s">
         <v>427</v>
@@ -57245,7 +57259,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="425" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="425" spans="1:33" ht="33.25" customHeight="1">
       <c r="A425" s="66"/>
       <c r="B425" s="33" t="s">
         <v>442</v>
@@ -57351,7 +57365,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="426" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="426" spans="1:33" ht="33.25" customHeight="1">
       <c r="A426" s="66"/>
       <c r="B426" s="33" t="s">
         <v>813</v>
@@ -57457,7 +57471,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="427" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="427" spans="1:33" ht="33.25" customHeight="1">
       <c r="A427" s="66"/>
       <c r="B427" s="33" t="s">
         <v>448</v>
@@ -57563,7 +57577,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="428" spans="1:33" ht="93.3" customHeight="1">
+    <row r="428" spans="1:33" ht="93.25" customHeight="1">
       <c r="A428" s="66"/>
       <c r="B428" s="33" t="s">
         <v>443</v>
@@ -57669,7 +57683,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="429" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="429" spans="1:33" ht="33.25" customHeight="1">
       <c r="A429" s="66"/>
       <c r="B429" s="33" t="s">
         <v>816</v>
@@ -57775,7 +57789,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="430" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="430" spans="1:33" ht="33.25" customHeight="1">
       <c r="A430" s="66"/>
       <c r="B430" s="33" t="s">
         <v>453</v>
@@ -57881,7 +57895,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="431" spans="1:33" ht="78.3" customHeight="1">
+    <row r="431" spans="1:33" ht="78.25" customHeight="1">
       <c r="A431" s="66"/>
       <c r="B431" s="33" t="s">
         <v>456</v>
@@ -57987,7 +58001,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="432" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="432" spans="1:33" ht="33.25" customHeight="1">
       <c r="A432" s="66"/>
       <c r="B432" s="33" t="s">
         <v>819</v>
@@ -58093,7 +58107,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="433" spans="1:33" ht="78.3" customHeight="1">
+    <row r="433" spans="1:33" ht="78.25" customHeight="1">
       <c r="A433" s="66"/>
       <c r="B433" s="33" t="s">
         <v>460</v>
@@ -58199,7 +58213,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="434" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="434" spans="1:33" ht="33.25" customHeight="1">
       <c r="A434" s="66"/>
       <c r="B434" s="33" t="s">
         <v>823</v>
@@ -58305,7 +58319,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="435" spans="1:33" ht="48.3" customHeight="1">
+    <row r="435" spans="1:33" ht="48.25" customHeight="1">
       <c r="A435" s="66"/>
       <c r="B435" s="33" t="s">
         <v>465</v>
@@ -58411,7 +58425,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="436" spans="1:33" ht="78.3" customHeight="1">
+    <row r="436" spans="1:33" ht="78.25" customHeight="1">
       <c r="A436" s="66"/>
       <c r="B436" s="33" t="s">
         <v>466</v>
@@ -58517,7 +58531,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="437" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="437" spans="1:33" ht="33.25" customHeight="1">
       <c r="A437" s="66"/>
       <c r="B437" s="33" t="s">
         <v>826</v>
@@ -58623,7 +58637,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="438" spans="1:33" ht="48.3" customHeight="1">
+    <row r="438" spans="1:33" ht="48.25" customHeight="1">
       <c r="A438" s="66"/>
       <c r="B438" s="33" t="s">
         <v>472</v>
@@ -58729,7 +58743,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="439" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="439" spans="1:33" ht="33.25" customHeight="1">
       <c r="A439" s="66"/>
       <c r="B439" s="33" t="s">
         <v>476</v>
@@ -58835,7 +58849,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="440" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="440" spans="1:33" ht="33.25" customHeight="1">
       <c r="A440" s="66"/>
       <c r="B440" s="33" t="s">
         <v>481</v>
@@ -58941,7 +58955,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="441" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="441" spans="1:33" ht="33.25" customHeight="1">
       <c r="A441" s="66"/>
       <c r="B441" s="33" t="s">
         <v>829</v>
@@ -59047,7 +59061,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="442" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="442" spans="1:33" ht="33.25" customHeight="1">
       <c r="A442" s="66"/>
       <c r="B442" s="33" t="s">
         <v>486</v>
@@ -59153,7 +59167,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="443" spans="1:33" ht="198.3" customHeight="1">
+    <row r="443" spans="1:33" ht="198.25" customHeight="1">
       <c r="A443" s="66"/>
       <c r="B443" s="33" t="s">
         <v>473</v>
@@ -59259,7 +59273,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="444" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="444" spans="1:33" ht="33.25" customHeight="1">
       <c r="A444" s="66"/>
       <c r="B444" s="33" t="s">
         <v>832</v>
@@ -59365,7 +59379,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="445" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="445" spans="1:33" ht="33.25" customHeight="1">
       <c r="A445" s="66"/>
       <c r="B445" s="33" t="s">
         <v>493</v>
@@ -59471,7 +59485,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="446" spans="1:33" ht="78.3" customHeight="1">
+    <row r="446" spans="1:33" ht="78.25" customHeight="1">
       <c r="A446" s="66"/>
       <c r="B446" s="33" t="s">
         <v>494</v>
@@ -59577,7 +59591,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="447" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="447" spans="1:33" ht="33.25" customHeight="1">
       <c r="A447" s="66"/>
       <c r="B447" s="33" t="s">
         <v>835</v>
@@ -59683,7 +59697,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="448" spans="1:33" ht="48.3" customHeight="1">
+    <row r="448" spans="1:33" ht="48.25" customHeight="1">
       <c r="A448" s="66"/>
       <c r="B448" s="33" t="s">
         <v>500</v>
@@ -59789,7 +59803,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="449" spans="1:33" ht="93.3" customHeight="1">
+    <row r="449" spans="1:33" ht="93.25" customHeight="1">
       <c r="A449" s="66"/>
       <c r="B449" s="33" t="s">
         <v>501</v>
@@ -59895,7 +59909,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="450" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="450" spans="1:33" ht="33.25" customHeight="1">
       <c r="A450" s="66"/>
       <c r="B450" s="33" t="s">
         <v>838</v>
@@ -60001,7 +60015,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="451" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="451" spans="1:33" ht="33.25" customHeight="1">
       <c r="A451" s="66"/>
       <c r="B451" s="33" t="s">
         <v>508</v>
@@ -60107,7 +60121,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="452" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="452" spans="1:33" ht="33.25" customHeight="1">
       <c r="A452" s="66"/>
       <c r="B452" s="33" t="s">
         <v>512</v>
@@ -60213,7 +60227,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="453" spans="1:33" ht="48.3" customHeight="1">
+    <row r="453" spans="1:33" ht="48.25" customHeight="1">
       <c r="A453" s="66"/>
       <c r="B453" s="33" t="s">
         <v>517</v>
@@ -60319,7 +60333,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="454" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="454" spans="1:33" ht="33.25" customHeight="1">
       <c r="A454" s="66"/>
       <c r="B454" s="33" t="s">
         <v>841</v>
@@ -60425,7 +60439,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="455" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="455" spans="1:33" ht="33.25" customHeight="1">
       <c r="A455" s="66"/>
       <c r="B455" s="33" t="s">
         <v>521</v>
@@ -60531,7 +60545,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="456" spans="1:33" ht="123.3" customHeight="1">
+    <row r="456" spans="1:33" ht="123.25" customHeight="1">
       <c r="A456" s="66"/>
       <c r="B456" s="33" t="s">
         <v>509</v>
@@ -60637,7 +60651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="457" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="457" spans="1:33" ht="33.25" customHeight="1">
       <c r="A457" s="66"/>
       <c r="B457" s="33" t="s">
         <v>844</v>
@@ -60743,7 +60757,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="458" spans="1:33" ht="63.3" customHeight="1">
+    <row r="458" spans="1:33" ht="63.25" customHeight="1">
       <c r="A458" s="66"/>
       <c r="B458" s="33" t="s">
         <v>527</v>
@@ -60849,7 +60863,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="459" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="459" spans="1:33" ht="33.25" customHeight="1">
       <c r="A459" s="66"/>
       <c r="B459" s="33" t="s">
         <v>847</v>
@@ -60955,7 +60969,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="460" spans="1:33" ht="48.3" customHeight="1">
+    <row r="460" spans="1:33" ht="48.25" customHeight="1">
       <c r="A460" s="66"/>
       <c r="B460" s="33" t="s">
         <v>532</v>
@@ -61061,7 +61075,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="461" spans="1:33" ht="93.3" customHeight="1">
+    <row r="461" spans="1:33" ht="93.25" customHeight="1">
       <c r="A461" s="66"/>
       <c r="B461" s="33" t="s">
         <v>533</v>
@@ -61167,7 +61181,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="462" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="462" spans="1:33" ht="33.25" customHeight="1">
       <c r="A462" s="66"/>
       <c r="B462" s="33" t="s">
         <v>850</v>
@@ -61273,7 +61287,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="463" spans="1:33" ht="78.3" customHeight="1">
+    <row r="463" spans="1:33" ht="78.25" customHeight="1">
       <c r="A463" s="66"/>
       <c r="B463" s="33" t="s">
         <v>540</v>
@@ -61379,7 +61393,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="464" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="464" spans="1:33" ht="33.25" customHeight="1">
       <c r="A464" s="66"/>
       <c r="B464" s="33" t="s">
         <v>852</v>
@@ -61485,7 +61499,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="465" spans="1:33" ht="108.3" customHeight="1">
+    <row r="465" spans="1:33" ht="108.25" customHeight="1">
       <c r="A465" s="66"/>
       <c r="B465" s="33" t="s">
         <v>545</v>
@@ -61591,7 +61605,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="466" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="466" spans="1:33" ht="33.25" customHeight="1">
       <c r="A466" s="66"/>
       <c r="B466" s="33" t="s">
         <v>856</v>
@@ -61697,7 +61711,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="467" spans="1:33" ht="48.3" customHeight="1">
+    <row r="467" spans="1:33" ht="48.25" customHeight="1">
       <c r="A467" s="66"/>
       <c r="B467" s="33" t="s">
         <v>549</v>
@@ -61803,7 +61817,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="468" spans="1:33" ht="48.3" customHeight="1">
+    <row r="468" spans="1:33" ht="48.25" customHeight="1">
       <c r="A468" s="66"/>
       <c r="B468" s="33" t="s">
         <v>556</v>
@@ -61909,7 +61923,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="469" spans="1:33" ht="78.3" customHeight="1">
+    <row r="469" spans="1:33" ht="78.25" customHeight="1">
       <c r="A469" s="66"/>
       <c r="B469" s="33" t="s">
         <v>550</v>
@@ -62015,7 +62029,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="470" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="470" spans="1:33" ht="33.25" customHeight="1">
       <c r="A470" s="66"/>
       <c r="B470" s="33" t="s">
         <v>859</v>
@@ -62121,7 +62135,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="471" spans="1:33" ht="48.3" customHeight="1">
+    <row r="471" spans="1:33" ht="48.25" customHeight="1">
       <c r="A471" s="66"/>
       <c r="B471" s="33" t="s">
         <v>562</v>
@@ -62227,7 +62241,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="472" spans="1:33" ht="48.3" customHeight="1">
+    <row r="472" spans="1:33" ht="48.25" customHeight="1">
       <c r="A472" s="66"/>
       <c r="B472" s="33" t="s">
         <v>568</v>
@@ -62263,7 +62277,7 @@
         <v>733</v>
       </c>
       <c r="M472" s="31" t="s">
-        <v>188</v>
+        <v>2098</v>
       </c>
       <c r="N472" s="31" t="s">
         <v>239</v>
@@ -62333,7 +62347,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="473" spans="1:33" ht="48.3" customHeight="1">
+    <row r="473" spans="1:33" ht="48.25" customHeight="1">
       <c r="A473" s="66"/>
       <c r="B473" s="33" t="s">
         <v>573</v>
@@ -62369,10 +62383,10 @@
         <v>733</v>
       </c>
       <c r="M473" s="31" t="s">
-        <v>20</v>
+        <v>2099</v>
       </c>
       <c r="N473" s="31" t="s">
-        <v>20</v>
+        <v>2098</v>
       </c>
       <c r="O473" s="31" t="s">
         <v>640</v>
@@ -62439,7 +62453,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="474" spans="1:33" ht="123.3" customHeight="1">
+    <row r="474" spans="1:33" ht="123.25" customHeight="1">
       <c r="A474" s="66"/>
       <c r="B474" s="33" t="s">
         <v>563</v>
@@ -62545,7 +62559,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="475" spans="1:33" ht="48.3" customHeight="1">
+    <row r="475" spans="1:33" ht="48.25" customHeight="1">
       <c r="A475" s="66"/>
       <c r="B475" s="33" t="s">
         <v>579</v>
@@ -62651,7 +62665,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="476" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="476" spans="1:33" ht="33.25" customHeight="1">
       <c r="A476" s="66"/>
       <c r="B476" s="33" t="s">
         <v>862</v>
@@ -62757,7 +62771,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="477" spans="1:33" ht="48.3" customHeight="1">
+    <row r="477" spans="1:33" ht="48.25" customHeight="1">
       <c r="A477" s="66"/>
       <c r="B477" s="33" t="s">
         <v>585</v>
@@ -62863,7 +62877,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="478" spans="1:33" ht="48.3" customHeight="1">
+    <row r="478" spans="1:33" ht="48.25" customHeight="1">
       <c r="A478" s="66"/>
       <c r="B478" s="33" t="s">
         <v>589</v>
@@ -62969,7 +62983,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="479" spans="1:33" ht="48.3" customHeight="1">
+    <row r="479" spans="1:33" ht="48.25" customHeight="1">
       <c r="A479" s="66"/>
       <c r="B479" s="33" t="s">
         <v>594</v>
@@ -63075,7 +63089,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="480" spans="1:33" ht="63.3" customHeight="1">
+    <row r="480" spans="1:33" ht="63.25" customHeight="1">
       <c r="A480" s="66"/>
       <c r="B480" s="33" t="s">
         <v>586</v>
@@ -63181,7 +63195,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="481" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="481" spans="1:33" ht="33.25" customHeight="1">
       <c r="A481" s="66"/>
       <c r="B481" s="33" t="s">
         <v>866</v>
@@ -63287,7 +63301,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="482" spans="1:33" ht="78.3" customHeight="1">
+    <row r="482" spans="1:33" ht="78.25" customHeight="1">
       <c r="A482" s="66"/>
       <c r="B482" s="33" t="s">
         <v>601</v>
@@ -63393,7 +63407,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="483" spans="1:33" ht="48.3" customHeight="1">
+    <row r="483" spans="1:33" ht="48.25" customHeight="1">
       <c r="A483" s="66"/>
       <c r="B483" s="33" t="s">
         <v>869</v>
@@ -63499,7 +63513,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="484" spans="1:33" ht="138.30000000000001" customHeight="1">
+    <row r="484" spans="1:33" ht="138.25" customHeight="1">
       <c r="A484" s="66"/>
       <c r="B484" s="33" t="s">
         <v>606</v>
@@ -63605,7 +63619,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="485" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="485" spans="1:33" ht="33.25" customHeight="1">
       <c r="A485" s="66"/>
       <c r="B485" s="33" t="s">
         <v>872</v>
@@ -63711,7 +63725,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="486" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="486" spans="1:33" ht="33.25" customHeight="1">
       <c r="A486" s="66"/>
       <c r="B486" s="33" t="s">
         <v>610</v>
@@ -63817,7 +63831,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="487" spans="1:33" ht="48.3" customHeight="1">
+    <row r="487" spans="1:33" ht="48.25" customHeight="1">
       <c r="A487" s="66"/>
       <c r="B487" s="33" t="s">
         <v>613</v>
@@ -63923,7 +63937,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="488" spans="1:33" ht="33.299999999999997" customHeight="1">
+    <row r="488" spans="1:33" ht="33.25" customHeight="1">
       <c r="A488" s="66"/>
       <c r="B488" s="33" t="s">
         <v>616</v>
@@ -64029,7 +64043,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="489" spans="1:33" ht="78.3" customHeight="1">
+    <row r="489" spans="1:33" ht="78.25" customHeight="1">
       <c r="A489" s="66"/>
       <c r="B489" s="60" t="s">
         <v>611</v>
@@ -64160,19 +64174,19 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="22.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
     <col min="3" max="3" width="6" style="11" customWidth="1"/>
-    <col min="4" max="5" width="5.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="79.33203125" style="11" customWidth="1"/>
-    <col min="8" max="10" width="19.5546875" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="19.5546875" style="11"/>
+    <col min="4" max="5" width="5.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="79.28515625" style="11" customWidth="1"/>
+    <col min="8" max="10" width="19.5703125" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="19.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.45" customHeight="1">
+    <row r="1" spans="1:9" ht="18.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -64197,7 +64211,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="18.45" customHeight="1">
+    <row r="2" spans="1:9" ht="18.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -64208,7 +64222,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" ht="33.299999999999997" customHeight="1">
+    <row r="3" spans="1:9" ht="33.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>875</v>
       </c>
@@ -64231,7 +64245,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="18.3" customHeight="1">
+    <row r="4" spans="1:9" ht="18.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -64242,7 +64256,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="18.3" customHeight="1">
+    <row r="5" spans="1:9" ht="18.25" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -64253,7 +64267,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="18.3" customHeight="1">
+    <row r="6" spans="1:9" ht="18.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -64264,7 +64278,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="18.3" customHeight="1">
+    <row r="7" spans="1:9" ht="18.25" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -64275,7 +64289,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="18.3" customHeight="1">
+    <row r="8" spans="1:9" ht="18.25" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -64286,7 +64300,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="18.3" customHeight="1">
+    <row r="9" spans="1:9" ht="18.25" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -64297,7 +64311,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="18.3" customHeight="1">
+    <row r="10" spans="1:9" ht="18.25" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -64332,13 +64346,13 @@
       <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="22.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="19.5546875" style="11" customWidth="1"/>
-    <col min="4" max="16384" width="19.5546875" style="11"/>
+    <col min="1" max="3" width="19.5703125" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="19.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.45" customHeight="1">
+    <row r="1" spans="1:2" ht="18.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>892</v>
       </c>
@@ -64346,7 +64360,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.45" customHeight="1">
+    <row r="2" spans="1:2" ht="18.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>554</v>
       </c>
@@ -64354,7 +64368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.3" customHeight="1">
+    <row r="3" spans="1:2" ht="18.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>878</v>
       </c>
@@ -64362,7 +64376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.3" customHeight="1">
+    <row r="4" spans="1:2" ht="18.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -64370,7 +64384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.3" customHeight="1">
+    <row r="5" spans="1:2" ht="18.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -64378,7 +64392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.3" customHeight="1">
+    <row r="6" spans="1:2" ht="18.25" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>194</v>
       </c>
@@ -64386,7 +64400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.3" customHeight="1">
+    <row r="7" spans="1:2" ht="18.25" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>1809</v>
       </c>
@@ -64394,7 +64408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.3" customHeight="1">
+    <row r="8" spans="1:2" ht="18.25" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>139</v>
       </c>
@@ -64402,7 +64416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.3" customHeight="1">
+    <row r="9" spans="1:2" ht="18.25" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>331</v>
       </c>
@@ -64410,7 +64424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.3" customHeight="1">
+    <row r="10" spans="1:2" ht="18.25" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>1816</v>
       </c>
@@ -64418,7 +64432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.3" customHeight="1">
+    <row r="11" spans="1:2" ht="18.25" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>1817</v>
       </c>
@@ -64426,7 +64440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.3" customHeight="1">
+    <row r="12" spans="1:2" ht="18.25" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>1811</v>
       </c>
@@ -64434,7 +64448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.3" customHeight="1">
+    <row r="13" spans="1:2" ht="18.25" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>1519</v>
       </c>
@@ -64442,7 +64456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.3" customHeight="1">
+    <row r="14" spans="1:2" ht="18.25" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -64450,7 +64464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.3" customHeight="1">
+    <row r="15" spans="1:2" ht="18.25" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>1524</v>
       </c>
@@ -64458,7 +64472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.3" customHeight="1">
+    <row r="16" spans="1:2" ht="18.25" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>110</v>
       </c>
@@ -64466,7 +64480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.3" customHeight="1">
+    <row r="17" spans="1:2" ht="18.25" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>99</v>
       </c>
@@ -64474,7 +64488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.3" customHeight="1">
+    <row r="18" spans="1:2" ht="18.25" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>98</v>
       </c>
@@ -64482,7 +64496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.3" customHeight="1">
+    <row r="19" spans="1:2" ht="18.25" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>116</v>
       </c>
@@ -64490,7 +64504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.3" customHeight="1">
+    <row r="20" spans="1:2" ht="18.25" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>122</v>
       </c>
@@ -64498,7 +64512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.3" customHeight="1">
+    <row r="21" spans="1:2" ht="18.25" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>164</v>
       </c>
@@ -64506,7 +64520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.3" customHeight="1">
+    <row r="22" spans="1:2" ht="18.25" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>92</v>
       </c>
@@ -64514,7 +64528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.3" customHeight="1">
+    <row r="23" spans="1:2" ht="18.25" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
@@ -64522,7 +64536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.3" customHeight="1">
+    <row r="24" spans="1:2" ht="18.25" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>205</v>
       </c>
@@ -64530,7 +64544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.3" customHeight="1">
+    <row r="25" spans="1:2" ht="18.25" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>158</v>
       </c>
@@ -64538,7 +64552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.3" customHeight="1">
+    <row r="26" spans="1:2" ht="18.25" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>147</v>
       </c>
@@ -64546,7 +64560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.3" customHeight="1">
+    <row r="27" spans="1:2" ht="18.25" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>146</v>
       </c>
@@ -64554,7 +64568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.3" customHeight="1">
+    <row r="28" spans="1:2" ht="18.25" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
@@ -64562,7 +64576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.3" customHeight="1">
+    <row r="29" spans="1:2" ht="18.25" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
@@ -64570,7 +64584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.3" customHeight="1">
+    <row r="30" spans="1:2" ht="18.25" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>42</v>
       </c>
@@ -64578,7 +64592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.3" customHeight="1">
+    <row r="31" spans="1:2" ht="18.25" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>1814</v>
       </c>
@@ -64586,7 +64600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.3" customHeight="1">
+    <row r="32" spans="1:2" ht="18.25" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>1812</v>
       </c>
@@ -64594,7 +64608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.3" customHeight="1">
+    <row r="33" spans="1:2" ht="18.25" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>175</v>
       </c>
@@ -64602,7 +64616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.3" customHeight="1">
+    <row r="34" spans="1:2" ht="18.25" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>879</v>
       </c>
@@ -64610,7 +64624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.3" customHeight="1">
+    <row r="35" spans="1:2" ht="18.25" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>268</v>
       </c>
@@ -64618,7 +64632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.3" customHeight="1">
+    <row r="36" spans="1:2" ht="18.25" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>267</v>
       </c>
@@ -64626,7 +64640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.3" customHeight="1">
+    <row r="37" spans="1:2" ht="18.25" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>1807</v>
       </c>
@@ -64634,7 +64648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.3" customHeight="1">
+    <row r="38" spans="1:2" ht="18.25" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>1553</v>
       </c>
@@ -64642,7 +64656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.3" customHeight="1">
+    <row r="39" spans="1:2" ht="18.25" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>1810</v>
       </c>
@@ -64650,7 +64664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.3" customHeight="1">
+    <row r="40" spans="1:2" ht="18.25" customHeight="1">
       <c r="A40" s="8" t="s">
         <v>1819</v>
       </c>
@@ -64658,7 +64672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.3" customHeight="1">
+    <row r="41" spans="1:2" ht="18.25" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>1808</v>
       </c>
@@ -64666,7 +64680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.3" customHeight="1">
+    <row r="42" spans="1:2" ht="18.25" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>216</v>
       </c>
@@ -64674,7 +64688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.3" customHeight="1">
+    <row r="43" spans="1:2" ht="18.25" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>1813</v>
       </c>
@@ -64682,7 +64696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.3" customHeight="1">
+    <row r="44" spans="1:2" ht="18.25" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>1821</v>
       </c>
@@ -64690,7 +64704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.3" customHeight="1">
+    <row r="45" spans="1:2" ht="18.25" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>63</v>
       </c>
@@ -64698,7 +64712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.3" customHeight="1">
+    <row r="46" spans="1:2" ht="18.25" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>56</v>
       </c>
@@ -64706,7 +64720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.3" customHeight="1">
+    <row r="47" spans="1:2" ht="18.25" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>55</v>
       </c>
@@ -64714,7 +64728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.3" customHeight="1">
+    <row r="48" spans="1:2" ht="18.25" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>336</v>
       </c>
@@ -64722,7 +64736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.3" customHeight="1">
+    <row r="49" spans="1:2" ht="18.25" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>1815</v>
       </c>
@@ -64730,7 +64744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.3" customHeight="1">
+    <row r="50" spans="1:2" ht="18.25" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -64738,7 +64752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.3" customHeight="1">
+    <row r="51" spans="1:2" ht="18.25" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>244</v>
       </c>
@@ -64746,7 +64760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.3" customHeight="1">
+    <row r="52" spans="1:2" ht="18.25" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>85</v>
       </c>
@@ -64754,7 +64768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.3" customHeight="1">
+    <row r="53" spans="1:2" ht="18.25" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>84</v>
       </c>
@@ -64762,7 +64776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.3" customHeight="1">
+    <row r="54" spans="1:2" ht="18.25" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>394</v>
       </c>
@@ -64770,7 +64784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.3" customHeight="1">
+    <row r="55" spans="1:2" ht="18.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>227</v>
       </c>
@@ -64778,7 +64792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.3" customHeight="1">
+    <row r="56" spans="1:2" ht="18.25" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>228</v>
       </c>
@@ -64786,7 +64800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.3" customHeight="1">
+    <row r="57" spans="1:2" ht="18.25" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>883</v>
       </c>
@@ -64794,7 +64808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.3" customHeight="1">
+    <row r="58" spans="1:2" ht="18.25" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>884</v>
       </c>
@@ -64802,7 +64816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.3" customHeight="1">
+    <row r="59" spans="1:2" ht="18.25" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>28</v>
       </c>
@@ -64810,7 +64824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.3" customHeight="1">
+    <row r="60" spans="1:2" ht="18.25" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>1806</v>
       </c>
@@ -64818,7 +64832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.3" customHeight="1">
+    <row r="61" spans="1:2" ht="18.25" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>74</v>
       </c>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC174AE-DF5B-7B47-B960-F578A2FC5530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC88995-3E55-9045-8868-C58865989043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12292,10 +12292,10 @@
   <dimension ref="A1:AG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H464" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B473" sqref="B473"/>
+      <selection pane="bottomRight" activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -22642,7 +22642,7 @@
         <v>640</v>
       </c>
       <c r="P98" s="31" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Q98" s="31" t="s">
         <v>886</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC88995-3E55-9045-8868-C58865989043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56301B-41A8-4045-B720-CD2F28A3E92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11671" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11671" uniqueCount="2101">
   <si>
     <t>ID</t>
   </si>
@@ -10484,6 +10484,10 @@
     <rPh sb="3" eb="4">
       <t>ガテゥ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1050-11-17</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12292,10 +12296,10 @@
   <dimension ref="A1:AG489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="J345" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P98" sqref="P98"/>
+      <selection pane="bottomRight" activeCell="W354" sqref="W354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -49796,7 +49800,7 @@
         <v>20</v>
       </c>
       <c r="V354" s="31" t="s">
-        <v>242</v>
+        <v>2100</v>
       </c>
       <c r="W354" s="31" t="s">
         <v>85</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F58C71-7912-4344-A4F4-895652E4EB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC2836-4EB9-9C42-BC1B-B8A43C543AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12287,10 +12287,10 @@
   <dimension ref="A1:AG488"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H432" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H360" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N434" sqref="N434"/>
+      <selection pane="bottomRight" activeCell="O368" sqref="O368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -51254,7 +51254,7 @@
         <v>2093</v>
       </c>
       <c r="O368" s="31" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P368" s="31" t="s">
         <v>640</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316D402-5B4D-0A46-A682-5511CE450B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE769285-2D8D-CC4A-8BAE-0054ECE35040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12278,10 +12278,10 @@
   <dimension ref="A1:AG488"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H389" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H358" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H392" sqref="H392"/>
+      <selection pane="bottomRight" activeCell="O364" sqref="O364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -50821,7 +50821,7 @@
         <v>20</v>
       </c>
       <c r="O364" s="31" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P364" s="31" t="s">
         <v>640</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE769285-2D8D-CC4A-8BAE-0054ECE35040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95FAC17-E65C-534D-AB96-46DCF9E8C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9129,10 +9129,6 @@
   </si>
   <si>
     <t>天長 2年 12 大 己亥 35-1289</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>825-1-12</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -10470,6 +10466,10 @@
   </si>
   <si>
     <t>1228-1-9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>826-1-12</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12278,10 +12278,10 @@
   <dimension ref="A1:AG488"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H358" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O364" sqref="O364"/>
+      <selection pane="bottomRight" activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -21017,7 +21017,7 @@
         <v>1556</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>882</v>
@@ -21950,7 +21950,7 @@
     <row r="92" spans="1:33" ht="48.5" customHeight="1">
       <c r="A92" s="66"/>
       <c r="B92" s="33" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>882</v>
@@ -22056,7 +22056,7 @@
     <row r="93" spans="1:33" ht="48.5" customHeight="1">
       <c r="A93" s="66"/>
       <c r="B93" s="33" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>882</v>
@@ -22162,7 +22162,7 @@
     <row r="94" spans="1:33" ht="48.5" customHeight="1">
       <c r="A94" s="66"/>
       <c r="B94" s="33" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>882</v>
@@ -24088,7 +24088,7 @@
         <v>1919</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I112" s="31" t="s">
         <v>882</v>
@@ -24176,7 +24176,7 @@
     <row r="113" spans="1:33" ht="48.5" customHeight="1">
       <c r="A113" s="66"/>
       <c r="B113" s="33" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>882</v>
@@ -24282,7 +24282,7 @@
     <row r="114" spans="1:33" ht="48.5" customHeight="1">
       <c r="A114" s="66"/>
       <c r="B114" s="33" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>882</v>
@@ -25766,7 +25766,7 @@
     <row r="128" spans="1:33" ht="48.5" customHeight="1">
       <c r="A128" s="66"/>
       <c r="B128" s="33" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>882</v>
@@ -25872,7 +25872,7 @@
     <row r="129" spans="1:33" ht="48.5" customHeight="1">
       <c r="A129" s="66"/>
       <c r="B129" s="33" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>882</v>
@@ -25944,7 +25944,7 @@
         <v>1921</v>
       </c>
       <c r="Z129" s="31" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="AA129" s="32">
         <f>IF(W129="-","-",VLOOKUP(W129,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27110,7 +27110,7 @@
         <v>1933</v>
       </c>
       <c r="Z140" s="31" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="AA140" s="32">
         <f>IF(W140="-","-",VLOOKUP(W140,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27144,7 +27144,7 @@
     <row r="141" spans="1:33" ht="48.5" customHeight="1">
       <c r="A141" s="66"/>
       <c r="B141" s="33" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>882</v>
@@ -27159,7 +27159,7 @@
         <v>882</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H141" s="36" t="s">
         <v>1941</v>
@@ -27322,7 +27322,7 @@
         <v>1943</v>
       </c>
       <c r="Z142" s="31" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="AA142" s="32">
         <f>IF(W142="-","-",VLOOKUP(W142,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27462,7 +27462,7 @@
     <row r="144" spans="1:33" ht="48.5" customHeight="1">
       <c r="A144" s="66"/>
       <c r="B144" s="33" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>882</v>
@@ -27568,13 +27568,13 @@
     <row r="145" spans="1:33" ht="48.5" customHeight="1">
       <c r="A145" s="66"/>
       <c r="B145" s="33" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D145" s="33" t="s">
         <v>2034</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>2035</v>
       </c>
       <c r="E145" s="34">
         <v>130</v>
@@ -27674,7 +27674,7 @@
     <row r="146" spans="1:33" ht="48.5" customHeight="1">
       <c r="A146" s="66"/>
       <c r="B146" s="33" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>882</v>
@@ -27780,13 +27780,13 @@
     <row r="147" spans="1:33" ht="48.5" customHeight="1">
       <c r="A147" s="66"/>
       <c r="B147" s="33" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D147" s="33" t="s">
         <v>2036</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>2037</v>
       </c>
       <c r="E147" s="34">
         <v>130</v>
@@ -27886,7 +27886,7 @@
     <row r="148" spans="1:33" ht="48.5" customHeight="1">
       <c r="A148" s="66"/>
       <c r="B148" s="33" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>882</v>
@@ -30396,7 +30396,7 @@
         <v>1954</v>
       </c>
       <c r="Z171" s="31" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AA171" s="32">
         <f>IF(W171="-","-",VLOOKUP(W171,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30608,7 +30608,7 @@
         <v>1961</v>
       </c>
       <c r="Z173" s="31" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="AA173" s="32">
         <f>IF(W173="-","-",VLOOKUP(W173,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31596,7 +31596,7 @@
     <row r="183" spans="1:33" ht="48.5" customHeight="1">
       <c r="A183" s="66"/>
       <c r="B183" s="33" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C183" s="51" t="s">
         <v>882</v>
@@ -31774,7 +31774,7 @@
         <v>1972</v>
       </c>
       <c r="Z184" s="31" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="AA184" s="32">
         <f>IF(W184="-","-",VLOOKUP(W184,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33625,7 +33625,7 @@
         <v>882</v>
       </c>
       <c r="G202" s="35" t="s">
-        <v>1991</v>
+        <v>2097</v>
       </c>
       <c r="H202" s="38" t="s">
         <v>1990</v>
@@ -33737,7 +33737,7 @@
         <v>1800</v>
       </c>
       <c r="I203" s="31" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="J203" s="31" t="s">
         <v>882</v>
@@ -33943,10 +33943,10 @@
         <v>892</v>
       </c>
       <c r="G205" s="35" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="H205" s="56" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I205" s="55" t="s">
         <v>882</v>
@@ -34034,7 +34034,7 @@
     <row r="206" spans="1:33" ht="48.5" customHeight="1">
       <c r="A206" s="66"/>
       <c r="B206" s="33" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C206" s="33" t="s">
         <v>882</v>
@@ -34052,7 +34052,7 @@
         <v>1297</v>
       </c>
       <c r="H206" s="36" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I206" s="31" t="s">
         <v>882</v>
@@ -34140,13 +34140,13 @@
     <row r="207" spans="1:33" ht="48.5" customHeight="1">
       <c r="A207" s="66"/>
       <c r="B207" s="33" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C207" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D207" s="33" t="s">
         <v>2044</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D207" s="33" t="s">
-        <v>2045</v>
       </c>
       <c r="E207" s="34">
         <v>141</v>
@@ -34246,7 +34246,7 @@
     <row r="208" spans="1:33" ht="48.5" customHeight="1">
       <c r="A208" s="66"/>
       <c r="B208" s="33" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C208" s="33" t="s">
         <v>882</v>
@@ -34267,7 +34267,7 @@
         <v>1609</v>
       </c>
       <c r="I208" s="31" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="J208" s="31" t="s">
         <v>882</v>
@@ -34352,7 +34352,7 @@
     <row r="209" spans="1:33" ht="48.5" customHeight="1">
       <c r="A209" s="66"/>
       <c r="B209" s="33" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C209" s="33" t="s">
         <v>882</v>
@@ -34373,7 +34373,7 @@
         <v>1610</v>
       </c>
       <c r="I209" s="31" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="J209" s="31" t="s">
         <v>882</v>
@@ -34458,7 +34458,7 @@
     <row r="210" spans="1:33" ht="48.5" customHeight="1">
       <c r="A210" s="66"/>
       <c r="B210" s="33" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C210" s="33" t="s">
         <v>882</v>
@@ -34479,7 +34479,7 @@
         <v>1611</v>
       </c>
       <c r="I210" s="31" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J210" s="31" t="s">
         <v>882</v>
@@ -34564,13 +34564,13 @@
     <row r="211" spans="1:33" ht="48.5" customHeight="1">
       <c r="A211" s="66"/>
       <c r="B211" s="33" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C211" s="51" t="s">
         <v>882</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E211" s="34">
         <v>141</v>
@@ -34579,10 +34579,10 @@
         <v>882</v>
       </c>
       <c r="G211" s="54" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H211" s="36" t="s">
         <v>1999</v>
-      </c>
-      <c r="H211" s="36" t="s">
-        <v>2000</v>
       </c>
       <c r="I211" s="55" t="s">
         <v>882</v>
@@ -34670,7 +34670,7 @@
     <row r="212" spans="1:33" ht="48.5" customHeight="1">
       <c r="A212" s="66"/>
       <c r="B212" s="33" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C212" s="33" t="s">
         <v>882</v>
@@ -34685,13 +34685,13 @@
         <v>898</v>
       </c>
       <c r="G212" s="35" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="H212" s="36" t="s">
+        <v>2000</v>
+      </c>
+      <c r="I212" s="55" t="s">
         <v>2001</v>
-      </c>
-      <c r="I212" s="55" t="s">
-        <v>2002</v>
       </c>
       <c r="J212" s="55" t="s">
         <v>882</v>
@@ -34739,10 +34739,10 @@
         <v>1973</v>
       </c>
       <c r="Y212" s="31" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="Z212" s="31" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="AA212" s="32">
         <f>IF(W212="-","-",VLOOKUP(W212,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34903,7 +34903,7 @@
         <v>1612</v>
       </c>
       <c r="I214" s="31" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J214" s="31" t="s">
         <v>882</v>
@@ -35094,7 +35094,7 @@
     <row r="216" spans="1:33" ht="48.5" customHeight="1">
       <c r="A216" s="66"/>
       <c r="B216" s="33" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C216" s="51" t="s">
         <v>882</v>
@@ -35109,10 +35109,10 @@
         <v>882</v>
       </c>
       <c r="G216" s="54" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H216" s="36" t="s">
         <v>2008</v>
-      </c>
-      <c r="H216" s="36" t="s">
-        <v>2009</v>
       </c>
       <c r="I216" s="55" t="s">
         <v>882</v>
@@ -35215,13 +35215,13 @@
         <v>901</v>
       </c>
       <c r="G217" s="35" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H217" s="36" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I217" s="55" t="s">
         <v>2010</v>
-      </c>
-      <c r="I217" s="55" t="s">
-        <v>2011</v>
       </c>
       <c r="J217" s="55" t="s">
         <v>882</v>
@@ -35230,7 +35230,7 @@
         <v>912</v>
       </c>
       <c r="L217" s="55" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="M217" s="31" t="s">
         <v>20</v>
@@ -35263,16 +35263,16 @@
         <v>20</v>
       </c>
       <c r="W217" s="31" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="X217" s="31" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="Y217" s="31" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Z217" s="31" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="AA217" s="32">
         <f>IF(W217="-","-",VLOOKUP(W217,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35430,10 +35430,10 @@
         <v>1306</v>
       </c>
       <c r="H219" s="36" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I219" s="58" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="J219" s="31" t="s">
         <v>882</v>
@@ -35518,7 +35518,7 @@
     <row r="220" spans="1:33" ht="48.5" customHeight="1">
       <c r="A220" s="66"/>
       <c r="B220" s="51" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C220" s="51" t="s">
         <v>1035</v>
@@ -35533,10 +35533,10 @@
         <v>901</v>
       </c>
       <c r="G220" s="54" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H220" s="36" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I220" s="58" t="s">
         <v>882</v>
@@ -35548,7 +35548,7 @@
         <v>912</v>
       </c>
       <c r="L220" s="55" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="M220" s="31" t="s">
         <v>882</v>
@@ -35587,10 +35587,10 @@
         <v>1893</v>
       </c>
       <c r="Y220" s="31" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="Z220" s="31" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="AA220" s="32">
         <f>IF(W220="-","-",VLOOKUP(W220,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -42520,7 +42520,7 @@
         <v>20</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E286" s="34">
         <v>156</v>
@@ -42620,7 +42620,7 @@
     <row r="287" spans="1:33" ht="48.25" customHeight="1">
       <c r="A287" s="66"/>
       <c r="B287" s="51" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C287" s="33" t="s">
         <v>20</v>
@@ -45715,7 +45715,7 @@
         <v>126</v>
       </c>
       <c r="I316" s="31" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="J316" s="31" t="s">
         <v>20</v>
@@ -45818,7 +45818,7 @@
         <v>681</v>
       </c>
       <c r="H317" s="36" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="I317" s="31" t="s">
         <v>20</v>
@@ -47944,7 +47944,7 @@
         <v>192</v>
       </c>
       <c r="J337" s="31" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="K337" s="31" t="s">
         <v>637</v>
@@ -48156,7 +48156,7 @@
         <v>199</v>
       </c>
       <c r="J339" s="31" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="K339" s="31" t="s">
         <v>637</v>
@@ -48789,7 +48789,7 @@
         <v>214</v>
       </c>
       <c r="I345" s="31" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="J345" s="31" t="s">
         <v>20</v>
@@ -49782,7 +49782,7 @@
         <v>20</v>
       </c>
       <c r="V354" s="31" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="W354" s="31" t="s">
         <v>85</v>
@@ -49934,13 +49934,13 @@
     <row r="356" spans="1:33" ht="33.25" customHeight="1">
       <c r="A356" s="66"/>
       <c r="B356" s="33" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C356" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D356" s="33" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E356" s="34">
         <v>220</v>
@@ -49949,10 +49949,10 @@
         <v>882</v>
       </c>
       <c r="G356" s="35" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H356" s="36" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I356" s="31" t="s">
         <v>882</v>
@@ -50040,7 +50040,7 @@
     <row r="357" spans="1:33" ht="33.25" customHeight="1">
       <c r="A357" s="66"/>
       <c r="B357" s="33" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C357" s="33" t="s">
         <v>882</v>
@@ -50055,13 +50055,13 @@
         <v>1</v>
       </c>
       <c r="G357" s="35" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="H357" s="36" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I357" s="31" t="s">
         <v>2063</v>
-      </c>
-      <c r="I357" s="31" t="s">
-        <v>2064</v>
       </c>
       <c r="J357" s="31" t="s">
         <v>882</v>
@@ -50109,10 +50109,10 @@
         <v>1805</v>
       </c>
       <c r="Y357" s="31" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="Z357" s="31" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="AA357" s="32">
         <f>IF(W357="-","-",VLOOKUP(W357,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -50464,13 +50464,13 @@
     <row r="361" spans="1:33" ht="33.25" customHeight="1">
       <c r="A361" s="66"/>
       <c r="B361" s="33" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C361" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D361" s="33" t="s">
         <v>2066</v>
-      </c>
-      <c r="C361" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D361" s="33" t="s">
-        <v>2067</v>
       </c>
       <c r="E361" s="34">
         <v>226</v>
@@ -50479,10 +50479,10 @@
         <v>882</v>
       </c>
       <c r="G361" s="35" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H361" s="36" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="I361" s="31" t="s">
         <v>882</v>
@@ -50570,7 +50570,7 @@
     <row r="362" spans="1:33" ht="54">
       <c r="A362" s="66"/>
       <c r="B362" s="33" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C362" s="33" t="s">
         <v>882</v>
@@ -50585,13 +50585,13 @@
         <v>1</v>
       </c>
       <c r="G362" s="35" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="H362" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="I362" s="31" t="s">
         <v>2071</v>
-      </c>
-      <c r="I362" s="31" t="s">
-        <v>2072</v>
       </c>
       <c r="J362" s="31" t="s">
         <v>882</v>
@@ -50639,10 +50639,10 @@
         <v>1988</v>
       </c>
       <c r="Y362" s="31" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="Z362" s="31" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="AA362" s="32">
         <f>IF(W362="-","-",VLOOKUP(W362,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -51133,10 +51133,10 @@
         <v>645</v>
       </c>
       <c r="M367" s="31" t="s">
+        <v>2091</v>
+      </c>
+      <c r="N367" s="31" t="s">
         <v>2092</v>
-      </c>
-      <c r="N367" s="31" t="s">
-        <v>2093</v>
       </c>
       <c r="O367" s="31" t="s">
         <v>640</v>
@@ -51239,10 +51239,10 @@
         <v>748</v>
       </c>
       <c r="M368" s="31" t="s">
+        <v>2090</v>
+      </c>
+      <c r="N368" s="31" t="s">
         <v>2091</v>
-      </c>
-      <c r="N368" s="31" t="s">
-        <v>2092</v>
       </c>
       <c r="O368" s="31" t="s">
         <v>639</v>
@@ -53765,7 +53765,7 @@
         <v>20</v>
       </c>
       <c r="G392" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="H392" s="36" t="s">
         <v>777</v>
@@ -55679,7 +55679,7 @@
         <v>388</v>
       </c>
       <c r="I410" s="31" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="J410" s="31" t="s">
         <v>20</v>
@@ -57481,7 +57481,7 @@
         <v>450</v>
       </c>
       <c r="I427" s="31" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="J427" s="31" t="s">
         <v>20</v>
@@ -57587,7 +57587,7 @@
         <v>20</v>
       </c>
       <c r="I428" s="31" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="J428" s="31" t="s">
         <v>20</v>
@@ -57905,7 +57905,7 @@
         <v>458</v>
       </c>
       <c r="I431" s="31" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="J431" s="31" t="s">
         <v>20</v>
@@ -58329,7 +58329,7 @@
         <v>470</v>
       </c>
       <c r="I435" s="31" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="J435" s="31" t="s">
         <v>20</v>
@@ -59280,7 +59280,7 @@
         <v>495</v>
       </c>
       <c r="H444" s="36" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="I444" s="31" t="s">
         <v>20</v>
@@ -60131,7 +60131,7 @@
         <v>519</v>
       </c>
       <c r="I452" s="31" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="J452" s="31" t="s">
         <v>882</v>
@@ -60449,7 +60449,7 @@
         <v>20</v>
       </c>
       <c r="I455" s="31" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="J455" s="31" t="s">
         <v>20</v>
@@ -61082,7 +61082,7 @@
         <v>847</v>
       </c>
       <c r="H461" s="36" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="I461" s="31" t="s">
         <v>20</v>
@@ -61403,7 +61403,7 @@
         <v>547</v>
       </c>
       <c r="I464" s="31" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J464" s="31" t="s">
         <v>20</v>
@@ -61721,7 +61721,7 @@
         <v>558</v>
       </c>
       <c r="I467" s="31" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="J467" s="31" t="s">
         <v>20</v>
@@ -62157,7 +62157,7 @@
         <v>733</v>
       </c>
       <c r="M471" s="31" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="N471" s="31" t="s">
         <v>239</v>
@@ -62263,10 +62263,10 @@
         <v>733</v>
       </c>
       <c r="M472" s="31" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="N472" s="31" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="O472" s="31" t="s">
         <v>640</v>
@@ -62357,7 +62357,7 @@
         <v>20</v>
       </c>
       <c r="I473" s="31" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="J473" s="31" t="s">
         <v>20</v>
@@ -63417,7 +63417,7 @@
         <v>608</v>
       </c>
       <c r="I483" s="31" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J483" s="31" t="s">
         <v>20</v>
@@ -63626,7 +63626,7 @@
         <v>612</v>
       </c>
       <c r="H485" s="36" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="I485" s="31" t="s">
         <v>20</v>
@@ -63732,10 +63732,10 @@
         <v>614</v>
       </c>
       <c r="H486" s="36" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I486" s="31" t="s">
         <v>2088</v>
-      </c>
-      <c r="I486" s="31" t="s">
-        <v>2089</v>
       </c>
       <c r="J486" s="31" t="s">
         <v>20</v>
@@ -63947,7 +63947,7 @@
         <v>20</v>
       </c>
       <c r="I488" s="64" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="J488" s="64" t="s">
         <v>20</v>

--- a/doc/operation/operation.xlsx
+++ b/doc/operation/operation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95FAC17-E65C-534D-AB96-46DCF9E8C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8DE620-A366-A64E-9B8A-EAF10380B360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="32100" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4317,9 +4317,6 @@
   </si>
   <si>
     <t>844-10-15</t>
-  </si>
-  <si>
-    <t>645-10-5</t>
   </si>
   <si>
     <t>845-11-3</t>
@@ -10470,6 +10467,10 @@
   </si>
   <si>
     <t>826-1-12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>845-10-5</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -12278,10 +12279,10 @@
   <dimension ref="A1:AG488"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H231" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H202" sqref="H202"/>
+      <selection pane="bottomRight" activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5703125" defaultRowHeight="20" customHeight="1"/>
@@ -12410,7 +12411,7 @@
     <row r="2" spans="1:33" ht="48.5" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="24" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>882</v>
@@ -12425,10 +12426,10 @@
         <v>892</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>882</v>
@@ -12516,7 +12517,7 @@
     <row r="3" spans="1:33" ht="48.5" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="33" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>882</v>
@@ -12531,10 +12532,10 @@
         <v>892</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>882</v>
@@ -12622,7 +12623,7 @@
     <row r="4" spans="1:33" ht="48.5" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="33" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>882</v>
@@ -12637,10 +12638,10 @@
         <v>892</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>882</v>
@@ -12728,7 +12729,7 @@
     <row r="5" spans="1:33" ht="48.5" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="33" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>882</v>
@@ -12743,10 +12744,10 @@
         <v>892</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>882</v>
@@ -12834,7 +12835,7 @@
     <row r="6" spans="1:33" ht="48.5" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="33" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>882</v>
@@ -12849,10 +12850,10 @@
         <v>892</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>882</v>
@@ -12940,7 +12941,7 @@
     <row r="7" spans="1:33" ht="48.5" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="33" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>882</v>
@@ -12955,10 +12956,10 @@
         <v>892</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>882</v>
@@ -13046,7 +13047,7 @@
     <row r="8" spans="1:33" ht="48.5" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="33" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>882</v>
@@ -13061,10 +13062,10 @@
         <v>900</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>882</v>
@@ -13152,7 +13153,7 @@
     <row r="9" spans="1:33" ht="48.5" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="33" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>882</v>
@@ -13167,10 +13168,10 @@
         <v>892</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>882</v>
@@ -13258,7 +13259,7 @@
     <row r="10" spans="1:33" ht="48.5" customHeight="1">
       <c r="A10" s="66"/>
       <c r="B10" s="33" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>882</v>
@@ -13273,10 +13274,10 @@
         <v>900</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>882</v>
@@ -13364,13 +13365,13 @@
     <row r="11" spans="1:33" ht="48.5" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="33" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E11" s="34">
         <v>95</v>
@@ -13379,10 +13380,10 @@
         <v>882</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>882</v>
@@ -13470,7 +13471,7 @@
     <row r="12" spans="1:33" ht="48.5" customHeight="1">
       <c r="A12" s="66"/>
       <c r="B12" s="33" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>882</v>
@@ -13485,13 +13486,13 @@
         <v>892</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>882</v>
@@ -13533,16 +13534,16 @@
         <v>20</v>
       </c>
       <c r="W12" s="31" t="s">
+        <v>1885</v>
+      </c>
+      <c r="X12" s="31" t="s">
         <v>1886</v>
       </c>
-      <c r="X12" s="31" t="s">
+      <c r="Y12" s="31" t="s">
+        <v>1836</v>
+      </c>
+      <c r="Z12" s="31" t="s">
         <v>1887</v>
-      </c>
-      <c r="Y12" s="31" t="s">
-        <v>1837</v>
-      </c>
-      <c r="Z12" s="31" t="s">
-        <v>1888</v>
       </c>
       <c r="AA12" s="32">
         <f>IF(W12="-","-",VLOOKUP(W12,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13576,13 +13577,13 @@
     <row r="13" spans="1:33" ht="48.5" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="33" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="E13" s="34">
         <v>96</v>
@@ -13591,10 +13592,10 @@
         <v>882</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>882</v>
@@ -13682,7 +13683,7 @@
     <row r="14" spans="1:33" ht="48.5" customHeight="1">
       <c r="A14" s="66"/>
       <c r="B14" s="33" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>882</v>
@@ -13697,13 +13698,13 @@
         <v>892</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>882</v>
@@ -13745,16 +13746,16 @@
         <v>20</v>
       </c>
       <c r="W14" s="31" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="X14" s="31" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="Y14" s="31" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="Z14" s="31" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="AA14" s="32">
         <f>IF(W14="-","-",VLOOKUP(W14,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -13788,13 +13789,13 @@
     <row r="15" spans="1:33" ht="48.5" customHeight="1">
       <c r="A15" s="66"/>
       <c r="B15" s="33" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E15" s="34">
         <v>97</v>
@@ -13803,10 +13804,10 @@
         <v>882</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>882</v>
@@ -13894,10 +13895,10 @@
     <row r="16" spans="1:33" ht="48.5" customHeight="1">
       <c r="A16" s="66"/>
       <c r="B16" s="33" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>882</v>
@@ -13909,13 +13910,13 @@
         <v>892</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>882</v>
@@ -13957,16 +13958,16 @@
         <v>20</v>
       </c>
       <c r="W16" s="31" t="s">
+        <v>1889</v>
+      </c>
+      <c r="X16" s="31" t="s">
         <v>1890</v>
       </c>
-      <c r="X16" s="31" t="s">
+      <c r="Y16" s="31" t="s">
+        <v>1843</v>
+      </c>
+      <c r="Z16" s="31" t="s">
         <v>1891</v>
-      </c>
-      <c r="Y16" s="31" t="s">
-        <v>1844</v>
-      </c>
-      <c r="Z16" s="31" t="s">
-        <v>1892</v>
       </c>
       <c r="AA16" s="32">
         <f>IF(W16="-","-",VLOOKUP(W16,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -14000,13 +14001,13 @@
     <row r="17" spans="1:33" ht="48.5" customHeight="1">
       <c r="A17" s="66"/>
       <c r="B17" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E17" s="34">
         <v>97</v>
@@ -14015,10 +14016,10 @@
         <v>882</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>882</v>
@@ -14106,10 +14107,10 @@
     <row r="18" spans="1:33" ht="48.5" customHeight="1">
       <c r="A18" s="66"/>
       <c r="B18" s="33" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>882</v>
@@ -14121,13 +14122,13 @@
         <v>900</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>882</v>
@@ -14169,16 +14170,16 @@
         <v>20</v>
       </c>
       <c r="W18" s="31" t="s">
+        <v>1892</v>
+      </c>
+      <c r="X18" s="31" t="s">
         <v>1893</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="Y18" s="31" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Z18" s="31" t="s">
         <v>1894</v>
-      </c>
-      <c r="Y18" s="31" t="s">
-        <v>1845</v>
-      </c>
-      <c r="Z18" s="31" t="s">
-        <v>1895</v>
       </c>
       <c r="AA18" s="32">
         <f>IF(W18="-","-",VLOOKUP(W18,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -14212,10 +14213,10 @@
     <row r="19" spans="1:33" ht="48.5" customHeight="1">
       <c r="A19" s="66"/>
       <c r="B19" s="33" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>882</v>
@@ -14227,13 +14228,13 @@
         <v>901</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>882</v>
@@ -14245,7 +14246,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>907</v>
@@ -14275,16 +14276,16 @@
         <v>20</v>
       </c>
       <c r="W19" s="31" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="X19" s="31" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="Y19" s="31" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="Z19" s="31" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="AA19" s="32">
         <f>IF(W19="-","-",VLOOKUP(W19,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -14318,10 +14319,10 @@
     <row r="20" spans="1:33" ht="48.5" customHeight="1">
       <c r="A20" s="66"/>
       <c r="B20" s="33" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>882</v>
@@ -14333,13 +14334,13 @@
         <v>909</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J20" s="37" t="s">
         <v>882</v>
@@ -14351,10 +14352,10 @@
         <v>20</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>20</v>
@@ -14424,13 +14425,13 @@
     <row r="21" spans="1:33" ht="48.5" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="33" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E21" s="34">
         <v>97</v>
@@ -14439,10 +14440,10 @@
         <v>909</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>882</v>
@@ -14457,10 +14458,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>917</v>
@@ -14530,7 +14531,7 @@
     <row r="22" spans="1:33" ht="48.5" customHeight="1">
       <c r="A22" s="66"/>
       <c r="B22" s="33" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>882</v>
@@ -14551,7 +14552,7 @@
         <v>882</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J22" s="37" t="s">
         <v>882</v>
@@ -14654,7 +14655,7 @@
         <v>1140</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I23" s="31" t="s">
         <v>882</v>
@@ -14760,7 +14761,7 @@
         <v>1141</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I24" s="31" t="s">
         <v>882</v>
@@ -14866,7 +14867,7 @@
         <v>1142</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I25" s="31" t="s">
         <v>882</v>
@@ -14972,10 +14973,10 @@
         <v>1143</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>882</v>
@@ -15026,7 +15027,7 @@
         <v>1143</v>
       </c>
       <c r="Z26" s="31" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="AA26" s="32">
         <f>IF(W26="-","-",VLOOKUP(W26,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15078,7 +15079,7 @@
         <v>1144</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>882</v>
@@ -15184,7 +15185,7 @@
         <v>1145</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I28" s="31" t="s">
         <v>882</v>
@@ -15290,10 +15291,10 @@
         <v>1146</v>
       </c>
       <c r="H29" s="36" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I29" s="31" t="s">
         <v>1517</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>1518</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>882</v>
@@ -15344,7 +15345,7 @@
         <v>1146</v>
       </c>
       <c r="Z29" s="31" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="AA29" s="32">
         <f>IF(W29="-","-",VLOOKUP(W29,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15396,7 +15397,7 @@
         <v>1147</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>882</v>
@@ -15499,10 +15500,10 @@
         <v>900</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="I31" s="31" t="s">
         <v>882</v>
@@ -15608,7 +15609,7 @@
         <v>1148</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I32" s="31" t="s">
         <v>882</v>
@@ -15714,10 +15715,10 @@
         <v>1149</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>882</v>
@@ -15768,7 +15769,7 @@
         <v>1149</v>
       </c>
       <c r="Z33" s="40" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="AA33" s="32">
         <f>IF(W33="-","-",VLOOKUP(W33,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -15805,7 +15806,7 @@
         <v>926</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>927</v>
@@ -15820,7 +15821,7 @@
         <v>1150</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I34" s="31" t="s">
         <v>882</v>
@@ -15911,7 +15912,7 @@
         <v>927</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>882</v>
@@ -15926,10 +15927,10 @@
         <v>1151</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I35" s="31" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>882</v>
@@ -15980,7 +15981,7 @@
         <v>1151</v>
       </c>
       <c r="Z35" s="31" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AA35" s="32">
         <f>IF(W35="-","-",VLOOKUP(W35,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -16014,7 +16015,7 @@
     <row r="36" spans="1:33" ht="48.5" customHeight="1">
       <c r="A36" s="66"/>
       <c r="B36" s="33" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>882</v>
@@ -16035,7 +16036,7 @@
         <v>882</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>882</v>
@@ -16138,7 +16139,7 @@
         <v>1152</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>882</v>
@@ -16244,7 +16245,7 @@
         <v>1153</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>882</v>
@@ -16350,7 +16351,7 @@
         <v>1154</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>882</v>
@@ -16456,7 +16457,7 @@
         <v>1155</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>882</v>
@@ -16562,7 +16563,7 @@
         <v>1156</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>882</v>
@@ -16650,7 +16651,7 @@
     <row r="42" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="45" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>882</v>
@@ -16665,10 +16666,10 @@
         <v>892</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H42" s="47" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="I42" s="48" t="s">
         <v>882</v>
@@ -16756,7 +16757,7 @@
     <row r="43" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A43" s="67"/>
       <c r="B43" s="45" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>882</v>
@@ -16771,10 +16772,10 @@
         <v>900</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="I43" s="50" t="s">
         <v>882</v>
@@ -16862,13 +16863,13 @@
     <row r="44" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A44" s="67"/>
       <c r="B44" s="45" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>882</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E44" s="34">
         <v>113</v>
@@ -16877,10 +16878,10 @@
         <v>882</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="I44" s="50" t="s">
         <v>882</v>
@@ -16901,10 +16902,10 @@
         <v>20</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="P44" s="31" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="Q44" s="31" t="s">
         <v>20</v>
@@ -16968,7 +16969,7 @@
     <row r="45" spans="1:33" s="23" customFormat="1" ht="48.5" customHeight="1">
       <c r="A45" s="67"/>
       <c r="B45" s="45" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>882</v>
@@ -16983,13 +16984,13 @@
         <v>901</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H45" s="49" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I45" s="50" t="s">
         <v>1916</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>1917</v>
       </c>
       <c r="J45" s="31" t="s">
         <v>882</v>
@@ -17007,40 +17008,40 @@
         <v>20</v>
       </c>
       <c r="O45" s="31" t="s">
+        <v>1911</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>1909</v>
+      </c>
+      <c r="Q45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="52" t="s">
+        <v>1890</v>
+      </c>
+      <c r="X45" s="52" t="s">
+        <v>1889</v>
+      </c>
+      <c r="Y45" s="31" t="s">
+        <v>1905</v>
+      </c>
+      <c r="Z45" s="31" t="s">
         <v>1912</v>
-      </c>
-      <c r="P45" s="31" t="s">
-        <v>1910</v>
-      </c>
-      <c r="Q45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="S45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="V45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="W45" s="52" t="s">
-        <v>1891</v>
-      </c>
-      <c r="X45" s="52" t="s">
-        <v>1890</v>
-      </c>
-      <c r="Y45" s="31" t="s">
-        <v>1906</v>
-      </c>
-      <c r="Z45" s="31" t="s">
-        <v>1913</v>
       </c>
       <c r="AA45" s="32">
         <f>IF(W45="-","-",VLOOKUP(W45,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17092,7 +17093,7 @@
         <v>1157</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="I46" s="31" t="s">
         <v>882</v>
@@ -17198,7 +17199,7 @@
         <v>1158</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I47" s="31" t="s">
         <v>882</v>
@@ -17304,7 +17305,7 @@
         <v>1159</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I48" s="31" t="s">
         <v>882</v>
@@ -17410,7 +17411,7 @@
         <v>1160</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I49" s="31" t="s">
         <v>882</v>
@@ -17516,7 +17517,7 @@
         <v>1161</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I50" s="31" t="s">
         <v>882</v>
@@ -17622,10 +17623,10 @@
         <v>1162</v>
       </c>
       <c r="H51" s="36" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I51" s="31" t="s">
         <v>1526</v>
-      </c>
-      <c r="I51" s="31" t="s">
-        <v>1527</v>
       </c>
       <c r="J51" s="31" t="s">
         <v>882</v>
@@ -17676,7 +17677,7 @@
         <v>1162</v>
       </c>
       <c r="Z51" s="31" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="AA51" s="32">
         <f>IF(W51="-","-",VLOOKUP(W51,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17728,7 +17729,7 @@
         <v>1163</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I52" s="31" t="s">
         <v>882</v>
@@ -17834,10 +17835,10 @@
         <v>1164</v>
       </c>
       <c r="H53" s="36" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I53" s="31" t="s">
         <v>1528</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>1529</v>
       </c>
       <c r="J53" s="31" t="s">
         <v>882</v>
@@ -17888,7 +17889,7 @@
         <v>1164</v>
       </c>
       <c r="Z53" s="31" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="AA53" s="32">
         <f>IF(W53="-","-",VLOOKUP(W53,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -17940,7 +17941,7 @@
         <v>1165</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I54" s="31" t="s">
         <v>882</v>
@@ -18046,10 +18047,10 @@
         <v>1166</v>
       </c>
       <c r="H55" s="36" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I55" s="31" t="s">
         <v>1530</v>
-      </c>
-      <c r="I55" s="31" t="s">
-        <v>1531</v>
       </c>
       <c r="J55" s="31" t="s">
         <v>882</v>
@@ -18100,7 +18101,7 @@
         <v>1166</v>
       </c>
       <c r="Z55" s="31" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="AA55" s="32">
         <f>IF(W55="-","-",VLOOKUP(W55,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18152,7 +18153,7 @@
         <v>1167</v>
       </c>
       <c r="H56" s="36" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I56" s="31" t="s">
         <v>882</v>
@@ -18258,10 +18259,10 @@
         <v>1168</v>
       </c>
       <c r="H57" s="36" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I57" s="31" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="J57" s="31" t="s">
         <v>882</v>
@@ -18312,7 +18313,7 @@
         <v>1168</v>
       </c>
       <c r="Z57" s="31" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="AA57" s="32">
         <f>IF(W57="-","-",VLOOKUP(W57,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18364,7 +18365,7 @@
         <v>1169</v>
       </c>
       <c r="H58" s="36" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I58" s="31" t="s">
         <v>882</v>
@@ -18418,7 +18419,7 @@
         <v>1169</v>
       </c>
       <c r="Z58" s="31" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="AA58" s="32">
         <f>IF(W58="-","-",VLOOKUP(W58,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18470,13 +18471,13 @@
         <v>1170</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I59" s="31" t="s">
         <v>882</v>
       </c>
       <c r="J59" s="31" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K59" s="31" t="s">
         <v>903</v>
@@ -18573,13 +18574,13 @@
         <v>901</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H60" s="36" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I60" s="31" t="s">
         <v>1535</v>
-      </c>
-      <c r="I60" s="31" t="s">
-        <v>1536</v>
       </c>
       <c r="J60" s="31" t="s">
         <v>882</v>
@@ -18588,7 +18589,7 @@
         <v>912</v>
       </c>
       <c r="L60" s="31" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="M60" s="31" t="s">
         <v>892</v>
@@ -18682,10 +18683,10 @@
         <v>1172</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I61" s="31" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="J61" s="31" t="s">
         <v>882</v>
@@ -18694,7 +18695,7 @@
         <v>912</v>
       </c>
       <c r="L61" s="31" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="M61" s="31" t="s">
         <v>908</v>
@@ -18736,7 +18737,7 @@
         <v>1172</v>
       </c>
       <c r="Z61" s="31" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="AA61" s="32">
         <f>IF(W61="-","-",VLOOKUP(W61,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -18788,10 +18789,10 @@
         <v>1172</v>
       </c>
       <c r="H62" s="36" t="s">
+        <v>1537</v>
+      </c>
+      <c r="I62" s="31" t="s">
         <v>1538</v>
-      </c>
-      <c r="I62" s="31" t="s">
-        <v>1539</v>
       </c>
       <c r="J62" s="31" t="s">
         <v>902</v>
@@ -18894,7 +18895,7 @@
         <v>1173</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I63" s="31" t="s">
         <v>882</v>
@@ -18997,13 +18998,13 @@
         <v>892</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H64" s="36" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I64" s="31" t="s">
         <v>1540</v>
-      </c>
-      <c r="I64" s="31" t="s">
-        <v>1541</v>
       </c>
       <c r="J64" s="31" t="s">
         <v>882</v>
@@ -19054,7 +19055,7 @@
         <v>1174</v>
       </c>
       <c r="Z64" s="31" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="AA64" s="32">
         <f>IF(W64="-","-",VLOOKUP(W64,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19106,10 +19107,10 @@
         <v>1175</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J65" s="31" t="s">
         <v>882</v>
@@ -19136,7 +19137,7 @@
         <v>882</v>
       </c>
       <c r="R65" s="31" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="S65" s="31" t="s">
         <v>882</v>
@@ -19212,10 +19213,10 @@
         <v>1176</v>
       </c>
       <c r="H66" s="36" t="s">
+        <v>1542</v>
+      </c>
+      <c r="I66" s="31" t="s">
         <v>1543</v>
-      </c>
-      <c r="I66" s="31" t="s">
-        <v>1544</v>
       </c>
       <c r="J66" s="31" t="s">
         <v>882</v>
@@ -19224,7 +19225,7 @@
         <v>912</v>
       </c>
       <c r="L66" s="31" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="M66" s="31" t="s">
         <v>898</v>
@@ -19239,7 +19240,7 @@
         <v>639</v>
       </c>
       <c r="Q66" s="31" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R66" s="31" t="s">
         <v>882</v>
@@ -19266,7 +19267,7 @@
         <v>1176</v>
       </c>
       <c r="Z66" s="31" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="AA66" s="32">
         <f>IF(W66="-","-",VLOOKUP(W66,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19318,7 +19319,7 @@
         <v>1177</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I67" s="31" t="s">
         <v>882</v>
@@ -19424,7 +19425,7 @@
         <v>1178</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I68" s="31" t="s">
         <v>882</v>
@@ -19530,7 +19531,7 @@
         <v>1179</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>882</v>
@@ -19636,7 +19637,7 @@
         <v>1180</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I70" s="31" t="s">
         <v>882</v>
@@ -19742,10 +19743,10 @@
         <v>1181</v>
       </c>
       <c r="H71" s="36" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I71" s="31" t="s">
         <v>1545</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>1546</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>882</v>
@@ -19796,7 +19797,7 @@
         <v>1181</v>
       </c>
       <c r="Z71" s="31" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="AA71" s="32">
         <f>IF(W71="-","-",VLOOKUP(W71,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -19848,7 +19849,7 @@
         <v>1182</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I72" s="31" t="s">
         <v>882</v>
@@ -19954,7 +19955,7 @@
         <v>1183</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I73" s="31" t="s">
         <v>882</v>
@@ -20060,10 +20061,10 @@
         <v>1184</v>
       </c>
       <c r="H74" s="36" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I74" s="31" t="s">
         <v>1547</v>
-      </c>
-      <c r="I74" s="31" t="s">
-        <v>1548</v>
       </c>
       <c r="J74" s="31" t="s">
         <v>882</v>
@@ -20114,7 +20115,7 @@
         <v>1184</v>
       </c>
       <c r="Z74" s="31" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="AA74" s="32">
         <f>IF(W74="-","-",VLOOKUP(W74,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20166,7 +20167,7 @@
         <v>1185</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I75" s="31" t="s">
         <v>882</v>
@@ -20272,10 +20273,10 @@
         <v>1186</v>
       </c>
       <c r="H76" s="36" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I76" s="31" t="s">
         <v>1550</v>
-      </c>
-      <c r="I76" s="31" t="s">
-        <v>1551</v>
       </c>
       <c r="J76" s="31" t="s">
         <v>882</v>
@@ -20326,7 +20327,7 @@
         <v>1186</v>
       </c>
       <c r="Z76" s="31" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="AA76" s="32">
         <f>IF(W76="-","-",VLOOKUP(W76,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20378,7 +20379,7 @@
         <v>1187</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I77" s="31" t="s">
         <v>882</v>
@@ -20484,7 +20485,7 @@
         <v>1188</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I78" s="31" t="s">
         <v>882</v>
@@ -20590,10 +20591,10 @@
         <v>1189</v>
       </c>
       <c r="H79" s="36" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I79" s="31" t="s">
         <v>1552</v>
-      </c>
-      <c r="I79" s="31" t="s">
-        <v>1553</v>
       </c>
       <c r="J79" s="31" t="s">
         <v>882</v>
@@ -20644,7 +20645,7 @@
         <v>1189</v>
       </c>
       <c r="Z79" s="31" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="AA79" s="32">
         <f>IF(W79="-","-",VLOOKUP(W79,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20696,7 +20697,7 @@
         <v>1190</v>
       </c>
       <c r="H80" s="36" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I80" s="31" t="s">
         <v>882</v>
@@ -20802,10 +20803,10 @@
         <v>1191</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J81" s="31" t="s">
         <v>882</v>
@@ -20856,7 +20857,7 @@
         <v>1191</v>
       </c>
       <c r="Z81" s="31" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="AA81" s="32">
         <f>IF(W81="-","-",VLOOKUP(W81,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -20908,7 +20909,7 @@
         <v>1192</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I82" s="31" t="s">
         <v>882</v>
@@ -20938,7 +20939,7 @@
         <v>882</v>
       </c>
       <c r="R82" s="31" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="S82" s="31" t="s">
         <v>882</v>
@@ -21014,10 +21015,10 @@
         <v>1193</v>
       </c>
       <c r="H83" s="36" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J83" s="31" t="s">
         <v>882</v>
@@ -21026,7 +21027,7 @@
         <v>912</v>
       </c>
       <c r="L83" s="31" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="M83" s="31" t="s">
         <v>895</v>
@@ -21041,7 +21042,7 @@
         <v>639</v>
       </c>
       <c r="Q83" s="31" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="R83" s="31" t="s">
         <v>882</v>
@@ -21068,7 +21069,7 @@
         <v>1193</v>
       </c>
       <c r="Z83" s="31" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="AA83" s="32">
         <f>IF(W83="-","-",VLOOKUP(W83,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21120,7 +21121,7 @@
         <v>1194</v>
       </c>
       <c r="H84" s="36" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I84" s="31" t="s">
         <v>882</v>
@@ -21226,10 +21227,10 @@
         <v>1195</v>
       </c>
       <c r="H85" s="36" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I85" s="31" t="s">
         <v>1557</v>
-      </c>
-      <c r="I85" s="31" t="s">
-        <v>1558</v>
       </c>
       <c r="J85" s="31" t="s">
         <v>882</v>
@@ -21280,7 +21281,7 @@
         <v>1195</v>
       </c>
       <c r="Z85" s="31" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="AA85" s="32">
         <f>IF(W85="-","-",VLOOKUP(W85,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21332,7 +21333,7 @@
         <v>1196</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I86" s="31" t="s">
         <v>882</v>
@@ -21438,10 +21439,10 @@
         <v>1197</v>
       </c>
       <c r="H87" s="36" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I87" s="31" t="s">
         <v>1559</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>1560</v>
       </c>
       <c r="J87" s="31" t="s">
         <v>882</v>
@@ -21492,7 +21493,7 @@
         <v>1197</v>
       </c>
       <c r="Z87" s="31" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="AA87" s="32">
         <f>IF(W87="-","-",VLOOKUP(W87,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21544,7 +21545,7 @@
         <v>1198</v>
       </c>
       <c r="H88" s="36" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I88" s="31" t="s">
         <v>882</v>
@@ -21650,7 +21651,7 @@
         <v>1199</v>
       </c>
       <c r="H89" s="36" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I89" s="31" t="s">
         <v>882</v>
@@ -21756,7 +21757,7 @@
         <v>1200</v>
       </c>
       <c r="H90" s="36" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I90" s="31" t="s">
         <v>882</v>
@@ -21862,10 +21863,10 @@
         <v>1201</v>
       </c>
       <c r="H91" s="36" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I91" s="31" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J91" s="31" t="s">
         <v>882</v>
@@ -21916,7 +21917,7 @@
         <v>1201</v>
       </c>
       <c r="Z91" s="31" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="AA91" s="32">
         <f>IF(W91="-","-",VLOOKUP(W91,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -21950,7 +21951,7 @@
     <row r="92" spans="1:33" ht="48.5" customHeight="1">
       <c r="A92" s="66"/>
       <c r="B92" s="33" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>882</v>
@@ -21968,7 +21969,7 @@
         <v>1202</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I92" s="31" t="s">
         <v>882</v>
@@ -22022,7 +22023,7 @@
         <v>1202</v>
       </c>
       <c r="Z92" s="31" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="AA92" s="32">
         <f>IF(W92="-","-",VLOOKUP(W92,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22056,7 +22057,7 @@
     <row r="93" spans="1:33" ht="48.5" customHeight="1">
       <c r="A93" s="66"/>
       <c r="B93" s="33" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>882</v>
@@ -22074,7 +22075,7 @@
         <v>1203</v>
       </c>
       <c r="H93" s="36" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I93" s="31" t="s">
         <v>882</v>
@@ -22128,7 +22129,7 @@
         <v>1203</v>
       </c>
       <c r="Z93" s="31" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="AA93" s="32">
         <f>IF(W93="-","-",VLOOKUP(W93,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22162,7 +22163,7 @@
     <row r="94" spans="1:33" ht="48.5" customHeight="1">
       <c r="A94" s="66"/>
       <c r="B94" s="33" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>882</v>
@@ -22180,7 +22181,7 @@
         <v>1204</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I94" s="31" t="s">
         <v>882</v>
@@ -22234,7 +22235,7 @@
         <v>1204</v>
       </c>
       <c r="Z94" s="31" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AA94" s="32">
         <f>IF(W94="-","-",VLOOKUP(W94,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22286,7 +22287,7 @@
         <v>1205</v>
       </c>
       <c r="H95" s="36" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I95" s="31" t="s">
         <v>882</v>
@@ -22392,10 +22393,10 @@
         <v>1206</v>
       </c>
       <c r="H96" s="36" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I96" s="31" t="s">
         <v>1565</v>
-      </c>
-      <c r="I96" s="31" t="s">
-        <v>1566</v>
       </c>
       <c r="J96" s="31" t="s">
         <v>882</v>
@@ -22446,7 +22447,7 @@
         <v>1206</v>
       </c>
       <c r="Z96" s="31" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="AA96" s="32">
         <f>IF(W96="-","-",VLOOKUP(W96,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22498,7 +22499,7 @@
         <v>1207</v>
       </c>
       <c r="H97" s="36" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="I97" s="53" t="s">
         <v>882</v>
@@ -22604,10 +22605,10 @@
         <v>1208</v>
       </c>
       <c r="H98" s="36" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="J98" s="31" t="s">
         <v>882</v>
@@ -22658,7 +22659,7 @@
         <v>1208</v>
       </c>
       <c r="Z98" s="31" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AA98" s="32">
         <f>IF(W98="-","-",VLOOKUP(W98,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22710,10 +22711,10 @@
         <v>1209</v>
       </c>
       <c r="H99" s="36" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I99" s="31" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="J99" s="31" t="s">
         <v>882</v>
@@ -22764,7 +22765,7 @@
         <v>1209</v>
       </c>
       <c r="Z99" s="31" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AA99" s="32">
         <f>IF(W99="-","-",VLOOKUP(W99,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -22816,7 +22817,7 @@
         <v>1210</v>
       </c>
       <c r="H100" s="36" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I100" s="31" t="s">
         <v>882</v>
@@ -22922,13 +22923,13 @@
         <v>1211</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I101" s="31" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="J101" s="31" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K101" s="31" t="s">
         <v>912</v>
@@ -22976,7 +22977,7 @@
         <v>1211</v>
       </c>
       <c r="Z101" s="31" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AA101" s="32">
         <f>IF(W101="-","-",VLOOKUP(W101,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23028,7 +23029,7 @@
         <v>1212</v>
       </c>
       <c r="H102" s="36" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I102" s="31" t="s">
         <v>882</v>
@@ -23134,10 +23135,10 @@
         <v>1213</v>
       </c>
       <c r="H103" s="36" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I103" s="31" t="s">
         <v>1571</v>
-      </c>
-      <c r="I103" s="31" t="s">
-        <v>1572</v>
       </c>
       <c r="J103" s="31" t="s">
         <v>882</v>
@@ -23188,7 +23189,7 @@
         <v>1213</v>
       </c>
       <c r="Z103" s="31" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="AA103" s="32">
         <f>IF(W103="-","-",VLOOKUP(W103,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23240,10 +23241,10 @@
         <v>1214</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I104" s="31" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="J104" s="31" t="s">
         <v>882</v>
@@ -23294,7 +23295,7 @@
         <v>1214</v>
       </c>
       <c r="Z104" s="31" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="AA104" s="32">
         <f>IF(W104="-","-",VLOOKUP(W104,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23346,7 +23347,7 @@
         <v>1215</v>
       </c>
       <c r="H105" s="36" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I105" s="31" t="s">
         <v>882</v>
@@ -23452,7 +23453,7 @@
         <v>1216</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I106" s="31" t="s">
         <v>882</v>
@@ -23558,10 +23559,10 @@
         <v>1217</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I107" s="31" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="J107" s="31" t="s">
         <v>882</v>
@@ -23612,7 +23613,7 @@
         <v>1217</v>
       </c>
       <c r="Z107" s="31" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="AA107" s="32">
         <f>IF(W107="-","-",VLOOKUP(W107,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23664,7 +23665,7 @@
         <v>1218</v>
       </c>
       <c r="H108" s="36" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I108" s="31" t="s">
         <v>882</v>
@@ -23770,10 +23771,10 @@
         <v>1219</v>
       </c>
       <c r="H109" s="36" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="I109" s="31" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="J109" s="31" t="s">
         <v>882</v>
@@ -23824,7 +23825,7 @@
         <v>1219</v>
       </c>
       <c r="Z109" s="31" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="AA109" s="32">
         <f>IF(W109="-","-",VLOOKUP(W109,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -23876,7 +23877,7 @@
         <v>1220</v>
       </c>
       <c r="H110" s="36" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I110" s="31" t="s">
         <v>882</v>
@@ -23982,10 +23983,10 @@
         <v>1221</v>
       </c>
       <c r="H111" s="36" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I111" s="31" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="J111" s="31" t="s">
         <v>882</v>
@@ -24036,7 +24037,7 @@
         <v>1221</v>
       </c>
       <c r="Z111" s="31" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="AA111" s="32">
         <f>IF(W111="-","-",VLOOKUP(W111,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24085,10 +24086,10 @@
         <v>910</v>
       </c>
       <c r="G112" s="54" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I112" s="31" t="s">
         <v>882</v>
@@ -24176,7 +24177,7 @@
     <row r="113" spans="1:33" ht="48.5" customHeight="1">
       <c r="A113" s="66"/>
       <c r="B113" s="33" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C113" s="33" t="s">
         <v>882</v>
@@ -24194,7 +24195,7 @@
         <v>1222</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I113" s="31" t="s">
         <v>882</v>
@@ -24282,7 +24283,7 @@
     <row r="114" spans="1:33" ht="48.5" customHeight="1">
       <c r="A114" s="66"/>
       <c r="B114" s="33" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>882</v>
@@ -24300,7 +24301,7 @@
         <v>1223</v>
       </c>
       <c r="H114" s="36" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I114" s="31" t="s">
         <v>882</v>
@@ -24406,7 +24407,7 @@
         <v>1224</v>
       </c>
       <c r="H115" s="36" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I115" s="31" t="s">
         <v>882</v>
@@ -24512,10 +24513,10 @@
         <v>1225</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I116" s="31" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="J116" s="31" t="s">
         <v>882</v>
@@ -24566,7 +24567,7 @@
         <v>1225</v>
       </c>
       <c r="Z116" s="31" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="AA116" s="32">
         <f>IF(W116="-","-",VLOOKUP(W116,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24618,7 +24619,7 @@
         <v>1226</v>
       </c>
       <c r="H117" s="36" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I117" s="31" t="s">
         <v>882</v>
@@ -24724,10 +24725,10 @@
         <v>1227</v>
       </c>
       <c r="H118" s="36" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I118" s="31" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J118" s="31" t="s">
         <v>882</v>
@@ -24778,7 +24779,7 @@
         <v>1227</v>
       </c>
       <c r="Z118" s="31" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="AA118" s="32">
         <f>IF(W118="-","-",VLOOKUP(W118,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -24830,7 +24831,7 @@
         <v>1228</v>
       </c>
       <c r="H119" s="36" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I119" s="31" t="s">
         <v>882</v>
@@ -24936,10 +24937,10 @@
         <v>1229</v>
       </c>
       <c r="H120" s="36" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="I120" s="31" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="J120" s="31" t="s">
         <v>882</v>
@@ -24990,7 +24991,7 @@
         <v>1229</v>
       </c>
       <c r="Z120" s="31" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="AA120" s="32">
         <f>IF(W120="-","-",VLOOKUP(W120,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25042,7 +25043,7 @@
         <v>1230</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I121" s="31" t="s">
         <v>882</v>
@@ -25148,7 +25149,7 @@
         <v>1231</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I122" s="31" t="s">
         <v>882</v>
@@ -25254,10 +25255,10 @@
         <v>1232</v>
       </c>
       <c r="H123" s="36" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I123" s="31" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="J123" s="31" t="s">
         <v>882</v>
@@ -25308,7 +25309,7 @@
         <v>1232</v>
       </c>
       <c r="Z123" s="31" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="AA123" s="32">
         <f>IF(W123="-","-",VLOOKUP(W123,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25360,7 +25361,7 @@
         <v>1233</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I124" s="31" t="s">
         <v>882</v>
@@ -25466,7 +25467,7 @@
         <v>1234</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="I125" s="31" t="s">
         <v>882</v>
@@ -25572,7 +25573,7 @@
         <v>1235</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="I126" s="31" t="s">
         <v>882</v>
@@ -25678,10 +25679,10 @@
         <v>1236</v>
       </c>
       <c r="H127" s="36" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I127" s="31" t="s">
         <v>1582</v>
-      </c>
-      <c r="I127" s="31" t="s">
-        <v>1583</v>
       </c>
       <c r="J127" s="31" t="s">
         <v>882</v>
@@ -25732,7 +25733,7 @@
         <v>1236</v>
       </c>
       <c r="Z127" s="31" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="AA127" s="32">
         <f>IF(W127="-","-",VLOOKUP(W127,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25766,7 +25767,7 @@
     <row r="128" spans="1:33" ht="48.5" customHeight="1">
       <c r="A128" s="66"/>
       <c r="B128" s="33" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>882</v>
@@ -25781,10 +25782,10 @@
         <v>882</v>
       </c>
       <c r="G128" s="54" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H128" s="36" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="I128" s="55" t="s">
         <v>882</v>
@@ -25872,7 +25873,7 @@
     <row r="129" spans="1:33" ht="48.5" customHeight="1">
       <c r="A129" s="66"/>
       <c r="B129" s="33" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>882</v>
@@ -25887,13 +25888,13 @@
         <v>892</v>
       </c>
       <c r="G129" s="54" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H129" s="36" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I129" s="55" t="s">
         <v>1923</v>
-      </c>
-      <c r="I129" s="55" t="s">
-        <v>1924</v>
       </c>
       <c r="J129" s="55" t="s">
         <v>882</v>
@@ -25935,16 +25936,16 @@
         <v>882</v>
       </c>
       <c r="W129" s="31" t="s">
+        <v>1924</v>
+      </c>
+      <c r="X129" s="31" t="s">
         <v>1925</v>
       </c>
-      <c r="X129" s="31" t="s">
-        <v>1926</v>
-      </c>
       <c r="Y129" s="31" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="Z129" s="31" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="AA129" s="32">
         <f>IF(W129="-","-",VLOOKUP(W129,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -25996,7 +25997,7 @@
         <v>1237</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I130" s="31" t="s">
         <v>882</v>
@@ -26102,10 +26103,10 @@
         <v>1238</v>
       </c>
       <c r="H131" s="36" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I131" s="31" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J131" s="31" t="s">
         <v>882</v>
@@ -26156,7 +26157,7 @@
         <v>1238</v>
       </c>
       <c r="Z131" s="31" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="AA131" s="32">
         <f>IF(W131="-","-",VLOOKUP(W131,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26208,7 +26209,7 @@
         <v>1239</v>
       </c>
       <c r="H132" s="36" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I132" s="53" t="s">
         <v>882</v>
@@ -26314,10 +26315,10 @@
         <v>1240</v>
       </c>
       <c r="H133" s="36" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I133" s="31" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="J133" s="31" t="s">
         <v>882</v>
@@ -26368,7 +26369,7 @@
         <v>1240</v>
       </c>
       <c r="Z133" s="31" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="AA133" s="32">
         <f>IF(W133="-","-",VLOOKUP(W133,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26420,7 +26421,7 @@
         <v>1241</v>
       </c>
       <c r="H134" s="36" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I134" s="31" t="s">
         <v>882</v>
@@ -26526,10 +26527,10 @@
         <v>1242</v>
       </c>
       <c r="H135" s="36" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="I135" s="31" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="J135" s="31" t="s">
         <v>882</v>
@@ -26580,7 +26581,7 @@
         <v>1242</v>
       </c>
       <c r="Z135" s="31" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="AA135" s="32">
         <f>IF(W135="-","-",VLOOKUP(W135,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26632,7 +26633,7 @@
         <v>1243</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I136" s="31" t="s">
         <v>882</v>
@@ -26738,10 +26739,10 @@
         <v>1244</v>
       </c>
       <c r="H137" s="36" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I137" s="31" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="J137" s="31" t="s">
         <v>882</v>
@@ -26792,7 +26793,7 @@
         <v>1244</v>
       </c>
       <c r="Z137" s="31" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="AA137" s="32">
         <f>IF(W137="-","-",VLOOKUP(W137,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -26844,7 +26845,7 @@
         <v>1245</v>
       </c>
       <c r="H138" s="36" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I138" s="31" t="s">
         <v>882</v>
@@ -26932,7 +26933,7 @@
     <row r="139" spans="1:33" ht="48.5" customHeight="1">
       <c r="A139" s="66"/>
       <c r="B139" s="51" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C139" s="33" t="s">
         <v>882</v>
@@ -26947,10 +26948,10 @@
         <v>882</v>
       </c>
       <c r="G139" s="54" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="H139" s="36" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="I139" s="31" t="s">
         <v>882</v>
@@ -27038,7 +27039,7 @@
     <row r="140" spans="1:33" ht="48.5" customHeight="1">
       <c r="A140" s="66"/>
       <c r="B140" s="51" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>882</v>
@@ -27053,10 +27054,10 @@
         <v>898</v>
       </c>
       <c r="G140" s="54" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H140" s="36" t="s">
         <v>1933</v>
-      </c>
-      <c r="H140" s="36" t="s">
-        <v>1934</v>
       </c>
       <c r="I140" s="31" t="s">
         <v>882</v>
@@ -27101,16 +27102,16 @@
         <v>20</v>
       </c>
       <c r="W140" s="31" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="X140" s="31" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="Y140" s="31" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="Z140" s="31" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="AA140" s="32">
         <f>IF(W140="-","-",VLOOKUP(W140,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27144,13 +27145,13 @@
     <row r="141" spans="1:33" ht="48.5" customHeight="1">
       <c r="A141" s="66"/>
       <c r="B141" s="33" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E141" s="34">
         <v>130</v>
@@ -27159,10 +27160,10 @@
         <v>882</v>
       </c>
       <c r="G141" s="35" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H141" s="36" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="I141" s="55" t="s">
         <v>882</v>
@@ -27265,13 +27266,13 @@
         <v>892</v>
       </c>
       <c r="G142" s="35" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="H142" s="36" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I142" s="55" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="J142" s="55" t="s">
         <v>882</v>
@@ -27313,16 +27314,16 @@
         <v>20</v>
       </c>
       <c r="W142" s="31" t="s">
+        <v>1811</v>
+      </c>
+      <c r="X142" s="31" t="s">
         <v>1812</v>
       </c>
-      <c r="X142" s="31" t="s">
-        <v>1813</v>
-      </c>
       <c r="Y142" s="31" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="Z142" s="31" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="AA142" s="32">
         <f>IF(W142="-","-",VLOOKUP(W142,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27371,10 +27372,10 @@
         <v>900</v>
       </c>
       <c r="G143" s="54" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H143" s="36" t="s">
         <v>1938</v>
-      </c>
-      <c r="H143" s="36" t="s">
-        <v>1939</v>
       </c>
       <c r="I143" s="31" t="s">
         <v>882</v>
@@ -27462,7 +27463,7 @@
     <row r="144" spans="1:33" ht="48.5" customHeight="1">
       <c r="A144" s="66"/>
       <c r="B144" s="33" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>882</v>
@@ -27480,7 +27481,7 @@
         <v>1246</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I144" s="31" t="s">
         <v>882</v>
@@ -27568,13 +27569,13 @@
     <row r="145" spans="1:33" ht="48.5" customHeight="1">
       <c r="A145" s="66"/>
       <c r="B145" s="33" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D145" s="33" t="s">
         <v>2033</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D145" s="33" t="s">
-        <v>2034</v>
       </c>
       <c r="E145" s="34">
         <v>130</v>
@@ -27586,7 +27587,7 @@
         <v>1247</v>
       </c>
       <c r="H145" s="36" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I145" s="31" t="s">
         <v>882</v>
@@ -27674,7 +27675,7 @@
     <row r="146" spans="1:33" ht="48.5" customHeight="1">
       <c r="A146" s="66"/>
       <c r="B146" s="33" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>882</v>
@@ -27692,10 +27693,10 @@
         <v>1248</v>
       </c>
       <c r="H146" s="36" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I146" s="31" t="s">
         <v>1587</v>
-      </c>
-      <c r="I146" s="31" t="s">
-        <v>1588</v>
       </c>
       <c r="J146" s="31" t="s">
         <v>882</v>
@@ -27746,7 +27747,7 @@
         <v>1248</v>
       </c>
       <c r="Z146" s="31" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="AA146" s="32">
         <f>IF(W146="-","-",VLOOKUP(W146,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -27780,13 +27781,13 @@
     <row r="147" spans="1:33" ht="48.5" customHeight="1">
       <c r="A147" s="66"/>
       <c r="B147" s="33" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D147" s="33" t="s">
         <v>2035</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>2036</v>
       </c>
       <c r="E147" s="34">
         <v>130</v>
@@ -27798,7 +27799,7 @@
         <v>1249</v>
       </c>
       <c r="H147" s="36" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I147" s="31" t="s">
         <v>882</v>
@@ -27886,7 +27887,7 @@
     <row r="148" spans="1:33" ht="48.5" customHeight="1">
       <c r="A148" s="66"/>
       <c r="B148" s="33" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C148" s="33" t="s">
         <v>882</v>
@@ -27904,10 +27905,10 @@
         <v>1250</v>
       </c>
       <c r="H148" s="36" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I148" s="31" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="J148" s="31" t="s">
         <v>882</v>
@@ -27958,7 +27959,7 @@
         <v>1250</v>
       </c>
       <c r="Z148" s="31" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="AA148" s="32">
         <f>IF(W148="-","-",VLOOKUP(W148,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28010,7 +28011,7 @@
         <v>1251</v>
       </c>
       <c r="H149" s="36" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I149" s="31" t="s">
         <v>882</v>
@@ -28116,10 +28117,10 @@
         <v>1252</v>
       </c>
       <c r="H150" s="36" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I150" s="31" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="J150" s="31" t="s">
         <v>882</v>
@@ -28170,7 +28171,7 @@
         <v>1252</v>
       </c>
       <c r="Z150" s="31" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="AA150" s="32">
         <f>IF(W150="-","-",VLOOKUP(W150,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28222,7 +28223,7 @@
         <v>1253</v>
       </c>
       <c r="H151" s="36" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I151" s="31" t="s">
         <v>882</v>
@@ -28328,10 +28329,10 @@
         <v>1254</v>
       </c>
       <c r="H152" s="36" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I152" s="31" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="J152" s="31" t="s">
         <v>882</v>
@@ -28382,7 +28383,7 @@
         <v>1254</v>
       </c>
       <c r="Z152" s="31" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="AA152" s="32">
         <f>IF(W152="-","-",VLOOKUP(W152,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28434,7 +28435,7 @@
         <v>1255</v>
       </c>
       <c r="H153" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="I153" s="31" t="s">
         <v>882</v>
@@ -28540,7 +28541,7 @@
         <v>1256</v>
       </c>
       <c r="H154" s="36" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I154" s="31" t="s">
         <v>882</v>
@@ -28646,10 +28647,10 @@
         <v>1257</v>
       </c>
       <c r="H155" s="36" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I155" s="31" t="s">
         <v>1592</v>
-      </c>
-      <c r="I155" s="31" t="s">
-        <v>1593</v>
       </c>
       <c r="J155" s="31" t="s">
         <v>882</v>
@@ -28700,7 +28701,7 @@
         <v>1257</v>
       </c>
       <c r="Z155" s="31" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="AA155" s="32">
         <f>IF(W155="-","-",VLOOKUP(W155,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28752,7 +28753,7 @@
         <v>1258</v>
       </c>
       <c r="H156" s="36" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I156" s="31" t="s">
         <v>882</v>
@@ -28858,10 +28859,10 @@
         <v>1259</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="I157" s="31" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J157" s="31" t="s">
         <v>882</v>
@@ -28912,7 +28913,7 @@
         <v>1259</v>
       </c>
       <c r="Z157" s="31" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="AA157" s="32">
         <f>IF(W157="-","-",VLOOKUP(W157,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -28964,7 +28965,7 @@
         <v>1260</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I158" s="31" t="s">
         <v>882</v>
@@ -29070,7 +29071,7 @@
         <v>1261</v>
       </c>
       <c r="H159" s="36" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I159" s="31" t="s">
         <v>882</v>
@@ -29176,7 +29177,7 @@
         <v>1262</v>
       </c>
       <c r="H160" s="36" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I160" s="31" t="s">
         <v>882</v>
@@ -29282,7 +29283,7 @@
         <v>1263</v>
       </c>
       <c r="H161" s="36" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I161" s="31" t="s">
         <v>882</v>
@@ -29388,10 +29389,10 @@
         <v>1264</v>
       </c>
       <c r="H162" s="36" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I162" s="31" t="s">
         <v>1595</v>
-      </c>
-      <c r="I162" s="31" t="s">
-        <v>1596</v>
       </c>
       <c r="J162" s="31" t="s">
         <v>882</v>
@@ -29442,7 +29443,7 @@
         <v>1264</v>
       </c>
       <c r="Z162" s="31" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="AA162" s="32">
         <f>IF(W162="-","-",VLOOKUP(W162,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29494,7 +29495,7 @@
         <v>1265</v>
       </c>
       <c r="H163" s="36" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I163" s="31" t="s">
         <v>882</v>
@@ -29600,7 +29601,7 @@
         <v>1266</v>
       </c>
       <c r="H164" s="36" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I164" s="31" t="s">
         <v>882</v>
@@ -29706,10 +29707,10 @@
         <v>1267</v>
       </c>
       <c r="H165" s="36" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I165" s="31" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J165" s="31" t="s">
         <v>882</v>
@@ -29760,7 +29761,7 @@
         <v>1267</v>
       </c>
       <c r="Z165" s="31" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="AA165" s="32">
         <f>IF(W165="-","-",VLOOKUP(W165,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29812,10 +29813,10 @@
         <v>1268</v>
       </c>
       <c r="H166" s="36" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="I166" s="31" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="J166" s="31" t="s">
         <v>882</v>
@@ -29866,7 +29867,7 @@
         <v>1268</v>
       </c>
       <c r="Z166" s="31" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="AA166" s="32">
         <f>IF(W166="-","-",VLOOKUP(W166,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -29918,7 +29919,7 @@
         <v>1269</v>
       </c>
       <c r="H167" s="36" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I167" s="31" t="s">
         <v>882</v>
@@ -30024,10 +30025,10 @@
         <v>1270</v>
       </c>
       <c r="H168" s="36" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I168" s="31" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J168" s="31" t="s">
         <v>882</v>
@@ -30078,7 +30079,7 @@
         <v>1270</v>
       </c>
       <c r="Z168" s="31" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="AA168" s="32">
         <f>IF(W168="-","-",VLOOKUP(W168,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30130,7 +30131,7 @@
         <v>1271</v>
       </c>
       <c r="H169" s="36" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I169" s="31" t="s">
         <v>882</v>
@@ -30218,13 +30219,13 @@
     <row r="170" spans="1:33" ht="48.5" customHeight="1">
       <c r="A170" s="66"/>
       <c r="B170" s="51" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D170" s="33" t="s">
         <v>1951</v>
-      </c>
-      <c r="C170" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>1952</v>
       </c>
       <c r="E170" s="34">
         <v>134</v>
@@ -30233,10 +30234,10 @@
         <v>882</v>
       </c>
       <c r="G170" s="54" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H170" s="36" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="I170" s="55" t="s">
         <v>882</v>
@@ -30324,7 +30325,7 @@
     <row r="171" spans="1:33" ht="48.5" customHeight="1">
       <c r="A171" s="66"/>
       <c r="B171" s="51" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>882</v>
@@ -30339,13 +30340,13 @@
         <v>899</v>
       </c>
       <c r="G171" s="54" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H171" s="36" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I171" s="55" t="s">
         <v>1954</v>
-      </c>
-      <c r="H171" s="36" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I171" s="55" t="s">
-        <v>1955</v>
       </c>
       <c r="J171" s="55" t="s">
         <v>882</v>
@@ -30387,16 +30388,16 @@
         <v>20</v>
       </c>
       <c r="W171" s="31" t="s">
+        <v>1955</v>
+      </c>
+      <c r="X171" s="31" t="s">
         <v>1956</v>
       </c>
-      <c r="X171" s="31" t="s">
-        <v>1957</v>
-      </c>
       <c r="Y171" s="31" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Z171" s="31" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="AA171" s="32">
         <f>IF(W171="-","-",VLOOKUP(W171,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30430,13 +30431,13 @@
     <row r="172" spans="1:33" ht="48.5" customHeight="1">
       <c r="A172" s="66"/>
       <c r="B172" s="51" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D172" s="33" t="s">
         <v>1958</v>
-      </c>
-      <c r="C172" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D172" s="33" t="s">
-        <v>1959</v>
       </c>
       <c r="E172" s="34">
         <v>135</v>
@@ -30445,10 +30446,10 @@
         <v>882</v>
       </c>
       <c r="G172" s="54" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="H172" s="36" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="I172" s="55" t="s">
         <v>882</v>
@@ -30536,7 +30537,7 @@
     <row r="173" spans="1:33" ht="48.5" customHeight="1">
       <c r="A173" s="66"/>
       <c r="B173" s="51" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C173" s="33" t="s">
         <v>882</v>
@@ -30551,13 +30552,13 @@
         <v>892</v>
       </c>
       <c r="G173" s="54" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="H173" s="36" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I173" s="55" t="s">
         <v>1963</v>
-      </c>
-      <c r="I173" s="55" t="s">
-        <v>1964</v>
       </c>
       <c r="J173" s="55" t="s">
         <v>882</v>
@@ -30599,16 +30600,16 @@
         <v>20</v>
       </c>
       <c r="W173" s="31" t="s">
+        <v>1924</v>
+      </c>
+      <c r="X173" s="31" t="s">
         <v>1925</v>
       </c>
-      <c r="X173" s="31" t="s">
-        <v>1926</v>
-      </c>
       <c r="Y173" s="31" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="Z173" s="31" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AA173" s="32">
         <f>IF(W173="-","-",VLOOKUP(W173,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30660,7 +30661,7 @@
         <v>1272</v>
       </c>
       <c r="H174" s="36" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I174" s="31" t="s">
         <v>882</v>
@@ -30766,10 +30767,10 @@
         <v>1273</v>
       </c>
       <c r="H175" s="36" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I175" s="31" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="J175" s="31" t="s">
         <v>882</v>
@@ -30820,7 +30821,7 @@
         <v>1273</v>
       </c>
       <c r="Z175" s="31" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="AA175" s="32">
         <f>IF(W175="-","-",VLOOKUP(W175,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -30872,7 +30873,7 @@
         <v>1274</v>
       </c>
       <c r="H176" s="36" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I176" s="31" t="s">
         <v>882</v>
@@ -30978,7 +30979,7 @@
         <v>1275</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="I177" s="31" t="s">
         <v>882</v>
@@ -31084,10 +31085,10 @@
         <v>1276</v>
       </c>
       <c r="H178" s="36" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="I178" s="31" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="J178" s="31" t="s">
         <v>882</v>
@@ -31138,7 +31139,7 @@
         <v>1276</v>
       </c>
       <c r="Z178" s="31" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="AA178" s="32">
         <f>IF(W178="-","-",VLOOKUP(W178,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31190,7 +31191,7 @@
         <v>1277</v>
       </c>
       <c r="H179" s="36" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I179" s="31" t="s">
         <v>882</v>
@@ -31296,7 +31297,7 @@
         <v>1278</v>
       </c>
       <c r="H180" s="36" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I180" s="31" t="s">
         <v>882</v>
@@ -31402,10 +31403,10 @@
         <v>1279</v>
       </c>
       <c r="H181" s="36" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I181" s="31" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J181" s="31" t="s">
         <v>882</v>
@@ -31456,7 +31457,7 @@
         <v>1279</v>
       </c>
       <c r="Z181" s="31" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="AA181" s="32">
         <f>IF(W181="-","-",VLOOKUP(W181,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31508,7 +31509,7 @@
         <v>1280</v>
       </c>
       <c r="H182" s="36" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I182" s="31" t="s">
         <v>882</v>
@@ -31596,7 +31597,7 @@
     <row r="183" spans="1:33" ht="48.5" customHeight="1">
       <c r="A183" s="66"/>
       <c r="B183" s="33" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C183" s="51" t="s">
         <v>882</v>
@@ -31611,10 +31612,10 @@
         <v>882</v>
       </c>
       <c r="G183" s="54" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H183" s="36" t="s">
         <v>1968</v>
-      </c>
-      <c r="H183" s="36" t="s">
-        <v>1969</v>
       </c>
       <c r="I183" s="55" t="s">
         <v>882</v>
@@ -31717,13 +31718,13 @@
         <v>892</v>
       </c>
       <c r="G184" s="35" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="H184" s="36" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="I184" s="55" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="J184" s="55" t="s">
         <v>882</v>
@@ -31765,16 +31766,16 @@
         <v>882</v>
       </c>
       <c r="W184" s="31" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="X184" s="31" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Y184" s="31" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="Z184" s="31" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="AA184" s="32">
         <f>IF(W184="-","-",VLOOKUP(W184,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -31826,7 +31827,7 @@
         <v>1281</v>
       </c>
       <c r="H185" s="36" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I185" s="31" t="s">
         <v>882</v>
@@ -31932,10 +31933,10 @@
         <v>1282</v>
       </c>
       <c r="H186" s="36" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I186" s="31" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J186" s="31" t="s">
         <v>882</v>
@@ -31986,7 +31987,7 @@
         <v>1282</v>
       </c>
       <c r="Z186" s="31" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="AA186" s="32">
         <f>IF(W186="-","-",VLOOKUP(W186,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32038,7 +32039,7 @@
         <v>1283</v>
       </c>
       <c r="H187" s="36" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I187" s="31" t="s">
         <v>882</v>
@@ -32144,10 +32145,10 @@
         <v>1284</v>
       </c>
       <c r="H188" s="36" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I188" s="31" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="J188" s="31" t="s">
         <v>882</v>
@@ -32198,7 +32199,7 @@
         <v>1284</v>
       </c>
       <c r="Z188" s="31" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="AA188" s="32">
         <f>IF(W188="-","-",VLOOKUP(W188,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32250,7 +32251,7 @@
         <v>1285</v>
       </c>
       <c r="H189" s="36" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I189" s="31" t="s">
         <v>882</v>
@@ -32356,10 +32357,10 @@
         <v>1286</v>
       </c>
       <c r="H190" s="36" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I190" s="31" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J190" s="31" t="s">
         <v>882</v>
@@ -32410,7 +32411,7 @@
         <v>1286</v>
       </c>
       <c r="Z190" s="31" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="AA190" s="32">
         <f>IF(W190="-","-",VLOOKUP(W190,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32462,10 +32463,10 @@
         <v>1287</v>
       </c>
       <c r="H191" s="36" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I191" s="31" t="s">
         <v>1605</v>
-      </c>
-      <c r="I191" s="31" t="s">
-        <v>1606</v>
       </c>
       <c r="J191" s="31" t="s">
         <v>882</v>
@@ -32516,7 +32517,7 @@
         <v>1287</v>
       </c>
       <c r="Z191" s="31" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="AA191" s="32">
         <f>IF(W191="-","-",VLOOKUP(W191,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32568,7 +32569,7 @@
         <v>1288</v>
       </c>
       <c r="H192" s="36" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I192" s="31" t="s">
         <v>882</v>
@@ -32674,10 +32675,10 @@
         <v>1289</v>
       </c>
       <c r="H193" s="36" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I193" s="31" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J193" s="31" t="s">
         <v>882</v>
@@ -32728,7 +32729,7 @@
         <v>1289</v>
       </c>
       <c r="Z193" s="31" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="AA193" s="32">
         <f>IF(W193="-","-",VLOOKUP(W193,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -32780,7 +32781,7 @@
         <v>1290</v>
       </c>
       <c r="H194" s="36" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I194" s="31" t="s">
         <v>882</v>
@@ -32868,7 +32869,7 @@
     <row r="195" spans="1:33" ht="48.5" customHeight="1">
       <c r="A195" s="66"/>
       <c r="B195" s="33" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C195" s="33" t="s">
         <v>882</v>
@@ -32886,7 +32887,7 @@
         <v>1291</v>
       </c>
       <c r="H195" s="36" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I195" s="31" t="s">
         <v>882</v>
@@ -32974,7 +32975,7 @@
     <row r="196" spans="1:33" ht="48.5" customHeight="1">
       <c r="A196" s="66"/>
       <c r="B196" s="33" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C196" s="33" t="s">
         <v>882</v>
@@ -32992,7 +32993,7 @@
         <v>1292</v>
       </c>
       <c r="H196" s="36" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I196" s="31" t="s">
         <v>882</v>
@@ -33098,10 +33099,10 @@
         <v>1293</v>
       </c>
       <c r="H197" s="36" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I197" s="31" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J197" s="31" t="s">
         <v>882</v>
@@ -33152,7 +33153,7 @@
         <v>1293</v>
       </c>
       <c r="Z197" s="31" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="AA197" s="32">
         <f>IF(W197="-","-",VLOOKUP(W197,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33201,10 +33202,10 @@
         <v>882</v>
       </c>
       <c r="G198" s="35" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H198" s="36" t="s">
         <v>1982</v>
-      </c>
-      <c r="H198" s="36" t="s">
-        <v>1983</v>
       </c>
       <c r="I198" s="31" t="s">
         <v>882</v>
@@ -33307,13 +33308,13 @@
         <v>901</v>
       </c>
       <c r="G199" s="35" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="H199" s="36" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="I199" s="52" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="J199" s="31" t="s">
         <v>882</v>
@@ -33355,16 +33356,16 @@
         <v>20</v>
       </c>
       <c r="W199" s="31" t="s">
+        <v>1986</v>
+      </c>
+      <c r="X199" s="31" t="s">
         <v>1987</v>
       </c>
-      <c r="X199" s="31" t="s">
-        <v>1988</v>
-      </c>
       <c r="Y199" s="31" t="s">
+        <v>1983</v>
+      </c>
+      <c r="Z199" s="31" t="s">
         <v>1984</v>
-      </c>
-      <c r="Z199" s="31" t="s">
-        <v>1985</v>
       </c>
       <c r="AA199" s="32">
         <f>IF(W199="-","-",VLOOKUP(W199,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33416,7 +33417,7 @@
         <v>1294</v>
       </c>
       <c r="H200" s="36" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I200" s="31" t="s">
         <v>882</v>
@@ -33522,7 +33523,7 @@
         <v>1295</v>
       </c>
       <c r="H201" s="36" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I201" s="31" t="s">
         <v>882</v>
@@ -33625,10 +33626,10 @@
         <v>882</v>
       </c>
       <c r="G202" s="35" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="H202" s="38" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="I202" s="31" t="s">
         <v>882</v>
@@ -33734,10 +33735,10 @@
         <v>1296</v>
       </c>
       <c r="H203" s="36" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="I203" s="31" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J203" s="31" t="s">
         <v>882</v>
@@ -33782,13 +33783,13 @@
         <v>140</v>
       </c>
       <c r="X203" s="31" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="Y203" s="31" t="s">
         <v>1296</v>
       </c>
       <c r="Z203" s="31" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="AA203" s="32">
         <f>IF(W203="-","-",VLOOKUP(W203,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -33837,10 +33838,10 @@
         <v>909</v>
       </c>
       <c r="G204" s="35" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H204" s="36" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I204" s="31" t="s">
         <v>882</v>
@@ -33943,10 +33944,10 @@
         <v>892</v>
       </c>
       <c r="G205" s="35" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="H205" s="56" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I205" s="55" t="s">
         <v>882</v>
@@ -34034,7 +34035,7 @@
     <row r="206" spans="1:33" ht="48.5" customHeight="1">
       <c r="A206" s="66"/>
       <c r="B206" s="33" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C206" s="33" t="s">
         <v>882</v>
@@ -34052,7 +34053,7 @@
         <v>1297</v>
       </c>
       <c r="H206" s="36" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I206" s="31" t="s">
         <v>882</v>
@@ -34140,13 +34141,13 @@
     <row r="207" spans="1:33" ht="48.5" customHeight="1">
       <c r="A207" s="66"/>
       <c r="B207" s="33" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C207" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D207" s="33" t="s">
         <v>2043</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D207" s="33" t="s">
-        <v>2044</v>
       </c>
       <c r="E207" s="34">
         <v>141</v>
@@ -34158,7 +34159,7 @@
         <v>1298</v>
       </c>
       <c r="H207" s="36" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I207" s="31" t="s">
         <v>882</v>
@@ -34246,7 +34247,7 @@
     <row r="208" spans="1:33" ht="48.5" customHeight="1">
       <c r="A208" s="66"/>
       <c r="B208" s="33" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C208" s="33" t="s">
         <v>882</v>
@@ -34264,10 +34265,10 @@
         <v>1299</v>
       </c>
       <c r="H208" s="36" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I208" s="31" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="J208" s="31" t="s">
         <v>882</v>
@@ -34318,7 +34319,7 @@
         <v>1299</v>
       </c>
       <c r="Z208" s="31" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="AA208" s="32">
         <f>IF(W208="-","-",VLOOKUP(W208,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34352,7 +34353,7 @@
     <row r="209" spans="1:33" ht="48.5" customHeight="1">
       <c r="A209" s="66"/>
       <c r="B209" s="33" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C209" s="33" t="s">
         <v>882</v>
@@ -34370,10 +34371,10 @@
         <v>1300</v>
       </c>
       <c r="H209" s="36" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I209" s="31" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="J209" s="31" t="s">
         <v>882</v>
@@ -34424,7 +34425,7 @@
         <v>1300</v>
       </c>
       <c r="Z209" s="31" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="AA209" s="32">
         <f>IF(W209="-","-",VLOOKUP(W209,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34458,7 +34459,7 @@
     <row r="210" spans="1:33" ht="48.5" customHeight="1">
       <c r="A210" s="66"/>
       <c r="B210" s="33" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C210" s="33" t="s">
         <v>882</v>
@@ -34476,10 +34477,10 @@
         <v>1301</v>
       </c>
       <c r="H210" s="36" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I210" s="31" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="J210" s="31" t="s">
         <v>882</v>
@@ -34530,7 +34531,7 @@
         <v>1301</v>
       </c>
       <c r="Z210" s="31" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="AA210" s="32">
         <f>IF(W210="-","-",VLOOKUP(W210,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34564,13 +34565,13 @@
     <row r="211" spans="1:33" ht="48.5" customHeight="1">
       <c r="A211" s="66"/>
       <c r="B211" s="33" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C211" s="51" t="s">
         <v>882</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E211" s="34">
         <v>141</v>
@@ -34579,10 +34580,10 @@
         <v>882</v>
       </c>
       <c r="G211" s="54" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H211" s="36" t="s">
         <v>1998</v>
-      </c>
-      <c r="H211" s="36" t="s">
-        <v>1999</v>
       </c>
       <c r="I211" s="55" t="s">
         <v>882</v>
@@ -34670,7 +34671,7 @@
     <row r="212" spans="1:33" ht="48.5" customHeight="1">
       <c r="A212" s="66"/>
       <c r="B212" s="33" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C212" s="33" t="s">
         <v>882</v>
@@ -34685,13 +34686,13 @@
         <v>898</v>
       </c>
       <c r="G212" s="35" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H212" s="36" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I212" s="55" t="s">
         <v>2000</v>
-      </c>
-      <c r="I212" s="55" t="s">
-        <v>2001</v>
       </c>
       <c r="J212" s="55" t="s">
         <v>882</v>
@@ -34733,16 +34734,16 @@
         <v>20</v>
       </c>
       <c r="W212" s="31" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="X212" s="31" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Y212" s="31" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="Z212" s="31" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="AA212" s="32">
         <f>IF(W212="-","-",VLOOKUP(W212,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -34794,7 +34795,7 @@
         <v>1302</v>
       </c>
       <c r="H213" s="36" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I213" s="31" t="s">
         <v>882</v>
@@ -34900,10 +34901,10 @@
         <v>1303</v>
       </c>
       <c r="H214" s="36" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I214" s="31" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="J214" s="31" t="s">
         <v>882</v>
@@ -34954,7 +34955,7 @@
         <v>1303</v>
       </c>
       <c r="Z214" s="31" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="AA214" s="32">
         <f>IF(W214="-","-",VLOOKUP(W214,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35006,10 +35007,10 @@
         <v>1304</v>
       </c>
       <c r="H215" s="36" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I215" s="31" t="s">
         <v>1613</v>
-      </c>
-      <c r="I215" s="31" t="s">
-        <v>1614</v>
       </c>
       <c r="J215" s="31" t="s">
         <v>882</v>
@@ -35060,7 +35061,7 @@
         <v>1304</v>
       </c>
       <c r="Z215" s="31" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="AA215" s="32">
         <f>IF(W215="-","-",VLOOKUP(W215,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35094,7 +35095,7 @@
     <row r="216" spans="1:33" ht="48.5" customHeight="1">
       <c r="A216" s="66"/>
       <c r="B216" s="33" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C216" s="51" t="s">
         <v>882</v>
@@ -35109,10 +35110,10 @@
         <v>882</v>
       </c>
       <c r="G216" s="54" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H216" s="36" t="s">
         <v>2007</v>
-      </c>
-      <c r="H216" s="36" t="s">
-        <v>2008</v>
       </c>
       <c r="I216" s="55" t="s">
         <v>882</v>
@@ -35215,13 +35216,13 @@
         <v>901</v>
       </c>
       <c r="G217" s="35" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H217" s="36" t="s">
+        <v>2008</v>
+      </c>
+      <c r="I217" s="55" t="s">
         <v>2009</v>
-      </c>
-      <c r="I217" s="55" t="s">
-        <v>2010</v>
       </c>
       <c r="J217" s="55" t="s">
         <v>882</v>
@@ -35230,7 +35231,7 @@
         <v>912</v>
       </c>
       <c r="L217" s="55" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="M217" s="31" t="s">
         <v>20</v>
@@ -35263,16 +35264,16 @@
         <v>20</v>
       </c>
       <c r="W217" s="31" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="X217" s="31" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="Y217" s="31" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="Z217" s="31" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="AA217" s="32">
         <f>IF(W217="-","-",VLOOKUP(W217,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35324,7 +35325,7 @@
         <v>1305</v>
       </c>
       <c r="H218" s="36" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I218" s="31" t="s">
         <v>882</v>
@@ -35430,10 +35431,10 @@
         <v>1306</v>
       </c>
       <c r="H219" s="36" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I219" s="58" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J219" s="31" t="s">
         <v>882</v>
@@ -35484,7 +35485,7 @@
         <v>1306</v>
       </c>
       <c r="Z219" s="31" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="AA219" s="32">
         <f>IF(W219="-","-",VLOOKUP(W219,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35518,7 +35519,7 @@
     <row r="220" spans="1:33" ht="48.5" customHeight="1">
       <c r="A220" s="66"/>
       <c r="B220" s="51" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C220" s="51" t="s">
         <v>1035</v>
@@ -35533,10 +35534,10 @@
         <v>901</v>
       </c>
       <c r="G220" s="54" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H220" s="36" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I220" s="58" t="s">
         <v>882</v>
@@ -35548,7 +35549,7 @@
         <v>912</v>
       </c>
       <c r="L220" s="55" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="M220" s="31" t="s">
         <v>882</v>
@@ -35581,16 +35582,16 @@
         <v>882</v>
       </c>
       <c r="W220" s="31" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="X220" s="31" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="Y220" s="31" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="Z220" s="31" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="AA220" s="32">
         <f>IF(W220="-","-",VLOOKUP(W220,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35642,7 +35643,7 @@
         <v>1307</v>
       </c>
       <c r="H221" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I221" s="31" t="s">
         <v>882</v>
@@ -35748,10 +35749,10 @@
         <v>1308</v>
       </c>
       <c r="H222" s="36" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I222" s="31" t="s">
         <v>1615</v>
-      </c>
-      <c r="I222" s="31" t="s">
-        <v>1616</v>
       </c>
       <c r="J222" s="31" t="s">
         <v>882</v>
@@ -35802,7 +35803,7 @@
         <v>1308</v>
       </c>
       <c r="Z222" s="31" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="AA222" s="32">
         <f>IF(W222="-","-",VLOOKUP(W222,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -35854,7 +35855,7 @@
         <v>1309</v>
       </c>
       <c r="H223" s="36" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I223" s="31" t="s">
         <v>882</v>
@@ -35960,10 +35961,10 @@
         <v>1310</v>
       </c>
       <c r="H224" s="36" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I224" s="31" t="s">
         <v>1617</v>
-      </c>
-      <c r="I224" s="31" t="s">
-        <v>1618</v>
       </c>
       <c r="J224" s="31" t="s">
         <v>882</v>
@@ -36014,7 +36015,7 @@
         <v>1310</v>
       </c>
       <c r="Z224" s="31" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="AA224" s="32">
         <f>IF(W224="-","-",VLOOKUP(W224,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -36066,7 +36067,7 @@
         <v>1311</v>
       </c>
       <c r="H225" s="36" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I225" s="53" t="s">
         <v>882</v>
@@ -36172,10 +36173,10 @@
         <v>1312</v>
       </c>
       <c r="H226" s="36" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I226" s="31" t="s">
         <v>1619</v>
-      </c>
-      <c r="I226" s="31" t="s">
-        <v>1620</v>
       </c>
       <c r="J226" s="31" t="s">
         <v>882</v>
@@ -36226,7 +36227,7 @@
         <v>1312</v>
       </c>
       <c r="Z226" s="31" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="AA226" s="32">
         <f>IF(W226="-","-",VLOOKUP(W226,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -36278,7 +36279,7 @@
         <v>1313</v>
       </c>
       <c r="H227" s="36" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I227" s="31" t="s">
         <v>882</v>
@@ -36384,10 +36385,10 @@
         <v>1314</v>
       </c>
       <c r="H228" s="36" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I228" s="31" t="s">
         <v>1621</v>
-      </c>
-      <c r="I228" s="31" t="s">
-        <v>1622</v>
       </c>
       <c r="J228" s="31" t="s">
         <v>882</v>
@@ -36438,7 +36439,7 @@
         <v>1314</v>
       </c>
       <c r="Z228" s="31" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="AA228" s="32">
         <f>IF(W228="-","-",VLOOKUP(W228,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -36490,7 +36491,7 @@
         <v>1315</v>
       </c>
       <c r="H229" s="36" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I229" s="31" t="s">
         <v>882</v>
@@ -36596,10 +36597,10 @@
         <v>1316</v>
       </c>
       <c r="H230" s="36" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I230" s="31" t="s">
         <v>1623</v>
-      </c>
-      <c r="I230" s="31" t="s">
-        <v>1624</v>
       </c>
       <c r="J230" s="31" t="s">
         <v>882</v>
@@ -36650,7 +36651,7 @@
         <v>1316</v>
       </c>
       <c r="Z230" s="31" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AA230" s="32">
         <f>IF(W230="-","-",VLOOKUP(W230,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -36702,7 +36703,7 @@
         <v>1317</v>
       </c>
       <c r="H231" s="36" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I231" s="31" t="s">
         <v>882</v>
@@ -36808,10 +36809,10 @@
         <v>1318</v>
       </c>
       <c r="H232" s="36" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I232" s="31" t="s">
         <v>1625</v>
-      </c>
-      <c r="I232" s="31" t="s">
-        <v>1626</v>
       </c>
       <c r="J232" s="31" t="s">
         <v>882</v>
@@ -36862,7 +36863,7 @@
         <v>1318</v>
       </c>
       <c r="Z232" s="31" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="AA232" s="32">
         <f>IF(W232="-","-",VLOOKUP(W232,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -36914,7 +36915,7 @@
         <v>1319</v>
       </c>
       <c r="H233" s="36" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I233" s="31" t="s">
         <v>882</v>
@@ -37020,10 +37021,10 @@
         <v>1320</v>
       </c>
       <c r="H234" s="36" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I234" s="31" t="s">
         <v>1627</v>
-      </c>
-      <c r="I234" s="31" t="s">
-        <v>1628</v>
       </c>
       <c r="J234" s="31" t="s">
         <v>882</v>
@@ -37074,7 +37075,7 @@
         <v>1320</v>
       </c>
       <c r="Z234" s="31" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="AA234" s="32">
         <f>IF(W234="-","-",VLOOKUP(W234,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -37126,7 +37127,7 @@
         <v>1321</v>
       </c>
       <c r="H235" s="36" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I235" s="31" t="s">
         <v>882</v>
@@ -37232,10 +37233,10 @@
         <v>1322</v>
       </c>
       <c r="H236" s="36" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I236" s="31" t="s">
         <v>1629</v>
-      </c>
-      <c r="I236" s="31" t="s">
-        <v>1630</v>
       </c>
       <c r="J236" s="31" t="s">
         <v>882</v>
@@ -37286,7 +37287,7 @@
         <v>1322</v>
       </c>
       <c r="Z236" s="31" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="AA236" s="32">
         <f>IF(W236="-","-",VLOOKUP(W236,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -37338,7 +37339,7 @@
         <v>1323</v>
       </c>
       <c r="H237" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I237" s="31" t="s">
         <v>882</v>
@@ -37444,10 +37445,10 @@
         <v>1324</v>
       </c>
       <c r="H238" s="36" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I238" s="31" t="s">
         <v>1631</v>
-      </c>
-      <c r="I238" s="31" t="s">
-        <v>1632</v>
       </c>
       <c r="J238" s="31" t="s">
         <v>882</v>
@@ -37498,7 +37499,7 @@
         <v>1324</v>
       </c>
       <c r="Z238" s="31" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AA238" s="32">
         <f>IF(W238="-","-",VLOOKUP(W238,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -37550,7 +37551,7 @@
         <v>1325</v>
       </c>
       <c r="H239" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I239" s="31" t="s">
         <v>882</v>
@@ -37656,10 +37657,10 @@
         <v>1326</v>
       </c>
       <c r="H240" s="36" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I240" s="31" t="s">
         <v>1633</v>
-      </c>
-      <c r="I240" s="31" t="s">
-        <v>1634</v>
       </c>
       <c r="J240" s="31" t="s">
         <v>882</v>
@@ -37710,7 +37711,7 @@
         <v>1326</v>
       </c>
       <c r="Z240" s="31" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AA240" s="32">
         <f>IF(W240="-","-",VLOOKUP(W240,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -37759,10 +37760,10 @@
         <v>882</v>
       </c>
       <c r="G241" s="35" t="s">
-        <v>1327</v>
+        <v>2097</v>
       </c>
       <c r="H241" s="36" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I241" s="31" t="s">
         <v>882</v>
@@ -37865,13 +37866,13 @@
         <v>892</v>
       </c>
       <c r="G242" s="35" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H242" s="36" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I242" s="31" t="s">
         <v>1635</v>
-      </c>
-      <c r="I242" s="31" t="s">
-        <v>1636</v>
       </c>
       <c r="J242" s="31" t="s">
         <v>882</v>
@@ -37919,10 +37920,10 @@
         <v>68</v>
       </c>
       <c r="Y242" s="31" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Z242" s="31" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AA242" s="32">
         <f>IF(W242="-","-",VLOOKUP(W242,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -37971,10 +37972,10 @@
         <v>882</v>
       </c>
       <c r="G243" s="35" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H243" s="36" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I243" s="31" t="s">
         <v>882</v>
@@ -38077,13 +38078,13 @@
         <v>900</v>
       </c>
       <c r="G244" s="35" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H244" s="36" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I244" s="52" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J244" s="31" t="s">
         <v>882</v>
@@ -38131,10 +38132,10 @@
         <v>69</v>
       </c>
       <c r="Y244" s="31" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Z244" s="31" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="AA244" s="32">
         <f>IF(W244="-","-",VLOOKUP(W244,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -38183,10 +38184,10 @@
         <v>882</v>
       </c>
       <c r="G245" s="35" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H245" s="36" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I245" s="52" t="s">
         <v>882</v>
@@ -38289,13 +38290,13 @@
         <v>901</v>
       </c>
       <c r="G246" s="35" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H246" s="36" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I246" s="52" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J246" s="31" t="s">
         <v>882</v>
@@ -38343,10 +38344,10 @@
         <v>402</v>
       </c>
       <c r="Y246" s="31" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Z246" s="31" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AA246" s="32">
         <f>IF(W246="-","-",VLOOKUP(W246,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -38395,10 +38396,10 @@
         <v>882</v>
       </c>
       <c r="G247" s="35" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H247" s="36" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I247" s="52" t="s">
         <v>882</v>
@@ -38501,13 +38502,13 @@
         <v>909</v>
       </c>
       <c r="G248" s="35" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H248" s="36" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I248" s="52" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J248" s="31" t="s">
         <v>882</v>
@@ -38555,10 +38556,10 @@
         <v>874</v>
       </c>
       <c r="Y248" s="31" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Z248" s="31" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="AA248" s="32">
         <f>IF(W248="-","-",VLOOKUP(W248,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -38607,10 +38608,10 @@
         <v>882</v>
       </c>
       <c r="G249" s="35" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H249" s="36" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I249" s="52" t="s">
         <v>882</v>
@@ -38713,13 +38714,13 @@
         <v>910</v>
       </c>
       <c r="G250" s="35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H250" s="36" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I250" s="52" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J250" s="31" t="s">
         <v>882</v>
@@ -38767,10 +38768,10 @@
         <v>74</v>
       </c>
       <c r="Y250" s="31" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Z250" s="31" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="AA250" s="32">
         <f>IF(W250="-","-",VLOOKUP(W250,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -38819,10 +38820,10 @@
         <v>882</v>
       </c>
       <c r="G251" s="35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H251" s="36" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I251" s="31" t="s">
         <v>882</v>
@@ -38925,13 +38926,13 @@
         <v>892</v>
       </c>
       <c r="G252" s="35" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H252" s="36" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I252" s="52" t="s">
         <v>1645</v>
-      </c>
-      <c r="I252" s="52" t="s">
-        <v>1646</v>
       </c>
       <c r="J252" s="31" t="s">
         <v>882</v>
@@ -38979,10 +38980,10 @@
         <v>227</v>
       </c>
       <c r="Y252" s="31" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Z252" s="31" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AA252" s="32">
         <f>IF(W252="-","-",VLOOKUP(W252,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -39031,10 +39032,10 @@
         <v>882</v>
       </c>
       <c r="G253" s="35" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H253" s="36" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I253" s="31" t="s">
         <v>882</v>
@@ -39137,13 +39138,13 @@
         <v>900</v>
       </c>
       <c r="G254" s="35" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H254" s="36" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I254" s="50" t="s">
         <v>1647</v>
-      </c>
-      <c r="I254" s="50" t="s">
-        <v>1648</v>
       </c>
       <c r="J254" s="31" t="s">
         <v>882</v>
@@ -39191,10 +39192,10 @@
         <v>49</v>
       </c>
       <c r="Y254" s="31" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="Z254" s="31" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="AA254" s="32">
         <f>IF(W254="-","-",VLOOKUP(W254,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -39243,10 +39244,10 @@
         <v>882</v>
       </c>
       <c r="G255" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H255" s="36" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I255" s="48" t="s">
         <v>882</v>
@@ -39349,13 +39350,13 @@
         <v>901</v>
       </c>
       <c r="G256" s="35" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H256" s="36" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I256" s="50" t="s">
         <v>1649</v>
-      </c>
-      <c r="I256" s="50" t="s">
-        <v>1650</v>
       </c>
       <c r="J256" s="31" t="s">
         <v>882</v>
@@ -39403,10 +39404,10 @@
         <v>336</v>
       </c>
       <c r="Y256" s="31" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Z256" s="31" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="AA256" s="32">
         <f>IF(W256="-","-",VLOOKUP(W256,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -39455,10 +39456,10 @@
         <v>882</v>
       </c>
       <c r="G257" s="35" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H257" s="36" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I257" s="31" t="s">
         <v>882</v>
@@ -39561,13 +39562,13 @@
         <v>892</v>
       </c>
       <c r="G258" s="35" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H258" s="36" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I258" s="50" t="s">
         <v>1651</v>
-      </c>
-      <c r="I258" s="50" t="s">
-        <v>1652</v>
       </c>
       <c r="J258" s="31" t="s">
         <v>882</v>
@@ -39615,10 +39616,10 @@
         <v>35</v>
       </c>
       <c r="Y258" s="31" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Z258" s="31" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="AA258" s="32">
         <f>IF(W258="-","-",VLOOKUP(W258,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -39667,10 +39668,10 @@
         <v>882</v>
       </c>
       <c r="G259" s="35" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H259" s="36" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I259" s="31" t="s">
         <v>882</v>
@@ -39773,13 +39774,13 @@
         <v>892</v>
       </c>
       <c r="G260" s="35" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H260" s="36" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I260" s="31" t="s">
         <v>1653</v>
-      </c>
-      <c r="I260" s="31" t="s">
-        <v>1654</v>
       </c>
       <c r="J260" s="31" t="s">
         <v>882</v>
@@ -39827,10 +39828,10 @@
         <v>48</v>
       </c>
       <c r="Y260" s="31" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="Z260" s="31" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AA260" s="32">
         <f>IF(W260="-","-",VLOOKUP(W260,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -39879,13 +39880,13 @@
         <v>900</v>
       </c>
       <c r="G261" s="35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H261" s="36" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I261" s="31" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="J261" s="31" t="s">
         <v>882</v>
@@ -39933,10 +39934,10 @@
         <v>122</v>
       </c>
       <c r="Y261" s="31" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Z261" s="31" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="AA261" s="32">
         <f>IF(W261="-","-",VLOOKUP(W261,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -39985,13 +39986,13 @@
         <v>901</v>
       </c>
       <c r="G262" s="35" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H262" s="36" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I262" s="31" t="s">
         <v>1656</v>
-      </c>
-      <c r="I262" s="31" t="s">
-        <v>1657</v>
       </c>
       <c r="J262" s="31" t="s">
         <v>882</v>
@@ -40039,10 +40040,10 @@
         <v>49</v>
       </c>
       <c r="Y262" s="31" t="s">
+        <v>1785</v>
+      </c>
+      <c r="Z262" s="31" t="s">
         <v>1786</v>
-      </c>
-      <c r="Z262" s="31" t="s">
-        <v>1787</v>
       </c>
       <c r="AA262" s="32">
         <f>IF(W262="-","-",VLOOKUP(W262,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -40091,10 +40092,10 @@
         <v>882</v>
       </c>
       <c r="G263" s="35" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H263" s="36" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I263" s="31" t="s">
         <v>882</v>
@@ -40197,13 +40198,13 @@
         <v>909</v>
       </c>
       <c r="G264" s="35" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H264" s="36" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I264" s="50" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J264" s="31" t="s">
         <v>882</v>
@@ -40251,10 +40252,10 @@
         <v>275</v>
       </c>
       <c r="Y264" s="31" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Z264" s="31" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AA264" s="32">
         <f>IF(W264="-","-",VLOOKUP(W264,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -40303,10 +40304,10 @@
         <v>882</v>
       </c>
       <c r="G265" s="35" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H265" s="36" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I265" s="31" t="s">
         <v>882</v>
@@ -40409,13 +40410,13 @@
         <v>910</v>
       </c>
       <c r="G266" s="35" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H266" s="36" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I266" s="50" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J266" s="31" t="s">
         <v>882</v>
@@ -40463,10 +40464,10 @@
         <v>331</v>
       </c>
       <c r="Y266" s="31" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Z266" s="31" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="AA266" s="32">
         <f>IF(W266="-","-",VLOOKUP(W266,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -40515,10 +40516,10 @@
         <v>882</v>
       </c>
       <c r="G267" s="35" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H267" s="36" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I267" s="31" t="s">
         <v>882</v>
@@ -40621,13 +40622,13 @@
         <v>892</v>
       </c>
       <c r="G268" s="35" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H268" s="36" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I268" s="50" t="s">
         <v>1662</v>
-      </c>
-      <c r="I268" s="50" t="s">
-        <v>1663</v>
       </c>
       <c r="J268" s="31" t="s">
         <v>882</v>
@@ -40675,10 +40676,10 @@
         <v>401</v>
       </c>
       <c r="Y268" s="31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Z268" s="31" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="AA268" s="32">
         <f>IF(W268="-","-",VLOOKUP(W268,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -40727,10 +40728,10 @@
         <v>882</v>
       </c>
       <c r="G269" s="35" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H269" s="36" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I269" s="59" t="s">
         <v>882</v>
@@ -40833,13 +40834,13 @@
         <v>900</v>
       </c>
       <c r="G270" s="35" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H270" s="36" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I270" s="50" t="s">
         <v>1664</v>
-      </c>
-      <c r="I270" s="50" t="s">
-        <v>1665</v>
       </c>
       <c r="J270" s="31" t="s">
         <v>882</v>
@@ -40887,10 +40888,10 @@
         <v>874</v>
       </c>
       <c r="Y270" s="31" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Z270" s="31" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="AA270" s="32">
         <f>IF(W270="-","-",VLOOKUP(W270,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -40939,10 +40940,10 @@
         <v>882</v>
       </c>
       <c r="G271" s="35" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H271" s="36" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I271" s="48" t="s">
         <v>882</v>
@@ -41045,13 +41046,13 @@
         <v>901</v>
       </c>
       <c r="G272" s="35" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H272" s="36" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I272" s="50" t="s">
         <v>1666</v>
-      </c>
-      <c r="I272" s="50" t="s">
-        <v>1667</v>
       </c>
       <c r="J272" s="31" t="s">
         <v>882</v>
@@ -41099,10 +41100,10 @@
         <v>554</v>
       </c>
       <c r="Y272" s="31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="Z272" s="31" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AA272" s="32">
         <f>IF(W272="-","-",VLOOKUP(W272,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -41151,10 +41152,10 @@
         <v>882</v>
       </c>
       <c r="G273" s="35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H273" s="36" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I273" s="48" t="s">
         <v>882</v>
@@ -41257,13 +41258,13 @@
         <v>909</v>
       </c>
       <c r="G274" s="35" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H274" s="36" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I274" s="50" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J274" s="31" t="s">
         <v>882</v>
@@ -41311,10 +41312,10 @@
         <v>164</v>
       </c>
       <c r="Y274" s="31" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="Z274" s="31" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="AA274" s="32">
         <f>IF(W274="-","-",VLOOKUP(W274,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -41363,10 +41364,10 @@
         <v>882</v>
       </c>
       <c r="G275" s="35" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H275" s="36" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I275" s="31" t="s">
         <v>882</v>
@@ -41469,13 +41470,13 @@
         <v>892</v>
       </c>
       <c r="G276" s="35" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H276" s="36" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I276" s="50" t="s">
         <v>1668</v>
-      </c>
-      <c r="I276" s="50" t="s">
-        <v>1669</v>
       </c>
       <c r="J276" s="31" t="s">
         <v>882</v>
@@ -41523,10 +41524,10 @@
         <v>122</v>
       </c>
       <c r="Y276" s="31" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Z276" s="31" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AA276" s="32">
         <f>IF(W276="-","-",VLOOKUP(W276,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -41575,10 +41576,10 @@
         <v>882</v>
       </c>
       <c r="G277" s="35" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H277" s="36" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I277" s="31" t="s">
         <v>882</v>
@@ -41593,10 +41594,10 @@
         <v>645</v>
       </c>
       <c r="M277" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="N277" s="31" t="s">
         <v>1686</v>
-      </c>
-      <c r="N277" s="31" t="s">
-        <v>1687</v>
       </c>
       <c r="O277" s="31" t="s">
         <v>906</v>
@@ -41608,7 +41609,7 @@
         <v>882</v>
       </c>
       <c r="R277" s="31" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="S277" s="31" t="s">
         <v>882</v>
@@ -41620,7 +41621,7 @@
         <v>882</v>
       </c>
       <c r="V277" s="31" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="W277" s="31" t="s">
         <v>882</v>
@@ -41681,13 +41682,13 @@
         <v>900</v>
       </c>
       <c r="G278" s="35" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H278" s="36" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I278" s="50" t="s">
         <v>1670</v>
-      </c>
-      <c r="I278" s="50" t="s">
-        <v>1671</v>
       </c>
       <c r="J278" s="31" t="s">
         <v>882</v>
@@ -41696,13 +41697,13 @@
         <v>912</v>
       </c>
       <c r="L278" s="31" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="M278" s="31" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N278" s="31" t="s">
         <v>1687</v>
-      </c>
-      <c r="N278" s="31" t="s">
-        <v>1688</v>
       </c>
       <c r="O278" s="31" t="s">
         <v>905</v>
@@ -41711,7 +41712,7 @@
         <v>905</v>
       </c>
       <c r="Q278" s="31" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="R278" s="31" t="s">
         <v>882</v>
@@ -41723,7 +41724,7 @@
         <v>882</v>
       </c>
       <c r="U278" s="31" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="V278" s="31" t="s">
         <v>882</v>
@@ -41735,10 +41736,10 @@
         <v>63</v>
       </c>
       <c r="Y278" s="31" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Z278" s="31" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="AA278" s="32">
         <f>IF(W278="-","-",VLOOKUP(W278,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -41787,13 +41788,13 @@
         <v>901</v>
       </c>
       <c r="G279" s="35" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H279" s="36" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I279" s="31" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J279" s="31" t="s">
         <v>882</v>
@@ -41841,10 +41842,10 @@
         <v>274</v>
       </c>
       <c r="Y279" s="31" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Z279" s="31" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AA279" s="32">
         <f>IF(W279="-","-",VLOOKUP(W279,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -41893,10 +41894,10 @@
         <v>882</v>
       </c>
       <c r="G280" s="35" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H280" s="36" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I280" s="31" t="s">
         <v>882</v>
@@ -41999,13 +42000,13 @@
         <v>909</v>
       </c>
       <c r="G281" s="35" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H281" s="36" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I281" s="50" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="J281" s="31" t="s">
         <v>882</v>
@@ -42053,10 +42054,10 @@
         <v>275</v>
       </c>
       <c r="Y281" s="31" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="Z281" s="31" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="AA281" s="32">
         <f>IF(W281="-","-",VLOOKUP(W281,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -42105,10 +42106,10 @@
         <v>882</v>
       </c>
       <c r="G282" s="35" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H282" s="36" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I282" s="31" t="s">
         <v>882</v>
@@ -42211,13 +42212,13 @@
         <v>910</v>
       </c>
       <c r="G283" s="35" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H283" s="36" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I283" s="50" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J283" s="31" t="s">
         <v>882</v>
@@ -42265,10 +42266,10 @@
         <v>878</v>
       </c>
       <c r="Y283" s="31" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Z283" s="31" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AA283" s="32">
         <f>IF(W283="-","-",VLOOKUP(W283,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -42317,10 +42318,10 @@
         <v>882</v>
       </c>
       <c r="G284" s="35" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H284" s="36" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I284" s="31" t="s">
         <v>882</v>
@@ -42423,13 +42424,13 @@
         <v>898</v>
       </c>
       <c r="G285" s="35" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H285" s="36" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="I285" s="50" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J285" s="31" t="s">
         <v>882</v>
@@ -42477,10 +42478,10 @@
         <v>216</v>
       </c>
       <c r="Y285" s="31" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="Z285" s="31" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AA285" s="32">
         <f>IF(W285="-","-",VLOOKUP(W285,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -42520,7 +42521,7 @@
         <v>20</v>
       </c>
       <c r="D286" s="33" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E286" s="34">
         <v>156</v>
@@ -42620,7 +42621,7 @@
     <row r="287" spans="1:33" ht="48.25" customHeight="1">
       <c r="A287" s="66"/>
       <c r="B287" s="51" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C287" s="33" t="s">
         <v>20</v>
@@ -45715,7 +45716,7 @@
         <v>126</v>
       </c>
       <c r="I316" s="31" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="J316" s="31" t="s">
         <v>20</v>
@@ -45818,7 +45819,7 @@
         <v>681</v>
       </c>
       <c r="H317" s="36" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="I317" s="31" t="s">
         <v>20</v>
@@ -47944,7 +47945,7 @@
         <v>192</v>
       </c>
       <c r="J337" s="31" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K337" s="31" t="s">
         <v>637</v>
@@ -48156,7 +48157,7 @@
         <v>199</v>
       </c>
       <c r="J339" s="31" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K339" s="31" t="s">
         <v>637</v>
@@ -48789,7 +48790,7 @@
         <v>214</v>
       </c>
       <c r="I345" s="31" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="J345" s="31" t="s">
         <v>20</v>
@@ -49782,7 +49783,7 @@
         <v>20</v>
       </c>
       <c r="V354" s="31" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="W354" s="31" t="s">
         <v>85</v>
@@ -49934,13 +49935,13 @@
     <row r="356" spans="1:33" ht="33.25" customHeight="1">
       <c r="A356" s="66"/>
       <c r="B356" s="33" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C356" s="33" t="s">
         <v>882</v>
       </c>
       <c r="D356" s="33" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E356" s="34">
         <v>220</v>
@@ -49949,10 +49950,10 @@
         <v>882</v>
       </c>
       <c r="G356" s="35" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="H356" s="36" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="I356" s="31" t="s">
         <v>882</v>
@@ -50040,7 +50041,7 @@
     <row r="357" spans="1:33" ht="33.25" customHeight="1">
       <c r="A357" s="66"/>
       <c r="B357" s="33" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C357" s="33" t="s">
         <v>882</v>
@@ -50055,13 +50056,13 @@
         <v>1</v>
       </c>
       <c r="G357" s="35" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H357" s="36" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I357" s="31" t="s">
         <v>2062</v>
-      </c>
-      <c r="I357" s="31" t="s">
-        <v>2063</v>
       </c>
       <c r="J357" s="31" t="s">
         <v>882</v>
@@ -50103,16 +50104,16 @@
         <v>882</v>
       </c>
       <c r="W357" s="31" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="X357" s="31" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="Y357" s="31" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="Z357" s="31" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="AA357" s="32">
         <f>IF(W357="-","-",VLOOKUP(W357,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -50464,13 +50465,13 @@
     <row r="361" spans="1:33" ht="33.25" customHeight="1">
       <c r="A361" s="66"/>
       <c r="B361" s="33" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C361" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="D361" s="33" t="s">
         <v>2065</v>
-      </c>
-      <c r="C361" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="D361" s="33" t="s">
-        <v>2066</v>
       </c>
       <c r="E361" s="34">
         <v>226</v>
@@ -50479,10 +50480,10 @@
         <v>882</v>
       </c>
       <c r="G361" s="35" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="H361" s="36" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="I361" s="31" t="s">
         <v>882</v>
@@ -50570,7 +50571,7 @@
     <row r="362" spans="1:33" ht="54">
       <c r="A362" s="66"/>
       <c r="B362" s="33" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C362" s="33" t="s">
         <v>882</v>
@@ -50585,13 +50586,13 @@
         <v>1</v>
       </c>
       <c r="G362" s="35" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H362" s="36" t="s">
+        <v>2069</v>
+      </c>
+      <c r="I362" s="31" t="s">
         <v>2070</v>
-      </c>
-      <c r="I362" s="31" t="s">
-        <v>2071</v>
       </c>
       <c r="J362" s="31" t="s">
         <v>882</v>
@@ -50633,16 +50634,16 @@
         <v>882</v>
       </c>
       <c r="W362" s="31" t="s">
+        <v>1986</v>
+      </c>
+      <c r="X362" s="31" t="s">
         <v>1987</v>
       </c>
-      <c r="X362" s="31" t="s">
-        <v>1988</v>
-      </c>
       <c r="Y362" s="31" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="Z362" s="31" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="AA362" s="32">
         <f>IF(W362="-","-",VLOOKUP(W362,十干十二支!A$2:B$61,2,FALSE))</f>
@@ -51133,10 +51134,10 @@
         <v>645</v>
       </c>
       <c r="M367" s="31" t="s">
+        <v>2090</v>
+      </c>
+      <c r="N367" s="31" t="s">
         <v>2091</v>
-      </c>
-      <c r="N367" s="31" t="s">
-        <v>2092</v>
       </c>
       <c r="O367" s="31" t="s">
         <v>640</v>
@@ -51239,10 +51240,10 @@
         <v>748</v>
       </c>
       <c r="M368" s="31" t="s">
+        <v>2089</v>
+      </c>
+      <c r="N368" s="31" t="s">
         <v>2090</v>
-      </c>
-      <c r="N368" s="31" t="s">
-        <v>2091</v>
       </c>
       <c r="O368" s="31" t="s">
         <v>639</v>
@@ -53765,7 +53766,7 @@
         <v>20</v>
       </c>
       <c r="G392" s="35" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="H392" s="36" t="s">
         <v>777</v>
@@ -55679,7 +55680,7 @@
         <v>388</v>
       </c>
       <c r="I410" s="31" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="J410" s="31" t="s">
         <v>20</v>
@@ -57481,7 +57482,7 @@
         <v>450</v>
       </c>
       <c r="I427" s="31" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="J427" s="31" t="s">
         <v>20</v>
@@ -57587,7 +57588,7 @@
         <v>20</v>
       </c>
       <c r="I428" s="31" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="J428" s="31" t="s">
         <v>20</v>
@@ -57905,7 +57906,7 @@
         <v>458</v>
       </c>
       <c r="I431" s="31" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="J431" s="31" t="s">
         <v>20</v>
@@ -58329,7 +58330,7 @@
         <v>470</v>
       </c>
       <c r="I435" s="31" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="J435" s="31" t="s">
         <v>20</v>
@@ -59280,7 +59281,7 @@
         <v>495</v>
       </c>
       <c r="H444" s="36" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="I444" s="31" t="s">
         <v>20</v>
@@ -60131,7 +60132,7 @@
         <v>519</v>
       </c>
       <c r="I452" s="31" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="J452" s="31" t="s">
         <v>882</v>
@@ -60449,7 +60450,7 @@
         <v>20</v>
       </c>
       <c r="I455" s="31" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="J455" s="31" t="s">
         <v>20</v>
@@ -61082,7 +61083,7 @@
         <v>847</v>
       </c>
       <c r="H461" s="36" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="I461" s="31" t="s">
         <v>20</v>
@@ -61403,7 +61404,7 @@
         <v>547</v>
       </c>
       <c r="I464" s="31" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="J464" s="31" t="s">
         <v>20</v>
@@ -61721,7 +61722,7 @@
         <v>558</v>
       </c>
       <c r="I467" s="31" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J467" s="31" t="s">
         <v>20</v>
@@ -62157,7 +62158,7 @@
         <v>733</v>
       </c>
       <c r="M471" s="31" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="N471" s="31" t="s">
         <v>239</v>
@@ -62263,10 +62264,10 @@
         <v>733</v>
       </c>
       <c r="M472" s="31" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="N472" s="31" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="O472" s="31" t="s">
         <v>640</v>
@@ -62357,7 +62358,7 @@
         <v>20</v>
       </c>
       <c r="I473" s="31" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="J473" s="31" t="s">
         <v>20</v>
@@ -63417,7 +63418,7 @@
         <v>608</v>
       </c>
       <c r="I483" s="31" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="J483" s="31" t="s">
         <v>20</v>
@@ -63626,7 +63627,7 @@
         <v>612</v>
       </c>
       <c r="H485" s="36" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="I485" s="31" t="s">
         <v>20</v>
@@ -63732,10 +63733,10 @@
         <v>614</v>
       </c>
       <c r="H486" s="36" t="s">
+        <v>2086</v>
+      </c>
+      <c r="I486" s="31" t="s">
         <v>2087</v>
-      </c>
-      <c r="I486" s="31" t="s">
-        <v>2088</v>
       </c>
       <c r="J486" s="31" t="s">
         <v>20</v>
@@ -63947,7 +63948,7 @@
         <v>20</v>
       </c>
       <c r="I488" s="64" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="J488" s="64" t="s">
         <v>20</v>
@@ -64282,7 +64283,7 @@
     </row>
     <row r="7" spans="1:2" ht="18.25" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B7" s="20">
         <v>5</v>
@@ -64306,7 +64307,7 @@
     </row>
     <row r="10" spans="1:2" ht="18.25" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B10" s="20">
         <v>8</v>
@@ -64314,7 +64315,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.25" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B11" s="20">
         <v>9</v>
@@ -64322,7 +64323,7 @@
     </row>
     <row r="12" spans="1:2" ht="18.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B12" s="20">
         <v>10</v>
@@ -64330,7 +64331,7 @@
     </row>
     <row r="13" spans="1:2" ht="18.25" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B13" s="20">
         <v>11</v>
@@ -64346,7 +64347,7 @@
     </row>
     <row r="15" spans="1:2" ht="18.25" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B15" s="20">
         <v>13</v>
@@ -64474,7 +64475,7 @@
     </row>
     <row r="31" spans="1:2" ht="18.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B31" s="20">
         <v>29</v>
@@ -64482,7 +64483,7 @@
     </row>
     <row r="32" spans="1:2" ht="18.25" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B32" s="20">
         <v>30</v>
@@ -64522,7 +64523,7 @@
     </row>
     <row r="37" spans="1:2" ht="18.25" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B37" s="20">
         <v>35</v>
@@ -64530,7 +64531,7 @@
     </row>
     <row r="38" spans="1:2" ht="18.25" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B38" s="20">
         <v>36</v>
@@ -64538,7 +64539,7 @@
     </row>
     <row r="39" spans="1:2" ht="18.25" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B39" s="20">
         <v>37</v>
@@ -64546,7 +64547,7 @@
     </row>
     <row r="40" spans="1:2" ht="18.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B40" s="20">
         <v>38</v>
@@ -64554,7 +64555,7 @@
     </row>
     <row r="41" spans="1:2" ht="18.25" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B41" s="20">
         <v>39</v>
@@ -64570,7 +64571,7 @@
     </row>
     <row r="43" spans="1:2" ht="18.25" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B43" s="20">
         <v>41</v>
@@ -64578,7 +64579,7 @@
     </row>
     <row r="44" spans="1:2" ht="18.25" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B44" s="20">
         <v>42</v>
@@ -64618,7 +64619,7 @@
     </row>
     <row r="49" spans="1:2" ht="18.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B49" s="20">
         <v>47</v>
@@ -64706,7 +64707,7 @@
     </row>
     <row r="60" spans="1:2" ht="18.25" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B60" s="20">
         <v>58</v>
